--- a/Logbook_automated_by_python_testing_backup.xlsx
+++ b/Logbook_automated_by_python_testing_backup.xlsx
@@ -8,32 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e67038fc02b579b/Documenten/GitHub/tidegas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C32668DC-7CC6-4CC8-B0CE-50FC9B9A4CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{46B66ABA-F133-4ECF-B39F-295C030EC6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96F930A0-3915-409C-9FA8-BC0285AB49FF}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="123">
   <si>
     <t>Description</t>
   </si>
@@ -53,7 +40,7 @@
     <t>batch</t>
   </si>
   <si>
-    <t>identifier</t>
+    <t>Corresponding DIC file nr</t>
   </si>
   <si>
     <t xml:space="preserve">notes </t>
@@ -95,6 +82,9 @@
     <t>acid increment extracted</t>
   </si>
   <si>
+    <t>acid added (mL)</t>
+  </si>
+  <si>
     <t>acid increments (mL)</t>
   </si>
   <si>
@@ -125,9 +115,30 @@
     <t>Integrated current  (uAs)</t>
   </si>
   <si>
+    <t>raw DIC umol/L</t>
+  </si>
+  <si>
+    <t>Calculated DIC umol/kg</t>
+  </si>
+  <si>
     <t>Faradays constant</t>
   </si>
   <si>
+    <t>Unnamed: 34</t>
+  </si>
+  <si>
+    <t>Unnamed: 35</t>
+  </si>
+  <si>
+    <t>Unnamed: 36</t>
+  </si>
+  <si>
+    <t>Unnamed: 37</t>
+  </si>
+  <si>
+    <t>Unnamed: 38</t>
+  </si>
+  <si>
     <t>0-0  0  (0)junk-250916-01.dat</t>
   </si>
   <si>
@@ -143,132 +154,132 @@
     <t>not_good</t>
   </si>
   <si>
+    <t>0-0  0  (0)junk-250916-02.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250916-03.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250916-04.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250916-05.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250916-06.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250916-07.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250916-08.dat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell not full </t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250916-09.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250916-10.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250916-11.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250917-01.dat</t>
+  </si>
+  <si>
+    <t>17-Sep</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250917-02.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250917-03.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250917-04.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250917-05.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250917-06.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250917-07.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250917-08.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250917-09.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250917-10.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250917-11.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250917-12.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250918-01.dat</t>
+  </si>
+  <si>
+    <t>18-Sep</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250918-02.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250918-03.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250930-02.dat</t>
+  </si>
+  <si>
+    <t>30-Sep</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250930-03.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250930-04-2_25mL-0_15incrMl.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250930-05-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250930-06-3_15mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250930-07-3_60mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250930-08-4_80mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-250930-09-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251001-01-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>01-Oct</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>0-0  0  (0)junk-250916-02.dat</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250916-03.dat</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250916-04.dat</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250916-05.dat</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250916-06.dat</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250916-07.dat</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250916-08.dat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell not full </t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250916-09.dat</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250916-10.dat</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250916-11.dat</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250917-01.dat</t>
-  </si>
-  <si>
-    <t>17-Sep</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250917-02.dat</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250917-03.dat</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250917-04.dat</t>
+    <t>0-0  0  (0)junk-251001-02-2_25mL-0_15incrmL.dat</t>
   </si>
   <si>
     <t>Reference</t>
   </si>
   <si>
-    <t>0-0  0  (0)junk-250917-05.dat</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250917-06.dat</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250917-07.dat</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250917-08.dat</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250917-09.dat</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250917-10.dat</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250917-11.dat</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250917-12.dat</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250918-01.dat</t>
-  </si>
-  <si>
-    <t>18-Sep</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250918-02.dat</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250918-03.dat</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250930-02.dat</t>
-  </si>
-  <si>
-    <t>30-Sep</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250930-03.dat</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250930-04-2_25mL-0_15incrMl.dat</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250930-05-1_2mL-0_15incrmL.dat</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250930-06-3_15mL-0_15incrmL.dat</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250930-07-3_60mL-0_15incrmL.dat</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250930-08-4_80mL-0_15incrmL.dat</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-250930-09-4_2mL-0_15incrmL.dat</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-251001-01-4_2mL-0_15incrmL.dat</t>
-  </si>
-  <si>
-    <t>01-Oct</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)junk-251001-02-2_25mL-0_15incrmL.dat</t>
-  </si>
-  <si>
     <t>0-0  0  (0)junk-251001-03-1_2mL-0_15incrmL.dat</t>
   </si>
   <si>
@@ -299,13 +310,85 @@
     <t>0-0  0  (0)junk-251001-13-4_2mL-0_15incrmL.dat</t>
   </si>
   <si>
-    <t>acid added (mL)</t>
-  </si>
-  <si>
-    <t>raw DIC umol/L</t>
-  </si>
-  <si>
-    <t>Calculated DIC umol/kg</t>
+    <t>0-0  0  (0)junk-251003-01-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>03-Oct</t>
+  </si>
+  <si>
+    <t>change this!</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251003-02-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251003-03-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251003-04-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251003-05-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251003-07-2_25mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251003-08-2_25mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251003-09-2_25mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251006-01-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>06-Oct</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251006-02-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251006-03-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251006-04-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251006-05-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251006-06-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251006-07-4_2mL-0_15incrmL-0_0min.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251006-08-4_2mL-0_15incrmL-1_0min.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251008-01-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>08-Oct</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251008-02-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251008-03-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251008-04-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251008-05-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251008-06-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251008-07-4_2mL-0_15incrmL.dat</t>
   </si>
 </sst>
 </file>
@@ -324,7 +407,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -382,10 +464,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -673,20 +751,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BH47"/>
+  <dimension ref="A1:AM70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView tabSelected="1" topLeftCell="Q36" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="8" max="8" width="21.77734375" customWidth="1"/>
-    <col min="30" max="30" width="28.77734375" customWidth="1"/>
-    <col min="32" max="32" width="10" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -748,92 +821,81 @@
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="1"/>
-    </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J2">
         <v>21.3</v>
@@ -850,6 +912,12 @@
       <c r="N2">
         <v>2300</v>
       </c>
+      <c r="S2">
+        <v>4.2</v>
+      </c>
+      <c r="T2">
+        <v>0.15</v>
+      </c>
       <c r="U2">
         <v>4.2</v>
       </c>
@@ -860,15 +928,15 @@
         <v>96485.332123</v>
       </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -888,6 +956,12 @@
       <c r="N3">
         <v>2300</v>
       </c>
+      <c r="S3">
+        <v>4.2</v>
+      </c>
+      <c r="T3">
+        <v>0.15</v>
+      </c>
       <c r="U3">
         <v>4.2</v>
       </c>
@@ -907,15 +981,15 @@
         <v>96485.332123</v>
       </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -935,6 +1009,12 @@
       <c r="N4">
         <v>2300</v>
       </c>
+      <c r="S4">
+        <v>4.2</v>
+      </c>
+      <c r="T4">
+        <v>0.15</v>
+      </c>
       <c r="U4">
         <v>4.2</v>
       </c>
@@ -954,15 +1034,15 @@
         <v>96485.332123</v>
       </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -982,6 +1062,12 @@
       <c r="N5">
         <v>2300</v>
       </c>
+      <c r="S5">
+        <v>4.2</v>
+      </c>
+      <c r="T5">
+        <v>0.15</v>
+      </c>
       <c r="U5">
         <v>4.2</v>
       </c>
@@ -1001,15 +1087,15 @@
         <v>96485.332123</v>
       </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1029,6 +1115,12 @@
       <c r="N6">
         <v>2300</v>
       </c>
+      <c r="S6">
+        <v>4.2</v>
+      </c>
+      <c r="T6">
+        <v>0.15</v>
+      </c>
       <c r="U6">
         <v>4.2</v>
       </c>
@@ -1048,15 +1140,15 @@
         <v>96485.332123</v>
       </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1076,6 +1168,12 @@
       <c r="N7">
         <v>2300</v>
       </c>
+      <c r="S7">
+        <v>4.2</v>
+      </c>
+      <c r="T7">
+        <v>0.15</v>
+      </c>
       <c r="U7">
         <v>4.2</v>
       </c>
@@ -1095,15 +1193,15 @@
         <v>96485.332123</v>
       </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1123,6 +1221,12 @@
       <c r="N8">
         <v>2300</v>
       </c>
+      <c r="S8">
+        <v>4.2</v>
+      </c>
+      <c r="T8">
+        <v>0.15</v>
+      </c>
       <c r="U8">
         <v>4.2</v>
       </c>
@@ -1142,24 +1246,24 @@
         <v>96485.332123</v>
       </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J9">
         <v>25.9</v>
@@ -1176,6 +1280,12 @@
       <c r="N9">
         <v>2300</v>
       </c>
+      <c r="S9">
+        <v>4.2</v>
+      </c>
+      <c r="T9">
+        <v>0.15</v>
+      </c>
       <c r="U9">
         <v>4.2</v>
       </c>
@@ -1186,15 +1296,15 @@
         <v>96485.332123</v>
       </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1214,6 +1324,12 @@
       <c r="N10">
         <v>2300</v>
       </c>
+      <c r="S10">
+        <v>4.2</v>
+      </c>
+      <c r="T10">
+        <v>0.15</v>
+      </c>
       <c r="U10">
         <v>4.2</v>
       </c>
@@ -1233,15 +1349,15 @@
         <v>96485.332123</v>
       </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1261,6 +1377,12 @@
       <c r="N11">
         <v>2300</v>
       </c>
+      <c r="S11">
+        <v>4.2</v>
+      </c>
+      <c r="T11">
+        <v>0.15</v>
+      </c>
       <c r="U11">
         <v>4.2</v>
       </c>
@@ -1280,15 +1402,15 @@
         <v>96485.332123</v>
       </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1308,6 +1430,12 @@
       <c r="N12">
         <v>2300</v>
       </c>
+      <c r="S12">
+        <v>4.2</v>
+      </c>
+      <c r="T12">
+        <v>0.15</v>
+      </c>
       <c r="U12">
         <v>4.2</v>
       </c>
@@ -1327,15 +1455,15 @@
         <v>96485.332123</v>
       </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1355,6 +1483,12 @@
       <c r="N13">
         <v>2300</v>
       </c>
+      <c r="S13">
+        <v>4.2</v>
+      </c>
+      <c r="T13">
+        <v>0.15</v>
+      </c>
       <c r="U13">
         <v>4.2</v>
       </c>
@@ -1374,15 +1508,15 @@
         <v>96485.332123</v>
       </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1402,6 +1536,12 @@
       <c r="N14">
         <v>2300</v>
       </c>
+      <c r="S14">
+        <v>4.2</v>
+      </c>
+      <c r="T14">
+        <v>0.15</v>
+      </c>
       <c r="U14">
         <v>4.2</v>
       </c>
@@ -1421,15 +1561,15 @@
         <v>96485.332123</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1449,6 +1589,12 @@
       <c r="N15">
         <v>2300</v>
       </c>
+      <c r="S15">
+        <v>4.2</v>
+      </c>
+      <c r="T15">
+        <v>0.15</v>
+      </c>
       <c r="U15">
         <v>4.2</v>
       </c>
@@ -1468,15 +1614,15 @@
         <v>96485.332123</v>
       </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -1496,6 +1642,12 @@
       <c r="N16">
         <v>2300</v>
       </c>
+      <c r="S16">
+        <v>4.2</v>
+      </c>
+      <c r="T16">
+        <v>0.15</v>
+      </c>
       <c r="U16">
         <v>4.2</v>
       </c>
@@ -1517,13 +1669,13 @@
     </row>
     <row r="17" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -1543,6 +1695,12 @@
       <c r="N17">
         <v>2300</v>
       </c>
+      <c r="S17">
+        <v>4.2</v>
+      </c>
+      <c r="T17">
+        <v>0.15</v>
+      </c>
       <c r="U17">
         <v>4.2</v>
       </c>
@@ -1564,13 +1722,13 @@
     </row>
     <row r="18" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -1590,6 +1748,12 @@
       <c r="N18">
         <v>2300</v>
       </c>
+      <c r="S18">
+        <v>4.2</v>
+      </c>
+      <c r="T18">
+        <v>0.15</v>
+      </c>
       <c r="U18">
         <v>4.2</v>
       </c>
@@ -1611,13 +1775,13 @@
     </row>
     <row r="19" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
         <v>56</v>
       </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E19">
         <v>7</v>
@@ -1637,6 +1801,12 @@
       <c r="N19">
         <v>2300</v>
       </c>
+      <c r="S19">
+        <v>4.2</v>
+      </c>
+      <c r="T19">
+        <v>0.15</v>
+      </c>
       <c r="U19">
         <v>4.2</v>
       </c>
@@ -1658,13 +1828,13 @@
     </row>
     <row r="20" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E20">
         <v>8</v>
@@ -1684,6 +1854,12 @@
       <c r="N20">
         <v>2300</v>
       </c>
+      <c r="S20">
+        <v>4.2</v>
+      </c>
+      <c r="T20">
+        <v>0.15</v>
+      </c>
       <c r="U20">
         <v>4.2</v>
       </c>
@@ -1705,13 +1881,13 @@
     </row>
     <row r="21" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E21">
         <v>9</v>
@@ -1731,6 +1907,12 @@
       <c r="N21">
         <v>2300</v>
       </c>
+      <c r="S21">
+        <v>4.2</v>
+      </c>
+      <c r="T21">
+        <v>0.15</v>
+      </c>
       <c r="U21">
         <v>4.2</v>
       </c>
@@ -1752,19 +1934,19 @@
     </row>
     <row r="22" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E22">
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J22">
         <v>25.2</v>
@@ -1781,6 +1963,12 @@
       <c r="N22">
         <v>2300</v>
       </c>
+      <c r="S22">
+        <v>4.2</v>
+      </c>
+      <c r="T22">
+        <v>0.15</v>
+      </c>
       <c r="U22">
         <v>4.2</v>
       </c>
@@ -1802,13 +1990,13 @@
     </row>
     <row r="23" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E23">
         <v>11</v>
@@ -1828,6 +2016,12 @@
       <c r="N23">
         <v>2300</v>
       </c>
+      <c r="S23">
+        <v>4.2</v>
+      </c>
+      <c r="T23">
+        <v>0.15</v>
+      </c>
       <c r="U23">
         <v>4.2</v>
       </c>
@@ -1849,13 +2043,13 @@
     </row>
     <row r="24" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E24">
         <v>12</v>
@@ -1875,6 +2069,12 @@
       <c r="N24">
         <v>2300</v>
       </c>
+      <c r="S24">
+        <v>4.2</v>
+      </c>
+      <c r="T24">
+        <v>0.15</v>
+      </c>
       <c r="U24">
         <v>4.2</v>
       </c>
@@ -1896,13 +2096,13 @@
     </row>
     <row r="25" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1922,6 +2122,9 @@
       <c r="N25">
         <v>2300</v>
       </c>
+      <c r="T25">
+        <v>0.15</v>
+      </c>
       <c r="V25">
         <v>0.15</v>
       </c>
@@ -1937,13 +2140,13 @@
     </row>
     <row r="26" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -1963,6 +2166,9 @@
       <c r="N26">
         <v>2300</v>
       </c>
+      <c r="T26">
+        <v>0.15</v>
+      </c>
       <c r="V26">
         <v>0.15</v>
       </c>
@@ -1978,13 +2184,13 @@
     </row>
     <row r="27" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2004,6 +2210,9 @@
       <c r="N27">
         <v>2300</v>
       </c>
+      <c r="T27">
+        <v>0.15</v>
+      </c>
       <c r="V27">
         <v>0.15</v>
       </c>
@@ -2016,13 +2225,13 @@
     </row>
     <row r="28" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -2042,6 +2251,12 @@
       <c r="N28">
         <v>2300</v>
       </c>
+      <c r="S28">
+        <v>4.2</v>
+      </c>
+      <c r="T28">
+        <v>0.15</v>
+      </c>
       <c r="U28">
         <v>4.2</v>
       </c>
@@ -2057,13 +2272,13 @@
     </row>
     <row r="29" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2083,6 +2298,12 @@
       <c r="N29">
         <v>2300</v>
       </c>
+      <c r="S29">
+        <v>4.2</v>
+      </c>
+      <c r="T29">
+        <v>0.15</v>
+      </c>
       <c r="U29">
         <v>4.2</v>
       </c>
@@ -2096,7 +2317,7 @@
         <v>2346.1496396958842</v>
       </c>
       <c r="AC29">
-        <v>2.5000000000000001E-2</v>
+        <v>25</v>
       </c>
       <c r="AE29">
         <v>4056255.2</v>
@@ -2107,13 +2328,13 @@
     </row>
     <row r="30" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E30">
         <v>4</v>
@@ -2133,6 +2354,12 @@
       <c r="N30">
         <v>2300</v>
       </c>
+      <c r="S30">
+        <v>2.25</v>
+      </c>
+      <c r="T30">
+        <v>0.15</v>
+      </c>
       <c r="U30">
         <v>2.25</v>
       </c>
@@ -2140,7 +2367,7 @@
         <v>0.15</v>
       </c>
       <c r="AC30">
-        <v>2.5000000000000001E-2</v>
+        <v>25</v>
       </c>
       <c r="AE30">
         <v>4589511.5</v>
@@ -2151,13 +2378,13 @@
     </row>
     <row r="31" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E31">
         <v>5</v>
@@ -2177,6 +2404,12 @@
       <c r="N31">
         <v>2300</v>
       </c>
+      <c r="S31">
+        <v>1.2</v>
+      </c>
+      <c r="T31">
+        <v>0.15</v>
+      </c>
       <c r="U31">
         <v>1.2</v>
       </c>
@@ -2190,7 +2423,7 @@
         <v>293.01038835475441</v>
       </c>
       <c r="AC31">
-        <v>2.5000000000000001E-2</v>
+        <v>25</v>
       </c>
       <c r="AE31">
         <v>5129930.9000000004</v>
@@ -2201,13 +2434,13 @@
     </row>
     <row r="32" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E32">
         <v>6</v>
@@ -2227,6 +2460,12 @@
       <c r="N32">
         <v>2300</v>
       </c>
+      <c r="S32">
+        <v>3.15</v>
+      </c>
+      <c r="T32">
+        <v>0.15</v>
+      </c>
       <c r="U32">
         <v>3.15</v>
       </c>
@@ -2240,7 +2479,7 @@
         <v>2353.9938189586978</v>
       </c>
       <c r="AC32">
-        <v>2.5000000000000001E-2</v>
+        <v>25</v>
       </c>
       <c r="AE32">
         <v>4347129.0999999996</v>
@@ -2251,13 +2490,13 @@
     </row>
     <row r="33" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E33">
         <v>7</v>
@@ -2277,6 +2516,12 @@
       <c r="N33">
         <v>2300</v>
       </c>
+      <c r="S33">
+        <v>3.6</v>
+      </c>
+      <c r="T33">
+        <v>0.15</v>
+      </c>
       <c r="U33">
         <v>3.6</v>
       </c>
@@ -2290,7 +2535,7 @@
         <v>2349.6763792928391</v>
       </c>
       <c r="AC33">
-        <v>2.5000000000000001E-2</v>
+        <v>25</v>
       </c>
       <c r="AE33">
         <v>4140068.8</v>
@@ -2301,13 +2546,13 @@
     </row>
     <row r="34" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
         <v>73</v>
       </c>
-      <c r="C34" t="s">
-        <v>67</v>
-      </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E34">
         <v>8</v>
@@ -2327,6 +2572,12 @@
       <c r="N34">
         <v>2300</v>
       </c>
+      <c r="S34">
+        <v>4.8</v>
+      </c>
+      <c r="T34">
+        <v>0.15</v>
+      </c>
       <c r="U34">
         <v>4.8</v>
       </c>
@@ -2340,7 +2591,7 @@
         <v>2354.5998481166612</v>
       </c>
       <c r="AC34">
-        <v>2.5000000000000001E-2</v>
+        <v>25</v>
       </c>
       <c r="AE34">
         <v>3850424.2</v>
@@ -2351,13 +2602,13 @@
     </row>
     <row r="35" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E35">
         <v>9</v>
@@ -2377,6 +2628,12 @@
       <c r="N35">
         <v>2300</v>
       </c>
+      <c r="S35">
+        <v>4.2</v>
+      </c>
+      <c r="T35">
+        <v>0.15</v>
+      </c>
       <c r="U35">
         <v>4.2</v>
       </c>
@@ -2392,13 +2649,13 @@
     </row>
     <row r="36" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2422,7 +2679,7 @@
         <v>821</v>
       </c>
       <c r="Q36" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="S36">
         <v>4.2</v>
@@ -2443,7 +2700,7 @@
         <v>2353.5751308215899</v>
       </c>
       <c r="AC36">
-        <v>2.5000000000000001E-2</v>
+        <v>25</v>
       </c>
       <c r="AE36">
         <v>3996936.5</v>
@@ -2454,13 +2711,13 @@
     </row>
     <row r="37" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -2484,7 +2741,7 @@
         <v>555</v>
       </c>
       <c r="Q37" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="S37">
         <v>2.25</v>
@@ -2505,7 +2762,7 @@
         <v>1473.4822206123811</v>
       </c>
       <c r="AC37">
-        <v>2.5000000000000001E-2</v>
+        <v>25</v>
       </c>
       <c r="AE37">
         <v>4640377.9000000004</v>
@@ -2523,18 +2780,18 @@
         <v>2297.057543601155</v>
       </c>
       <c r="AM37" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E38">
         <v>3</v>
@@ -2573,7 +2830,7 @@
         <v>316.06099097493518</v>
       </c>
       <c r="AC38">
-        <v>2.5000000000000001E-2</v>
+        <v>25</v>
       </c>
       <c r="AE38">
         <v>5097601</v>
@@ -2591,18 +2848,18 @@
         <v>2284.6445065762809</v>
       </c>
       <c r="AM38" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E39">
         <v>4</v>
@@ -2641,7 +2898,7 @@
         <v>321.52978738815011</v>
       </c>
       <c r="AC39">
-        <v>2.5000000000000001E-2</v>
+        <v>25</v>
       </c>
       <c r="AE39">
         <v>4970468.2</v>
@@ -2655,13 +2912,13 @@
     </row>
     <row r="40" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E40">
         <v>5</v>
@@ -2700,7 +2957,7 @@
         <v>321.95994581450168</v>
       </c>
       <c r="AC40">
-        <v>2.5000000000000001E-2</v>
+        <v>25</v>
       </c>
       <c r="AE40">
         <v>5091844</v>
@@ -2711,13 +2968,13 @@
     </row>
     <row r="41" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E41">
         <v>7</v>
@@ -2741,7 +2998,7 @@
         <v>539</v>
       </c>
       <c r="Q41" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="S41">
         <v>2.25</v>
@@ -2762,7 +3019,7 @@
         <v>1381.2133427804949</v>
       </c>
       <c r="AC41">
-        <v>2.5000000000000001E-2</v>
+        <v>25</v>
       </c>
       <c r="AE41">
         <v>4686458.3</v>
@@ -2773,13 +3030,13 @@
     </row>
     <row r="42" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" t="s">
         <v>82</v>
       </c>
-      <c r="C42" t="s">
-        <v>76</v>
-      </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E42">
         <v>8</v>
@@ -2803,7 +3060,7 @@
         <v>548</v>
       </c>
       <c r="Q42" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="S42">
         <v>2.25</v>
@@ -2824,7 +3081,7 @@
         <v>1378.574262684311</v>
       </c>
       <c r="AC42">
-        <v>2.5000000000000001E-2</v>
+        <v>25</v>
       </c>
       <c r="AE42">
         <v>4664614.5999999996</v>
@@ -2835,13 +3092,13 @@
     </row>
     <row r="43" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E43">
         <v>9</v>
@@ -2865,7 +3122,7 @@
         <v>561</v>
       </c>
       <c r="Q43" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="S43">
         <v>2.25</v>
@@ -2886,7 +3143,7 @@
         <v>1375.7846896123549</v>
       </c>
       <c r="AC43">
-        <v>2.5000000000000001E-2</v>
+        <v>25</v>
       </c>
       <c r="AE43">
         <v>4653102</v>
@@ -2897,13 +3154,13 @@
     </row>
     <row r="44" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E44">
         <v>10</v>
@@ -2945,7 +3202,7 @@
         <v>2371.9008162905789</v>
       </c>
       <c r="AC44">
-        <v>2.5000000000000001E-2</v>
+        <v>25</v>
       </c>
       <c r="AE44">
         <v>4331237</v>
@@ -2956,13 +3213,13 @@
     </row>
     <row r="45" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E45">
         <v>11</v>
@@ -3004,7 +3261,7 @@
         <v>2370.614220229178</v>
       </c>
       <c r="AC45">
-        <v>2.5000000000000001E-2</v>
+        <v>25</v>
       </c>
       <c r="AE45">
         <v>4366788.8</v>
@@ -3015,13 +3272,13 @@
     </row>
     <row r="46" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E46">
         <v>12</v>
@@ -3063,7 +3320,7 @@
         <v>2370.381440353894</v>
       </c>
       <c r="AC46">
-        <v>2.5000000000000001E-2</v>
+        <v>25</v>
       </c>
       <c r="AE46">
         <v>4070656.6</v>
@@ -3074,13 +3331,13 @@
     </row>
     <row r="47" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D47" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E47">
         <v>13</v>
@@ -3119,14 +3376,1259 @@
         <v>2372.426943327805</v>
       </c>
       <c r="AC47">
-        <v>2.5000000000000001E-2</v>
+        <v>25</v>
       </c>
       <c r="AE47">
         <v>4101739.2</v>
       </c>
       <c r="AF47">
-        <f>AE47/(0.025*AH2)</f>
         <v>1700.461245143907</v>
+      </c>
+    </row>
+    <row r="48" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>37</v>
+      </c>
+      <c r="J48">
+        <v>24</v>
+      </c>
+      <c r="K48">
+        <v>170.95</v>
+      </c>
+      <c r="L48">
+        <v>30</v>
+      </c>
+      <c r="M48">
+        <v>0.1</v>
+      </c>
+      <c r="N48">
+        <v>2316</v>
+      </c>
+      <c r="O48" t="s">
+        <v>98</v>
+      </c>
+      <c r="S48">
+        <v>4.2</v>
+      </c>
+      <c r="T48">
+        <v>0.15</v>
+      </c>
+      <c r="U48">
+        <v>4.2</v>
+      </c>
+      <c r="V48">
+        <v>0.15</v>
+      </c>
+      <c r="W48">
+        <v>632.61427340102182</v>
+      </c>
+      <c r="Y48">
+        <v>2144.1953324520978</v>
+      </c>
+      <c r="Z48">
+        <v>2143.31749558193</v>
+      </c>
+      <c r="AC48">
+        <v>20.833333</v>
+      </c>
+      <c r="AE48">
+        <v>3238983</v>
+      </c>
+      <c r="AF48">
+        <v>1611.34530092516</v>
+      </c>
+    </row>
+    <row r="49" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>42</v>
+      </c>
+      <c r="J49">
+        <v>25.9</v>
+      </c>
+      <c r="K49">
+        <v>171.75</v>
+      </c>
+      <c r="L49">
+        <v>30</v>
+      </c>
+      <c r="M49">
+        <v>0.1</v>
+      </c>
+      <c r="N49">
+        <v>2316</v>
+      </c>
+      <c r="O49" t="s">
+        <v>98</v>
+      </c>
+      <c r="S49">
+        <v>4.2</v>
+      </c>
+      <c r="T49">
+        <v>0.15</v>
+      </c>
+      <c r="U49">
+        <v>4.2</v>
+      </c>
+      <c r="V49">
+        <v>0.15</v>
+      </c>
+      <c r="W49">
+        <v>634.85683079114142</v>
+      </c>
+      <c r="Y49">
+        <v>2186.5078206889029</v>
+      </c>
+      <c r="Z49">
+        <v>2187.733454519685</v>
+      </c>
+      <c r="AC49">
+        <v>20.833333</v>
+      </c>
+      <c r="AE49">
+        <v>3156939.1</v>
+      </c>
+      <c r="AF49">
+        <v>1570.52969530618</v>
+      </c>
+    </row>
+    <row r="50" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>25</v>
+      </c>
+      <c r="K50">
+        <v>171.4</v>
+      </c>
+      <c r="L50">
+        <v>30</v>
+      </c>
+      <c r="M50">
+        <v>0.1</v>
+      </c>
+      <c r="N50">
+        <v>2316</v>
+      </c>
+      <c r="O50" t="s">
+        <v>98</v>
+      </c>
+      <c r="S50">
+        <v>4.2</v>
+      </c>
+      <c r="T50">
+        <v>0.15</v>
+      </c>
+      <c r="U50">
+        <v>4.2</v>
+      </c>
+      <c r="V50">
+        <v>0.15</v>
+      </c>
+      <c r="W50">
+        <v>633.58461882023494</v>
+      </c>
+      <c r="Y50">
+        <v>2197.502496978354</v>
+      </c>
+      <c r="Z50">
+        <v>2197.502496978354</v>
+      </c>
+    </row>
+    <row r="51" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <v>46</v>
+      </c>
+      <c r="J51">
+        <v>25.1</v>
+      </c>
+      <c r="K51">
+        <v>171.35</v>
+      </c>
+      <c r="L51">
+        <v>30</v>
+      </c>
+      <c r="M51">
+        <v>0.1</v>
+      </c>
+      <c r="N51">
+        <v>2316</v>
+      </c>
+      <c r="O51" t="s">
+        <v>98</v>
+      </c>
+      <c r="S51">
+        <v>4.2</v>
+      </c>
+      <c r="T51">
+        <v>0.15</v>
+      </c>
+      <c r="U51">
+        <v>4.2</v>
+      </c>
+      <c r="V51">
+        <v>0.15</v>
+      </c>
+      <c r="W51">
+        <v>632.05138898594009</v>
+      </c>
+      <c r="Y51">
+        <v>2334.5448620200191</v>
+      </c>
+      <c r="Z51">
+        <v>2334.678236514013</v>
+      </c>
+      <c r="AC51">
+        <v>20.833333</v>
+      </c>
+      <c r="AE51">
+        <v>3070776.2</v>
+      </c>
+      <c r="AF51">
+        <v>1527.66494917164</v>
+      </c>
+    </row>
+    <row r="52" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>51</v>
+      </c>
+      <c r="J52">
+        <v>25.1</v>
+      </c>
+      <c r="K52">
+        <v>171.1</v>
+      </c>
+      <c r="L52">
+        <v>30</v>
+      </c>
+      <c r="M52">
+        <v>0.1</v>
+      </c>
+      <c r="N52">
+        <v>2316</v>
+      </c>
+      <c r="O52" t="s">
+        <v>98</v>
+      </c>
+      <c r="S52">
+        <v>4.2</v>
+      </c>
+      <c r="T52">
+        <v>0.15</v>
+      </c>
+      <c r="U52">
+        <v>4.2</v>
+      </c>
+      <c r="V52">
+        <v>0.15</v>
+      </c>
+      <c r="W52">
+        <v>632.08729778326051</v>
+      </c>
+      <c r="Y52">
+        <v>2335.2943411657102</v>
+      </c>
+      <c r="Z52">
+        <v>2335.427685555791</v>
+      </c>
+      <c r="AC52">
+        <v>20.833333</v>
+      </c>
+      <c r="AE52">
+        <v>3152471.5</v>
+      </c>
+      <c r="AF52">
+        <v>1568.3071315365</v>
+      </c>
+    </row>
+    <row r="53" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53">
+        <v>7</v>
+      </c>
+      <c r="J53">
+        <v>25.2</v>
+      </c>
+      <c r="K53">
+        <v>170.85</v>
+      </c>
+      <c r="L53">
+        <v>30</v>
+      </c>
+      <c r="M53">
+        <v>0.1</v>
+      </c>
+      <c r="N53">
+        <v>2316</v>
+      </c>
+      <c r="O53" t="s">
+        <v>98</v>
+      </c>
+      <c r="S53">
+        <v>2.25</v>
+      </c>
+      <c r="T53">
+        <v>0.15</v>
+      </c>
+      <c r="U53">
+        <v>2.25</v>
+      </c>
+      <c r="V53">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="54" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54">
+        <v>8</v>
+      </c>
+      <c r="G54">
+        <v>54</v>
+      </c>
+      <c r="J54">
+        <v>25.2</v>
+      </c>
+      <c r="K54">
+        <v>170.35</v>
+      </c>
+      <c r="L54">
+        <v>30</v>
+      </c>
+      <c r="M54">
+        <v>0.1</v>
+      </c>
+      <c r="N54">
+        <v>2316</v>
+      </c>
+      <c r="O54" t="s">
+        <v>98</v>
+      </c>
+      <c r="S54">
+        <v>2.25</v>
+      </c>
+      <c r="T54">
+        <v>0.15</v>
+      </c>
+      <c r="U54">
+        <v>2.25</v>
+      </c>
+      <c r="V54">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="55" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55">
+        <v>9</v>
+      </c>
+      <c r="G55">
+        <v>55</v>
+      </c>
+      <c r="J55">
+        <v>25.2</v>
+      </c>
+      <c r="K55">
+        <v>170.2</v>
+      </c>
+      <c r="L55">
+        <v>30</v>
+      </c>
+      <c r="M55">
+        <v>0.1</v>
+      </c>
+      <c r="N55">
+        <v>2316</v>
+      </c>
+      <c r="O55" t="s">
+        <v>98</v>
+      </c>
+      <c r="S55">
+        <v>2.25</v>
+      </c>
+      <c r="T55">
+        <v>0.15</v>
+      </c>
+      <c r="U55">
+        <v>2.25</v>
+      </c>
+      <c r="V55">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="56" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>59</v>
+      </c>
+      <c r="J56">
+        <v>24.7</v>
+      </c>
+      <c r="K56">
+        <v>170.05</v>
+      </c>
+      <c r="L56">
+        <v>30</v>
+      </c>
+      <c r="M56">
+        <v>0.1</v>
+      </c>
+      <c r="N56">
+        <v>2280</v>
+      </c>
+      <c r="O56" t="s">
+        <v>98</v>
+      </c>
+      <c r="S56">
+        <v>4.2</v>
+      </c>
+      <c r="T56">
+        <v>0.15</v>
+      </c>
+      <c r="U56">
+        <v>4.2</v>
+      </c>
+      <c r="V56">
+        <v>0.15</v>
+      </c>
+      <c r="W56">
+        <v>631.54115521632514</v>
+      </c>
+      <c r="Y56">
+        <v>2295.0304980356809</v>
+      </c>
+    </row>
+    <row r="57" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>61</v>
+      </c>
+      <c r="J57">
+        <v>24.7</v>
+      </c>
+      <c r="K57">
+        <v>169.75</v>
+      </c>
+      <c r="L57">
+        <v>30</v>
+      </c>
+      <c r="M57">
+        <v>0.1</v>
+      </c>
+      <c r="N57">
+        <v>2280</v>
+      </c>
+      <c r="O57" t="s">
+        <v>98</v>
+      </c>
+      <c r="S57">
+        <v>4.2</v>
+      </c>
+      <c r="T57">
+        <v>0.15</v>
+      </c>
+      <c r="U57">
+        <v>4.2</v>
+      </c>
+      <c r="V57">
+        <v>0.15</v>
+      </c>
+      <c r="W57">
+        <v>631.66140214666757</v>
+      </c>
+      <c r="Y57">
+        <v>2301.8384531650458</v>
+      </c>
+    </row>
+    <row r="58" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>62</v>
+      </c>
+      <c r="J58">
+        <v>25.2</v>
+      </c>
+      <c r="K58">
+        <v>169.9</v>
+      </c>
+      <c r="L58">
+        <v>30</v>
+      </c>
+      <c r="M58">
+        <v>0.1</v>
+      </c>
+      <c r="N58">
+        <v>2280</v>
+      </c>
+      <c r="O58" t="s">
+        <v>98</v>
+      </c>
+      <c r="S58">
+        <v>4.2</v>
+      </c>
+      <c r="T58">
+        <v>0.15</v>
+      </c>
+      <c r="U58">
+        <v>4.2</v>
+      </c>
+      <c r="V58">
+        <v>0.15</v>
+      </c>
+      <c r="W58">
+        <v>632.01025337810415</v>
+      </c>
+      <c r="Y58">
+        <v>2302.0758407055969</v>
+      </c>
+    </row>
+    <row r="59" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>63</v>
+      </c>
+      <c r="J59">
+        <v>25.2</v>
+      </c>
+      <c r="K59">
+        <v>169.75</v>
+      </c>
+      <c r="L59">
+        <v>30</v>
+      </c>
+      <c r="M59">
+        <v>0.1</v>
+      </c>
+      <c r="N59">
+        <v>2280</v>
+      </c>
+      <c r="O59" t="s">
+        <v>98</v>
+      </c>
+      <c r="S59">
+        <v>4.2</v>
+      </c>
+      <c r="T59">
+        <v>0.15</v>
+      </c>
+      <c r="U59">
+        <v>4.2</v>
+      </c>
+      <c r="V59">
+        <v>0.15</v>
+      </c>
+      <c r="W59">
+        <v>631.95860521483712</v>
+      </c>
+      <c r="Y59">
+        <v>2301.0539740141749</v>
+      </c>
+    </row>
+    <row r="60" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="G60">
+        <v>64</v>
+      </c>
+      <c r="J60">
+        <v>25.1</v>
+      </c>
+      <c r="K60">
+        <v>169.75</v>
+      </c>
+      <c r="L60">
+        <v>30</v>
+      </c>
+      <c r="M60">
+        <v>0.1</v>
+      </c>
+      <c r="N60">
+        <v>2280</v>
+      </c>
+      <c r="O60" t="s">
+        <v>98</v>
+      </c>
+      <c r="S60">
+        <v>4.2</v>
+      </c>
+      <c r="T60">
+        <v>0.15</v>
+      </c>
+      <c r="U60">
+        <v>4.2</v>
+      </c>
+      <c r="V60">
+        <v>0.15</v>
+      </c>
+      <c r="W60">
+        <v>631.95773256193331</v>
+      </c>
+      <c r="Y60">
+        <v>2299.9137965893578</v>
+      </c>
+    </row>
+    <row r="61" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61">
+        <v>6</v>
+      </c>
+      <c r="G61">
+        <v>65</v>
+      </c>
+      <c r="J61">
+        <v>25.1</v>
+      </c>
+      <c r="K61">
+        <v>169.65</v>
+      </c>
+      <c r="L61">
+        <v>30</v>
+      </c>
+      <c r="M61">
+        <v>0.1</v>
+      </c>
+      <c r="N61">
+        <v>2280</v>
+      </c>
+      <c r="O61" t="s">
+        <v>98</v>
+      </c>
+      <c r="S61">
+        <v>4.2</v>
+      </c>
+      <c r="T61">
+        <v>0.15</v>
+      </c>
+      <c r="U61">
+        <v>4.2</v>
+      </c>
+      <c r="V61">
+        <v>0.15</v>
+      </c>
+      <c r="W61">
+        <v>631.89276175656516</v>
+      </c>
+      <c r="Y61">
+        <v>2297.0464505237592</v>
+      </c>
+    </row>
+    <row r="62" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62">
+        <v>7</v>
+      </c>
+      <c r="G62">
+        <v>66</v>
+      </c>
+      <c r="J62">
+        <v>25.1</v>
+      </c>
+      <c r="K62">
+        <v>169.5</v>
+      </c>
+      <c r="L62">
+        <v>30</v>
+      </c>
+      <c r="M62">
+        <v>0.1</v>
+      </c>
+      <c r="N62">
+        <v>2280</v>
+      </c>
+      <c r="O62" t="s">
+        <v>98</v>
+      </c>
+      <c r="S62">
+        <v>4.2</v>
+      </c>
+      <c r="T62">
+        <v>0.15</v>
+      </c>
+      <c r="U62">
+        <v>4.2</v>
+      </c>
+      <c r="V62">
+        <v>0.15</v>
+      </c>
+      <c r="W62">
+        <v>631.9037751258827</v>
+      </c>
+      <c r="Y62">
+        <v>2300.4511879227612</v>
+      </c>
+    </row>
+    <row r="63" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" t="s">
+        <v>41</v>
+      </c>
+      <c r="E63">
+        <v>8</v>
+      </c>
+      <c r="G63">
+        <v>67</v>
+      </c>
+      <c r="J63">
+        <v>25.1</v>
+      </c>
+      <c r="K63">
+        <v>169.55</v>
+      </c>
+      <c r="L63">
+        <v>30</v>
+      </c>
+      <c r="M63">
+        <v>0.1</v>
+      </c>
+      <c r="N63">
+        <v>2280</v>
+      </c>
+      <c r="O63" t="s">
+        <v>98</v>
+      </c>
+      <c r="S63">
+        <v>4.2</v>
+      </c>
+      <c r="T63">
+        <v>0.15</v>
+      </c>
+      <c r="U63">
+        <v>4.2</v>
+      </c>
+      <c r="V63">
+        <v>0.15</v>
+      </c>
+      <c r="W63">
+        <v>631.90650742590651</v>
+      </c>
+      <c r="Y63">
+        <v>2299.3528756602191</v>
+      </c>
+    </row>
+    <row r="64" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" t="s">
+        <v>41</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>72</v>
+      </c>
+      <c r="J64">
+        <v>25.1</v>
+      </c>
+      <c r="K64">
+        <v>167.75</v>
+      </c>
+      <c r="L64">
+        <v>30</v>
+      </c>
+      <c r="M64">
+        <v>0.1</v>
+      </c>
+      <c r="N64">
+        <v>2265</v>
+      </c>
+      <c r="O64" t="s">
+        <v>98</v>
+      </c>
+      <c r="S64">
+        <v>4.2</v>
+      </c>
+      <c r="T64">
+        <v>0.15</v>
+      </c>
+      <c r="U64">
+        <v>4.2</v>
+      </c>
+      <c r="V64">
+        <v>0.15</v>
+      </c>
+      <c r="W64">
+        <v>631.86939453180707</v>
+      </c>
+      <c r="Y64">
+        <v>2297.1001762973542</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" t="s">
+        <v>41</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>74</v>
+      </c>
+      <c r="J65">
+        <v>25.1</v>
+      </c>
+      <c r="K65">
+        <v>167.85</v>
+      </c>
+      <c r="L65">
+        <v>30</v>
+      </c>
+      <c r="M65">
+        <v>0.1</v>
+      </c>
+      <c r="N65">
+        <v>2265</v>
+      </c>
+      <c r="O65" t="s">
+        <v>98</v>
+      </c>
+      <c r="S65">
+        <v>4.2</v>
+      </c>
+      <c r="T65">
+        <v>0.15</v>
+      </c>
+      <c r="U65">
+        <v>4.2</v>
+      </c>
+      <c r="V65">
+        <v>0.15</v>
+      </c>
+      <c r="W65">
+        <v>631.84489790527266</v>
+      </c>
+      <c r="Y65">
+        <v>2297.322107195424</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>75</v>
+      </c>
+      <c r="J66">
+        <v>25.1</v>
+      </c>
+      <c r="K66">
+        <v>167.55</v>
+      </c>
+      <c r="L66">
+        <v>30</v>
+      </c>
+      <c r="M66">
+        <v>0.1</v>
+      </c>
+      <c r="N66">
+        <v>2265</v>
+      </c>
+      <c r="O66" t="s">
+        <v>98</v>
+      </c>
+      <c r="S66">
+        <v>4.2</v>
+      </c>
+      <c r="T66">
+        <v>0.15</v>
+      </c>
+      <c r="U66">
+        <v>4.2</v>
+      </c>
+      <c r="V66">
+        <v>0.15</v>
+      </c>
+      <c r="W66">
+        <v>631.85341623166232</v>
+      </c>
+      <c r="Y66">
+        <v>2298.1080543003659</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" t="s">
+        <v>116</v>
+      </c>
+      <c r="D67" t="s">
+        <v>41</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+      <c r="G67">
+        <v>77</v>
+      </c>
+      <c r="J67">
+        <v>25.2</v>
+      </c>
+      <c r="K67">
+        <v>167.55</v>
+      </c>
+      <c r="L67">
+        <v>30</v>
+      </c>
+      <c r="M67">
+        <v>0.1</v>
+      </c>
+      <c r="N67">
+        <v>2265</v>
+      </c>
+      <c r="O67" t="s">
+        <v>98</v>
+      </c>
+      <c r="S67">
+        <v>4.2</v>
+      </c>
+      <c r="T67">
+        <v>0.15</v>
+      </c>
+      <c r="U67">
+        <v>4.2</v>
+      </c>
+      <c r="V67">
+        <v>0.15</v>
+      </c>
+      <c r="W67">
+        <v>631.93929532282596</v>
+      </c>
+      <c r="Y67">
+        <v>2298.9700802401212</v>
+      </c>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+      <c r="G68">
+        <v>79</v>
+      </c>
+      <c r="J68">
+        <v>25.2</v>
+      </c>
+      <c r="K68">
+        <v>167.4</v>
+      </c>
+      <c r="L68">
+        <v>30</v>
+      </c>
+      <c r="M68">
+        <v>0.1</v>
+      </c>
+      <c r="N68">
+        <v>2265</v>
+      </c>
+      <c r="O68" t="s">
+        <v>98</v>
+      </c>
+      <c r="S68">
+        <v>4.2</v>
+      </c>
+      <c r="T68">
+        <v>0.15</v>
+      </c>
+      <c r="U68">
+        <v>4.2</v>
+      </c>
+      <c r="V68">
+        <v>0.15</v>
+      </c>
+      <c r="W68">
+        <v>632.0255973355537</v>
+      </c>
+      <c r="Y68">
+        <v>2303.2723704869331</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69">
+        <v>6</v>
+      </c>
+      <c r="G69">
+        <v>80</v>
+      </c>
+      <c r="J69">
+        <v>25.1</v>
+      </c>
+      <c r="K69">
+        <v>166.65</v>
+      </c>
+      <c r="L69">
+        <v>30</v>
+      </c>
+      <c r="M69">
+        <v>0.1</v>
+      </c>
+      <c r="N69">
+        <v>2265</v>
+      </c>
+      <c r="O69" t="s">
+        <v>98</v>
+      </c>
+      <c r="S69">
+        <v>4.2</v>
+      </c>
+      <c r="T69">
+        <v>0.15</v>
+      </c>
+      <c r="U69">
+        <v>4.2</v>
+      </c>
+      <c r="V69">
+        <v>0.15</v>
+      </c>
+      <c r="W69">
+        <v>631.91351123089294</v>
+      </c>
+      <c r="Y69">
+        <v>2309.3362065417741</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" t="s">
+        <v>116</v>
+      </c>
+      <c r="D70" t="s">
+        <v>41</v>
+      </c>
+      <c r="E70">
+        <v>7</v>
+      </c>
+      <c r="G70">
+        <v>81</v>
+      </c>
+      <c r="J70">
+        <v>25.2</v>
+      </c>
+      <c r="K70">
+        <v>166.35</v>
+      </c>
+      <c r="L70">
+        <v>30</v>
+      </c>
+      <c r="M70">
+        <v>0.1</v>
+      </c>
+      <c r="N70">
+        <v>2265</v>
+      </c>
+      <c r="O70" t="s">
+        <v>98</v>
+      </c>
+      <c r="S70">
+        <v>4.2</v>
+      </c>
+      <c r="T70">
+        <v>0.15</v>
+      </c>
+      <c r="U70">
+        <v>4.2</v>
+      </c>
+      <c r="V70">
+        <v>0.15</v>
+      </c>
+      <c r="W70">
+        <v>632.0035126698524</v>
+      </c>
+      <c r="Y70">
+        <v>2298.9867016215999</v>
       </c>
     </row>
   </sheetData>

--- a/Logbook_automated_by_python_testing_backup.xlsx
+++ b/Logbook_automated_by_python_testing_backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e67038fc02b579b/Documenten/GitHub/tidegas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{46B66ABA-F133-4ECF-B39F-295C030EC6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96F930A0-3915-409C-9FA8-BC0285AB49FF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45D3000E-163F-4684-A069-9F2C8832907D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="134">
   <si>
     <t>Description</t>
   </si>
@@ -61,16 +61,19 @@
     <t>Titrant Molinity</t>
   </si>
   <si>
-    <t>Reference DIC (ug/kg)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start time </t>
-  </si>
-  <si>
-    <t>end time</t>
-  </si>
-  <si>
-    <t>duration (seconds)</t>
+    <t>Reference DIC (umol/L)</t>
+  </si>
+  <si>
+    <t>Reference DIC (umol/kg)</t>
+  </si>
+  <si>
+    <t>Calculated DIC (umol/kg)</t>
+  </si>
+  <si>
+    <t>waiting time (minutes)</t>
+  </si>
+  <si>
+    <t>Titration duration (seconds)</t>
   </si>
   <si>
     <t>detailed timings?</t>
@@ -112,31 +115,16 @@
     <t>Reference (0 acid) integraded current uAs</t>
   </si>
   <si>
-    <t>Integrated current  (uAs)</t>
-  </si>
-  <si>
-    <t>raw DIC umol/L</t>
-  </si>
-  <si>
-    <t>Calculated DIC umol/kg</t>
-  </si>
-  <si>
-    <t>Faradays constant</t>
-  </si>
-  <si>
-    <t>Unnamed: 34</t>
-  </si>
-  <si>
-    <t>Unnamed: 35</t>
-  </si>
-  <si>
-    <t>Unnamed: 36</t>
-  </si>
-  <si>
-    <t>Unnamed: 37</t>
-  </si>
-  <si>
-    <t>Unnamed: 38</t>
+    <t>Unnamed: 31</t>
+  </si>
+  <si>
+    <t>Unnamed: 32</t>
+  </si>
+  <si>
+    <t>Calculated DIC umol/L)</t>
+  </si>
+  <si>
+    <t>Calculated DIC (umol/L)</t>
   </si>
   <si>
     <t>0-0  0  (0)junk-250916-01.dat</t>
@@ -154,6 +142,9 @@
     <t>not_good</t>
   </si>
   <si>
+    <t>backup 10_10</t>
+  </si>
+  <si>
     <t>0-0  0  (0)junk-250916-02.dat</t>
   </si>
   <si>
@@ -277,9 +268,6 @@
     <t>0-0  0  (0)junk-251001-02-2_25mL-0_15incrmL.dat</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
     <t>0-0  0  (0)junk-251001-03-1_2mL-0_15incrmL.dat</t>
   </si>
   <si>
@@ -316,9 +304,6 @@
     <t>03-Oct</t>
   </si>
   <si>
-    <t>change this!</t>
-  </si>
-  <si>
     <t>0-0  0  (0)junk-251003-02-4_2mL-0_15incrmL.dat</t>
   </si>
   <si>
@@ -389,6 +374,54 @@
   </si>
   <si>
     <t>0-0  0  (0)junk-251008-07-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251009-01-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>09-Oct</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251009-02-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251009-03-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251009-04-4_2mL-4_2incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251009-05-4_2mL-4_2incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251009-06-4_2mL-4_2incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251009-07-4_2mL-4_2incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251009-08-4_2mL-4_2incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251009-09-4_2mL-4_2incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251009-10-4_2mL-4_2incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251009-11-4_2mL-4_2incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251009-12-4_2mL-4_2incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251009-13-4_2mL-4_2incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251009-14-4_2mL-4_2incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251009-15-4_2mL-4_2incrmL.dat</t>
   </si>
 </sst>
 </file>
@@ -751,15 +784,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM70"/>
+  <dimension ref="A1:AI85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q36" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -865,37 +898,25 @@
       <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J2">
         <v>21.3</v>
@@ -912,31 +933,28 @@
       <c r="N2">
         <v>2300</v>
       </c>
-      <c r="S2">
-        <v>4.2</v>
-      </c>
-      <c r="T2">
-        <v>0.15</v>
-      </c>
-      <c r="U2">
-        <v>4.2</v>
+      <c r="O2">
+        <v>2347.4122565339521</v>
       </c>
       <c r="V2">
-        <v>0.15</v>
-      </c>
-      <c r="AH2">
-        <v>96485.332123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+        <v>4.2</v>
+      </c>
+      <c r="W2">
+        <v>0.15</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -956,40 +974,34 @@
       <c r="N3">
         <v>2300</v>
       </c>
-      <c r="S3">
-        <v>4.2</v>
-      </c>
-      <c r="T3">
-        <v>0.15</v>
-      </c>
-      <c r="U3">
-        <v>4.2</v>
+      <c r="O3">
+        <v>2344.3868329235411</v>
       </c>
       <c r="V3">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W3">
-        <v>634.63099687729891</v>
-      </c>
-      <c r="Y3">
-        <v>2479.6198341980248</v>
+        <v>0.15</v>
+      </c>
+      <c r="X3">
+        <v>634.63549706434333</v>
       </c>
       <c r="Z3">
-        <v>2480.8330047934478</v>
-      </c>
-      <c r="AH3">
-        <v>96485.332123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+        <v>2479.862851630111</v>
+      </c>
+      <c r="AA3">
+        <v>2479.862851630111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1009,40 +1021,34 @@
       <c r="N4">
         <v>2300</v>
       </c>
-      <c r="S4">
-        <v>4.2</v>
-      </c>
-      <c r="T4">
-        <v>0.15</v>
-      </c>
-      <c r="U4">
-        <v>4.2</v>
+      <c r="O4">
+        <v>2344.3868329235411</v>
       </c>
       <c r="V4">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W4">
-        <v>634.10452133248555</v>
-      </c>
-      <c r="Y4">
-        <v>2465.0561969677628</v>
+        <v>0.15</v>
+      </c>
+      <c r="X4">
+        <v>634.1088434876624</v>
       </c>
       <c r="Z4">
-        <v>2466.305071712774</v>
-      </c>
-      <c r="AH4">
-        <v>96485.332123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+        <v>2465.2934202797192</v>
+      </c>
+      <c r="AA4">
+        <v>2465.2934202797192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1062,40 +1068,34 @@
       <c r="N5">
         <v>2300</v>
       </c>
-      <c r="S5">
-        <v>4.2</v>
-      </c>
-      <c r="T5">
-        <v>0.15</v>
-      </c>
-      <c r="U5">
-        <v>4.2</v>
+      <c r="O5">
+        <v>2344.3868329235411</v>
       </c>
       <c r="V5">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W5">
-        <v>633.65667660847907</v>
-      </c>
-      <c r="Y5">
-        <v>2462.0952016550468</v>
+        <v>0.15</v>
+      </c>
+      <c r="X5">
+        <v>633.66094108923369</v>
       </c>
       <c r="Z5">
-        <v>2463.3601185301532</v>
-      </c>
-      <c r="AH5">
-        <v>96485.332123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+        <v>2462.3304229744158</v>
+      </c>
+      <c r="AA5">
+        <v>2462.3304229744158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1115,40 +1115,34 @@
       <c r="N6">
         <v>2300</v>
       </c>
-      <c r="S6">
-        <v>4.2</v>
-      </c>
-      <c r="T6">
-        <v>0.15</v>
-      </c>
-      <c r="U6">
-        <v>4.2</v>
+      <c r="O6">
+        <v>2344.3167084417332</v>
       </c>
       <c r="V6">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W6">
-        <v>633.79616941716108</v>
-      </c>
-      <c r="Y6">
-        <v>2463.2785124089828</v>
+        <v>0.15</v>
+      </c>
+      <c r="X6">
+        <v>633.80044866547451</v>
       </c>
       <c r="Z6">
-        <v>2464.6783328184151</v>
-      </c>
-      <c r="AH6">
-        <v>96485.332123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+        <v>2463.5141996718589</v>
+      </c>
+      <c r="AA6">
+        <v>2463.5141996718589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1168,40 +1162,34 @@
       <c r="N7">
         <v>2300</v>
       </c>
-      <c r="S7">
-        <v>4.2</v>
-      </c>
-      <c r="T7">
-        <v>0.15</v>
-      </c>
-      <c r="U7">
-        <v>4.2</v>
+      <c r="O7">
+        <v>2344.3868329235411</v>
       </c>
       <c r="V7">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W7">
-        <v>633.60487914459236</v>
-      </c>
-      <c r="Y7">
-        <v>2469.4351669244979</v>
+        <v>0.15</v>
+      </c>
+      <c r="X7">
+        <v>633.60926567077172</v>
       </c>
       <c r="Z7">
-        <v>2470.6688480338839</v>
-      </c>
-      <c r="AH7">
-        <v>96485.332123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+        <v>2469.6745521141011</v>
+      </c>
+      <c r="AA7">
+        <v>2469.6745521141011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1221,49 +1209,43 @@
       <c r="N8">
         <v>2300</v>
       </c>
-      <c r="S8">
-        <v>4.2</v>
-      </c>
-      <c r="T8">
-        <v>0.15</v>
-      </c>
-      <c r="U8">
-        <v>4.2</v>
+      <c r="O8">
+        <v>2344.3167084417332</v>
       </c>
       <c r="V8">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W8">
-        <v>633.80577511308525</v>
-      </c>
-      <c r="Y8">
-        <v>2471.5820131893788</v>
+        <v>0.15</v>
+      </c>
+      <c r="X8">
+        <v>633.81019846220738</v>
       </c>
       <c r="Z8">
-        <v>2472.943848697912</v>
-      </c>
-      <c r="AH8">
-        <v>96485.332123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+        <v>2471.8226196883761</v>
+      </c>
+      <c r="AA8">
+        <v>2471.8226196883761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J9">
         <v>25.9</v>
@@ -1280,31 +1262,25 @@
       <c r="N9">
         <v>2300</v>
       </c>
-      <c r="S9">
-        <v>4.2</v>
-      </c>
-      <c r="T9">
-        <v>0.15</v>
-      </c>
-      <c r="U9">
-        <v>4.2</v>
+      <c r="O9">
+        <v>2344.3868329235411</v>
       </c>
       <c r="V9">
-        <v>0.15</v>
-      </c>
-      <c r="AH9">
-        <v>96485.332123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+        <v>4.2</v>
+      </c>
+      <c r="W9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1324,40 +1300,34 @@
       <c r="N10">
         <v>2300</v>
       </c>
-      <c r="S10">
-        <v>4.2</v>
-      </c>
-      <c r="T10">
-        <v>0.15</v>
-      </c>
-      <c r="U10">
-        <v>4.2</v>
+      <c r="O10">
+        <v>2344.3167084417332</v>
       </c>
       <c r="V10">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W10">
-        <v>633.81023214963614</v>
-      </c>
-      <c r="Y10">
-        <v>2461.2116622787239</v>
+        <v>0.15</v>
+      </c>
+      <c r="X10">
+        <v>633.81449043543716</v>
       </c>
       <c r="Z10">
-        <v>2462.6199479465008</v>
-      </c>
-      <c r="AH10">
-        <v>96485.332123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+        <v>2461.4462583734339</v>
+      </c>
+      <c r="AA10">
+        <v>2461.4462583734339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1377,40 +1347,34 @@
       <c r="N11">
         <v>2300</v>
       </c>
-      <c r="S11">
-        <v>4.2</v>
-      </c>
-      <c r="T11">
-        <v>0.15</v>
-      </c>
-      <c r="U11">
-        <v>4.2</v>
+      <c r="O11">
+        <v>2344.3167084417332</v>
       </c>
       <c r="V11">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W11">
-        <v>633.93290905613537</v>
-      </c>
-      <c r="Y11">
-        <v>2451.293749336804</v>
+        <v>0.15</v>
+      </c>
+      <c r="X11">
+        <v>633.93701992104366</v>
       </c>
       <c r="Z11">
-        <v>2452.738872422045</v>
-      </c>
-      <c r="AH11">
-        <v>96485.332123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+        <v>2451.5237230920138</v>
+      </c>
+      <c r="AA11">
+        <v>2451.5237230920138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1430,40 +1394,34 @@
       <c r="N12">
         <v>2300</v>
       </c>
-      <c r="S12">
-        <v>4.2</v>
-      </c>
-      <c r="T12">
-        <v>0.15</v>
-      </c>
-      <c r="U12">
-        <v>4.2</v>
+      <c r="O12">
+        <v>2344.3167084417332</v>
       </c>
       <c r="V12">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W12">
-        <v>634.13598330989282</v>
-      </c>
-      <c r="Y12">
-        <v>2450.9733882057199</v>
+        <v>0.15</v>
+      </c>
+      <c r="X12">
+        <v>634.14006267219179</v>
       </c>
       <c r="Z12">
-        <v>2452.427789110056</v>
-      </c>
-      <c r="AH12">
-        <v>96485.332123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+        <v>2451.2024910089672</v>
+      </c>
+      <c r="AA12">
+        <v>2451.2024910089672</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1483,40 +1441,34 @@
       <c r="N13">
         <v>2300</v>
       </c>
-      <c r="S13">
-        <v>4.2</v>
-      </c>
-      <c r="T13">
-        <v>0.15</v>
-      </c>
-      <c r="U13">
-        <v>4.2</v>
+      <c r="O13">
+        <v>2345.1461936584469</v>
       </c>
       <c r="V13">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W13">
-        <v>635.62796300211505</v>
-      </c>
-      <c r="Y13">
-        <v>2369.100115903098</v>
+        <v>0.15</v>
+      </c>
+      <c r="X13">
+        <v>635.63349437278703</v>
       </c>
       <c r="Z13">
-        <v>2368.8679078452992</v>
-      </c>
-      <c r="AH13">
-        <v>96485.332123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+        <v>2369.3780487071572</v>
+      </c>
+      <c r="AA13">
+        <v>2369.3780487071572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1536,40 +1488,34 @@
       <c r="N14">
         <v>2300</v>
       </c>
-      <c r="S14">
-        <v>4.2</v>
-      </c>
-      <c r="T14">
-        <v>0.15</v>
-      </c>
-      <c r="U14">
-        <v>4.2</v>
+      <c r="O14">
+        <v>2345.0097739687212</v>
       </c>
       <c r="V14">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W14">
-        <v>634.88962071946457</v>
-      </c>
-      <c r="Y14">
-        <v>2378.588585063505</v>
+        <v>0.15</v>
+      </c>
+      <c r="X14">
+        <v>634.89537699070604</v>
       </c>
       <c r="Z14">
-        <v>2378.588585063505</v>
-      </c>
-      <c r="AH14">
-        <v>96485.332123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+        <v>2378.8736734566478</v>
+      </c>
+      <c r="AA14">
+        <v>2378.8736734566478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1589,40 +1535,34 @@
       <c r="N15">
         <v>2300</v>
       </c>
-      <c r="S15">
-        <v>4.2</v>
-      </c>
-      <c r="T15">
-        <v>0.15</v>
-      </c>
-      <c r="U15">
-        <v>4.2</v>
+      <c r="O15">
+        <v>2344.9412886854302</v>
       </c>
       <c r="V15">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W15">
-        <v>635.7973952407948</v>
-      </c>
-      <c r="Y15">
-        <v>2378.671600932701</v>
+        <v>0.15</v>
+      </c>
+      <c r="X15">
+        <v>635.80315440070729</v>
       </c>
       <c r="Z15">
-        <v>2378.7836612974579</v>
-      </c>
-      <c r="AH15">
-        <v>96485.332123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+        <v>2378.956755541758</v>
+      </c>
+      <c r="AA15">
+        <v>2378.956755541758</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -1642,40 +1582,34 @@
       <c r="N16">
         <v>2300</v>
       </c>
-      <c r="S16">
-        <v>4.2</v>
-      </c>
-      <c r="T16">
-        <v>0.15</v>
-      </c>
-      <c r="U16">
-        <v>4.2</v>
+      <c r="O16">
+        <v>2344.8726201522659</v>
       </c>
       <c r="V16">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W16">
-        <v>635.22566694086993</v>
-      </c>
-      <c r="Y16">
-        <v>2379.4923501751409</v>
+        <v>0.15</v>
+      </c>
+      <c r="X16">
+        <v>635.23147355289848</v>
       </c>
       <c r="Z16">
-        <v>2379.7145675521101</v>
-      </c>
-      <c r="AH16">
-        <v>96485.332123</v>
-      </c>
-    </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.3">
+        <v>2379.7790873880422</v>
+      </c>
+      <c r="AA16">
+        <v>2379.7790873880422</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -1695,40 +1629,34 @@
       <c r="N17">
         <v>2300</v>
       </c>
-      <c r="S17">
-        <v>4.2</v>
-      </c>
-      <c r="T17">
-        <v>0.15</v>
-      </c>
-      <c r="U17">
-        <v>4.2</v>
+      <c r="O17">
+        <v>2344.8726201522659</v>
       </c>
       <c r="V17">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W17">
-        <v>634.99785044230418</v>
-      </c>
-      <c r="Y17">
-        <v>2380.1405290242369</v>
+        <v>0.15</v>
+      </c>
+      <c r="X17">
+        <v>635.00365300035764</v>
       </c>
       <c r="Z17">
-        <v>2380.3633254358929</v>
-      </c>
-      <c r="AH17">
-        <v>96485.332123</v>
-      </c>
-    </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.3">
+        <v>2380.427060397808</v>
+      </c>
+      <c r="AA17">
+        <v>2380.427060397808</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -1748,40 +1676,34 @@
       <c r="N18">
         <v>2300</v>
       </c>
-      <c r="S18">
-        <v>4.2</v>
-      </c>
-      <c r="T18">
-        <v>0.15</v>
-      </c>
-      <c r="U18">
-        <v>4.2</v>
+      <c r="O18">
+        <v>2344.8726201522659</v>
       </c>
       <c r="V18">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W18">
-        <v>634.12275170294572</v>
-      </c>
-      <c r="Y18">
-        <v>2382.832307525784</v>
+        <v>0.15</v>
+      </c>
+      <c r="X18">
+        <v>634.12865453093514</v>
       </c>
       <c r="Z18">
-        <v>2383.0509622805612</v>
-      </c>
-      <c r="AH18">
-        <v>96485.332123</v>
-      </c>
-    </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
+        <v>2383.1221525679371</v>
+      </c>
+      <c r="AA18">
+        <v>2383.1221525679371</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E19">
         <v>7</v>
@@ -1801,40 +1723,34 @@
       <c r="N19">
         <v>2300</v>
       </c>
-      <c r="S19">
-        <v>4.2</v>
-      </c>
-      <c r="T19">
-        <v>0.15</v>
-      </c>
-      <c r="U19">
-        <v>4.2</v>
+      <c r="O19">
+        <v>2344.8726201522659</v>
       </c>
       <c r="V19">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W19">
-        <v>633.83053814862444</v>
-      </c>
-      <c r="Y19">
-        <v>2382.002284193682</v>
+        <v>0.15</v>
+      </c>
+      <c r="X19">
+        <v>633.83640017449125</v>
       </c>
       <c r="Z19">
-        <v>2382.2228506305119</v>
-      </c>
-      <c r="AH19">
-        <v>96485.332123</v>
-      </c>
-    </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
+        <v>2382.290757545321</v>
+      </c>
+      <c r="AA19">
+        <v>2382.290757545321</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E20">
         <v>8</v>
@@ -1854,40 +1770,34 @@
       <c r="N20">
         <v>2300</v>
       </c>
-      <c r="S20">
-        <v>4.2</v>
-      </c>
-      <c r="T20">
-        <v>0.15</v>
-      </c>
-      <c r="U20">
-        <v>4.2</v>
+      <c r="O20">
+        <v>2344.8726201522659</v>
       </c>
       <c r="V20">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W20">
-        <v>633.60881395673073</v>
-      </c>
-      <c r="Y20">
-        <v>2381.8024935064932</v>
+        <v>0.15</v>
+      </c>
+      <c r="X20">
+        <v>633.61465501383464</v>
       </c>
       <c r="Z20">
-        <v>2382.0240580926011</v>
-      </c>
-      <c r="AH20">
-        <v>96485.332123</v>
-      </c>
-    </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.3">
+        <v>2382.0903488719409</v>
+      </c>
+      <c r="AA20">
+        <v>2382.0903488719409</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E21">
         <v>9</v>
@@ -1907,46 +1817,40 @@
       <c r="N21">
         <v>2300</v>
       </c>
-      <c r="S21">
-        <v>4.2</v>
-      </c>
-      <c r="T21">
-        <v>0.15</v>
-      </c>
-      <c r="U21">
-        <v>4.2</v>
+      <c r="O21">
+        <v>2344.8726201522659</v>
       </c>
       <c r="V21">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W21">
-        <v>633.37258920101885</v>
-      </c>
-      <c r="Y21">
-        <v>2385.4116769447051</v>
+        <v>0.15</v>
+      </c>
+      <c r="X21">
+        <v>633.37854157924392</v>
       </c>
       <c r="Z21">
-        <v>2385.6289016839601</v>
-      </c>
-      <c r="AH21">
-        <v>96485.332123</v>
-      </c>
-    </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.3">
+        <v>2385.7030338880641</v>
+      </c>
+      <c r="AA21">
+        <v>2385.7030338880641</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E22">
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J22">
         <v>25.2</v>
@@ -1963,40 +1867,34 @@
       <c r="N22">
         <v>2300</v>
       </c>
-      <c r="S22">
-        <v>4.2</v>
-      </c>
-      <c r="T22">
-        <v>0.15</v>
-      </c>
-      <c r="U22">
-        <v>4.2</v>
+      <c r="O22">
+        <v>2344.8726201522659</v>
       </c>
       <c r="V22">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W22">
-        <v>633.21474400597629</v>
-      </c>
-      <c r="Y22">
-        <v>2381.0197906424992</v>
+        <v>0.15</v>
+      </c>
+      <c r="X22">
+        <v>633.22056279217179</v>
       </c>
       <c r="Z22">
-        <v>2381.2419488725068</v>
-      </c>
-      <c r="AH22">
-        <v>96485.332123</v>
-      </c>
-    </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.3">
+        <v>2381.3069655385671</v>
+      </c>
+      <c r="AA22">
+        <v>2381.3069655385671</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E23">
         <v>11</v>
@@ -2016,40 +1914,34 @@
       <c r="N23">
         <v>2300</v>
       </c>
-      <c r="S23">
-        <v>4.2</v>
-      </c>
-      <c r="T23">
-        <v>0.15</v>
-      </c>
-      <c r="U23">
-        <v>4.2</v>
+      <c r="O23">
+        <v>2344.8726201522659</v>
       </c>
       <c r="V23">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W23">
-        <v>633.09674478859677</v>
-      </c>
-      <c r="Y23">
-        <v>2380.21295236166</v>
+        <v>0.15</v>
+      </c>
+      <c r="X23">
+        <v>633.10253108968004</v>
       </c>
       <c r="Z23">
-        <v>2380.4361828127048</v>
-      </c>
-      <c r="AH23">
-        <v>96485.332123</v>
-      </c>
-    </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.3">
+        <v>2380.499045287635</v>
+      </c>
+      <c r="AA23">
+        <v>2380.499045287635</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E24">
         <v>12</v>
@@ -2069,40 +1961,34 @@
       <c r="N24">
         <v>2300</v>
       </c>
-      <c r="S24">
-        <v>4.2</v>
-      </c>
-      <c r="T24">
-        <v>0.15</v>
-      </c>
-      <c r="U24">
-        <v>4.2</v>
+      <c r="O24">
+        <v>2344.8726201522659</v>
       </c>
       <c r="V24">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W24">
-        <v>632.96424639964698</v>
-      </c>
-      <c r="Y24">
-        <v>2382.7737580172889</v>
+        <v>0.15</v>
+      </c>
+      <c r="X24">
+        <v>632.97013603646712</v>
       </c>
       <c r="Z24">
-        <v>2382.9933907835571</v>
-      </c>
-      <c r="AH24">
-        <v>96485.332123</v>
-      </c>
-    </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.3">
+        <v>2383.0631379730412</v>
+      </c>
+      <c r="AA24">
+        <v>2383.0631379730412</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2122,31 +2008,31 @@
       <c r="N25">
         <v>2300</v>
       </c>
-      <c r="T25">
-        <v>0.15</v>
-      </c>
-      <c r="V25">
-        <v>0.15</v>
+      <c r="O25">
+        <v>2344.8726201522659</v>
       </c>
       <c r="W25">
-        <v>630.66257462689919</v>
-      </c>
-      <c r="Y25">
-        <v>2365.3109951043789</v>
-      </c>
-      <c r="AH25">
-        <v>96485.332123</v>
-      </c>
-    </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X25">
+        <v>630.66798782597698</v>
+      </c>
+      <c r="Z25">
+        <v>2365.5849331188451</v>
+      </c>
+      <c r="AA25">
+        <v>2365.5849331188451</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2166,31 +2052,31 @@
       <c r="N26">
         <v>2300</v>
       </c>
-      <c r="T26">
-        <v>0.15</v>
-      </c>
-      <c r="V26">
-        <v>0.15</v>
+      <c r="O26">
+        <v>2344.8726201522659</v>
       </c>
       <c r="W26">
-        <v>630.95972842503852</v>
-      </c>
-      <c r="Y26">
-        <v>2335.721492273969</v>
-      </c>
-      <c r="AH26">
-        <v>96485.332123</v>
-      </c>
-    </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X26">
+        <v>630.96448275412706</v>
+      </c>
+      <c r="Z26">
+        <v>2335.973572859863</v>
+      </c>
+      <c r="AA26">
+        <v>2335.973572859863</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2210,28 +2096,31 @@
       <c r="N27">
         <v>2300</v>
       </c>
-      <c r="T27">
-        <v>0.15</v>
-      </c>
-      <c r="V27">
-        <v>0.15</v>
+      <c r="O27">
+        <v>2344.8726201522659</v>
       </c>
       <c r="W27">
-        <v>632.96346642531603</v>
-      </c>
-      <c r="Y27">
-        <v>2350.8830396586709</v>
-      </c>
-    </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X27">
+        <v>632.96851665011263</v>
+      </c>
+      <c r="Z27">
+        <v>2351.1448877322518</v>
+      </c>
+      <c r="AA27">
+        <v>2351.1448877322518</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -2249,36 +2138,36 @@
         <v>0.1</v>
       </c>
       <c r="N28">
-        <v>2300</v>
-      </c>
-      <c r="S28">
-        <v>4.2</v>
-      </c>
-      <c r="T28">
-        <v>0.15</v>
-      </c>
-      <c r="U28">
-        <v>4.2</v>
+        <v>2318.7480999999998</v>
+      </c>
+      <c r="O28">
+        <v>2364.1936227950532</v>
       </c>
       <c r="V28">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W28">
-        <v>631.42145341882497</v>
-      </c>
-      <c r="Y28">
-        <v>2353.151203754343</v>
-      </c>
-    </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X28">
+        <v>631.42872536785512</v>
+      </c>
+      <c r="Z28">
+        <v>2353.526902313195</v>
+      </c>
+      <c r="AA28">
+        <v>2353.526902313195</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2296,45 +2185,36 @@
         <v>0.1</v>
       </c>
       <c r="N29">
-        <v>2300</v>
-      </c>
-      <c r="S29">
-        <v>4.2</v>
-      </c>
-      <c r="T29">
-        <v>0.15</v>
-      </c>
-      <c r="U29">
-        <v>4.2</v>
+        <v>2318.7480999999998</v>
+      </c>
+      <c r="O29">
+        <v>2364.1247642919129</v>
       </c>
       <c r="V29">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W29">
-        <v>631.52899611008434</v>
-      </c>
-      <c r="Y29">
-        <v>2346.1496396958842</v>
-      </c>
-      <c r="AC29">
-        <v>25</v>
-      </c>
-      <c r="AE29">
-        <v>4056255.2</v>
-      </c>
-      <c r="AF29">
-        <v>1681.6049075020289</v>
-      </c>
-    </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X29">
+        <v>631.53604679445891</v>
+      </c>
+      <c r="Z29">
+        <v>2346.5180077152991</v>
+      </c>
+      <c r="AA29">
+        <v>2346.5180077152991</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E30">
         <v>4</v>
@@ -2352,39 +2232,27 @@
         <v>0.1</v>
       </c>
       <c r="N30">
-        <v>2300</v>
-      </c>
-      <c r="S30">
+        <v>2318.7480999999998</v>
+      </c>
+      <c r="O30">
+        <v>2364.1247642919129</v>
+      </c>
+      <c r="V30">
         <v>2.25</v>
       </c>
-      <c r="T30">
-        <v>0.15</v>
-      </c>
-      <c r="U30">
-        <v>2.25</v>
-      </c>
-      <c r="V30">
-        <v>0.15</v>
-      </c>
-      <c r="AC30">
-        <v>25</v>
-      </c>
-      <c r="AE30">
-        <v>4589511.5</v>
-      </c>
-      <c r="AF30">
-        <v>1902.677391066765</v>
-      </c>
-    </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="W30">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E31">
         <v>5</v>
@@ -2402,45 +2270,36 @@
         <v>0.1</v>
       </c>
       <c r="N31">
-        <v>2300</v>
-      </c>
-      <c r="S31">
+        <v>2318.7480999999998</v>
+      </c>
+      <c r="O31">
+        <v>2364.1247642919129</v>
+      </c>
+      <c r="V31">
         <v>1.2</v>
       </c>
-      <c r="T31">
-        <v>0.15</v>
-      </c>
-      <c r="U31">
-        <v>1.2</v>
-      </c>
-      <c r="V31">
-        <v>0.15</v>
-      </c>
       <c r="W31">
-        <v>457.43140812095999</v>
-      </c>
-      <c r="Y31">
-        <v>293.01038835475441</v>
-      </c>
-      <c r="AC31">
-        <v>25</v>
-      </c>
-      <c r="AE31">
-        <v>5129930.9000000004</v>
-      </c>
-      <c r="AF31">
-        <v>2126.7194866305022</v>
-      </c>
-    </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X31">
+        <v>457.44553777229947</v>
+      </c>
+      <c r="Z31">
+        <v>293.50828195330507</v>
+      </c>
+      <c r="AA31">
+        <v>293.50828195330507</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E32">
         <v>6</v>
@@ -2458,45 +2317,36 @@
         <v>0.1</v>
       </c>
       <c r="N32">
-        <v>2300</v>
-      </c>
-      <c r="S32">
+        <v>2318.7480999999998</v>
+      </c>
+      <c r="O32">
+        <v>2364.0557207612578</v>
+      </c>
+      <c r="V32">
         <v>3.15</v>
       </c>
-      <c r="T32">
-        <v>0.15</v>
-      </c>
-      <c r="U32">
-        <v>3.15</v>
-      </c>
-      <c r="V32">
-        <v>0.15</v>
-      </c>
       <c r="W32">
-        <v>631.74974421131105</v>
-      </c>
-      <c r="Y32">
-        <v>2353.9938189586978</v>
-      </c>
-      <c r="AC32">
-        <v>25</v>
-      </c>
-      <c r="AE32">
-        <v>4347129.0999999996</v>
-      </c>
-      <c r="AF32">
-        <v>1802.1927289251621</v>
-      </c>
-    </row>
-    <row r="33" spans="2:39" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X32">
+        <v>631.76582564983369</v>
+      </c>
+      <c r="Z32">
+        <v>2354.516151707568</v>
+      </c>
+      <c r="AA32">
+        <v>2354.516151707568</v>
+      </c>
+    </row>
+    <row r="33" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E33">
         <v>7</v>
@@ -2514,45 +2364,36 @@
         <v>0.1</v>
       </c>
       <c r="N33">
-        <v>2300</v>
-      </c>
-      <c r="S33">
+        <v>2318.7480999999998</v>
+      </c>
+      <c r="O33">
+        <v>2363.9864924869939</v>
+      </c>
+      <c r="V33">
         <v>3.6</v>
       </c>
-      <c r="T33">
-        <v>0.15</v>
-      </c>
-      <c r="U33">
-        <v>3.6</v>
-      </c>
-      <c r="V33">
-        <v>0.15</v>
-      </c>
       <c r="W33">
-        <v>631.77497154357741</v>
-      </c>
-      <c r="Y33">
-        <v>2349.6763792928391</v>
-      </c>
-      <c r="AC33">
-        <v>25</v>
-      </c>
-      <c r="AE33">
-        <v>4140068.8</v>
-      </c>
-      <c r="AF33">
-        <v>1716.351577552625</v>
-      </c>
-    </row>
-    <row r="34" spans="2:39" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X33">
+        <v>631.78339520649729</v>
+      </c>
+      <c r="Z33">
+        <v>2350.0741610478558</v>
+      </c>
+      <c r="AA33">
+        <v>2350.0741610478558</v>
+      </c>
+    </row>
+    <row r="34" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E34">
         <v>8</v>
@@ -2570,45 +2411,36 @@
         <v>0.1</v>
       </c>
       <c r="N34">
-        <v>2300</v>
-      </c>
-      <c r="S34">
+        <v>2318.7480999999998</v>
+      </c>
+      <c r="O34">
+        <v>2363.9864924869939</v>
+      </c>
+      <c r="V34">
         <v>4.8</v>
       </c>
-      <c r="T34">
-        <v>0.15</v>
-      </c>
-      <c r="U34">
-        <v>4.8</v>
-      </c>
-      <c r="V34">
-        <v>0.15</v>
-      </c>
       <c r="W34">
-        <v>631.70630035369732</v>
-      </c>
-      <c r="Y34">
-        <v>2354.5998481166612</v>
-      </c>
-      <c r="AC34">
-        <v>25</v>
-      </c>
-      <c r="AE34">
-        <v>3850424.2</v>
-      </c>
-      <c r="AF34">
-        <v>1596.273387997031</v>
-      </c>
-    </row>
-    <row r="35" spans="2:39" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X34">
+        <v>631.71362575304897</v>
+      </c>
+      <c r="Z34">
+        <v>2354.9775513610289</v>
+      </c>
+      <c r="AA34">
+        <v>2354.9775513610289</v>
+      </c>
+    </row>
+    <row r="35" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E35">
         <v>9</v>
@@ -2626,36 +2458,36 @@
         <v>0.1</v>
       </c>
       <c r="N35">
-        <v>2300</v>
-      </c>
-      <c r="S35">
-        <v>4.2</v>
-      </c>
-      <c r="T35">
-        <v>0.15</v>
-      </c>
-      <c r="U35">
-        <v>4.2</v>
+        <v>2318.7480999999998</v>
+      </c>
+      <c r="O35">
+        <v>2363.9864924869939</v>
       </c>
       <c r="V35">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W35">
-        <v>631.75731559808935</v>
-      </c>
-      <c r="Y35">
-        <v>2356.3168167821818</v>
-      </c>
-    </row>
-    <row r="36" spans="2:39" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X35">
+        <v>631.76469499231894</v>
+      </c>
+      <c r="Z35">
+        <v>2356.6960386585888</v>
+      </c>
+      <c r="AA35">
+        <v>2356.6960386585888</v>
+      </c>
+    </row>
+    <row r="36" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2673,51 +2505,48 @@
         <v>0.1</v>
       </c>
       <c r="N36">
-        <v>2290.851025088718</v>
-      </c>
-      <c r="P36">
+        <v>2291.3800500000002</v>
+      </c>
+      <c r="O36">
+        <v>2336.424723795672</v>
+      </c>
+      <c r="R36">
         <v>821</v>
       </c>
-      <c r="Q36" t="s">
-        <v>83</v>
-      </c>
-      <c r="S36">
-        <v>4.2</v>
+      <c r="S36" t="s">
+        <v>80</v>
       </c>
       <c r="T36">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="U36">
-        <v>4.2</v>
+        <v>0.15</v>
       </c>
       <c r="V36">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W36">
-        <v>631.29484720917503</v>
-      </c>
-      <c r="Y36">
-        <v>2353.5751308215899</v>
-      </c>
-      <c r="AC36">
-        <v>25</v>
-      </c>
-      <c r="AE36">
-        <v>3996936.5</v>
-      </c>
-      <c r="AF36">
-        <v>1657.013107403593</v>
-      </c>
-    </row>
-    <row r="37" spans="2:39" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X36">
+        <v>631.29998296108681</v>
+      </c>
+      <c r="Z36">
+        <v>2353.8406690606562</v>
+      </c>
+      <c r="AA36">
+        <v>2353.8406690606562</v>
+      </c>
+    </row>
+    <row r="37" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -2735,63 +2564,48 @@
         <v>0.1</v>
       </c>
       <c r="N37">
-        <v>2290.851025088718</v>
-      </c>
-      <c r="P37">
+        <v>2291.3800500000002</v>
+      </c>
+      <c r="O37">
+        <v>2336.221136142146</v>
+      </c>
+      <c r="R37">
         <v>555</v>
       </c>
-      <c r="Q37" t="s">
-        <v>83</v>
-      </c>
-      <c r="S37">
+      <c r="S37" t="s">
+        <v>80</v>
+      </c>
+      <c r="T37">
         <v>2.25</v>
       </c>
-      <c r="T37">
-        <v>0.15</v>
-      </c>
       <c r="U37">
+        <v>0.15</v>
+      </c>
+      <c r="V37">
         <v>2.25</v>
       </c>
-      <c r="V37">
-        <v>0.15</v>
-      </c>
       <c r="W37">
-        <v>521.13704587929658</v>
-      </c>
-      <c r="Y37">
-        <v>1473.4822206123811</v>
-      </c>
-      <c r="AC37">
-        <v>25</v>
-      </c>
-      <c r="AE37">
-        <v>4640377.9000000004</v>
-      </c>
-      <c r="AF37">
-        <v>1923.7651145085649</v>
-      </c>
-      <c r="AI37">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AK37">
-        <v>5540809</v>
-      </c>
-      <c r="AL37">
-        <v>2297.057543601155</v>
-      </c>
-      <c r="AM37" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="2:39" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X37">
+        <v>521.15442839103173</v>
+      </c>
+      <c r="Z37">
+        <v>1473.9676953059411</v>
+      </c>
+      <c r="AA37">
+        <v>1473.9676953059411</v>
+      </c>
+    </row>
+    <row r="38" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E38">
         <v>3</v>
@@ -2809,57 +2623,42 @@
         <v>0.1</v>
       </c>
       <c r="N38">
-        <v>2290.851025088718</v>
-      </c>
-      <c r="S38">
+        <v>2291.3800500000002</v>
+      </c>
+      <c r="O38">
+        <v>2336.221136142146</v>
+      </c>
+      <c r="T38">
         <v>1.2</v>
       </c>
-      <c r="T38">
-        <v>0.15</v>
-      </c>
       <c r="U38">
+        <v>0.15</v>
+      </c>
+      <c r="V38">
         <v>1.2</v>
       </c>
-      <c r="V38">
-        <v>0.15</v>
-      </c>
       <c r="W38">
-        <v>457.17235530609531</v>
-      </c>
-      <c r="Y38">
-        <v>316.06099097493518</v>
-      </c>
-      <c r="AC38">
-        <v>25</v>
-      </c>
-      <c r="AE38">
-        <v>5097601</v>
-      </c>
-      <c r="AF38">
-        <v>2113.3164545680588</v>
-      </c>
-      <c r="AI38">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AK38">
-        <v>5510867.0999999996</v>
-      </c>
-      <c r="AL38">
-        <v>2284.6445065762809</v>
-      </c>
-      <c r="AM38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="2:39" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X38">
+        <v>457.1838833935974</v>
+      </c>
+      <c r="Z38">
+        <v>316.44527370375539</v>
+      </c>
+      <c r="AA38">
+        <v>316.44527370375539</v>
+      </c>
+    </row>
+    <row r="39" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E39">
         <v>4</v>
@@ -2877,48 +2676,42 @@
         <v>0.1</v>
       </c>
       <c r="N39">
-        <v>2290.851025088718</v>
-      </c>
-      <c r="S39">
+        <v>2291.3800500000002</v>
+      </c>
+      <c r="O39">
+        <v>2336.0844963513609</v>
+      </c>
+      <c r="T39">
         <v>1.2</v>
       </c>
-      <c r="T39">
-        <v>0.15</v>
-      </c>
       <c r="U39">
+        <v>0.15</v>
+      </c>
+      <c r="V39">
         <v>1.2</v>
       </c>
-      <c r="V39">
-        <v>0.15</v>
-      </c>
       <c r="W39">
-        <v>457.25811077678622</v>
-      </c>
-      <c r="Y39">
-        <v>321.52978738815011</v>
-      </c>
-      <c r="AC39">
-        <v>25</v>
-      </c>
-      <c r="AE39">
-        <v>4970468.2</v>
-      </c>
-      <c r="AF39">
-        <v>2060.6109097136641</v>
-      </c>
-      <c r="AL39">
-        <v>2290.851025088718</v>
-      </c>
-    </row>
-    <row r="40" spans="2:39" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X39">
+        <v>457.269967220463</v>
+      </c>
+      <c r="Z39">
+        <v>321.92057616761798</v>
+      </c>
+      <c r="AA39">
+        <v>321.92057616761798</v>
+      </c>
+    </row>
+    <row r="40" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E40">
         <v>5</v>
@@ -2936,45 +2729,42 @@
         <v>0.1</v>
       </c>
       <c r="N40">
-        <v>2290.851025088718</v>
-      </c>
-      <c r="S40">
+        <v>2291.3800500000002</v>
+      </c>
+      <c r="O40">
+        <v>2336.0844963513609</v>
+      </c>
+      <c r="T40">
         <v>1.2</v>
       </c>
-      <c r="T40">
-        <v>0.15</v>
-      </c>
       <c r="U40">
+        <v>0.15</v>
+      </c>
+      <c r="V40">
         <v>1.2</v>
       </c>
-      <c r="V40">
-        <v>0.15</v>
-      </c>
       <c r="W40">
-        <v>457.26364589724301</v>
-      </c>
-      <c r="Y40">
-        <v>321.95994581450168</v>
-      </c>
-      <c r="AC40">
-        <v>25</v>
-      </c>
-      <c r="AE40">
-        <v>5091844</v>
-      </c>
-      <c r="AF40">
-        <v>2110.9297705516069</v>
-      </c>
-    </row>
-    <row r="41" spans="2:39" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X40">
+        <v>457.27566287519988</v>
+      </c>
+      <c r="Z40">
+        <v>322.35424204536741</v>
+      </c>
+      <c r="AA40">
+        <v>322.35424204536741</v>
+      </c>
+    </row>
+    <row r="41" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E41">
         <v>7</v>
@@ -2992,51 +2782,48 @@
         <v>0.1</v>
       </c>
       <c r="N41">
-        <v>2290.851025088718</v>
-      </c>
-      <c r="P41">
+        <v>2291.3800500000002</v>
+      </c>
+      <c r="O41">
+        <v>2336.0844963513609</v>
+      </c>
+      <c r="R41">
         <v>539</v>
       </c>
-      <c r="Q41" t="s">
-        <v>83</v>
-      </c>
-      <c r="S41">
+      <c r="S41" t="s">
+        <v>80</v>
+      </c>
+      <c r="T41">
         <v>2.25</v>
       </c>
-      <c r="T41">
-        <v>0.15</v>
-      </c>
       <c r="U41">
+        <v>0.15</v>
+      </c>
+      <c r="V41">
         <v>2.25</v>
       </c>
-      <c r="V41">
-        <v>0.15</v>
-      </c>
       <c r="W41">
-        <v>516.50379346022282</v>
-      </c>
-      <c r="Y41">
-        <v>1381.2133427804949</v>
-      </c>
-      <c r="AC41">
-        <v>25</v>
-      </c>
-      <c r="AE41">
-        <v>4686458.3</v>
-      </c>
-      <c r="AF41">
-        <v>1942.8687021673629</v>
-      </c>
-    </row>
-    <row r="42" spans="2:39" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X41">
+        <v>516.52050326034919</v>
+      </c>
+      <c r="Z41">
+        <v>1381.7065763197461</v>
+      </c>
+      <c r="AA41">
+        <v>1381.7065763197461</v>
+      </c>
+    </row>
+    <row r="42" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D42" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E42">
         <v>8</v>
@@ -3054,51 +2841,48 @@
         <v>0.1</v>
       </c>
       <c r="N42">
-        <v>2290.851025088718</v>
-      </c>
-      <c r="P42">
+        <v>2291.3800500000002</v>
+      </c>
+      <c r="O42">
+        <v>2336.0776452034761</v>
+      </c>
+      <c r="R42">
         <v>548</v>
       </c>
-      <c r="Q42" t="s">
-        <v>83</v>
-      </c>
-      <c r="S42">
+      <c r="S42" t="s">
+        <v>80</v>
+      </c>
+      <c r="T42">
         <v>2.25</v>
       </c>
-      <c r="T42">
-        <v>0.15</v>
-      </c>
       <c r="U42">
+        <v>0.15</v>
+      </c>
+      <c r="V42">
         <v>2.25</v>
       </c>
-      <c r="V42">
-        <v>0.15</v>
-      </c>
       <c r="W42">
-        <v>516.0945480188559</v>
-      </c>
-      <c r="Y42">
-        <v>1378.574262684311</v>
-      </c>
-      <c r="AC42">
-        <v>25</v>
-      </c>
-      <c r="AE42">
-        <v>4664614.5999999996</v>
-      </c>
-      <c r="AF42">
-        <v>1933.8129422837139</v>
-      </c>
-    </row>
-    <row r="43" spans="2:39" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X42">
+        <v>516.11103515579714</v>
+      </c>
+      <c r="Z42">
+        <v>1379.0636853083431</v>
+      </c>
+      <c r="AA42">
+        <v>1379.0636853083431</v>
+      </c>
+    </row>
+    <row r="43" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E43">
         <v>9</v>
@@ -3116,51 +2900,48 @@
         <v>0.1</v>
       </c>
       <c r="N43">
-        <v>2290.851025088718</v>
-      </c>
-      <c r="P43">
+        <v>2291.3800500000002</v>
+      </c>
+      <c r="O43">
+        <v>2336.221136142146</v>
+      </c>
+      <c r="R43">
         <v>561</v>
       </c>
-      <c r="Q43" t="s">
-        <v>83</v>
-      </c>
-      <c r="S43">
+      <c r="S43" t="s">
+        <v>80</v>
+      </c>
+      <c r="T43">
         <v>2.25</v>
       </c>
-      <c r="T43">
-        <v>0.15</v>
-      </c>
       <c r="U43">
+        <v>0.15</v>
+      </c>
+      <c r="V43">
         <v>2.25</v>
       </c>
-      <c r="V43">
-        <v>0.15</v>
-      </c>
       <c r="W43">
-        <v>515.58992502559022</v>
-      </c>
-      <c r="Y43">
-        <v>1375.7846896123549</v>
-      </c>
-      <c r="AC43">
-        <v>25</v>
-      </c>
-      <c r="AE43">
-        <v>4653102</v>
-      </c>
-      <c r="AF43">
-        <v>1929.040154649912</v>
-      </c>
-    </row>
-    <row r="44" spans="2:39" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X43">
+        <v>515.60616880577413</v>
+      </c>
+      <c r="Z43">
+        <v>1376.2698085921641</v>
+      </c>
+      <c r="AA43">
+        <v>1376.2698085921641</v>
+      </c>
+    </row>
+    <row r="44" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E44">
         <v>10</v>
@@ -3178,48 +2959,45 @@
         <v>0.1</v>
       </c>
       <c r="N44">
-        <v>2290.851025088718</v>
-      </c>
-      <c r="P44">
+        <v>2291.3800500000002</v>
+      </c>
+      <c r="O44">
+        <v>2336.221136142146</v>
+      </c>
+      <c r="R44">
         <v>697</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>3.15</v>
       </c>
-      <c r="T44">
-        <v>0.15</v>
-      </c>
       <c r="U44">
+        <v>0.15</v>
+      </c>
+      <c r="V44">
         <v>3.15</v>
       </c>
-      <c r="V44">
-        <v>0.15</v>
-      </c>
       <c r="W44">
-        <v>631.88252475650006</v>
-      </c>
-      <c r="Y44">
-        <v>2371.9008162905789</v>
-      </c>
-      <c r="AC44">
-        <v>25</v>
-      </c>
-      <c r="AE44">
-        <v>4331237</v>
-      </c>
-      <c r="AF44">
-        <v>1795.6043285329699</v>
-      </c>
-    </row>
-    <row r="45" spans="2:39" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X44">
+        <v>631.89519711974185</v>
+      </c>
+      <c r="Z44">
+        <v>2372.2945507453628</v>
+      </c>
+      <c r="AA44">
+        <v>2372.2945507453628</v>
+      </c>
+    </row>
+    <row r="45" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E45">
         <v>11</v>
@@ -3237,48 +3015,45 @@
         <v>0.1</v>
       </c>
       <c r="N45">
-        <v>2290.851025088718</v>
-      </c>
-      <c r="P45">
+        <v>2291.3800500000002</v>
+      </c>
+      <c r="O45">
+        <v>2336.1529075282979</v>
+      </c>
+      <c r="R45">
         <v>690</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>3.15</v>
       </c>
-      <c r="T45">
-        <v>0.15</v>
-      </c>
       <c r="U45">
+        <v>0.15</v>
+      </c>
+      <c r="V45">
         <v>3.15</v>
       </c>
-      <c r="V45">
-        <v>0.15</v>
-      </c>
       <c r="W45">
-        <v>631.83894977692648</v>
-      </c>
-      <c r="Y45">
-        <v>2370.614220229178</v>
-      </c>
-      <c r="AC45">
-        <v>25</v>
-      </c>
-      <c r="AE45">
-        <v>4366788.8</v>
-      </c>
-      <c r="AF45">
-        <v>1810.3430662116371</v>
-      </c>
-    </row>
-    <row r="46" spans="2:39" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X45">
+        <v>631.85154505192645</v>
+      </c>
+      <c r="Z45">
+        <v>2371.0065608492009</v>
+      </c>
+      <c r="AA45">
+        <v>2371.0065608492009</v>
+      </c>
+    </row>
+    <row r="46" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D46" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E46">
         <v>12</v>
@@ -3296,48 +3071,45 @@
         <v>0.1</v>
       </c>
       <c r="N46">
-        <v>2290.851025088718</v>
-      </c>
-      <c r="P46">
+        <v>2291.3800500000002</v>
+      </c>
+      <c r="O46">
+        <v>2336.357044557567</v>
+      </c>
+      <c r="R46">
         <v>803</v>
       </c>
-      <c r="S46">
-        <v>4.2</v>
-      </c>
       <c r="T46">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="U46">
-        <v>4.2</v>
+        <v>0.15</v>
       </c>
       <c r="V46">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W46">
-        <v>631.58138224648576</v>
-      </c>
-      <c r="Y46">
-        <v>2370.381440353894</v>
-      </c>
-      <c r="AC46">
-        <v>25</v>
-      </c>
-      <c r="AE46">
-        <v>4070656.6</v>
-      </c>
-      <c r="AF46">
-        <v>1687.575307223156</v>
-      </c>
-    </row>
-    <row r="47" spans="2:39" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X46">
+        <v>631.58695554935139</v>
+      </c>
+      <c r="Z46">
+        <v>2370.6613934554248</v>
+      </c>
+      <c r="AA46">
+        <v>2370.6613934554248</v>
+      </c>
+    </row>
+    <row r="47" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D47" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E47">
         <v>13</v>
@@ -3355,45 +3127,42 @@
         <v>0.1</v>
       </c>
       <c r="N47">
-        <v>2290.851025088718</v>
-      </c>
-      <c r="S47">
-        <v>4.2</v>
+        <v>2291.3800500000002</v>
+      </c>
+      <c r="O47">
+        <v>2336.221136142146</v>
       </c>
       <c r="T47">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="U47">
-        <v>4.2</v>
+        <v>0.15</v>
       </c>
       <c r="V47">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W47">
-        <v>631.74758131230521</v>
-      </c>
-      <c r="Y47">
-        <v>2372.426943327805</v>
-      </c>
-      <c r="AC47">
-        <v>25</v>
-      </c>
-      <c r="AE47">
-        <v>4101739.2</v>
-      </c>
-      <c r="AF47">
-        <v>1700.461245143907</v>
-      </c>
-    </row>
-    <row r="48" spans="2:39" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X47">
+        <v>631.75320245648038</v>
+      </c>
+      <c r="Z47">
+        <v>2372.7084622496941</v>
+      </c>
+      <c r="AA47">
+        <v>2372.7084622496941</v>
+      </c>
+    </row>
+    <row r="48" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D48" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3414,51 +3183,45 @@
         <v>0.1</v>
       </c>
       <c r="N48">
-        <v>2316</v>
-      </c>
-      <c r="O48" t="s">
-        <v>98</v>
-      </c>
-      <c r="S48">
-        <v>4.2</v>
-      </c>
-      <c r="T48">
-        <v>0.15</v>
-      </c>
-      <c r="U48">
-        <v>4.2</v>
+        <v>2313.2669299999998</v>
+      </c>
+      <c r="O48">
+        <v>2359.2149343438182</v>
+      </c>
+      <c r="P48">
+        <v>1644.413450556842</v>
+      </c>
+      <c r="R48">
+        <v>785</v>
       </c>
       <c r="V48">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W48">
-        <v>632.61427340102182</v>
-      </c>
-      <c r="Y48">
-        <v>2144.1953324520978</v>
+        <v>0.15</v>
+      </c>
+      <c r="X48">
+        <v>632.6221016116009</v>
       </c>
       <c r="Z48">
-        <v>2143.31749558193</v>
-      </c>
-      <c r="AC48">
-        <v>20.833333</v>
-      </c>
-      <c r="AE48">
-        <v>3238983</v>
-      </c>
-      <c r="AF48">
-        <v>1611.34530092516</v>
-      </c>
-    </row>
-    <row r="49" spans="2:32" x14ac:dyDescent="0.3">
+        <v>2144.5399111882239</v>
+      </c>
+      <c r="AA48">
+        <v>2144.5399111882239</v>
+      </c>
+      <c r="AI48">
+        <v>1612.3869</v>
+      </c>
+    </row>
+    <row r="49" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D49" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -3479,51 +3242,45 @@
         <v>0.1</v>
       </c>
       <c r="N49">
-        <v>2316</v>
-      </c>
-      <c r="O49" t="s">
-        <v>98</v>
-      </c>
-      <c r="S49">
-        <v>4.2</v>
-      </c>
-      <c r="T49">
-        <v>0.15</v>
-      </c>
-      <c r="U49">
-        <v>4.2</v>
+        <v>2313.2669299999998</v>
+      </c>
+      <c r="O49">
+        <v>2357.9097964041139</v>
+      </c>
+      <c r="P49">
+        <v>1601.8316593953521</v>
+      </c>
+      <c r="R49">
+        <v>778</v>
       </c>
       <c r="V49">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W49">
-        <v>634.85683079114142</v>
-      </c>
-      <c r="Y49">
-        <v>2186.5078206889029</v>
+        <v>0.15</v>
+      </c>
+      <c r="X49">
+        <v>634.8613245565906</v>
       </c>
       <c r="Z49">
-        <v>2187.733454519685</v>
-      </c>
-      <c r="AC49">
-        <v>20.833333</v>
-      </c>
-      <c r="AE49">
-        <v>3156939.1</v>
-      </c>
-      <c r="AF49">
-        <v>1570.52969530618</v>
-      </c>
-    </row>
-    <row r="50" spans="2:32" x14ac:dyDescent="0.3">
+        <v>2186.74567985669</v>
+      </c>
+      <c r="AA49">
+        <v>2186.74567985669</v>
+      </c>
+      <c r="AI49">
+        <v>1571.5038</v>
+      </c>
+    </row>
+    <row r="50" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D50" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E50">
         <v>3</v>
@@ -3541,42 +3298,36 @@
         <v>0.1</v>
       </c>
       <c r="N50">
-        <v>2316</v>
-      </c>
-      <c r="O50" t="s">
-        <v>98</v>
-      </c>
-      <c r="S50">
-        <v>4.2</v>
-      </c>
-      <c r="T50">
-        <v>0.15</v>
-      </c>
-      <c r="U50">
-        <v>4.2</v>
+        <v>2313.2669299999998</v>
+      </c>
+      <c r="O50">
+        <v>2358.53633071679</v>
       </c>
       <c r="V50">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W50">
-        <v>633.58461882023494</v>
-      </c>
-      <c r="Y50">
-        <v>2197.502496978354</v>
+        <v>0.15</v>
+      </c>
+      <c r="X50">
+        <v>633.58933652101882</v>
       </c>
       <c r="Z50">
-        <v>2197.502496978354</v>
-      </c>
-    </row>
-    <row r="51" spans="2:32" x14ac:dyDescent="0.3">
+        <v>2197.748137668716</v>
+      </c>
+      <c r="AA50">
+        <v>2197.748137668716</v>
+      </c>
+    </row>
+    <row r="51" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D51" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E51">
         <v>4</v>
@@ -3597,51 +3348,48 @@
         <v>0.1</v>
       </c>
       <c r="N51">
-        <v>2316</v>
-      </c>
-      <c r="O51" t="s">
-        <v>98</v>
-      </c>
-      <c r="S51">
-        <v>4.2</v>
-      </c>
-      <c r="T51">
-        <v>0.15</v>
-      </c>
-      <c r="U51">
-        <v>4.2</v>
+        <v>2313.2669299999998</v>
+      </c>
+      <c r="O51">
+        <v>2358.4674503946039</v>
+      </c>
+      <c r="P51">
+        <v>1558.3253298355421</v>
+      </c>
+      <c r="Q51">
+        <v>3</v>
+      </c>
+      <c r="R51">
+        <v>783</v>
       </c>
       <c r="V51">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W51">
-        <v>632.05138898594009</v>
-      </c>
-      <c r="Y51">
-        <v>2334.5448620200191</v>
+        <v>0.15</v>
+      </c>
+      <c r="X51">
+        <v>632.05584428603652</v>
       </c>
       <c r="Z51">
-        <v>2334.678236514013</v>
-      </c>
-      <c r="AC51">
-        <v>20.833333</v>
-      </c>
-      <c r="AE51">
-        <v>3070776.2</v>
-      </c>
-      <c r="AF51">
-        <v>1527.66494917164</v>
-      </c>
-    </row>
-    <row r="52" spans="2:32" x14ac:dyDescent="0.3">
+        <v>2334.7817895273688</v>
+      </c>
+      <c r="AA51">
+        <v>2334.7817895273688</v>
+      </c>
+      <c r="AI51">
+        <v>1528.4597000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D52" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E52">
         <v>5</v>
@@ -3662,51 +3410,45 @@
         <v>0.1</v>
       </c>
       <c r="N52">
-        <v>2316</v>
-      </c>
-      <c r="O52" t="s">
+        <v>2313.2669299999998</v>
+      </c>
+      <c r="O52">
+        <v>2358.4674503946039</v>
+      </c>
+      <c r="P52">
+        <v>1599.695089912437</v>
+      </c>
+      <c r="Q52">
+        <v>4</v>
+      </c>
+      <c r="V52">
+        <v>4.2</v>
+      </c>
+      <c r="W52">
+        <v>0.15</v>
+      </c>
+      <c r="X52">
+        <v>632.09175734357336</v>
+      </c>
+      <c r="Z52">
+        <v>2335.5314963921501</v>
+      </c>
+      <c r="AA52">
+        <v>2335.5314963921501</v>
+      </c>
+      <c r="AI52">
+        <v>1569.0365999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
         <v>98</v>
       </c>
-      <c r="S52">
-        <v>4.2</v>
-      </c>
-      <c r="T52">
-        <v>0.15</v>
-      </c>
-      <c r="U52">
-        <v>4.2</v>
-      </c>
-      <c r="V52">
-        <v>0.15</v>
-      </c>
-      <c r="W52">
-        <v>632.08729778326051</v>
-      </c>
-      <c r="Y52">
-        <v>2335.2943411657102</v>
-      </c>
-      <c r="Z52">
-        <v>2335.427685555791</v>
-      </c>
-      <c r="AC52">
-        <v>20.833333</v>
-      </c>
-      <c r="AE52">
-        <v>3152471.5</v>
-      </c>
-      <c r="AF52">
-        <v>1568.3071315365</v>
-      </c>
-    </row>
-    <row r="53" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>103</v>
-      </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D53" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E53">
         <v>7</v>
@@ -3724,33 +3466,27 @@
         <v>0.1</v>
       </c>
       <c r="N53">
-        <v>2316</v>
-      </c>
-      <c r="O53" t="s">
-        <v>98</v>
-      </c>
-      <c r="S53">
+        <v>2313.2669299999998</v>
+      </c>
+      <c r="O53">
+        <v>2358.3983857655162</v>
+      </c>
+      <c r="V53">
         <v>2.25</v>
       </c>
-      <c r="T53">
-        <v>0.15</v>
-      </c>
-      <c r="U53">
-        <v>2.25</v>
-      </c>
-      <c r="V53">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="54" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="W53">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="54" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C54" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D54" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E54">
         <v>8</v>
@@ -3771,33 +3507,36 @@
         <v>0.1</v>
       </c>
       <c r="N54">
-        <v>2316</v>
-      </c>
-      <c r="O54" t="s">
-        <v>98</v>
-      </c>
-      <c r="S54">
+        <v>2313.2669299999998</v>
+      </c>
+      <c r="O54">
+        <v>2358.3983857655162</v>
+      </c>
+      <c r="P54">
+        <v>1957.1062344578429</v>
+      </c>
+      <c r="R54">
+        <v>533</v>
+      </c>
+      <c r="V54">
         <v>2.25</v>
       </c>
-      <c r="T54">
-        <v>0.15</v>
-      </c>
-      <c r="U54">
-        <v>2.25</v>
-      </c>
-      <c r="V54">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="55" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="W54">
+        <v>0.15</v>
+      </c>
+      <c r="AI54">
+        <v>1919.6541</v>
+      </c>
+    </row>
+    <row r="55" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D55" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E55">
         <v>9</v>
@@ -3818,33 +3557,33 @@
         <v>0.1</v>
       </c>
       <c r="N55">
-        <v>2316</v>
-      </c>
-      <c r="O55" t="s">
-        <v>98</v>
-      </c>
-      <c r="S55">
+        <v>2313.2669299999998</v>
+      </c>
+      <c r="O55">
+        <v>2358.3983857655162</v>
+      </c>
+      <c r="P55">
+        <v>1975.6861894920621</v>
+      </c>
+      <c r="V55">
         <v>2.25</v>
       </c>
-      <c r="T55">
-        <v>0.15</v>
-      </c>
-      <c r="U55">
-        <v>2.25</v>
-      </c>
-      <c r="V55">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="56" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="W55">
+        <v>0.15</v>
+      </c>
+      <c r="AI55">
+        <v>1937.8785</v>
+      </c>
+    </row>
+    <row r="56" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D56" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3865,39 +3604,48 @@
         <v>0.1</v>
       </c>
       <c r="N56">
-        <v>2280</v>
-      </c>
-      <c r="O56" t="s">
-        <v>98</v>
-      </c>
-      <c r="S56">
-        <v>4.2</v>
-      </c>
-      <c r="T56">
-        <v>0.15</v>
-      </c>
-      <c r="U56">
-        <v>4.2</v>
+        <v>2283.7085999999999</v>
+      </c>
+      <c r="O56">
+        <v>2328.6024660050621</v>
+      </c>
+      <c r="P56">
+        <v>539.91468660373005</v>
+      </c>
+      <c r="Q56">
+        <v>40</v>
+      </c>
+      <c r="R56">
+        <v>788</v>
       </c>
       <c r="V56">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W56">
-        <v>631.54115521632514</v>
-      </c>
-      <c r="Y56">
-        <v>2295.0304980356809</v>
-      </c>
-    </row>
-    <row r="57" spans="2:32" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X56">
+        <v>631.55010160782183</v>
+      </c>
+      <c r="Z56">
+        <v>2295.4234984806012</v>
+      </c>
+      <c r="AA56">
+        <v>2295.4234984806012</v>
+      </c>
+      <c r="AI56">
+        <v>529.50549999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D57" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -3918,39 +3666,45 @@
         <v>0.1</v>
       </c>
       <c r="N57">
-        <v>2280</v>
-      </c>
-      <c r="O57" t="s">
-        <v>98</v>
-      </c>
-      <c r="S57">
-        <v>4.2</v>
-      </c>
-      <c r="T57">
-        <v>0.15</v>
-      </c>
-      <c r="U57">
-        <v>4.2</v>
+        <v>2283.7085999999999</v>
+      </c>
+      <c r="O57">
+        <v>2328.6024660050621</v>
+      </c>
+      <c r="P57">
+        <v>978.9038989571809</v>
+      </c>
+      <c r="Q57">
+        <v>20</v>
       </c>
       <c r="V57">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W57">
-        <v>631.66140214666757</v>
-      </c>
-      <c r="Y57">
-        <v>2301.8384531650458</v>
-      </c>
-    </row>
-    <row r="58" spans="2:32" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X57">
+        <v>631.66580654140137</v>
+      </c>
+      <c r="Z57">
+        <v>2302.0856583995519</v>
+      </c>
+      <c r="AA57">
+        <v>2302.0856583995519</v>
+      </c>
+      <c r="AI57">
+        <v>960.03129999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C58" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D58" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -3971,39 +3725,48 @@
         <v>0.1</v>
       </c>
       <c r="N58">
-        <v>2280</v>
-      </c>
-      <c r="O58" t="s">
-        <v>98</v>
-      </c>
-      <c r="S58">
-        <v>4.2</v>
-      </c>
-      <c r="T58">
-        <v>0.15</v>
-      </c>
-      <c r="U58">
-        <v>4.2</v>
+        <v>2283.7085999999999</v>
+      </c>
+      <c r="O58">
+        <v>2328.2633776288098</v>
+      </c>
+      <c r="P58">
+        <v>1335.4200459222709</v>
+      </c>
+      <c r="Q58">
+        <v>10</v>
+      </c>
+      <c r="R58">
+        <v>732</v>
       </c>
       <c r="V58">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W58">
-        <v>632.01025337810415</v>
-      </c>
-      <c r="Y58">
-        <v>2302.0758407055969</v>
-      </c>
-    </row>
-    <row r="59" spans="2:32" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X58">
+        <v>632.01468331518299</v>
+      </c>
+      <c r="Z58">
+        <v>2302.3235292965242</v>
+      </c>
+      <c r="AA58">
+        <v>2302.3235292965242</v>
+      </c>
+      <c r="AI58">
+        <v>1309.8648000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D59" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E59">
         <v>4</v>
@@ -4024,39 +3787,48 @@
         <v>0.1</v>
       </c>
       <c r="N59">
-        <v>2280</v>
-      </c>
-      <c r="O59" t="s">
-        <v>98</v>
-      </c>
-      <c r="S59">
-        <v>4.2</v>
-      </c>
-      <c r="T59">
-        <v>0.15</v>
-      </c>
-      <c r="U59">
-        <v>4.2</v>
+        <v>2283.7085999999999</v>
+      </c>
+      <c r="O59">
+        <v>2328.2633776288098</v>
+      </c>
+      <c r="P59">
+        <v>1531.5098148805371</v>
+      </c>
+      <c r="Q59">
+        <v>5</v>
+      </c>
+      <c r="R59">
+        <v>735</v>
       </c>
       <c r="V59">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W59">
-        <v>631.95860521483712</v>
-      </c>
-      <c r="Y59">
-        <v>2301.0539740141749</v>
-      </c>
-    </row>
-    <row r="60" spans="2:32" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X59">
+        <v>631.96302460116976</v>
+      </c>
+      <c r="Z59">
+        <v>2301.301319690906</v>
+      </c>
+      <c r="AA59">
+        <v>2301.301319690906</v>
+      </c>
+      <c r="AI59">
+        <v>1502.2021</v>
+      </c>
+    </row>
+    <row r="60" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C60" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D60" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E60">
         <v>5</v>
@@ -4077,39 +3849,45 @@
         <v>0.1</v>
       </c>
       <c r="N60">
-        <v>2280</v>
-      </c>
-      <c r="O60" t="s">
-        <v>98</v>
-      </c>
-      <c r="S60">
-        <v>4.2</v>
-      </c>
-      <c r="T60">
-        <v>0.15</v>
-      </c>
-      <c r="U60">
-        <v>4.2</v>
+        <v>2283.7085999999999</v>
+      </c>
+      <c r="O60">
+        <v>2328.3315597678261</v>
+      </c>
+      <c r="P60">
+        <v>1660.759706011095</v>
+      </c>
+      <c r="Q60">
+        <v>2</v>
       </c>
       <c r="V60">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W60">
-        <v>631.95773256193331</v>
-      </c>
-      <c r="Y60">
-        <v>2299.9137965893578</v>
-      </c>
-    </row>
-    <row r="61" spans="2:32" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X60">
+        <v>631.96211911034743</v>
+      </c>
+      <c r="Z60">
+        <v>2300.1599667140272</v>
+      </c>
+      <c r="AA60">
+        <v>2300.1599667140272</v>
+      </c>
+      <c r="AI60">
+        <v>1628.9309000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C61" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D61" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E61">
         <v>6</v>
@@ -4130,39 +3908,48 @@
         <v>0.1</v>
       </c>
       <c r="N61">
-        <v>2280</v>
-      </c>
-      <c r="O61" t="s">
-        <v>98</v>
-      </c>
-      <c r="S61">
-        <v>4.2</v>
-      </c>
-      <c r="T61">
-        <v>0.15</v>
-      </c>
-      <c r="U61">
-        <v>4.2</v>
+        <v>2283.7085999999999</v>
+      </c>
+      <c r="O61">
+        <v>2328.3315597678261</v>
+      </c>
+      <c r="P61">
+        <v>1715.9149681082961</v>
+      </c>
+      <c r="Q61">
+        <v>0.5</v>
+      </c>
+      <c r="R61">
+        <v>735</v>
       </c>
       <c r="V61">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W61">
-        <v>631.89276175656516</v>
-      </c>
-      <c r="Y61">
-        <v>2297.0464505237592</v>
-      </c>
-    </row>
-    <row r="62" spans="2:32" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X61">
+        <v>631.89711978187233</v>
+      </c>
+      <c r="Z61">
+        <v>2297.2916945101688</v>
+      </c>
+      <c r="AA61">
+        <v>2297.2916945101688</v>
+      </c>
+      <c r="AI61">
+        <v>1683.0291</v>
+      </c>
+    </row>
+    <row r="62" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C62" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D62" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E62">
         <v>7</v>
@@ -4183,39 +3970,45 @@
         <v>0.1</v>
       </c>
       <c r="N62">
-        <v>2280</v>
-      </c>
-      <c r="O62" t="s">
-        <v>98</v>
-      </c>
-      <c r="S62">
-        <v>4.2</v>
-      </c>
-      <c r="T62">
-        <v>0.15</v>
-      </c>
-      <c r="U62">
-        <v>4.2</v>
+        <v>2283.7085999999999</v>
+      </c>
+      <c r="O62">
+        <v>2328.3315597678261</v>
+      </c>
+      <c r="P62">
+        <v>1757.023624070395</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
       </c>
       <c r="V62">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W62">
-        <v>631.9037751258827</v>
-      </c>
-      <c r="Y62">
-        <v>2300.4511879227612</v>
-      </c>
-    </row>
-    <row r="63" spans="2:32" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X62">
+        <v>631.90818052603561</v>
+      </c>
+      <c r="Z62">
+        <v>2300.6980473045678</v>
+      </c>
+      <c r="AA62">
+        <v>2300.6980473045678</v>
+      </c>
+      <c r="AI62">
+        <v>1723.3498999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C63" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D63" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E63">
         <v>8</v>
@@ -4236,39 +4029,48 @@
         <v>0.1</v>
       </c>
       <c r="N63">
-        <v>2280</v>
-      </c>
-      <c r="O63" t="s">
-        <v>98</v>
-      </c>
-      <c r="S63">
-        <v>4.2</v>
-      </c>
-      <c r="T63">
-        <v>0.15</v>
-      </c>
-      <c r="U63">
-        <v>4.2</v>
+        <v>2283.7085999999999</v>
+      </c>
+      <c r="O63">
+        <v>2328.3315597678261</v>
+      </c>
+      <c r="P63">
+        <v>1684.800757780481</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>750</v>
       </c>
       <c r="V63">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W63">
-        <v>631.90650742590651</v>
-      </c>
-      <c r="Y63">
-        <v>2299.3528756602191</v>
-      </c>
-    </row>
-    <row r="64" spans="2:32" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X63">
+        <v>631.91089160747401</v>
+      </c>
+      <c r="Z63">
+        <v>2299.5989866068562</v>
+      </c>
+      <c r="AA63">
+        <v>2299.5989866068562</v>
+      </c>
+      <c r="AI63">
+        <v>1652.5111999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C64" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D64" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4289,39 +4091,48 @@
         <v>0.1</v>
       </c>
       <c r="N64">
-        <v>2265</v>
-      </c>
-      <c r="O64" t="s">
-        <v>98</v>
-      </c>
-      <c r="S64">
-        <v>4.2</v>
-      </c>
-      <c r="T64">
-        <v>0.15</v>
-      </c>
-      <c r="U64">
-        <v>4.2</v>
+        <v>2267.9422</v>
+      </c>
+      <c r="O64">
+        <v>2312.2570891878559</v>
+      </c>
+      <c r="P64">
+        <v>1271.1344568800309</v>
+      </c>
+      <c r="Q64">
+        <v>10</v>
+      </c>
+      <c r="R64">
+        <v>767</v>
       </c>
       <c r="V64">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W64">
-        <v>631.86939453180707</v>
-      </c>
-      <c r="Y64">
-        <v>2297.1001762973542</v>
-      </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X64">
+        <v>631.87363901995923</v>
+      </c>
+      <c r="Z64">
+        <v>2297.3393252886749</v>
+      </c>
+      <c r="AA64">
+        <v>2297.3393252886749</v>
+      </c>
+      <c r="AI64">
+        <v>1246.7728999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C65" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D65" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -4342,39 +4153,48 @@
         <v>0.1</v>
       </c>
       <c r="N65">
-        <v>2265</v>
-      </c>
-      <c r="O65" t="s">
-        <v>98</v>
-      </c>
-      <c r="S65">
-        <v>4.2</v>
-      </c>
-      <c r="T65">
-        <v>0.15</v>
-      </c>
-      <c r="U65">
-        <v>4.2</v>
+        <v>2267.9422</v>
+      </c>
+      <c r="O65">
+        <v>2312.2570891878559</v>
+      </c>
+      <c r="P65">
+        <v>943.1529223919606</v>
+      </c>
+      <c r="Q65">
+        <v>20</v>
+      </c>
+      <c r="R65">
+        <v>701</v>
       </c>
       <c r="V65">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W65">
-        <v>631.84489790527266</v>
-      </c>
-      <c r="Y65">
-        <v>2297.322107195424</v>
-      </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X65">
+        <v>631.84916783734536</v>
+      </c>
+      <c r="Z65">
+        <v>2297.5622144235899</v>
+      </c>
+      <c r="AA65">
+        <v>2297.5622144235899</v>
+      </c>
+      <c r="AI65">
+        <v>925.07719999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C66" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D66" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E66">
         <v>3</v>
@@ -4395,39 +4215,48 @@
         <v>0.1</v>
       </c>
       <c r="N66">
-        <v>2265</v>
-      </c>
-      <c r="O66" t="s">
-        <v>98</v>
-      </c>
-      <c r="S66">
-        <v>4.2</v>
-      </c>
-      <c r="T66">
-        <v>0.15</v>
-      </c>
-      <c r="U66">
-        <v>4.2</v>
+        <v>2267.9422</v>
+      </c>
+      <c r="O66">
+        <v>2312.2570891878559</v>
+      </c>
+      <c r="P66">
+        <v>1463.8599817446641</v>
+      </c>
+      <c r="Q66">
+        <v>5</v>
+      </c>
+      <c r="R66">
+        <v>704</v>
       </c>
       <c r="V66">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W66">
-        <v>631.85341623166232</v>
-      </c>
-      <c r="Y66">
-        <v>2298.1080543003659</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X66">
+        <v>631.85768727240429</v>
+      </c>
+      <c r="Z66">
+        <v>2298.348162198758</v>
+      </c>
+      <c r="AA66">
+        <v>2298.348162198758</v>
+      </c>
+      <c r="AI66">
+        <v>1435.8047999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C67" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D67" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E67">
         <v>4</v>
@@ -4448,39 +4277,48 @@
         <v>0.1</v>
       </c>
       <c r="N67">
-        <v>2265</v>
-      </c>
-      <c r="O67" t="s">
-        <v>98</v>
-      </c>
-      <c r="S67">
-        <v>4.2</v>
-      </c>
-      <c r="T67">
-        <v>0.15</v>
-      </c>
-      <c r="U67">
-        <v>4.2</v>
+        <v>2267.9422</v>
+      </c>
+      <c r="O67">
+        <v>2312.18937776865</v>
+      </c>
+      <c r="P67">
+        <v>489.50418967283667</v>
+      </c>
+      <c r="Q67">
+        <v>43</v>
+      </c>
+      <c r="R67">
+        <v>694</v>
       </c>
       <c r="V67">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W67">
-        <v>631.93929532282596</v>
-      </c>
-      <c r="Y67">
-        <v>2298.9700802401212</v>
-      </c>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X67">
+        <v>631.94357525044063</v>
+      </c>
+      <c r="Z67">
+        <v>2299.210465897927</v>
+      </c>
+      <c r="AA67">
+        <v>2299.210465897927</v>
+      </c>
+      <c r="AI67">
+        <v>480.13679999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C68" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D68" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E68">
         <v>5</v>
@@ -4501,39 +4339,45 @@
         <v>0.1</v>
       </c>
       <c r="N68">
-        <v>2265</v>
-      </c>
-      <c r="O68" t="s">
-        <v>98</v>
-      </c>
-      <c r="S68">
-        <v>4.2</v>
-      </c>
-      <c r="T68">
-        <v>0.15</v>
-      </c>
-      <c r="U68">
-        <v>4.2</v>
+        <v>2267.9422</v>
+      </c>
+      <c r="O68">
+        <v>2312.18937776865</v>
+      </c>
+      <c r="P68">
+        <v>51.495339807229968</v>
+      </c>
+      <c r="Q68">
+        <v>140</v>
       </c>
       <c r="V68">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W68">
-        <v>632.0255973355537</v>
-      </c>
-      <c r="Y68">
-        <v>2303.2723704869331</v>
-      </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X68">
+        <v>632.0299281201095</v>
+      </c>
+      <c r="Z68">
+        <v>2303.5148299564662</v>
+      </c>
+      <c r="AA68">
+        <v>2303.5148299564662</v>
+      </c>
+      <c r="AI68">
+        <v>50.509900000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C69" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D69" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E69">
         <v>6</v>
@@ -4554,39 +4398,45 @@
         <v>0.1</v>
       </c>
       <c r="N69">
-        <v>2265</v>
-      </c>
-      <c r="O69" t="s">
-        <v>98</v>
-      </c>
-      <c r="S69">
-        <v>4.2</v>
-      </c>
-      <c r="T69">
-        <v>0.15</v>
-      </c>
-      <c r="U69">
-        <v>4.2</v>
+        <v>2267.9422</v>
+      </c>
+      <c r="O69">
+        <v>2312.2570891878559</v>
+      </c>
+      <c r="P69">
+        <v>1695.4206910150299</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
       </c>
       <c r="V69">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W69">
-        <v>631.91351123089294</v>
-      </c>
-      <c r="Y69">
-        <v>2309.3362065417741</v>
-      </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="X69">
+        <v>631.91797314545863</v>
+      </c>
+      <c r="Z69">
+        <v>2309.582920259706</v>
+      </c>
+      <c r="AA69">
+        <v>2309.582920259706</v>
+      </c>
+      <c r="AI69">
+        <v>1662.9276</v>
+      </c>
+    </row>
+    <row r="70" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C70" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D70" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E70">
         <v>7</v>
@@ -4607,28 +4457,808 @@
         <v>0.1</v>
       </c>
       <c r="N70">
-        <v>2265</v>
-      </c>
-      <c r="O70" t="s">
-        <v>98</v>
-      </c>
-      <c r="S70">
-        <v>4.2</v>
-      </c>
-      <c r="T70">
-        <v>0.15</v>
-      </c>
-      <c r="U70">
-        <v>4.2</v>
+        <v>2267.9422</v>
+      </c>
+      <c r="O70">
+        <v>2312.18937776865</v>
+      </c>
+      <c r="P70">
+        <v>1068.7634764311749</v>
+      </c>
+      <c r="Q70">
+        <v>15.5</v>
+      </c>
+      <c r="R70">
+        <v>692</v>
       </c>
       <c r="V70">
-        <v>0.15</v>
+        <v>4.2</v>
       </c>
       <c r="W70">
-        <v>632.0035126698524</v>
-      </c>
-      <c r="Y70">
-        <v>2298.9867016215999</v>
+        <v>0.15</v>
+      </c>
+      <c r="X70">
+        <v>632.00779258954606</v>
+      </c>
+      <c r="Z70">
+        <v>2299.227089573928</v>
+      </c>
+      <c r="AA70">
+        <v>2299.227089573928</v>
+      </c>
+      <c r="AI70">
+        <v>1048.3110999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" t="s">
+        <v>119</v>
+      </c>
+      <c r="D71" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>82</v>
+      </c>
+      <c r="J71">
+        <v>24.7</v>
+      </c>
+      <c r="K71">
+        <v>170.35</v>
+      </c>
+      <c r="L71">
+        <v>30</v>
+      </c>
+      <c r="M71">
+        <v>0.1</v>
+      </c>
+      <c r="N71">
+        <v>2267.9422</v>
+      </c>
+      <c r="O71">
+        <v>2312.5261251268848</v>
+      </c>
+      <c r="P71">
+        <v>1683.148351269776</v>
+      </c>
+      <c r="Q71">
+        <v>0.5</v>
+      </c>
+      <c r="R71">
+        <v>686</v>
+      </c>
+      <c r="V71">
+        <v>4.2</v>
+      </c>
+      <c r="W71">
+        <v>0.15</v>
+      </c>
+      <c r="X71">
+        <v>631.60580306972668</v>
+      </c>
+      <c r="Z71">
+        <v>2297.9096280598419</v>
+      </c>
+      <c r="AA71">
+        <v>2297.9096280598419</v>
+      </c>
+      <c r="AI71">
+        <v>1650.6984</v>
+      </c>
+    </row>
+    <row r="72" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72" t="s">
+        <v>119</v>
+      </c>
+      <c r="D72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>85</v>
+      </c>
+      <c r="J72">
+        <v>25.1</v>
+      </c>
+      <c r="K72">
+        <v>170.25</v>
+      </c>
+      <c r="L72">
+        <v>30</v>
+      </c>
+      <c r="M72">
+        <v>0.1</v>
+      </c>
+      <c r="N72">
+        <v>2267.9422</v>
+      </c>
+      <c r="O72">
+        <v>2312.2570891878559</v>
+      </c>
+      <c r="P72">
+        <v>952.25832941592626</v>
+      </c>
+      <c r="Q72">
+        <v>20</v>
+      </c>
+      <c r="R72">
+        <v>672</v>
+      </c>
+      <c r="V72">
+        <v>4.2</v>
+      </c>
+      <c r="W72">
+        <v>0.15</v>
+      </c>
+      <c r="X72">
+        <v>632.02273075428684</v>
+      </c>
+      <c r="Z72">
+        <v>2302.5627502602438</v>
+      </c>
+      <c r="AA72">
+        <v>2302.5627502602438</v>
+      </c>
+      <c r="AI72">
+        <v>934.00810000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>121</v>
+      </c>
+      <c r="C73" t="s">
+        <v>119</v>
+      </c>
+      <c r="D73" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="J73">
+        <v>24.8</v>
+      </c>
+      <c r="K73">
+        <v>170.05</v>
+      </c>
+      <c r="L73">
+        <v>30</v>
+      </c>
+      <c r="M73">
+        <v>0.1</v>
+      </c>
+      <c r="N73">
+        <v>2267.9422</v>
+      </c>
+      <c r="O73">
+        <v>2312.4591381597238</v>
+      </c>
+      <c r="V73">
+        <v>4.2</v>
+      </c>
+      <c r="W73">
+        <v>0.15</v>
+      </c>
+      <c r="X73">
+        <v>631.89610900212631</v>
+      </c>
+      <c r="Z73">
+        <v>2306.3344905644208</v>
+      </c>
+      <c r="AA73">
+        <v>2306.3344905644208</v>
+      </c>
+    </row>
+    <row r="74" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" t="s">
+        <v>119</v>
+      </c>
+      <c r="D74" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="G74">
+        <v>87</v>
+      </c>
+      <c r="J74">
+        <v>24.8</v>
+      </c>
+      <c r="L74">
+        <v>30</v>
+      </c>
+      <c r="M74">
+        <v>0.1</v>
+      </c>
+      <c r="N74">
+        <v>2267.9422</v>
+      </c>
+      <c r="O74">
+        <v>2312.4591381597238</v>
+      </c>
+      <c r="P74">
+        <v>2058.349394865571</v>
+      </c>
+      <c r="Q74">
+        <v>0.05</v>
+      </c>
+      <c r="R74">
+        <v>50</v>
+      </c>
+      <c r="V74">
+        <v>4.2</v>
+      </c>
+      <c r="W74">
+        <v>4.2</v>
+      </c>
+      <c r="AI74">
+        <v>2018.7243000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" t="s">
+        <v>119</v>
+      </c>
+      <c r="D75" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+      <c r="G75">
+        <v>88</v>
+      </c>
+      <c r="J75">
+        <v>24.9</v>
+      </c>
+      <c r="L75">
+        <v>30</v>
+      </c>
+      <c r="M75">
+        <v>0.1</v>
+      </c>
+      <c r="N75">
+        <v>2267.9422</v>
+      </c>
+      <c r="O75">
+        <v>2312.3919696614671</v>
+      </c>
+      <c r="P75">
+        <v>1948.491624383877</v>
+      </c>
+      <c r="Q75">
+        <v>2</v>
+      </c>
+      <c r="R75">
+        <v>50</v>
+      </c>
+      <c r="V75">
+        <v>4.2</v>
+      </c>
+      <c r="W75">
+        <v>4.2</v>
+      </c>
+      <c r="AI75">
+        <v>1911.0369000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" t="s">
+        <v>119</v>
+      </c>
+      <c r="D76" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76">
+        <v>6</v>
+      </c>
+      <c r="G76">
+        <v>89</v>
+      </c>
+      <c r="J76">
+        <v>25</v>
+      </c>
+      <c r="L76">
+        <v>30</v>
+      </c>
+      <c r="M76">
+        <v>0.1</v>
+      </c>
+      <c r="N76">
+        <v>2267.9422</v>
+      </c>
+      <c r="O76">
+        <v>2312.3246199113578</v>
+      </c>
+      <c r="P76">
+        <v>1780.7430205908579</v>
+      </c>
+      <c r="Q76">
+        <v>5</v>
+      </c>
+      <c r="R76">
+        <v>50</v>
+      </c>
+      <c r="V76">
+        <v>4.2</v>
+      </c>
+      <c r="W76">
+        <v>4.2</v>
+      </c>
+      <c r="AI76">
+        <v>1746.5636999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" t="s">
+        <v>119</v>
+      </c>
+      <c r="D77" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77">
+        <v>7</v>
+      </c>
+      <c r="G77">
+        <v>91</v>
+      </c>
+      <c r="J77">
+        <v>25.1</v>
+      </c>
+      <c r="L77">
+        <v>30</v>
+      </c>
+      <c r="M77">
+        <v>0.1</v>
+      </c>
+      <c r="N77">
+        <v>2267.9422</v>
+      </c>
+      <c r="O77">
+        <v>2312.2570891878559</v>
+      </c>
+      <c r="P77">
+        <v>1326.0268816449609</v>
+      </c>
+      <c r="Q77">
+        <v>15.5</v>
+      </c>
+      <c r="R77">
+        <v>50</v>
+      </c>
+      <c r="V77">
+        <v>4.2</v>
+      </c>
+      <c r="W77">
+        <v>4.2</v>
+      </c>
+      <c r="AI77">
+        <v>1300.6133</v>
+      </c>
+    </row>
+    <row r="78" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78" t="s">
+        <v>119</v>
+      </c>
+      <c r="D78" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78">
+        <v>8</v>
+      </c>
+      <c r="G78">
+        <v>93</v>
+      </c>
+      <c r="J78">
+        <v>25.1</v>
+      </c>
+      <c r="L78">
+        <v>30</v>
+      </c>
+      <c r="M78">
+        <v>0.1</v>
+      </c>
+      <c r="N78">
+        <v>2267.9422</v>
+      </c>
+      <c r="O78">
+        <v>2312.2570891878559</v>
+      </c>
+      <c r="P78">
+        <v>384.85451705621779</v>
+      </c>
+      <c r="Q78">
+        <v>60</v>
+      </c>
+      <c r="R78">
+        <v>50</v>
+      </c>
+      <c r="V78">
+        <v>4.2</v>
+      </c>
+      <c r="W78">
+        <v>4.2</v>
+      </c>
+      <c r="AI78">
+        <v>377.4787</v>
+      </c>
+    </row>
+    <row r="79" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" t="s">
+        <v>119</v>
+      </c>
+      <c r="D79" t="s">
+        <v>37</v>
+      </c>
+      <c r="E79">
+        <v>9</v>
+      </c>
+      <c r="G79">
+        <v>94</v>
+      </c>
+      <c r="J79">
+        <v>25.1</v>
+      </c>
+      <c r="L79">
+        <v>30</v>
+      </c>
+      <c r="M79">
+        <v>0.1</v>
+      </c>
+      <c r="N79">
+        <v>2267.9422</v>
+      </c>
+      <c r="O79">
+        <v>2312.2570891878559</v>
+      </c>
+      <c r="P79">
+        <v>1517.3073109519489</v>
+      </c>
+      <c r="Q79">
+        <v>10.5</v>
+      </c>
+      <c r="R79">
+        <v>50</v>
+      </c>
+      <c r="V79">
+        <v>4.2</v>
+      </c>
+      <c r="W79">
+        <v>4.2</v>
+      </c>
+      <c r="AI79">
+        <v>1488.2277999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" t="s">
+        <v>119</v>
+      </c>
+      <c r="D80" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80">
+        <v>10</v>
+      </c>
+      <c r="G80">
+        <v>95</v>
+      </c>
+      <c r="J80">
+        <v>25.1</v>
+      </c>
+      <c r="L80">
+        <v>30</v>
+      </c>
+      <c r="M80">
+        <v>0.1</v>
+      </c>
+      <c r="N80">
+        <v>2267.9422</v>
+      </c>
+      <c r="O80">
+        <v>2312.2570891878559</v>
+      </c>
+      <c r="P80">
+        <v>1619.132206300382</v>
+      </c>
+      <c r="Q80">
+        <v>8.5</v>
+      </c>
+      <c r="R80">
+        <v>50</v>
+      </c>
+      <c r="V80">
+        <v>4.2</v>
+      </c>
+      <c r="W80">
+        <v>4.2</v>
+      </c>
+      <c r="AI80">
+        <v>1588.1012000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>129</v>
+      </c>
+      <c r="C81" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" t="s">
+        <v>37</v>
+      </c>
+      <c r="E81">
+        <v>11</v>
+      </c>
+      <c r="G81">
+        <v>96</v>
+      </c>
+      <c r="J81">
+        <v>25.2</v>
+      </c>
+      <c r="L81">
+        <v>30</v>
+      </c>
+      <c r="M81">
+        <v>0.1</v>
+      </c>
+      <c r="N81">
+        <v>2267.9422</v>
+      </c>
+      <c r="O81">
+        <v>2312.18937776865</v>
+      </c>
+      <c r="P81">
+        <v>1017.077590235812</v>
+      </c>
+      <c r="Q81">
+        <v>25</v>
+      </c>
+      <c r="R81">
+        <v>50</v>
+      </c>
+      <c r="V81">
+        <v>4.2</v>
+      </c>
+      <c r="W81">
+        <v>4.2</v>
+      </c>
+      <c r="AI81">
+        <v>997.61429999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82">
+        <v>12</v>
+      </c>
+      <c r="G82">
+        <v>99</v>
+      </c>
+      <c r="J82">
+        <v>25.2</v>
+      </c>
+      <c r="L82">
+        <v>30</v>
+      </c>
+      <c r="M82">
+        <v>0.1</v>
+      </c>
+      <c r="N82">
+        <v>2267.9422</v>
+      </c>
+      <c r="O82">
+        <v>2312.18937776865</v>
+      </c>
+      <c r="P82">
+        <v>668.00771983291133</v>
+      </c>
+      <c r="Q82">
+        <v>41</v>
+      </c>
+      <c r="R82">
+        <v>50</v>
+      </c>
+      <c r="V82">
+        <v>4.2</v>
+      </c>
+      <c r="W82">
+        <v>4.2</v>
+      </c>
+      <c r="AI82">
+        <v>655.22439999999995</v>
+      </c>
+    </row>
+    <row r="83" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" t="s">
+        <v>119</v>
+      </c>
+      <c r="D83" t="s">
+        <v>37</v>
+      </c>
+      <c r="E83">
+        <v>13</v>
+      </c>
+      <c r="G83">
+        <v>100</v>
+      </c>
+      <c r="J83">
+        <v>25.2</v>
+      </c>
+      <c r="L83">
+        <v>30</v>
+      </c>
+      <c r="M83">
+        <v>0.1</v>
+      </c>
+      <c r="N83">
+        <v>2267.9422</v>
+      </c>
+      <c r="O83">
+        <v>2312.18937776865</v>
+      </c>
+      <c r="P83">
+        <v>785.11279945396871</v>
+      </c>
+      <c r="Q83">
+        <v>30</v>
+      </c>
+      <c r="R83">
+        <v>50</v>
+      </c>
+      <c r="V83">
+        <v>4.2</v>
+      </c>
+      <c r="W83">
+        <v>4.2</v>
+      </c>
+      <c r="AI83">
+        <v>770.08849999999995</v>
+      </c>
+    </row>
+    <row r="84" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>132</v>
+      </c>
+      <c r="C84" t="s">
+        <v>119</v>
+      </c>
+      <c r="D84" t="s">
+        <v>37</v>
+      </c>
+      <c r="E84">
+        <v>14</v>
+      </c>
+      <c r="G84">
+        <v>101</v>
+      </c>
+      <c r="J84">
+        <v>25</v>
+      </c>
+      <c r="L84">
+        <v>30</v>
+      </c>
+      <c r="M84">
+        <v>0.1</v>
+      </c>
+      <c r="N84">
+        <v>2267.9422</v>
+      </c>
+      <c r="O84">
+        <v>2312.3246199113578</v>
+      </c>
+      <c r="P84">
+        <v>1778.8937254917171</v>
+      </c>
+      <c r="Q84">
+        <v>5</v>
+      </c>
+      <c r="R84">
+        <v>50</v>
+      </c>
+      <c r="V84">
+        <v>4.2</v>
+      </c>
+      <c r="W84">
+        <v>4.2</v>
+      </c>
+      <c r="AI84">
+        <v>1744.7499</v>
+      </c>
+    </row>
+    <row r="85" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>133</v>
+      </c>
+      <c r="C85" t="s">
+        <v>119</v>
+      </c>
+      <c r="D85" t="s">
+        <v>37</v>
+      </c>
+      <c r="E85">
+        <v>15</v>
+      </c>
+      <c r="G85">
+        <v>102</v>
+      </c>
+      <c r="J85">
+        <v>24.9</v>
+      </c>
+      <c r="L85">
+        <v>30</v>
+      </c>
+      <c r="M85">
+        <v>0.1</v>
+      </c>
+      <c r="N85">
+        <v>2267.9422</v>
+      </c>
+      <c r="O85">
+        <v>2312.3919696614671</v>
+      </c>
+      <c r="P85">
+        <v>2050.9098505434808</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>50</v>
+      </c>
+      <c r="V85">
+        <v>4.2</v>
+      </c>
+      <c r="W85">
+        <v>4.2</v>
+      </c>
+      <c r="AI85">
+        <v>2011.4864</v>
       </c>
     </row>
   </sheetData>

--- a/Logbook_automated_by_python_testing_backup.xlsx
+++ b/Logbook_automated_by_python_testing_backup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e67038fc02b579b/Documenten/GitHub/tidegas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45D3000E-163F-4684-A069-9F2C8832907D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F30E255-3A6B-4BF2-9F70-3C9C013B000A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="218">
   <si>
     <t>Description</t>
   </si>
@@ -115,15 +115,6 @@
     <t>Reference (0 acid) integraded current uAs</t>
   </si>
   <si>
-    <t>Unnamed: 31</t>
-  </si>
-  <si>
-    <t>Unnamed: 32</t>
-  </si>
-  <si>
-    <t>Calculated DIC umol/L)</t>
-  </si>
-  <si>
     <t>Calculated DIC (umol/L)</t>
   </si>
   <si>
@@ -422,6 +413,267 @@
   </si>
   <si>
     <t>0-0  0  (0)junk-251009-15-4_2mL-4_2incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251013-01-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>13-Oct</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251013-02-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251013-03-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251013-04-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251013-05-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251013-06-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251013-07-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251013-08-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251013-09-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251013-10-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251014-01-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>14-Oct</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251014-02-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251014-03-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251014-04-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>Nose</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)CRM-251014-05-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>Crm</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251014-06-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251015-01-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>15-Oct</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251015-02-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251015-03-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251015-04-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251015-05-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251015-06-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251015-07-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251015-08-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251015-09-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251015-10-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251015-11-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251016-01-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>16-Oct</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251016-02-0_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251016-03-0_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251016-04-0_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251016-05-0_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251016-06-0_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251016-07-0_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251016-08-0_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251016-09-0_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251016-10-0_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251016-11-0_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251016-12-0_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251016-13-0_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251016-14-0_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251017-01-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>17-Oct</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251017-02-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251017-03-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251017-04-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251021-01-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>21-Oct</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251022-01-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>22-Oct</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251022-02-2_1mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251022-03-2_1mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251022-04-2_1mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251022-05-2_1mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251022-06-2_1mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251022-07-2_1mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251022-08-2_1mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251022-09-2_1mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251022-10-2_1mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251022-11-2_1mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251022-12-2_1mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251022-13-2_1mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251022-14-2_1mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251022-15-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251023-01-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>23-Oct</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251023-02-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251023-03-3_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251023-04-3_0mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251023-05-2_4mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251023-06-2_1mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251023-07-1_8mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251023-08-1_5mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251023-09-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251023-10-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251023-11-0_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251023-12-0_15mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251023-13-0_0mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251023-14-0_15mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251023-15-0_15mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251023-16-0_0mL-0_15incrmL.dat</t>
   </si>
 </sst>
 </file>
@@ -497,6 +749,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -784,15 +1040,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI85"/>
+  <dimension ref="A1:AF162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="F159" sqref="F159:F162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -889,34 +1145,25 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J2">
         <v>21.3</v>
@@ -934,7 +1181,7 @@
         <v>2300</v>
       </c>
       <c r="O2">
-        <v>2347.4122565339521</v>
+        <v>2253.545360545615</v>
       </c>
       <c r="V2">
         <v>4.2</v>
@@ -943,18 +1190,18 @@
         <v>0.15</v>
       </c>
       <c r="AA2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -975,7 +1222,7 @@
         <v>2300</v>
       </c>
       <c r="O3">
-        <v>2344.3868329235411</v>
+        <v>2256.453553530313</v>
       </c>
       <c r="V3">
         <v>4.2</v>
@@ -984,24 +1231,24 @@
         <v>0.15</v>
       </c>
       <c r="X3">
-        <v>634.63549706434333</v>
+        <v>634.62658381766573</v>
       </c>
       <c r="Z3">
-        <v>2479.862851630111</v>
+        <v>2479.38148995349</v>
       </c>
       <c r="AA3">
         <v>2479.862851630111</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1022,7 +1269,7 @@
         <v>2300</v>
       </c>
       <c r="O4">
-        <v>2344.3868329235411</v>
+        <v>2256.453553530313</v>
       </c>
       <c r="V4">
         <v>4.2</v>
@@ -1031,24 +1278,24 @@
         <v>0.15</v>
       </c>
       <c r="X4">
-        <v>634.1088434876624</v>
+        <v>634.10028277356776</v>
       </c>
       <c r="Z4">
-        <v>2465.2934202797192</v>
+        <v>2464.823532250588</v>
       </c>
       <c r="AA4">
         <v>2465.2934202797192</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1069,7 +1316,7 @@
         <v>2300</v>
       </c>
       <c r="O5">
-        <v>2344.3868329235411</v>
+        <v>2256.453553530313</v>
       </c>
       <c r="V5">
         <v>4.2</v>
@@ -1078,24 +1325,24 @@
         <v>0.15</v>
       </c>
       <c r="X5">
-        <v>633.66094108923369</v>
+        <v>633.65249459138533</v>
       </c>
       <c r="Z5">
-        <v>2462.3304229744158</v>
+        <v>2461.864499766009</v>
       </c>
       <c r="AA5">
         <v>2462.3304229744158</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1116,7 +1363,7 @@
         <v>2300</v>
       </c>
       <c r="O6">
-        <v>2344.3167084417332</v>
+        <v>2256.5210498014421</v>
       </c>
       <c r="V6">
         <v>4.2</v>
@@ -1125,24 +1372,24 @@
         <v>0.15</v>
       </c>
       <c r="X6">
-        <v>633.80044866547451</v>
+        <v>633.79197279957168</v>
       </c>
       <c r="Z6">
-        <v>2463.5141996718589</v>
+        <v>2463.0473468733398</v>
       </c>
       <c r="AA6">
         <v>2463.5141996718589</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1163,7 +1410,7 @@
         <v>2300</v>
       </c>
       <c r="O7">
-        <v>2344.3868329235411</v>
+        <v>2256.453553530313</v>
       </c>
       <c r="V7">
         <v>4.2</v>
@@ -1172,24 +1419,24 @@
         <v>0.15</v>
       </c>
       <c r="X7">
-        <v>633.60926567077172</v>
+        <v>633.60057748674592</v>
       </c>
       <c r="Z7">
-        <v>2469.6745521141011</v>
+        <v>2469.2003828960792</v>
       </c>
       <c r="AA7">
         <v>2469.6745521141011</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1210,7 +1457,7 @@
         <v>2300</v>
       </c>
       <c r="O8">
-        <v>2344.3167084417332</v>
+        <v>2256.5210498014421</v>
       </c>
       <c r="V8">
         <v>4.2</v>
@@ -1219,33 +1466,33 @@
         <v>0.15</v>
       </c>
       <c r="X8">
-        <v>633.81019846220738</v>
+        <v>633.80143722542323</v>
       </c>
       <c r="Z8">
-        <v>2471.8226196883761</v>
+        <v>2471.3460246950999</v>
       </c>
       <c r="AA8">
         <v>2471.8226196883761</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J9">
         <v>25.9</v>
@@ -1263,7 +1510,7 @@
         <v>2300</v>
       </c>
       <c r="O9">
-        <v>2344.3868329235411</v>
+        <v>2256.453553530313</v>
       </c>
       <c r="V9">
         <v>4.2</v>
@@ -1272,15 +1519,15 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1301,7 +1548,7 @@
         <v>2300</v>
       </c>
       <c r="O10">
-        <v>2344.3167084417332</v>
+        <v>2256.5210498014421</v>
       </c>
       <c r="V10">
         <v>4.2</v>
@@ -1310,24 +1557,24 @@
         <v>0.15</v>
       </c>
       <c r="X10">
-        <v>633.81449043543716</v>
+        <v>633.80611101559543</v>
       </c>
       <c r="Z10">
-        <v>2461.4462583734339</v>
+        <v>2460.9816352092112</v>
       </c>
       <c r="AA10">
         <v>2461.4462583734339</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1348,7 +1595,7 @@
         <v>2300</v>
       </c>
       <c r="O11">
-        <v>2344.3167084417332</v>
+        <v>2256.5210498014421</v>
       </c>
       <c r="V11">
         <v>4.2</v>
@@ -1357,24 +1604,24 @@
         <v>0.15</v>
       </c>
       <c r="X11">
-        <v>633.93701992104366</v>
+        <v>633.9288775089592</v>
       </c>
       <c r="Z11">
-        <v>2451.5237230920138</v>
+        <v>2451.0681852720122</v>
       </c>
       <c r="AA11">
         <v>2451.5237230920138</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1395,7 +1642,7 @@
         <v>2300</v>
       </c>
       <c r="O12">
-        <v>2344.3167084417332</v>
+        <v>2256.5210498014421</v>
       </c>
       <c r="V12">
         <v>4.2</v>
@@ -1404,24 +1651,24 @@
         <v>0.15</v>
       </c>
       <c r="X12">
-        <v>634.14006267219179</v>
+        <v>634.13198113847704</v>
       </c>
       <c r="Z12">
-        <v>2451.2024910089672</v>
+        <v>2450.748676562333</v>
       </c>
       <c r="AA12">
         <v>2451.2024910089672</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1442,7 +1689,7 @@
         <v>2300</v>
       </c>
       <c r="O13">
-        <v>2345.1461936584469</v>
+        <v>2255.7229115629489</v>
       </c>
       <c r="V13">
         <v>4.2</v>
@@ -1451,24 +1698,24 @@
         <v>0.15</v>
       </c>
       <c r="X13">
-        <v>635.63349437278703</v>
+        <v>635.62254083101368</v>
       </c>
       <c r="Z13">
-        <v>2369.3780487071572</v>
+        <v>2368.8276292356709</v>
       </c>
       <c r="AA13">
         <v>2369.3780487071572</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1489,7 +1736,7 @@
         <v>2300</v>
       </c>
       <c r="O14">
-        <v>2345.0097739687212</v>
+        <v>2255.8541370371968</v>
       </c>
       <c r="V14">
         <v>4.2</v>
@@ -1498,24 +1745,24 @@
         <v>0.15</v>
       </c>
       <c r="X14">
-        <v>634.89537699070604</v>
+        <v>634.8839778547532</v>
       </c>
       <c r="Z14">
-        <v>2378.8736734566478</v>
+        <v>2378.3090701810679</v>
       </c>
       <c r="AA14">
         <v>2378.8736734566478</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1536,7 +1783,7 @@
         <v>2300</v>
       </c>
       <c r="O15">
-        <v>2344.9412886854302</v>
+        <v>2255.9200204818621</v>
       </c>
       <c r="V15">
         <v>4.2</v>
@@ -1545,24 +1792,24 @@
         <v>0.15</v>
       </c>
       <c r="X15">
-        <v>635.80315440070729</v>
+        <v>635.79174937938717</v>
       </c>
       <c r="Z15">
-        <v>2378.956755541758</v>
+        <v>2378.3920129682192</v>
       </c>
       <c r="AA15">
         <v>2378.956755541758</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -1583,7 +1830,7 @@
         <v>2300</v>
       </c>
       <c r="O16">
-        <v>2344.8726201522659</v>
+        <v>2255.986084078414</v>
       </c>
       <c r="V16">
         <v>4.2</v>
@@ -1592,24 +1839,24 @@
         <v>0.15</v>
       </c>
       <c r="X16">
-        <v>635.23147355289848</v>
+        <v>635.2199744001889</v>
       </c>
       <c r="Z16">
-        <v>2379.7790873880422</v>
+        <v>2379.2112025696661</v>
       </c>
       <c r="AA16">
         <v>2379.7790873880422</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -1630,7 +1877,7 @@
         <v>2300</v>
       </c>
       <c r="O17">
-        <v>2344.8726201522659</v>
+        <v>2255.986084078414</v>
       </c>
       <c r="V17">
         <v>4.2</v>
@@ -1639,24 +1886,24 @@
         <v>0.15</v>
       </c>
       <c r="X17">
-        <v>635.00365300035764</v>
+        <v>634.99211533092523</v>
       </c>
       <c r="Z17">
-        <v>2380.427060397808</v>
+        <v>2379.859505459247</v>
       </c>
       <c r="AA17">
         <v>2380.427060397808</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -1677,7 +1924,7 @@
         <v>2300</v>
       </c>
       <c r="O18">
-        <v>2344.8726201522659</v>
+        <v>2255.986084078414</v>
       </c>
       <c r="V18">
         <v>4.2</v>
@@ -1686,24 +1933,24 @@
         <v>0.15</v>
       </c>
       <c r="X18">
-        <v>634.12865453093514</v>
+        <v>634.11696487307916</v>
       </c>
       <c r="Z18">
-        <v>2383.1221525679371</v>
+        <v>2382.548114006574</v>
       </c>
       <c r="AA18">
         <v>2383.1221525679371</v>
       </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E19">
         <v>7</v>
@@ -1724,7 +1971,7 @@
         <v>2300</v>
       </c>
       <c r="O19">
-        <v>2344.8726201522659</v>
+        <v>2255.986084078414</v>
       </c>
       <c r="V19">
         <v>4.2</v>
@@ -1733,24 +1980,24 @@
         <v>0.15</v>
       </c>
       <c r="X19">
-        <v>633.83640017449125</v>
+        <v>633.82479130982847</v>
       </c>
       <c r="Z19">
-        <v>2382.290757545321</v>
+        <v>2381.7194352424099</v>
       </c>
       <c r="AA19">
         <v>2382.290757545321</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <v>8</v>
@@ -1771,7 +2018,7 @@
         <v>2300</v>
       </c>
       <c r="O20">
-        <v>2344.8726201522659</v>
+        <v>2255.986084078414</v>
       </c>
       <c r="V20">
         <v>4.2</v>
@@ -1780,24 +2027,24 @@
         <v>0.15</v>
       </c>
       <c r="X20">
-        <v>633.61465501383464</v>
+        <v>633.60308740439189</v>
       </c>
       <c r="Z20">
-        <v>2382.0903488719409</v>
+        <v>2381.520249540753</v>
       </c>
       <c r="AA20">
         <v>2382.0903488719409</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E21">
         <v>9</v>
@@ -1818,7 +2065,7 @@
         <v>2300</v>
       </c>
       <c r="O21">
-        <v>2344.8726201522659</v>
+        <v>2255.986084078414</v>
       </c>
       <c r="V21">
         <v>4.2</v>
@@ -1827,30 +2074,30 @@
         <v>0.15</v>
       </c>
       <c r="X21">
-        <v>633.37854157924392</v>
+        <v>633.36675382709757</v>
       </c>
       <c r="Z21">
-        <v>2385.7030338880641</v>
+        <v>2385.1260020866048</v>
       </c>
       <c r="AA21">
         <v>2385.7030338880641</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E22">
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J22">
         <v>25.2</v>
@@ -1868,7 +2115,7 @@
         <v>2300</v>
       </c>
       <c r="O22">
-        <v>2344.8726201522659</v>
+        <v>2255.986084078414</v>
       </c>
       <c r="V22">
         <v>4.2</v>
@@ -1877,24 +2124,24 @@
         <v>0.15</v>
       </c>
       <c r="X22">
-        <v>633.22056279217179</v>
+        <v>633.20903927829397</v>
       </c>
       <c r="Z22">
-        <v>2381.3069655385671</v>
+        <v>2380.7382135369999</v>
       </c>
       <c r="AA22">
         <v>2381.3069655385671</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E23">
         <v>11</v>
@@ -1915,7 +2162,7 @@
         <v>2300</v>
       </c>
       <c r="O23">
-        <v>2344.8726201522659</v>
+        <v>2255.986084078414</v>
       </c>
       <c r="V23">
         <v>4.2</v>
@@ -1924,24 +2171,24 @@
         <v>0.15</v>
       </c>
       <c r="X23">
-        <v>633.10253108968004</v>
+        <v>633.09107190718839</v>
       </c>
       <c r="Z23">
-        <v>2380.499045287635</v>
+        <v>2379.9324359014931</v>
       </c>
       <c r="AA23">
         <v>2380.499045287635</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E24">
         <v>12</v>
@@ -1962,7 +2209,7 @@
         <v>2300</v>
       </c>
       <c r="O24">
-        <v>2344.8726201522659</v>
+        <v>2255.986084078414</v>
       </c>
       <c r="V24">
         <v>4.2</v>
@@ -1971,24 +2218,24 @@
         <v>0.15</v>
       </c>
       <c r="X24">
-        <v>632.97013603646712</v>
+        <v>632.95847249931842</v>
       </c>
       <c r="Z24">
-        <v>2383.0631379730412</v>
+        <v>2382.4900204154142</v>
       </c>
       <c r="AA24">
         <v>2383.0631379730412</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2009,30 +2256,33 @@
         <v>2300</v>
       </c>
       <c r="O25">
-        <v>2344.8726201522659</v>
+        <v>2255.986084078414</v>
+      </c>
+      <c r="V25">
+        <v>4.2</v>
       </c>
       <c r="W25">
         <v>0.15</v>
       </c>
       <c r="X25">
-        <v>630.66798782597698</v>
+        <v>630.65726741228741</v>
       </c>
       <c r="Z25">
-        <v>2365.5849331188451</v>
+        <v>2365.0423912679248</v>
       </c>
       <c r="AA25">
         <v>2365.5849331188451</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2053,30 +2303,33 @@
         <v>2300</v>
       </c>
       <c r="O26">
-        <v>2344.8726201522659</v>
+        <v>2255.986084078414</v>
+      </c>
+      <c r="V26">
+        <v>4.2</v>
       </c>
       <c r="W26">
         <v>0.15</v>
       </c>
       <c r="X26">
-        <v>630.96448275412706</v>
+        <v>630.95506715307442</v>
       </c>
       <c r="Z26">
-        <v>2335.973572859863</v>
+        <v>2335.474312385255</v>
       </c>
       <c r="AA26">
         <v>2335.973572859863</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2097,30 +2350,33 @@
         <v>2300</v>
       </c>
       <c r="O27">
-        <v>2344.8726201522659</v>
+        <v>2255.986084078414</v>
+      </c>
+      <c r="V27">
+        <v>4.2</v>
       </c>
       <c r="W27">
         <v>0.15</v>
       </c>
       <c r="X27">
-        <v>632.96851665011263</v>
+        <v>632.95851499730873</v>
       </c>
       <c r="Z27">
-        <v>2351.1448877322518</v>
+        <v>2350.6262862050821</v>
       </c>
       <c r="AA27">
         <v>2351.1448877322518</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -2141,7 +2397,7 @@
         <v>2318.7480999999998</v>
       </c>
       <c r="O28">
-        <v>2364.1936227950532</v>
+        <v>2274.1761501315468</v>
       </c>
       <c r="V28">
         <v>4.2</v>
@@ -2150,28 +2406,31 @@
         <v>0.15</v>
       </c>
       <c r="X28">
-        <v>631.42872536785512</v>
+        <v>631.41852944808909</v>
       </c>
       <c r="Z28">
-        <v>2353.526902313195</v>
+        <v>2353.0001178168659</v>
       </c>
       <c r="AA28">
         <v>2353.526902313195</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
+      <c r="G29">
+        <v>14</v>
+      </c>
       <c r="J29">
         <v>25</v>
       </c>
@@ -2188,7 +2447,13 @@
         <v>2318.7480999999998</v>
       </c>
       <c r="O29">
-        <v>2364.1247642919129</v>
+        <v>2274.242388753104</v>
+      </c>
+      <c r="P29">
+        <v>1650.4814576741401</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
       </c>
       <c r="V29">
         <v>4.2</v>
@@ -2197,28 +2462,34 @@
         <v>0.15</v>
       </c>
       <c r="X29">
-        <v>631.53604679445891</v>
+        <v>631.52616531121146</v>
       </c>
       <c r="Z29">
-        <v>2346.5180077152991</v>
+        <v>2346.0017218068692</v>
       </c>
       <c r="AA29">
         <v>2346.5180077152991</v>
       </c>
-    </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AF29">
+        <v>1682.7805000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E30">
         <v>4</v>
       </c>
+      <c r="G30">
+        <v>15</v>
+      </c>
       <c r="J30">
         <v>25</v>
       </c>
@@ -2235,7 +2506,13 @@
         <v>2318.7480999999998</v>
       </c>
       <c r="O30">
-        <v>2364.1247642919129</v>
+        <v>2274.242388753104</v>
+      </c>
+      <c r="P30">
+        <v>1867.2677651954241</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
       </c>
       <c r="V30">
         <v>2.25</v>
@@ -2243,20 +2520,26 @@
       <c r="W30">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AF30">
+        <v>1903.8091999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E31">
         <v>5</v>
       </c>
+      <c r="G31">
+        <v>16</v>
+      </c>
       <c r="J31">
         <v>25</v>
       </c>
@@ -2273,7 +2556,13 @@
         <v>2318.7480999999998</v>
       </c>
       <c r="O31">
-        <v>2364.1247642919129</v>
+        <v>2274.242388753104</v>
+      </c>
+      <c r="P31">
+        <v>2086.960593651359</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
       </c>
       <c r="V31">
         <v>1.2</v>
@@ -2282,28 +2571,34 @@
         <v>0.15</v>
       </c>
       <c r="X31">
-        <v>457.44553777229947</v>
+        <v>457.42573879247249</v>
       </c>
       <c r="Z31">
-        <v>293.50828195330507</v>
+        <v>292.81054470008542</v>
       </c>
       <c r="AA31">
         <v>293.50828195330507</v>
       </c>
-    </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AF31">
+        <v>2127.8013000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E32">
         <v>6</v>
       </c>
+      <c r="G32">
+        <v>17</v>
+      </c>
       <c r="J32">
         <v>25.1</v>
       </c>
@@ -2320,7 +2615,13 @@
         <v>2318.7480999999998</v>
       </c>
       <c r="O32">
-        <v>2364.0557207612578</v>
+        <v>2274.308809236642</v>
+      </c>
+      <c r="P32">
+        <v>1768.674938691129</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
       </c>
       <c r="V32">
         <v>3.15</v>
@@ -2329,28 +2630,34 @@
         <v>0.15</v>
       </c>
       <c r="X32">
-        <v>631.76582564983369</v>
+        <v>631.74330221189712</v>
       </c>
       <c r="Z32">
-        <v>2354.516151707568</v>
+        <v>2353.784498973992</v>
       </c>
       <c r="AA32">
         <v>2354.516151707568</v>
       </c>
-    </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="AF32">
+        <v>1803.2343000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E33">
         <v>7</v>
       </c>
+      <c r="G33">
+        <v>18</v>
+      </c>
       <c r="J33">
         <v>25.2</v>
       </c>
@@ -2367,7 +2674,13 @@
         <v>2318.7480999999998</v>
       </c>
       <c r="O33">
-        <v>2363.9864924869939</v>
+        <v>2274.375411340548</v>
+      </c>
+      <c r="P33">
+        <v>1684.514500298744</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
       </c>
       <c r="V33">
         <v>3.6</v>
@@ -2376,28 +2689,34 @@
         <v>0.15</v>
       </c>
       <c r="X33">
-        <v>631.78339520649729</v>
+        <v>631.77160006359975</v>
       </c>
       <c r="Z33">
-        <v>2350.0741610478558</v>
+        <v>2349.517143577757</v>
       </c>
       <c r="AA33">
         <v>2350.0741610478558</v>
       </c>
-    </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="AF33">
+        <v>1717.3791000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E34">
         <v>8</v>
       </c>
+      <c r="G34">
+        <v>21</v>
+      </c>
       <c r="J34">
         <v>25.2</v>
       </c>
@@ -2414,7 +2733,13 @@
         <v>2318.7480999999998</v>
       </c>
       <c r="O34">
-        <v>2363.9864924869939</v>
+        <v>2274.375411340548</v>
+      </c>
+      <c r="P34">
+        <v>1566.6935672443669</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
       </c>
       <c r="V34">
         <v>4.8</v>
@@ -2423,24 +2748,27 @@
         <v>0.15</v>
       </c>
       <c r="X34">
-        <v>631.71362575304897</v>
+        <v>631.70336805361489</v>
       </c>
       <c r="Z34">
-        <v>2354.9775513610289</v>
+        <v>2354.44864005931</v>
       </c>
       <c r="AA34">
         <v>2354.9775513610289</v>
       </c>
-    </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="AF34">
+        <v>1597.2594999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E35">
         <v>9</v>
@@ -2461,7 +2789,7 @@
         <v>2318.7480999999998</v>
       </c>
       <c r="O35">
-        <v>2363.9864924869939</v>
+        <v>2274.375411340548</v>
       </c>
       <c r="V35">
         <v>4.2</v>
@@ -2470,28 +2798,31 @@
         <v>0.15</v>
       </c>
       <c r="X35">
-        <v>631.76469499231894</v>
+        <v>631.75436169981049</v>
       </c>
       <c r="Z35">
-        <v>2356.6960386585888</v>
+        <v>2356.1650012195109</v>
       </c>
       <c r="AA35">
         <v>2356.6960386585888</v>
       </c>
     </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
+      <c r="G36">
+        <v>24</v>
+      </c>
       <c r="J36">
         <v>24.7</v>
       </c>
@@ -2508,19 +2839,19 @@
         <v>2291.3800500000002</v>
       </c>
       <c r="O36">
-        <v>2336.424723795672</v>
+        <v>2247.2038067669282</v>
+      </c>
+      <c r="P36">
+        <v>1626.0041952186909</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
       </c>
       <c r="R36">
         <v>821</v>
       </c>
       <c r="S36" t="s">
-        <v>80</v>
-      </c>
-      <c r="T36">
-        <v>4.2</v>
-      </c>
-      <c r="U36">
-        <v>0.15</v>
+        <v>77</v>
       </c>
       <c r="V36">
         <v>4.2</v>
@@ -2529,28 +2860,34 @@
         <v>0.15</v>
       </c>
       <c r="X36">
-        <v>631.29998296108681</v>
+        <v>631.28993070011029</v>
       </c>
       <c r="Z36">
-        <v>2353.8406690606562</v>
+        <v>2353.3209007140322</v>
       </c>
       <c r="AA36">
         <v>2353.8406690606562</v>
       </c>
-    </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="AF36">
+        <v>1657.9686999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E37">
         <v>2</v>
       </c>
+      <c r="G37">
+        <v>25</v>
+      </c>
       <c r="J37">
         <v>25</v>
       </c>
@@ -2567,19 +2904,19 @@
         <v>2291.3800500000002</v>
       </c>
       <c r="O37">
-        <v>2336.221136142146</v>
+        <v>2247.3996370943469</v>
+      </c>
+      <c r="P37">
+        <v>1887.7676925448279</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
       </c>
       <c r="R37">
         <v>555</v>
       </c>
       <c r="S37" t="s">
-        <v>80</v>
-      </c>
-      <c r="T37">
-        <v>2.25</v>
-      </c>
-      <c r="U37">
-        <v>0.15</v>
+        <v>77</v>
       </c>
       <c r="V37">
         <v>2.25</v>
@@ -2588,28 +2925,34 @@
         <v>0.15</v>
       </c>
       <c r="X37">
-        <v>521.15442839103173</v>
+        <v>521.12043460940311</v>
       </c>
       <c r="Z37">
-        <v>1473.9676953059411</v>
+        <v>1473.017944390039</v>
       </c>
       <c r="AA37">
         <v>1473.9676953059411</v>
       </c>
-    </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="AF37">
+        <v>1924.7103</v>
+      </c>
+    </row>
+    <row r="38" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E38">
         <v>3</v>
       </c>
+      <c r="G38">
+        <v>26</v>
+      </c>
       <c r="J38">
         <v>25</v>
       </c>
@@ -2626,13 +2969,13 @@
         <v>2291.3800500000002</v>
       </c>
       <c r="O38">
-        <v>2336.221136142146</v>
-      </c>
-      <c r="T38">
-        <v>1.2</v>
-      </c>
-      <c r="U38">
-        <v>0.15</v>
+        <v>2247.3996370943469</v>
+      </c>
+      <c r="P38">
+        <v>2073.6655701738082</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
       </c>
       <c r="V38">
         <v>1.2</v>
@@ -2641,28 +2984,34 @@
         <v>0.15</v>
       </c>
       <c r="X38">
-        <v>457.1838833935974</v>
+        <v>457.16132837293281</v>
       </c>
       <c r="Z38">
-        <v>316.44527370375539</v>
+        <v>315.6932700305058</v>
       </c>
       <c r="AA38">
         <v>316.44527370375539</v>
       </c>
-    </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="AF38">
+        <v>2114.2460999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E39">
         <v>4</v>
       </c>
+      <c r="G39">
+        <v>27</v>
+      </c>
       <c r="J39">
         <v>25.2</v>
       </c>
@@ -2679,13 +3028,13 @@
         <v>2291.3800500000002</v>
       </c>
       <c r="O39">
-        <v>2336.0844963513609</v>
-      </c>
-      <c r="T39">
-        <v>1.2</v>
-      </c>
-      <c r="U39">
-        <v>0.15</v>
+        <v>2247.5310896238698</v>
+      </c>
+      <c r="P39">
+        <v>2022.103396683485</v>
+      </c>
+      <c r="Q39">
+        <v>0.5</v>
       </c>
       <c r="V39">
         <v>1.2</v>
@@ -2694,28 +3043,34 @@
         <v>0.15</v>
       </c>
       <c r="X39">
-        <v>457.269967220463</v>
+        <v>457.24677040200447</v>
       </c>
       <c r="Z39">
-        <v>321.92057616761798</v>
+        <v>321.15585642972138</v>
       </c>
       <c r="AA39">
         <v>321.92057616761798</v>
       </c>
-    </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="AF39">
+        <v>2061.5542999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E40">
         <v>5</v>
       </c>
+      <c r="G40">
+        <v>28</v>
+      </c>
       <c r="J40">
         <v>25.2</v>
       </c>
@@ -2732,13 +3087,13 @@
         <v>2291.3800500000002</v>
       </c>
       <c r="O40">
-        <v>2336.0844963513609</v>
-      </c>
-      <c r="T40">
-        <v>1.2</v>
-      </c>
-      <c r="U40">
-        <v>0.15</v>
+        <v>2247.5310896238698</v>
+      </c>
+      <c r="P40">
+        <v>2071.4397525288991</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
       </c>
       <c r="V40">
         <v>1.2</v>
@@ -2747,28 +3102,34 @@
         <v>0.15</v>
       </c>
       <c r="X40">
-        <v>457.27566287519988</v>
+        <v>457.25215201077788</v>
       </c>
       <c r="Z40">
-        <v>322.35424204536741</v>
+        <v>321.58266028624831</v>
       </c>
       <c r="AA40">
         <v>322.35424204536741</v>
       </c>
-    </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="AF40">
+        <v>2111.8532</v>
+      </c>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E41">
         <v>7</v>
       </c>
+      <c r="G41">
+        <v>29</v>
+      </c>
       <c r="J41">
         <v>25.2</v>
       </c>
@@ -2785,19 +3146,19 @@
         <v>2291.3800500000002</v>
       </c>
       <c r="O41">
-        <v>2336.0844963513609</v>
+        <v>2247.5310896238698</v>
+      </c>
+      <c r="P41">
+        <v>1906.5536530976669</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
       </c>
       <c r="R41">
         <v>539</v>
       </c>
       <c r="S41" t="s">
-        <v>80</v>
-      </c>
-      <c r="T41">
-        <v>2.25</v>
-      </c>
-      <c r="U41">
-        <v>0.15</v>
+        <v>77</v>
       </c>
       <c r="V41">
         <v>2.25</v>
@@ -2806,28 +3167,34 @@
         <v>0.15</v>
       </c>
       <c r="X41">
-        <v>516.52050326034919</v>
+        <v>516.48782380465514</v>
       </c>
       <c r="Z41">
-        <v>1381.7065763197461</v>
+        <v>1380.741623589337</v>
       </c>
       <c r="AA41">
         <v>1381.7065763197461</v>
       </c>
-    </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="AF41">
+        <v>1943.7501999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D42" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E42">
         <v>8</v>
       </c>
+      <c r="G42">
+        <v>30</v>
+      </c>
       <c r="J42">
         <v>25.21</v>
       </c>
@@ -2844,19 +3211,19 @@
         <v>2291.3800500000002</v>
       </c>
       <c r="O42">
-        <v>2336.0776452034761</v>
+        <v>2247.5376810862308</v>
+      </c>
+      <c r="P42">
+        <v>1897.699863135228</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
       </c>
       <c r="R42">
         <v>548</v>
       </c>
       <c r="S42" t="s">
-        <v>80</v>
-      </c>
-      <c r="T42">
-        <v>2.25</v>
-      </c>
-      <c r="U42">
-        <v>0.15</v>
+        <v>77</v>
       </c>
       <c r="V42">
         <v>2.25</v>
@@ -2865,28 +3232,34 @@
         <v>0.15</v>
       </c>
       <c r="X42">
-        <v>516.11103515579714</v>
+        <v>516.07879075957794</v>
       </c>
       <c r="Z42">
-        <v>1379.0636853083431</v>
+        <v>1378.106180180336</v>
       </c>
       <c r="AA42">
         <v>1379.0636853083431</v>
       </c>
-    </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="AF42">
+        <v>1934.7180000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D43" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E43">
         <v>9</v>
       </c>
+      <c r="G43">
+        <v>31</v>
+      </c>
       <c r="J43">
         <v>25</v>
       </c>
@@ -2903,19 +3276,19 @@
         <v>2291.3800500000002</v>
       </c>
       <c r="O43">
-        <v>2336.221136142146</v>
+        <v>2247.3996370943469</v>
+      </c>
+      <c r="P43">
+        <v>1892.8755347947681</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
       </c>
       <c r="R43">
         <v>561</v>
       </c>
       <c r="S43" t="s">
-        <v>80</v>
-      </c>
-      <c r="T43">
-        <v>2.25</v>
-      </c>
-      <c r="U43">
-        <v>0.15</v>
+        <v>77</v>
       </c>
       <c r="V43">
         <v>2.25</v>
@@ -2924,28 +3297,34 @@
         <v>0.15</v>
       </c>
       <c r="X43">
-        <v>515.60616880577413</v>
+        <v>515.57439960168722</v>
       </c>
       <c r="Z43">
-        <v>1376.2698085921641</v>
+        <v>1375.3207063874961</v>
       </c>
       <c r="AA43">
         <v>1376.2698085921641</v>
       </c>
-    </row>
-    <row r="44" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="AF43">
+        <v>1929.9181000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E44">
         <v>10</v>
       </c>
+      <c r="G44">
+        <v>32</v>
+      </c>
       <c r="J44">
         <v>25</v>
       </c>
@@ -2962,17 +3341,17 @@
         <v>2291.3800500000002</v>
       </c>
       <c r="O44">
-        <v>2336.221136142146</v>
+        <v>2247.3996370943469</v>
+      </c>
+      <c r="P44">
+        <v>1761.999410777345</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
       </c>
       <c r="R44">
         <v>697</v>
       </c>
-      <c r="T44">
-        <v>3.15</v>
-      </c>
-      <c r="U44">
-        <v>0.15</v>
-      </c>
       <c r="V44">
         <v>3.15</v>
       </c>
@@ -2980,28 +3359,34 @@
         <v>0.15</v>
       </c>
       <c r="X44">
-        <v>631.89519711974185</v>
+        <v>631.87040448392725</v>
       </c>
       <c r="Z44">
-        <v>2372.2945507453628</v>
+        <v>2371.524077623189</v>
       </c>
       <c r="AA44">
         <v>2372.2945507453628</v>
       </c>
-    </row>
-    <row r="45" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="AF44">
+        <v>1796.4808</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D45" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E45">
         <v>11</v>
       </c>
+      <c r="G45">
+        <v>33</v>
+      </c>
       <c r="J45">
         <v>25.1</v>
       </c>
@@ -3018,17 +3403,17 @@
         <v>2291.3800500000002</v>
       </c>
       <c r="O45">
-        <v>2336.1529075282979</v>
+        <v>2247.4652736207522</v>
+      </c>
+      <c r="P45">
+        <v>1776.503863913513</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
       </c>
       <c r="R45">
         <v>690</v>
       </c>
-      <c r="T45">
-        <v>3.15</v>
-      </c>
-      <c r="U45">
-        <v>0.15</v>
-      </c>
       <c r="V45">
         <v>3.15</v>
       </c>
@@ -3036,28 +3421,34 @@
         <v>0.15</v>
       </c>
       <c r="X45">
-        <v>631.85154505192645</v>
+        <v>631.8269032083914</v>
       </c>
       <c r="Z45">
-        <v>2371.0065608492009</v>
+        <v>2370.2388154803989</v>
       </c>
       <c r="AA45">
         <v>2371.0065608492009</v>
       </c>
-    </row>
-    <row r="46" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="AF45">
+        <v>1811.2162000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E46">
         <v>12</v>
       </c>
+      <c r="G46">
+        <v>34</v>
+      </c>
       <c r="J46">
         <v>24.8</v>
       </c>
@@ -3074,17 +3465,17 @@
         <v>2291.3800500000002</v>
       </c>
       <c r="O46">
-        <v>2336.357044557567</v>
+        <v>2247.2689034275022</v>
+      </c>
+      <c r="P46">
+        <v>1655.9529638285719</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
       </c>
       <c r="R46">
         <v>803</v>
       </c>
-      <c r="T46">
-        <v>4.2</v>
-      </c>
-      <c r="U46">
-        <v>0.15</v>
-      </c>
       <c r="V46">
         <v>4.2</v>
       </c>
@@ -3092,28 +3483,34 @@
         <v>0.15</v>
       </c>
       <c r="X46">
-        <v>631.58695554935139</v>
+        <v>631.57604723981319</v>
       </c>
       <c r="Z46">
-        <v>2370.6613934554248</v>
+        <v>2370.1134170442979</v>
       </c>
       <c r="AA46">
         <v>2370.6613934554248</v>
       </c>
-    </row>
-    <row r="47" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="AF46">
+        <v>1688.4573</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D47" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E47">
         <v>13</v>
       </c>
+      <c r="G47">
+        <v>35</v>
+      </c>
       <c r="J47">
         <v>25</v>
       </c>
@@ -3130,13 +3527,13 @@
         <v>2291.3800500000002</v>
       </c>
       <c r="O47">
-        <v>2336.221136142146</v>
-      </c>
-      <c r="T47">
-        <v>4.2</v>
-      </c>
-      <c r="U47">
-        <v>0.15</v>
+        <v>2247.3996370943469</v>
+      </c>
+      <c r="P47">
+        <v>1668.6995395236229</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
       </c>
       <c r="V47">
         <v>4.2</v>
@@ -3145,24 +3542,27 @@
         <v>0.15</v>
       </c>
       <c r="X47">
-        <v>631.75320245648038</v>
+        <v>631.7422003726557</v>
       </c>
       <c r="Z47">
-        <v>2372.7084622496941</v>
+        <v>2372.1574245554939</v>
       </c>
       <c r="AA47">
         <v>2372.7084622496941</v>
       </c>
-    </row>
-    <row r="48" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="AF47">
+        <v>1701.3551</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D48" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3186,10 +3586,10 @@
         <v>2313.2669299999998</v>
       </c>
       <c r="O48">
-        <v>2359.2149343438182</v>
+        <v>2268.2138077088712</v>
       </c>
       <c r="P48">
-        <v>1644.413450556842</v>
+        <v>1580.984097649683</v>
       </c>
       <c r="R48">
         <v>785</v>
@@ -3201,27 +3601,27 @@
         <v>0.15</v>
       </c>
       <c r="X48">
-        <v>632.6221016116009</v>
+        <v>632.60562268760941</v>
       </c>
       <c r="Z48">
-        <v>2144.5399111882239</v>
+        <v>2143.814483283822</v>
       </c>
       <c r="AA48">
         <v>2144.5399111882239</v>
       </c>
-      <c r="AI48">
+      <c r="AF48">
         <v>1612.3869</v>
       </c>
     </row>
-    <row r="49" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D49" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -3245,10 +3645,10 @@
         <v>2313.2669299999998</v>
       </c>
       <c r="O49">
-        <v>2357.9097964041139</v>
+        <v>2269.469297592459</v>
       </c>
       <c r="P49">
-        <v>1601.8316593953521</v>
+        <v>1541.750145172344</v>
       </c>
       <c r="R49">
         <v>778</v>
@@ -3260,27 +3660,27 @@
         <v>0.15</v>
       </c>
       <c r="X49">
-        <v>634.8613245565906</v>
+        <v>634.85184379302598</v>
       </c>
       <c r="Z49">
-        <v>2186.74567985669</v>
+        <v>2186.2438182789801</v>
       </c>
       <c r="AA49">
         <v>2186.74567985669</v>
       </c>
-      <c r="AI49">
+      <c r="AF49">
         <v>1571.5038</v>
       </c>
     </row>
-    <row r="50" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E50">
         <v>3</v>
@@ -3301,7 +3701,7 @@
         <v>2313.2669299999998</v>
       </c>
       <c r="O50">
-        <v>2358.53633071679</v>
+        <v>2268.8664235268848</v>
       </c>
       <c r="V50">
         <v>4.2</v>
@@ -3310,24 +3710,24 @@
         <v>0.15</v>
       </c>
       <c r="X50">
-        <v>633.58933652101882</v>
+        <v>633.57939368025461</v>
       </c>
       <c r="Z50">
-        <v>2197.748137668716</v>
+        <v>2197.2303966443278</v>
       </c>
       <c r="AA50">
         <v>2197.748137668716</v>
       </c>
     </row>
-    <row r="51" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D51" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E51">
         <v>4</v>
@@ -3351,10 +3751,10 @@
         <v>2313.2669299999998</v>
       </c>
       <c r="O51">
-        <v>2358.4674503946039</v>
+        <v>2268.9326870024411</v>
       </c>
       <c r="P51">
-        <v>1558.3253298355421</v>
+        <v>1499.166451186826</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -3369,27 +3769,27 @@
         <v>0.15</v>
       </c>
       <c r="X51">
-        <v>632.05584428603652</v>
+        <v>632.04645331171571</v>
       </c>
       <c r="Z51">
-        <v>2334.7817895273688</v>
+        <v>2334.2823533109122</v>
       </c>
       <c r="AA51">
         <v>2334.7817895273688</v>
       </c>
-      <c r="AI51">
+      <c r="AF51">
         <v>1528.4597000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D52" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E52">
         <v>5</v>
@@ -3413,10 +3813,10 @@
         <v>2313.2669299999998</v>
       </c>
       <c r="O52">
-        <v>2358.4674503946039</v>
+        <v>2268.9326870024411</v>
       </c>
       <c r="P52">
-        <v>1599.695089912437</v>
+        <v>1538.965686438605</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -3428,27 +3828,27 @@
         <v>0.15</v>
       </c>
       <c r="X52">
-        <v>632.09175734357336</v>
+        <v>632.08235723163341</v>
       </c>
       <c r="Z52">
-        <v>2335.5314963921501</v>
+        <v>2335.031579826988</v>
       </c>
       <c r="AA52">
         <v>2335.5314963921501</v>
       </c>
-      <c r="AI52">
+      <c r="AF52">
         <v>1569.0365999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D53" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E53">
         <v>7</v>
@@ -3469,7 +3869,7 @@
         <v>2313.2669299999998</v>
       </c>
       <c r="O53">
-        <v>2358.3983857655162</v>
+        <v>2268.9991316690412</v>
       </c>
       <c r="V53">
         <v>2.25</v>
@@ -3478,15 +3878,15 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="54" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C54" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D54" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E54">
         <v>8</v>
@@ -3510,10 +3910,10 @@
         <v>2313.2669299999998</v>
       </c>
       <c r="O54">
-        <v>2358.3983857655162</v>
+        <v>2268.9991316690412</v>
       </c>
       <c r="P54">
-        <v>1957.1062344578429</v>
+        <v>1882.918667758292</v>
       </c>
       <c r="R54">
         <v>533</v>
@@ -3524,19 +3924,19 @@
       <c r="W54">
         <v>0.15</v>
       </c>
-      <c r="AI54">
+      <c r="AF54">
         <v>1919.6541</v>
       </c>
     </row>
-    <row r="55" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C55" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D55" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E55">
         <v>9</v>
@@ -3560,10 +3960,10 @@
         <v>2313.2669299999998</v>
       </c>
       <c r="O55">
-        <v>2358.3983857655162</v>
+        <v>2268.9991316690412</v>
       </c>
       <c r="P55">
-        <v>1975.6861894920621</v>
+        <v>1900.794316797718</v>
       </c>
       <c r="V55">
         <v>2.25</v>
@@ -3571,19 +3971,19 @@
       <c r="W55">
         <v>0.15</v>
       </c>
-      <c r="AI55">
+      <c r="AF55">
         <v>1937.8785</v>
       </c>
     </row>
-    <row r="56" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D56" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3607,10 +4007,10 @@
         <v>2283.7085999999999</v>
       </c>
       <c r="O56">
-        <v>2328.6024660050621</v>
+        <v>2239.6802570862792</v>
       </c>
       <c r="P56">
-        <v>539.91468660373005</v>
+        <v>519.2969954085205</v>
       </c>
       <c r="Q56">
         <v>40</v>
@@ -3625,27 +4025,27 @@
         <v>0.15</v>
       </c>
       <c r="X56">
-        <v>631.55010160782183</v>
+        <v>631.53373817731153</v>
       </c>
       <c r="Z56">
-        <v>2295.4234984806012</v>
+        <v>2294.7046236665842</v>
       </c>
       <c r="AA56">
         <v>2295.4234984806012</v>
       </c>
-      <c r="AI56">
+      <c r="AF56">
         <v>529.50549999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D57" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -3669,10 +4069,10 @@
         <v>2283.7085999999999</v>
       </c>
       <c r="O57">
-        <v>2328.6024660050621</v>
+        <v>2239.6802570862792</v>
       </c>
       <c r="P57">
-        <v>978.9038989571809</v>
+        <v>941.52255186799005</v>
       </c>
       <c r="Q57">
         <v>20</v>
@@ -3684,27 +4084,27 @@
         <v>0.15</v>
       </c>
       <c r="X57">
-        <v>631.66580654140137</v>
+        <v>631.65774835279569</v>
       </c>
       <c r="Z57">
-        <v>2302.0856583995519</v>
+        <v>2301.6334305163341</v>
       </c>
       <c r="AA57">
         <v>2302.0856583995519</v>
       </c>
-      <c r="AI57">
+      <c r="AF57">
         <v>960.03129999999999</v>
       </c>
     </row>
-    <row r="58" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C58" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D58" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -3728,10 +4128,10 @@
         <v>2283.7085999999999</v>
       </c>
       <c r="O58">
-        <v>2328.2633776288098</v>
+        <v>2240.0064442131288</v>
       </c>
       <c r="P58">
-        <v>1335.4200459222709</v>
+        <v>1284.798591662676</v>
       </c>
       <c r="Q58">
         <v>10</v>
@@ -3746,27 +4146,27 @@
         <v>0.15</v>
       </c>
       <c r="X58">
-        <v>632.01468331518299</v>
+        <v>632.00658395410312</v>
       </c>
       <c r="Z58">
-        <v>2302.3235292965242</v>
+        <v>2301.870649353998</v>
       </c>
       <c r="AA58">
         <v>2302.3235292965242</v>
       </c>
-      <c r="AI58">
+      <c r="AF58">
         <v>1309.8648000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D59" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E59">
         <v>4</v>
@@ -3790,10 +4190,10 @@
         <v>2283.7085999999999</v>
       </c>
       <c r="O59">
-        <v>2328.2633776288098</v>
+        <v>2240.0064442131288</v>
       </c>
       <c r="P59">
-        <v>1531.5098148805371</v>
+        <v>1473.45523177103</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -3808,27 +4208,27 @@
         <v>0.15</v>
       </c>
       <c r="X59">
-        <v>631.96302460116976</v>
+        <v>631.95494452640798</v>
       </c>
       <c r="Z59">
-        <v>2301.301319690906</v>
+        <v>2300.8490665920581</v>
       </c>
       <c r="AA59">
         <v>2301.301319690906</v>
       </c>
-      <c r="AI59">
+      <c r="AF59">
         <v>1502.2021</v>
       </c>
     </row>
-    <row r="60" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D60" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E60">
         <v>5</v>
@@ -3852,10 +4252,10 @@
         <v>2283.7085999999999</v>
       </c>
       <c r="O60">
-        <v>2328.3315597678261</v>
+        <v>2239.9408485593931</v>
       </c>
       <c r="P60">
-        <v>1660.759706011095</v>
+        <v>1597.712099691973</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -3867,27 +4267,27 @@
         <v>0.15</v>
       </c>
       <c r="X60">
-        <v>631.96211911034743</v>
+        <v>631.95409824109095</v>
       </c>
       <c r="Z60">
-        <v>2300.1599667140272</v>
+        <v>2299.7098163962819</v>
       </c>
       <c r="AA60">
         <v>2300.1599667140272</v>
       </c>
-      <c r="AI60">
+      <c r="AF60">
         <v>1628.9309000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C61" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D61" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E61">
         <v>6</v>
@@ -3911,10 +4311,10 @@
         <v>2283.7085999999999</v>
       </c>
       <c r="O61">
-        <v>2328.3315597678261</v>
+        <v>2239.9408485593931</v>
       </c>
       <c r="P61">
-        <v>1715.9149681082961</v>
+        <v>1650.7734964102481</v>
       </c>
       <c r="Q61">
         <v>0.5</v>
@@ -3929,27 +4329,27 @@
         <v>0.15</v>
       </c>
       <c r="X61">
-        <v>631.89711978187233</v>
+        <v>631.88915105697413</v>
       </c>
       <c r="Z61">
-        <v>2297.2916945101688</v>
+        <v>2296.8432373357218</v>
       </c>
       <c r="AA61">
         <v>2297.2916945101688</v>
       </c>
-      <c r="AI61">
+      <c r="AF61">
         <v>1683.0291</v>
       </c>
     </row>
-    <row r="62" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C62" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D62" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E62">
         <v>7</v>
@@ -3973,10 +4373,10 @@
         <v>2283.7085999999999</v>
       </c>
       <c r="O62">
-        <v>2328.3315597678261</v>
+        <v>2239.9408485593931</v>
       </c>
       <c r="P62">
-        <v>1757.023624070395</v>
+        <v>1690.321539871919</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -3988,27 +4388,27 @@
         <v>0.15</v>
       </c>
       <c r="X62">
-        <v>631.90818052603561</v>
+        <v>631.90012519082279</v>
       </c>
       <c r="Z62">
-        <v>2300.6980473045678</v>
+        <v>2300.2466367903821</v>
       </c>
       <c r="AA62">
         <v>2300.6980473045678</v>
       </c>
-      <c r="AI62">
+      <c r="AF62">
         <v>1723.3498999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D63" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E63">
         <v>8</v>
@@ -4032,10 +4432,10 @@
         <v>2283.7085999999999</v>
       </c>
       <c r="O63">
-        <v>2328.3315597678261</v>
+        <v>2239.9408485593931</v>
       </c>
       <c r="P63">
-        <v>1684.800757780481</v>
+        <v>1620.840478326307</v>
       </c>
       <c r="Q63">
         <v>1</v>
@@ -4050,27 +4450,27 @@
         <v>0.15</v>
       </c>
       <c r="X63">
-        <v>631.91089160747401</v>
+        <v>631.90287506517791</v>
       </c>
       <c r="Z63">
-        <v>2299.5989866068562</v>
+        <v>2299.148944467443</v>
       </c>
       <c r="AA63">
         <v>2299.5989866068562</v>
       </c>
-      <c r="AI63">
+      <c r="AF63">
         <v>1652.5111999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C64" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D64" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4094,10 +4494,10 @@
         <v>2267.9422</v>
       </c>
       <c r="O64">
-        <v>2312.2570891878559</v>
+        <v>2224.476614902469</v>
       </c>
       <c r="P64">
-        <v>1271.1344568800309</v>
+        <v>1222.8782374366219</v>
       </c>
       <c r="Q64">
         <v>10</v>
@@ -4112,27 +4512,27 @@
         <v>0.15</v>
       </c>
       <c r="X64">
-        <v>631.87363901995923</v>
+        <v>631.8657562523664</v>
       </c>
       <c r="Z64">
-        <v>2297.3393252886749</v>
+        <v>2296.8951588346099</v>
       </c>
       <c r="AA64">
         <v>2297.3393252886749</v>
       </c>
-      <c r="AI64">
+      <c r="AF64">
         <v>1246.7728999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C65" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D65" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -4156,10 +4556,10 @@
         <v>2267.9422</v>
       </c>
       <c r="O65">
-        <v>2312.2570891878559</v>
+        <v>2224.476614902469</v>
       </c>
       <c r="P65">
-        <v>943.1529223919606</v>
+        <v>907.34790259621889</v>
       </c>
       <c r="Q65">
         <v>20</v>
@@ -4174,27 +4574,27 @@
         <v>0.15</v>
       </c>
       <c r="X65">
-        <v>631.84916783734536</v>
+        <v>631.84123781773678</v>
       </c>
       <c r="Z65">
-        <v>2297.5622144235899</v>
+        <v>2297.1162683706948</v>
       </c>
       <c r="AA65">
         <v>2297.5622144235899</v>
       </c>
-      <c r="AI65">
+      <c r="AF65">
         <v>925.07719999999995</v>
       </c>
     </row>
-    <row r="66" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C66" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D66" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E66">
         <v>3</v>
@@ -4218,10 +4618,10 @@
         <v>2267.9422</v>
       </c>
       <c r="O66">
-        <v>2312.2570891878559</v>
+        <v>2224.476614902469</v>
       </c>
       <c r="P66">
-        <v>1463.8599817446641</v>
+        <v>1408.287301662589</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -4236,27 +4636,27 @@
         <v>0.15</v>
       </c>
       <c r="X66">
-        <v>631.85768727240429</v>
+        <v>631.84975519770865</v>
       </c>
       <c r="Z66">
-        <v>2298.348162198758</v>
+        <v>2297.902215029841</v>
       </c>
       <c r="AA66">
         <v>2298.348162198758</v>
       </c>
-      <c r="AI66">
+      <c r="AF66">
         <v>1435.8047999999999</v>
       </c>
     </row>
-    <row r="67" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C67" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D67" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E67">
         <v>4</v>
@@ -4280,10 +4680,10 @@
         <v>2267.9422</v>
       </c>
       <c r="O67">
-        <v>2312.18937776865</v>
+        <v>2224.5417576931231</v>
       </c>
       <c r="P67">
-        <v>489.50418967283667</v>
+        <v>470.94866924084369</v>
       </c>
       <c r="Q67">
         <v>43</v>
@@ -4298,27 +4698,27 @@
         <v>0.15</v>
       </c>
       <c r="X67">
-        <v>631.94357525044063</v>
+        <v>631.93562731648422</v>
       </c>
       <c r="Z67">
-        <v>2299.210465897927</v>
+        <v>2298.7640390332558</v>
       </c>
       <c r="AA67">
         <v>2299.210465897927</v>
       </c>
-      <c r="AI67">
+      <c r="AF67">
         <v>480.13679999999999</v>
       </c>
     </row>
-    <row r="68" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C68" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D68" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E68">
         <v>5</v>
@@ -4342,10 +4742,10 @@
         <v>2267.9422</v>
       </c>
       <c r="O68">
-        <v>2312.18937776865</v>
+        <v>2224.5417576931231</v>
       </c>
       <c r="P68">
-        <v>51.495339807229968</v>
+        <v>49.543318047040117</v>
       </c>
       <c r="Q68">
         <v>140</v>
@@ -4357,27 +4757,27 @@
         <v>0.15</v>
       </c>
       <c r="X68">
-        <v>632.0299281201095</v>
+        <v>632.02188429183082</v>
       </c>
       <c r="Z68">
-        <v>2303.5148299564662</v>
+        <v>2303.064550827582</v>
       </c>
       <c r="AA68">
         <v>2303.5148299564662</v>
       </c>
-      <c r="AI68">
+      <c r="AF68">
         <v>50.509900000000002</v>
       </c>
     </row>
-    <row r="69" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C69" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D69" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E69">
         <v>6</v>
@@ -4401,10 +4801,10 @@
         <v>2267.9422</v>
       </c>
       <c r="O69">
-        <v>2312.2570891878559</v>
+        <v>2224.476614902469</v>
       </c>
       <c r="P69">
-        <v>1695.4206910150299</v>
+        <v>1631.057245848632</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -4416,27 +4816,27 @@
         <v>0.15</v>
       </c>
       <c r="X69">
-        <v>631.91797314545863</v>
+        <v>631.90968663776084</v>
       </c>
       <c r="Z69">
-        <v>2309.582920259706</v>
+        <v>2309.1247063758619</v>
       </c>
       <c r="AA69">
         <v>2309.582920259706</v>
       </c>
-      <c r="AI69">
+      <c r="AF69">
         <v>1662.9276</v>
       </c>
     </row>
-    <row r="70" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C70" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D70" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E70">
         <v>7</v>
@@ -4460,10 +4860,10 @@
         <v>2267.9422</v>
       </c>
       <c r="O70">
-        <v>2312.18937776865</v>
+        <v>2224.5417576931231</v>
       </c>
       <c r="P70">
-        <v>1068.7634764311749</v>
+        <v>1028.2501101673629</v>
       </c>
       <c r="Q70">
         <v>15.5</v>
@@ -4478,27 +4878,27 @@
         <v>0.15</v>
       </c>
       <c r="X70">
-        <v>632.00779258954606</v>
+        <v>631.99984467083766</v>
       </c>
       <c r="Z70">
-        <v>2299.227089573928</v>
+        <v>2298.780658465238</v>
       </c>
       <c r="AA70">
         <v>2299.227089573928</v>
       </c>
-      <c r="AI70">
+      <c r="AF70">
         <v>1048.3110999999999</v>
       </c>
     </row>
-    <row r="71" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C71" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D71" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -4522,10 +4922,10 @@
         <v>2267.9422</v>
       </c>
       <c r="O71">
-        <v>2312.5261251268848</v>
+        <v>2224.217822515895</v>
       </c>
       <c r="P71">
-        <v>1683.148351269776</v>
+        <v>1618.8740616398741</v>
       </c>
       <c r="Q71">
         <v>0.5</v>
@@ -4540,27 +4940,27 @@
         <v>0.15</v>
       </c>
       <c r="X71">
-        <v>631.60580306972668</v>
+        <v>631.58930924786762</v>
       </c>
       <c r="Z71">
-        <v>2297.9096280598419</v>
+        <v>2297.1883484890791</v>
       </c>
       <c r="AA71">
         <v>2297.9096280598419</v>
       </c>
-      <c r="AI71">
+      <c r="AF71">
         <v>1650.6984</v>
       </c>
     </row>
-    <row r="72" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C72" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D72" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -4584,10 +4984,10 @@
         <v>2267.9422</v>
       </c>
       <c r="O72">
-        <v>2312.2570891878559</v>
+        <v>2224.476614902469</v>
       </c>
       <c r="P72">
-        <v>952.25832941592626</v>
+        <v>916.10764003575002</v>
       </c>
       <c r="Q72">
         <v>20</v>
@@ -4602,27 +5002,27 @@
         <v>0.15</v>
       </c>
       <c r="X72">
-        <v>632.02273075428684</v>
+        <v>632.01467843618025</v>
       </c>
       <c r="Z72">
-        <v>2302.5627502602438</v>
+        <v>2302.1126601933938</v>
       </c>
       <c r="AA72">
         <v>2302.5627502602438</v>
       </c>
-      <c r="AI72">
+      <c r="AF72">
         <v>934.00810000000001</v>
       </c>
     </row>
-    <row r="73" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C73" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D73" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E73">
         <v>3</v>
@@ -4643,7 +5043,7 @@
         <v>2267.9422</v>
       </c>
       <c r="O73">
-        <v>2312.4591381597238</v>
+        <v>2224.2822533219469</v>
       </c>
       <c r="V73">
         <v>4.2</v>
@@ -4652,24 +5052,24 @@
         <v>0.15</v>
       </c>
       <c r="X73">
-        <v>631.89610900212631</v>
+        <v>631.88796889912089</v>
       </c>
       <c r="Z73">
-        <v>2306.3344905644208</v>
+        <v>2305.8819181185281</v>
       </c>
       <c r="AA73">
         <v>2306.3344905644208</v>
       </c>
     </row>
-    <row r="74" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C74" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D74" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E74">
         <v>4</v>
@@ -4690,10 +5090,10 @@
         <v>2267.9422</v>
       </c>
       <c r="O74">
-        <v>2312.4591381597238</v>
+        <v>2224.2822533219469</v>
       </c>
       <c r="P74">
-        <v>2058.349394865571</v>
+        <v>1979.8620241908161</v>
       </c>
       <c r="Q74">
         <v>0.05</v>
@@ -4707,19 +5107,19 @@
       <c r="W74">
         <v>4.2</v>
       </c>
-      <c r="AI74">
+      <c r="AF74">
         <v>2018.7243000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C75" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D75" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -4740,10 +5140,10 @@
         <v>2267.9422</v>
       </c>
       <c r="O75">
-        <v>2312.3919696614671</v>
+        <v>2224.3468624801772</v>
       </c>
       <c r="P75">
-        <v>1948.491624383877</v>
+        <v>1874.3021460594739</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -4757,19 +5157,19 @@
       <c r="W75">
         <v>4.2</v>
       </c>
-      <c r="AI75">
+      <c r="AF75">
         <v>1911.0369000000001</v>
       </c>
     </row>
-    <row r="76" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C76" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D76" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E76">
         <v>6</v>
@@ -4790,10 +5190,10 @@
         <v>2267.9422</v>
       </c>
       <c r="O76">
-        <v>2312.3246199113578</v>
+        <v>2224.4116497527129</v>
       </c>
       <c r="P76">
-        <v>1780.7430205908579</v>
+        <v>1713.0404122799971</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -4807,19 +5207,19 @@
       <c r="W76">
         <v>4.2</v>
       </c>
-      <c r="AI76">
+      <c r="AF76">
         <v>1746.5636999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C77" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E77">
         <v>7</v>
@@ -4840,10 +5240,10 @@
         <v>2267.9422</v>
       </c>
       <c r="O77">
-        <v>2312.2570891878559</v>
+        <v>2224.476614902469</v>
       </c>
       <c r="P77">
-        <v>1326.0268816449609</v>
+        <v>1275.6867749456439</v>
       </c>
       <c r="Q77">
         <v>15.5</v>
@@ -4857,19 +5257,19 @@
       <c r="W77">
         <v>4.2</v>
       </c>
-      <c r="AI77">
+      <c r="AF77">
         <v>1300.6133</v>
       </c>
     </row>
-    <row r="78" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C78" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D78" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E78">
         <v>8</v>
@@ -4890,10 +5290,10 @@
         <v>2267.9422</v>
       </c>
       <c r="O78">
-        <v>2312.2570891878559</v>
+        <v>2224.476614902469</v>
       </c>
       <c r="P78">
-        <v>384.85451705621779</v>
+        <v>370.2442420154203</v>
       </c>
       <c r="Q78">
         <v>60</v>
@@ -4907,19 +5307,19 @@
       <c r="W78">
         <v>4.2</v>
       </c>
-      <c r="AI78">
+      <c r="AF78">
         <v>377.4787</v>
       </c>
     </row>
-    <row r="79" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C79" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D79" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E79">
         <v>9</v>
@@ -4940,10 +5340,10 @@
         <v>2267.9422</v>
       </c>
       <c r="O79">
-        <v>2312.2570891878559</v>
+        <v>2224.476614902469</v>
       </c>
       <c r="P79">
-        <v>1517.3073109519489</v>
+        <v>1459.70560393812</v>
       </c>
       <c r="Q79">
         <v>10.5</v>
@@ -4957,19 +5357,19 @@
       <c r="W79">
         <v>4.2</v>
       </c>
-      <c r="AI79">
+      <c r="AF79">
         <v>1488.2277999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C80" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D80" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E80">
         <v>10</v>
@@ -4990,10 +5390,10 @@
         <v>2267.9422</v>
       </c>
       <c r="O80">
-        <v>2312.2570891878559</v>
+        <v>2224.476614902469</v>
       </c>
       <c r="P80">
-        <v>1619.132206300382</v>
+        <v>1557.6649094049001</v>
       </c>
       <c r="Q80">
         <v>8.5</v>
@@ -5007,19 +5407,19 @@
       <c r="W80">
         <v>4.2</v>
       </c>
-      <c r="AI80">
+      <c r="AF80">
         <v>1588.1012000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C81" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D81" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E81">
         <v>11</v>
@@ -5040,10 +5440,10 @@
         <v>2267.9422</v>
       </c>
       <c r="O81">
-        <v>2312.18937776865</v>
+        <v>2224.5417576931231</v>
       </c>
       <c r="P81">
-        <v>1017.077590235812</v>
+        <v>978.52346872940348</v>
       </c>
       <c r="Q81">
         <v>25</v>
@@ -5057,19 +5457,19 @@
       <c r="W81">
         <v>4.2</v>
       </c>
-      <c r="AI81">
+      <c r="AF81">
         <v>997.61429999999996</v>
       </c>
     </row>
-    <row r="82" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C82" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D82" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E82">
         <v>12</v>
@@ -5090,10 +5490,10 @@
         <v>2267.9422</v>
       </c>
       <c r="O82">
-        <v>2312.18937776865</v>
+        <v>2224.5417576931231</v>
       </c>
       <c r="P82">
-        <v>668.00771983291133</v>
+        <v>642.68570797766438</v>
       </c>
       <c r="Q82">
         <v>41</v>
@@ -5107,19 +5507,19 @@
       <c r="W82">
         <v>4.2</v>
       </c>
-      <c r="AI82">
+      <c r="AF82">
         <v>655.22439999999995</v>
       </c>
     </row>
-    <row r="83" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C83" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D83" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E83">
         <v>13</v>
@@ -5140,10 +5540,10 @@
         <v>2267.9422</v>
       </c>
       <c r="O83">
-        <v>2312.18937776865</v>
+        <v>2224.5417576931231</v>
       </c>
       <c r="P83">
-        <v>785.11279945396871</v>
+        <v>755.35171282992155</v>
       </c>
       <c r="Q83">
         <v>30</v>
@@ -5157,19 +5557,19 @@
       <c r="W83">
         <v>4.2</v>
       </c>
-      <c r="AI83">
+      <c r="AF83">
         <v>770.08849999999995</v>
       </c>
     </row>
-    <row r="84" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C84" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D84" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E84">
         <v>14</v>
@@ -5190,10 +5590,10 @@
         <v>2267.9422</v>
       </c>
       <c r="O84">
-        <v>2312.3246199113578</v>
+        <v>2224.4116497527129</v>
       </c>
       <c r="P84">
-        <v>1778.8937254917171</v>
+        <v>1711.261426091407</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -5207,19 +5607,19 @@
       <c r="W84">
         <v>4.2</v>
       </c>
-      <c r="AI84">
+      <c r="AF84">
         <v>1744.7499</v>
       </c>
     </row>
-    <row r="85" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C85" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D85" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E85">
         <v>15</v>
@@ -5240,10 +5640,10 @@
         <v>2267.9422</v>
       </c>
       <c r="O85">
-        <v>2312.3919696614671</v>
+        <v>2224.3468624801772</v>
       </c>
       <c r="P85">
-        <v>2050.9098505434808</v>
+        <v>1972.8207635809879</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -5257,8 +5657,4206 @@
       <c r="W85">
         <v>4.2</v>
       </c>
-      <c r="AI85">
+      <c r="AF85">
         <v>2011.4864</v>
+      </c>
+    </row>
+    <row r="86" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" t="s">
+        <v>132</v>
+      </c>
+      <c r="D86" t="s">
+        <v>34</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>107</v>
+      </c>
+      <c r="J86">
+        <v>24.9</v>
+      </c>
+      <c r="K86">
+        <v>172.85</v>
+      </c>
+      <c r="L86">
+        <v>30</v>
+      </c>
+      <c r="M86">
+        <v>0.1</v>
+      </c>
+      <c r="N86">
+        <v>2294.8678300000001</v>
+      </c>
+      <c r="O86">
+        <v>2250.7549167113661</v>
+      </c>
+      <c r="P86">
+        <v>1664.8337513455481</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>694</v>
+      </c>
+      <c r="V86">
+        <v>4.2</v>
+      </c>
+      <c r="W86">
+        <v>0.15</v>
+      </c>
+      <c r="X86">
+        <v>631.63972804884656</v>
+      </c>
+      <c r="Z86">
+        <v>2294.4249745338939</v>
+      </c>
+      <c r="AF86">
+        <v>1697.4630999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>133</v>
+      </c>
+      <c r="C87" t="s">
+        <v>132</v>
+      </c>
+      <c r="D87" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="G87">
+        <v>108</v>
+      </c>
+      <c r="J87">
+        <v>25</v>
+      </c>
+      <c r="K87">
+        <v>172.05</v>
+      </c>
+      <c r="L87">
+        <v>30</v>
+      </c>
+      <c r="M87">
+        <v>0.1</v>
+      </c>
+      <c r="N87">
+        <v>2294.8678300000001</v>
+      </c>
+      <c r="O87">
+        <v>2250.8204731561191</v>
+      </c>
+      <c r="P87">
+        <v>2091.9315153632419</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>240</v>
+      </c>
+      <c r="V87">
+        <v>1.2</v>
+      </c>
+      <c r="W87">
+        <v>0.15</v>
+      </c>
+      <c r="X87">
+        <v>460.40070434800373</v>
+      </c>
+      <c r="Z87">
+        <v>292.58074504303409</v>
+      </c>
+      <c r="AF87">
+        <v>2132.8694999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>134</v>
+      </c>
+      <c r="C88" t="s">
+        <v>132</v>
+      </c>
+      <c r="D88" t="s">
+        <v>34</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
+      <c r="G88">
+        <v>110</v>
+      </c>
+      <c r="J88">
+        <v>25.2</v>
+      </c>
+      <c r="K88">
+        <v>171.75</v>
+      </c>
+      <c r="L88">
+        <v>30</v>
+      </c>
+      <c r="M88">
+        <v>0.1</v>
+      </c>
+      <c r="N88">
+        <v>2294.8678300000001</v>
+      </c>
+      <c r="O88">
+        <v>2250.9521257735769</v>
+      </c>
+      <c r="P88">
+        <v>1231.649717421521</v>
+      </c>
+      <c r="Q88">
+        <v>68</v>
+      </c>
+      <c r="R88">
+        <v>254</v>
+      </c>
+      <c r="V88">
+        <v>1.2</v>
+      </c>
+      <c r="W88">
+        <v>0.15</v>
+      </c>
+      <c r="X88">
+        <v>460.19088806208362</v>
+      </c>
+      <c r="Z88">
+        <v>289.3159305762303</v>
+      </c>
+      <c r="AF88">
+        <v>1255.6790000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>135</v>
+      </c>
+      <c r="C89" t="s">
+        <v>132</v>
+      </c>
+      <c r="D89" t="s">
+        <v>34</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="G89">
+        <v>111</v>
+      </c>
+      <c r="J89">
+        <v>25.1</v>
+      </c>
+      <c r="K89">
+        <v>170.6</v>
+      </c>
+      <c r="L89">
+        <v>30</v>
+      </c>
+      <c r="M89">
+        <v>0.1</v>
+      </c>
+      <c r="N89">
+        <v>2294.8678300000001</v>
+      </c>
+      <c r="O89">
+        <v>2250.886209589898</v>
+      </c>
+      <c r="P89">
+        <v>1931.1600302533141</v>
+      </c>
+      <c r="Q89">
+        <v>5</v>
+      </c>
+      <c r="V89">
+        <v>1.2</v>
+      </c>
+      <c r="W89">
+        <v>0.15</v>
+      </c>
+      <c r="X89">
+        <v>459.91850519293888</v>
+      </c>
+      <c r="Z89">
+        <v>293.58979014483958</v>
+      </c>
+      <c r="AF89">
+        <v>1968.8942999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>136</v>
+      </c>
+      <c r="C90" t="s">
+        <v>132</v>
+      </c>
+      <c r="D90" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+      <c r="G90">
+        <v>112</v>
+      </c>
+      <c r="J90">
+        <v>25.1</v>
+      </c>
+      <c r="K90">
+        <v>170.1</v>
+      </c>
+      <c r="L90">
+        <v>30</v>
+      </c>
+      <c r="M90">
+        <v>0.1</v>
+      </c>
+      <c r="N90">
+        <v>2294.8678300000001</v>
+      </c>
+      <c r="O90">
+        <v>2250.886209589898</v>
+      </c>
+      <c r="P90">
+        <v>2087.0161498770522</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>250</v>
+      </c>
+      <c r="V90">
+        <v>1.2</v>
+      </c>
+      <c r="W90">
+        <v>0.15</v>
+      </c>
+      <c r="X90">
+        <v>460.18386268011932</v>
+      </c>
+      <c r="Z90">
+        <v>294.52556622969468</v>
+      </c>
+      <c r="AF90">
+        <v>2127.7957999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>137</v>
+      </c>
+      <c r="C91" t="s">
+        <v>132</v>
+      </c>
+      <c r="D91" t="s">
+        <v>34</v>
+      </c>
+      <c r="E91">
+        <v>6</v>
+      </c>
+      <c r="G91">
+        <v>113</v>
+      </c>
+      <c r="J91">
+        <v>25.1</v>
+      </c>
+      <c r="K91">
+        <v>169.85</v>
+      </c>
+      <c r="L91">
+        <v>30</v>
+      </c>
+      <c r="M91">
+        <v>0.1</v>
+      </c>
+      <c r="N91">
+        <v>2294.8678300000001</v>
+      </c>
+      <c r="O91">
+        <v>2250.886209589898</v>
+      </c>
+      <c r="P91">
+        <v>1955.2538445729349</v>
+      </c>
+      <c r="Q91">
+        <v>5</v>
+      </c>
+      <c r="R91">
+        <v>257</v>
+      </c>
+      <c r="V91">
+        <v>1.2</v>
+      </c>
+      <c r="W91">
+        <v>0.15</v>
+      </c>
+      <c r="X91">
+        <v>460.03782442304907</v>
+      </c>
+      <c r="Z91">
+        <v>292.68180904261033</v>
+      </c>
+      <c r="AF91">
+        <v>1993.4589000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>138</v>
+      </c>
+      <c r="C92" t="s">
+        <v>132</v>
+      </c>
+      <c r="D92" t="s">
+        <v>34</v>
+      </c>
+      <c r="E92">
+        <v>7</v>
+      </c>
+      <c r="G92">
+        <v>114</v>
+      </c>
+      <c r="J92">
+        <v>25.1</v>
+      </c>
+      <c r="K92">
+        <v>169.35</v>
+      </c>
+      <c r="L92">
+        <v>30</v>
+      </c>
+      <c r="M92">
+        <v>0.1</v>
+      </c>
+      <c r="N92">
+        <v>2294.8678300000001</v>
+      </c>
+      <c r="O92">
+        <v>2250.886209589898</v>
+      </c>
+      <c r="P92">
+        <v>1860.638106826947</v>
+      </c>
+      <c r="Q92">
+        <v>10</v>
+      </c>
+      <c r="R92">
+        <v>240</v>
+      </c>
+      <c r="V92">
+        <v>1.2</v>
+      </c>
+      <c r="W92">
+        <v>0.15</v>
+      </c>
+      <c r="X92">
+        <v>460.34425235269538</v>
+      </c>
+      <c r="Z92">
+        <v>299.04394448602801</v>
+      </c>
+      <c r="AF92">
+        <v>1896.9944</v>
+      </c>
+    </row>
+    <row r="93" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>139</v>
+      </c>
+      <c r="C93" t="s">
+        <v>132</v>
+      </c>
+      <c r="D93" t="s">
+        <v>34</v>
+      </c>
+      <c r="E93">
+        <v>8</v>
+      </c>
+      <c r="G93">
+        <v>115</v>
+      </c>
+      <c r="J93">
+        <v>25.1</v>
+      </c>
+      <c r="K93">
+        <v>169.2</v>
+      </c>
+      <c r="L93">
+        <v>30</v>
+      </c>
+      <c r="M93">
+        <v>0.1</v>
+      </c>
+      <c r="N93">
+        <v>2294.8678300000001</v>
+      </c>
+      <c r="O93">
+        <v>2250.886209589898</v>
+      </c>
+      <c r="P93">
+        <v>1858.548438303626</v>
+      </c>
+      <c r="Q93">
+        <v>10</v>
+      </c>
+      <c r="R93">
+        <v>243</v>
+      </c>
+      <c r="V93">
+        <v>1.2</v>
+      </c>
+      <c r="W93">
+        <v>0.15</v>
+      </c>
+      <c r="X93">
+        <v>460.15642481810238</v>
+      </c>
+      <c r="Z93">
+        <v>295.69261407937171</v>
+      </c>
+      <c r="AF93">
+        <v>1894.8639000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>140</v>
+      </c>
+      <c r="C94" t="s">
+        <v>132</v>
+      </c>
+      <c r="D94" t="s">
+        <v>34</v>
+      </c>
+      <c r="E94">
+        <v>9</v>
+      </c>
+      <c r="J94">
+        <v>25.2</v>
+      </c>
+      <c r="K94">
+        <v>168.7</v>
+      </c>
+      <c r="L94">
+        <v>30</v>
+      </c>
+      <c r="M94">
+        <v>0.1</v>
+      </c>
+      <c r="N94">
+        <v>2294.8678300000001</v>
+      </c>
+      <c r="O94">
+        <v>2250.9521257735769</v>
+      </c>
+      <c r="Q94">
+        <v>30</v>
+      </c>
+      <c r="V94">
+        <v>1.2</v>
+      </c>
+      <c r="W94">
+        <v>0.15</v>
+      </c>
+      <c r="X94">
+        <v>460.29087316546497</v>
+      </c>
+      <c r="Z94">
+        <v>299.30108440046968</v>
+      </c>
+    </row>
+    <row r="95" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>141</v>
+      </c>
+      <c r="C95" t="s">
+        <v>132</v>
+      </c>
+      <c r="D95" t="s">
+        <v>34</v>
+      </c>
+      <c r="E95">
+        <v>10</v>
+      </c>
+      <c r="J95">
+        <v>25.2</v>
+      </c>
+      <c r="K95">
+        <v>168.35</v>
+      </c>
+      <c r="L95">
+        <v>30</v>
+      </c>
+      <c r="M95">
+        <v>0.1</v>
+      </c>
+      <c r="N95">
+        <v>2294.8678300000001</v>
+      </c>
+      <c r="O95">
+        <v>2250.9521257735769</v>
+      </c>
+      <c r="V95">
+        <v>1.2</v>
+      </c>
+      <c r="W95">
+        <v>0.15</v>
+      </c>
+      <c r="X95">
+        <v>460.14654457701221</v>
+      </c>
+      <c r="Z95">
+        <v>299.27798093122982</v>
+      </c>
+    </row>
+    <row r="96" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>142</v>
+      </c>
+      <c r="C96" t="s">
+        <v>143</v>
+      </c>
+      <c r="D96" t="s">
+        <v>34</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>25.1</v>
+      </c>
+      <c r="K96">
+        <v>167.35</v>
+      </c>
+      <c r="L96">
+        <v>30</v>
+      </c>
+      <c r="M96">
+        <v>0.1</v>
+      </c>
+      <c r="N96">
+        <v>2263.3636799999999</v>
+      </c>
+      <c r="O96">
+        <v>2219.9858431928269</v>
+      </c>
+      <c r="V96">
+        <v>4.2</v>
+      </c>
+      <c r="W96">
+        <v>0.15</v>
+      </c>
+      <c r="X96">
+        <v>632.16637204841163</v>
+      </c>
+      <c r="Z96">
+        <v>2298.7501593160332</v>
+      </c>
+    </row>
+    <row r="97" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>144</v>
+      </c>
+      <c r="C97" t="s">
+        <v>143</v>
+      </c>
+      <c r="D97" t="s">
+        <v>34</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="J97">
+        <v>25.1</v>
+      </c>
+      <c r="K97">
+        <v>166.85</v>
+      </c>
+      <c r="L97">
+        <v>30</v>
+      </c>
+      <c r="M97">
+        <v>0.1</v>
+      </c>
+      <c r="N97">
+        <v>2263.3636799999999</v>
+      </c>
+      <c r="O97">
+        <v>2219.9858431928269</v>
+      </c>
+      <c r="V97">
+        <v>4.2</v>
+      </c>
+      <c r="W97">
+        <v>0.15</v>
+      </c>
+      <c r="X97">
+        <v>632.17000149938781</v>
+      </c>
+      <c r="Z97">
+        <v>2301.1547998561809</v>
+      </c>
+    </row>
+    <row r="98" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>145</v>
+      </c>
+      <c r="C98" t="s">
+        <v>143</v>
+      </c>
+      <c r="D98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="J98">
+        <v>25.2</v>
+      </c>
+      <c r="K98">
+        <v>166.5</v>
+      </c>
+      <c r="L98">
+        <v>30</v>
+      </c>
+      <c r="M98">
+        <v>0.1</v>
+      </c>
+      <c r="N98">
+        <v>2263.3636799999999</v>
+      </c>
+      <c r="O98">
+        <v>2220.0508544732638</v>
+      </c>
+      <c r="V98">
+        <v>4.2</v>
+      </c>
+      <c r="W98">
+        <v>0.15</v>
+      </c>
+      <c r="X98">
+        <v>632.20936190979342</v>
+      </c>
+      <c r="Z98">
+        <v>2301.49184626224</v>
+      </c>
+    </row>
+    <row r="99" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>146</v>
+      </c>
+      <c r="C99" t="s">
+        <v>143</v>
+      </c>
+      <c r="D99" t="s">
+        <v>147</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="J99">
+        <v>25.2</v>
+      </c>
+      <c r="K99">
+        <v>178.7</v>
+      </c>
+      <c r="L99">
+        <v>30</v>
+      </c>
+      <c r="M99">
+        <v>0.1</v>
+      </c>
+      <c r="N99">
+        <v>2263.3636799999999</v>
+      </c>
+      <c r="O99">
+        <v>2220.0508544732638</v>
+      </c>
+      <c r="V99">
+        <v>4.2</v>
+      </c>
+      <c r="W99">
+        <v>0.15</v>
+      </c>
+      <c r="X99">
+        <v>645.41802458589621</v>
+      </c>
+      <c r="Z99">
+        <v>1394.3848283829279</v>
+      </c>
+    </row>
+    <row r="100" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>148</v>
+      </c>
+      <c r="C100" t="s">
+        <v>143</v>
+      </c>
+      <c r="D100" t="s">
+        <v>149</v>
+      </c>
+      <c r="E100">
+        <v>5</v>
+      </c>
+      <c r="J100">
+        <v>25.2</v>
+      </c>
+      <c r="K100">
+        <v>166.15</v>
+      </c>
+      <c r="L100">
+        <v>30</v>
+      </c>
+      <c r="M100">
+        <v>0.1</v>
+      </c>
+      <c r="N100">
+        <v>2263.3636799999999</v>
+      </c>
+      <c r="O100">
+        <v>2220.0508544732638</v>
+      </c>
+      <c r="V100">
+        <v>4.2</v>
+      </c>
+      <c r="W100">
+        <v>0.15</v>
+      </c>
+      <c r="X100">
+        <v>632.91780630355515</v>
+      </c>
+      <c r="Z100">
+        <v>2139.7243087781821</v>
+      </c>
+    </row>
+    <row r="101" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>150</v>
+      </c>
+      <c r="C101" t="s">
+        <v>143</v>
+      </c>
+      <c r="D101" t="s">
+        <v>34</v>
+      </c>
+      <c r="E101">
+        <v>6</v>
+      </c>
+      <c r="J101">
+        <v>25.2</v>
+      </c>
+      <c r="K101">
+        <v>166</v>
+      </c>
+      <c r="L101">
+        <v>30</v>
+      </c>
+      <c r="M101">
+        <v>0.1</v>
+      </c>
+      <c r="N101">
+        <v>2263.3636799999999</v>
+      </c>
+      <c r="O101">
+        <v>2220.0508544732638</v>
+      </c>
+      <c r="V101">
+        <v>4.2</v>
+      </c>
+      <c r="W101">
+        <v>0.15</v>
+      </c>
+      <c r="X101">
+        <v>635.27032527900269</v>
+      </c>
+      <c r="Z101">
+        <v>2047.03035328488</v>
+      </c>
+    </row>
+    <row r="102" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>151</v>
+      </c>
+      <c r="C102" t="s">
+        <v>152</v>
+      </c>
+      <c r="D102" t="s">
+        <v>34</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>129</v>
+      </c>
+      <c r="J102">
+        <v>25.1</v>
+      </c>
+      <c r="K102">
+        <v>169.95</v>
+      </c>
+      <c r="L102">
+        <v>30</v>
+      </c>
+      <c r="M102">
+        <v>0.1</v>
+      </c>
+      <c r="N102">
+        <v>2272.4258</v>
+      </c>
+      <c r="O102">
+        <v>2228.8742857737011</v>
+      </c>
+      <c r="P102">
+        <v>1659.191118674499</v>
+      </c>
+      <c r="Q102">
+        <v>0.5</v>
+      </c>
+      <c r="V102">
+        <v>4.2</v>
+      </c>
+      <c r="W102">
+        <v>0.15</v>
+      </c>
+      <c r="X102">
+        <v>632.49750054604363</v>
+      </c>
+      <c r="Z102">
+        <v>2305.368240667201</v>
+      </c>
+      <c r="AF102">
+        <v>1691.6112000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>153</v>
+      </c>
+      <c r="C103" t="s">
+        <v>152</v>
+      </c>
+      <c r="D103" t="s">
+        <v>34</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="G103">
+        <v>130</v>
+      </c>
+      <c r="J103">
+        <v>25</v>
+      </c>
+      <c r="K103">
+        <v>169.45</v>
+      </c>
+      <c r="L103">
+        <v>30</v>
+      </c>
+      <c r="M103">
+        <v>0.1</v>
+      </c>
+      <c r="N103">
+        <v>2272.4258</v>
+      </c>
+      <c r="O103">
+        <v>2228.809192191331</v>
+      </c>
+      <c r="P103">
+        <v>2064.013358805114</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="V103">
+        <v>1.2</v>
+      </c>
+      <c r="W103">
+        <v>0.15</v>
+      </c>
+      <c r="X103">
+        <v>463.21557846807599</v>
+      </c>
+      <c r="Z103">
+        <v>305.65336747424737</v>
+      </c>
+      <c r="AF103">
+        <v>2104.4050000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>154</v>
+      </c>
+      <c r="C104" t="s">
+        <v>152</v>
+      </c>
+      <c r="D104" t="s">
+        <v>34</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+      <c r="G104">
+        <v>131</v>
+      </c>
+      <c r="J104">
+        <v>24.9</v>
+      </c>
+      <c r="K104">
+        <v>169.45</v>
+      </c>
+      <c r="L104">
+        <v>30</v>
+      </c>
+      <c r="M104">
+        <v>0.1</v>
+      </c>
+      <c r="N104">
+        <v>2272.4258</v>
+      </c>
+      <c r="O104">
+        <v>2228.7442768378341</v>
+      </c>
+      <c r="P104">
+        <v>2018.2685254714979</v>
+      </c>
+      <c r="Q104">
+        <v>2</v>
+      </c>
+      <c r="V104">
+        <v>1.2</v>
+      </c>
+      <c r="W104">
+        <v>0.15</v>
+      </c>
+      <c r="X104">
+        <v>463.00861628805848</v>
+      </c>
+      <c r="Z104">
+        <v>307.60406616957653</v>
+      </c>
+      <c r="AF104">
+        <v>2057.8249000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>155</v>
+      </c>
+      <c r="C105" t="s">
+        <v>152</v>
+      </c>
+      <c r="D105" t="s">
+        <v>34</v>
+      </c>
+      <c r="E105">
+        <v>4</v>
+      </c>
+      <c r="G105">
+        <v>132</v>
+      </c>
+      <c r="J105">
+        <v>25</v>
+      </c>
+      <c r="K105">
+        <v>169.15</v>
+      </c>
+      <c r="L105">
+        <v>30</v>
+      </c>
+      <c r="M105">
+        <v>0.1</v>
+      </c>
+      <c r="N105">
+        <v>2272.4258</v>
+      </c>
+      <c r="O105">
+        <v>2228.809192191331</v>
+      </c>
+      <c r="P105">
+        <v>2036.1965195219229</v>
+      </c>
+      <c r="Q105">
+        <v>2</v>
+      </c>
+      <c r="V105">
+        <v>1.2</v>
+      </c>
+      <c r="W105">
+        <v>0.15</v>
+      </c>
+      <c r="X105">
+        <v>460.5867507620892</v>
+      </c>
+      <c r="Z105">
+        <v>297.73683125993739</v>
+      </c>
+      <c r="AF105">
+        <v>2076.0437999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>156</v>
+      </c>
+      <c r="C106" t="s">
+        <v>152</v>
+      </c>
+      <c r="D106" t="s">
+        <v>34</v>
+      </c>
+      <c r="E106">
+        <v>5</v>
+      </c>
+      <c r="G106">
+        <v>133</v>
+      </c>
+      <c r="J106">
+        <v>25.1</v>
+      </c>
+      <c r="K106">
+        <v>169.15</v>
+      </c>
+      <c r="L106">
+        <v>30</v>
+      </c>
+      <c r="M106">
+        <v>0.1</v>
+      </c>
+      <c r="N106">
+        <v>2272.4258</v>
+      </c>
+      <c r="O106">
+        <v>2228.8742857737011</v>
+      </c>
+      <c r="P106">
+        <v>1956.3486523672229</v>
+      </c>
+      <c r="Q106">
+        <v>5</v>
+      </c>
+      <c r="V106">
+        <v>1.2</v>
+      </c>
+      <c r="W106">
+        <v>0.15</v>
+      </c>
+      <c r="X106">
+        <v>460.83598213290179</v>
+      </c>
+      <c r="Z106">
+        <v>301.36665441340273</v>
+      </c>
+      <c r="AF106">
+        <v>1994.5751</v>
+      </c>
+    </row>
+    <row r="107" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>157</v>
+      </c>
+      <c r="C107" t="s">
+        <v>152</v>
+      </c>
+      <c r="D107" t="s">
+        <v>34</v>
+      </c>
+      <c r="E107">
+        <v>6</v>
+      </c>
+      <c r="G107">
+        <v>135</v>
+      </c>
+      <c r="J107">
+        <v>25.1</v>
+      </c>
+      <c r="K107">
+        <v>169.05</v>
+      </c>
+      <c r="L107">
+        <v>30</v>
+      </c>
+      <c r="M107">
+        <v>0.1</v>
+      </c>
+      <c r="N107">
+        <v>2272.4258</v>
+      </c>
+      <c r="O107">
+        <v>2228.8742857737011</v>
+      </c>
+      <c r="P107">
+        <v>1199.187251965875</v>
+      </c>
+      <c r="Q107">
+        <v>80</v>
+      </c>
+      <c r="V107">
+        <v>1.2</v>
+      </c>
+      <c r="W107">
+        <v>0.15</v>
+      </c>
+      <c r="X107">
+        <v>460.60666615808418</v>
+      </c>
+      <c r="Z107">
+        <v>297.77996147192471</v>
+      </c>
+      <c r="AF107">
+        <v>1222.6189999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>158</v>
+      </c>
+      <c r="C108" t="s">
+        <v>152</v>
+      </c>
+      <c r="D108" t="s">
+        <v>34</v>
+      </c>
+      <c r="E108">
+        <v>7</v>
+      </c>
+      <c r="G108">
+        <v>137</v>
+      </c>
+      <c r="J108">
+        <v>25.2</v>
+      </c>
+      <c r="K108">
+        <v>168.4</v>
+      </c>
+      <c r="L108">
+        <v>30</v>
+      </c>
+      <c r="M108">
+        <v>0.1</v>
+      </c>
+      <c r="N108">
+        <v>2272.4258</v>
+      </c>
+      <c r="O108">
+        <v>2228.9395573481552</v>
+      </c>
+      <c r="P108">
+        <v>1657.2997554756939</v>
+      </c>
+      <c r="Q108">
+        <v>20</v>
+      </c>
+      <c r="V108">
+        <v>1.2</v>
+      </c>
+      <c r="W108">
+        <v>0.15</v>
+      </c>
+      <c r="X108">
+        <v>460.47353794478772</v>
+      </c>
+      <c r="Z108">
+        <v>302.73725794587642</v>
+      </c>
+      <c r="AF108">
+        <v>1689.6333999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>159</v>
+      </c>
+      <c r="C109" t="s">
+        <v>152</v>
+      </c>
+      <c r="D109" t="s">
+        <v>34</v>
+      </c>
+      <c r="E109">
+        <v>8</v>
+      </c>
+      <c r="G109">
+        <v>139</v>
+      </c>
+      <c r="J109">
+        <v>25.2</v>
+      </c>
+      <c r="K109">
+        <v>168.3</v>
+      </c>
+      <c r="L109">
+        <v>30</v>
+      </c>
+      <c r="M109">
+        <v>0.1</v>
+      </c>
+      <c r="N109">
+        <v>2272.4258</v>
+      </c>
+      <c r="O109">
+        <v>2228.9395573481552</v>
+      </c>
+      <c r="P109">
+        <v>1342.003728883004</v>
+      </c>
+      <c r="Q109">
+        <v>50</v>
+      </c>
+      <c r="V109">
+        <v>1.2</v>
+      </c>
+      <c r="W109">
+        <v>0.15</v>
+      </c>
+      <c r="X109">
+        <v>460.69763055396612</v>
+      </c>
+      <c r="Z109">
+        <v>301.58498949483879</v>
+      </c>
+      <c r="AF109">
+        <v>1368.1859999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>160</v>
+      </c>
+      <c r="C110" t="s">
+        <v>152</v>
+      </c>
+      <c r="D110" t="s">
+        <v>34</v>
+      </c>
+      <c r="E110">
+        <v>9</v>
+      </c>
+      <c r="G110">
+        <v>140</v>
+      </c>
+      <c r="J110">
+        <v>25.2</v>
+      </c>
+      <c r="K110">
+        <v>168.1</v>
+      </c>
+      <c r="L110">
+        <v>30</v>
+      </c>
+      <c r="M110">
+        <v>0.1</v>
+      </c>
+      <c r="N110">
+        <v>2272.4258</v>
+      </c>
+      <c r="O110">
+        <v>2228.9395573481552</v>
+      </c>
+      <c r="P110">
+        <v>1376.1412122209269</v>
+      </c>
+      <c r="Q110">
+        <v>45</v>
+      </c>
+      <c r="V110">
+        <v>1.2</v>
+      </c>
+      <c r="W110">
+        <v>0.15</v>
+      </c>
+      <c r="X110">
+        <v>460.37541973103788</v>
+      </c>
+      <c r="Z110">
+        <v>299.44422733541597</v>
+      </c>
+      <c r="AF110">
+        <v>1402.9894999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>161</v>
+      </c>
+      <c r="C111" t="s">
+        <v>152</v>
+      </c>
+      <c r="D111" t="s">
+        <v>34</v>
+      </c>
+      <c r="E111">
+        <v>10</v>
+      </c>
+      <c r="G111">
+        <v>141</v>
+      </c>
+      <c r="J111">
+        <v>25.2</v>
+      </c>
+      <c r="K111">
+        <v>167.95</v>
+      </c>
+      <c r="L111">
+        <v>30</v>
+      </c>
+      <c r="M111">
+        <v>0.1</v>
+      </c>
+      <c r="N111">
+        <v>2272.4258</v>
+      </c>
+      <c r="O111">
+        <v>2228.9395573481552</v>
+      </c>
+      <c r="P111">
+        <v>1842.654907079527</v>
+      </c>
+      <c r="Q111">
+        <v>10</v>
+      </c>
+      <c r="V111">
+        <v>1.2</v>
+      </c>
+      <c r="W111">
+        <v>0.15</v>
+      </c>
+      <c r="X111">
+        <v>460.37955125006522</v>
+      </c>
+      <c r="Z111">
+        <v>300.96592786994512</v>
+      </c>
+      <c r="AF111">
+        <v>1878.6048000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>162</v>
+      </c>
+      <c r="C112" t="s">
+        <v>152</v>
+      </c>
+      <c r="D112" t="s">
+        <v>34</v>
+      </c>
+      <c r="E112">
+        <v>11</v>
+      </c>
+      <c r="J112">
+        <v>25.2</v>
+      </c>
+      <c r="K112">
+        <v>168.75</v>
+      </c>
+      <c r="L112">
+        <v>30</v>
+      </c>
+      <c r="M112">
+        <v>0.1</v>
+      </c>
+      <c r="N112">
+        <v>2272.4258</v>
+      </c>
+      <c r="O112">
+        <v>2228.9395573481552</v>
+      </c>
+      <c r="V112">
+        <v>4.2</v>
+      </c>
+      <c r="W112">
+        <v>0.15</v>
+      </c>
+      <c r="X112">
+        <v>632.47290451957087</v>
+      </c>
+      <c r="Z112">
+        <v>2311.2488891435719</v>
+      </c>
+    </row>
+    <row r="113" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>163</v>
+      </c>
+      <c r="C113" t="s">
+        <v>164</v>
+      </c>
+      <c r="D113" t="s">
+        <v>34</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>25</v>
+      </c>
+      <c r="K113">
+        <v>170</v>
+      </c>
+      <c r="L113">
+        <v>30</v>
+      </c>
+      <c r="M113">
+        <v>0.1</v>
+      </c>
+      <c r="N113">
+        <v>2271.12</v>
+      </c>
+      <c r="O113">
+        <v>2227.528455525181</v>
+      </c>
+      <c r="V113">
+        <v>4.2</v>
+      </c>
+      <c r="W113">
+        <v>0.15</v>
+      </c>
+      <c r="X113">
+        <v>632.3115314616856</v>
+      </c>
+      <c r="Z113">
+        <v>2308.6382917449209</v>
+      </c>
+    </row>
+    <row r="114" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>165</v>
+      </c>
+      <c r="C114" t="s">
+        <v>164</v>
+      </c>
+      <c r="D114" t="s">
+        <v>34</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+      <c r="G114">
+        <v>145</v>
+      </c>
+      <c r="I114" t="s">
+        <v>36</v>
+      </c>
+      <c r="J114">
+        <v>25</v>
+      </c>
+      <c r="K114">
+        <v>168.4</v>
+      </c>
+      <c r="L114">
+        <v>30</v>
+      </c>
+      <c r="M114">
+        <v>0.1</v>
+      </c>
+      <c r="N114">
+        <v>2271.12</v>
+      </c>
+      <c r="O114">
+        <v>2227.528455525181</v>
+      </c>
+      <c r="P114">
+        <v>2158.5445340951992</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <v>0.6</v>
+      </c>
+      <c r="W114">
+        <v>0.15</v>
+      </c>
+      <c r="X114">
+        <v>447.71067816320698</v>
+      </c>
+      <c r="Z114">
+        <v>146.76335104913341</v>
+      </c>
+      <c r="AF114">
+        <v>2200.7860999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>166</v>
+      </c>
+      <c r="C115" t="s">
+        <v>164</v>
+      </c>
+      <c r="D115" t="s">
+        <v>34</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+      <c r="G115">
+        <v>146</v>
+      </c>
+      <c r="J115">
+        <v>25</v>
+      </c>
+      <c r="K115">
+        <v>168.45</v>
+      </c>
+      <c r="L115">
+        <v>30</v>
+      </c>
+      <c r="M115">
+        <v>0.1</v>
+      </c>
+      <c r="N115">
+        <v>2271.12</v>
+      </c>
+      <c r="O115">
+        <v>2227.528455525181</v>
+      </c>
+      <c r="P115">
+        <v>2076.0793341004378</v>
+      </c>
+      <c r="Q115">
+        <v>5</v>
+      </c>
+      <c r="V115">
+        <v>0.6</v>
+      </c>
+      <c r="W115">
+        <v>0.15</v>
+      </c>
+      <c r="X115">
+        <v>448.03987250432311</v>
+      </c>
+      <c r="Z115">
+        <v>145.87110600429841</v>
+      </c>
+      <c r="AF115">
+        <v>2116.7071000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>167</v>
+      </c>
+      <c r="C116" t="s">
+        <v>164</v>
+      </c>
+      <c r="D116" t="s">
+        <v>34</v>
+      </c>
+      <c r="E116">
+        <v>4</v>
+      </c>
+      <c r="G116">
+        <v>147</v>
+      </c>
+      <c r="J116">
+        <v>25.1</v>
+      </c>
+      <c r="K116">
+        <v>168.45</v>
+      </c>
+      <c r="L116">
+        <v>30</v>
+      </c>
+      <c r="M116">
+        <v>0.1</v>
+      </c>
+      <c r="N116">
+        <v>2271.12</v>
+      </c>
+      <c r="O116">
+        <v>2227.5935117029421</v>
+      </c>
+      <c r="P116">
+        <v>2095.9063383438552</v>
+      </c>
+      <c r="Q116">
+        <v>5</v>
+      </c>
+      <c r="V116">
+        <v>0.6</v>
+      </c>
+      <c r="W116">
+        <v>0.15</v>
+      </c>
+      <c r="X116">
+        <v>448.43717058217402</v>
+      </c>
+      <c r="Z116">
+        <v>148.4996967752794</v>
+      </c>
+      <c r="AF116">
+        <v>2136.8597</v>
+      </c>
+    </row>
+    <row r="117" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>168</v>
+      </c>
+      <c r="C117" t="s">
+        <v>164</v>
+      </c>
+      <c r="D117" t="s">
+        <v>34</v>
+      </c>
+      <c r="E117">
+        <v>5</v>
+      </c>
+      <c r="G117">
+        <v>148</v>
+      </c>
+      <c r="J117">
+        <v>25.1</v>
+      </c>
+      <c r="K117">
+        <v>168.35</v>
+      </c>
+      <c r="L117">
+        <v>30</v>
+      </c>
+      <c r="M117">
+        <v>0.1</v>
+      </c>
+      <c r="N117">
+        <v>2271.12</v>
+      </c>
+      <c r="O117">
+        <v>2227.5935117029421</v>
+      </c>
+      <c r="P117">
+        <v>2036.525324980377</v>
+      </c>
+      <c r="Q117">
+        <v>10</v>
+      </c>
+      <c r="V117">
+        <v>0.6</v>
+      </c>
+      <c r="W117">
+        <v>0.15</v>
+      </c>
+      <c r="X117">
+        <v>447.81143366363659</v>
+      </c>
+      <c r="Z117">
+        <v>143.1278520493978</v>
+      </c>
+      <c r="AF117">
+        <v>2076.3184000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>169</v>
+      </c>
+      <c r="C118" t="s">
+        <v>164</v>
+      </c>
+      <c r="D118" t="s">
+        <v>34</v>
+      </c>
+      <c r="E118">
+        <v>6</v>
+      </c>
+      <c r="G118">
+        <v>150</v>
+      </c>
+      <c r="J118">
+        <v>25.2</v>
+      </c>
+      <c r="K118">
+        <v>168.45</v>
+      </c>
+      <c r="L118">
+        <v>30</v>
+      </c>
+      <c r="M118">
+        <v>0.1</v>
+      </c>
+      <c r="N118">
+        <v>2271.12</v>
+      </c>
+      <c r="O118">
+        <v>2227.6587457705068</v>
+      </c>
+      <c r="P118">
+        <v>1747.940077757336</v>
+      </c>
+      <c r="Q118">
+        <v>70</v>
+      </c>
+      <c r="V118">
+        <v>0.6</v>
+      </c>
+      <c r="W118">
+        <v>0.15</v>
+      </c>
+      <c r="X118">
+        <v>448.44299368496092</v>
+      </c>
+      <c r="Z118">
+        <v>149.3448584580641</v>
+      </c>
+      <c r="AF118">
+        <v>1782.0420999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>170</v>
+      </c>
+      <c r="C119" t="s">
+        <v>164</v>
+      </c>
+      <c r="D119" t="s">
+        <v>34</v>
+      </c>
+      <c r="E119">
+        <v>7</v>
+      </c>
+      <c r="G119">
+        <v>151</v>
+      </c>
+      <c r="J119">
+        <v>25.2</v>
+      </c>
+      <c r="K119">
+        <v>168.15</v>
+      </c>
+      <c r="L119">
+        <v>30</v>
+      </c>
+      <c r="M119">
+        <v>0.1</v>
+      </c>
+      <c r="N119">
+        <v>2271.12</v>
+      </c>
+      <c r="O119">
+        <v>2227.6587457705068</v>
+      </c>
+      <c r="P119">
+        <v>1944.504145263088</v>
+      </c>
+      <c r="Q119">
+        <v>21</v>
+      </c>
+      <c r="V119">
+        <v>0.6</v>
+      </c>
+      <c r="W119">
+        <v>0.15</v>
+      </c>
+      <c r="X119">
+        <v>448.33291748071139</v>
+      </c>
+      <c r="Z119">
+        <v>151.08752192556099</v>
+      </c>
+      <c r="AF119">
+        <v>1982.4411</v>
+      </c>
+    </row>
+    <row r="120" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>171</v>
+      </c>
+      <c r="C120" t="s">
+        <v>164</v>
+      </c>
+      <c r="D120" t="s">
+        <v>34</v>
+      </c>
+      <c r="E120">
+        <v>8</v>
+      </c>
+      <c r="G120">
+        <v>153</v>
+      </c>
+      <c r="J120">
+        <v>25.2</v>
+      </c>
+      <c r="K120">
+        <v>167.9</v>
+      </c>
+      <c r="L120">
+        <v>30</v>
+      </c>
+      <c r="M120">
+        <v>0.1</v>
+      </c>
+      <c r="N120">
+        <v>2271.12</v>
+      </c>
+      <c r="O120">
+        <v>2227.6587457705068</v>
+      </c>
+      <c r="P120">
+        <v>1886.7613967502889</v>
+      </c>
+      <c r="Q120">
+        <v>30</v>
+      </c>
+      <c r="V120">
+        <v>0.6</v>
+      </c>
+      <c r="W120">
+        <v>0.15</v>
+      </c>
+      <c r="X120">
+        <v>448.38292156864583</v>
+      </c>
+      <c r="Z120">
+        <v>151.0875301235285</v>
+      </c>
+      <c r="AF120">
+        <v>1923.5717999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>172</v>
+      </c>
+      <c r="C121" t="s">
+        <v>164</v>
+      </c>
+      <c r="D121" t="s">
+        <v>34</v>
+      </c>
+      <c r="E121">
+        <v>9</v>
+      </c>
+      <c r="G121">
+        <v>154</v>
+      </c>
+      <c r="J121">
+        <v>25.2</v>
+      </c>
+      <c r="K121">
+        <v>167.25</v>
+      </c>
+      <c r="L121">
+        <v>30</v>
+      </c>
+      <c r="M121">
+        <v>0.1</v>
+      </c>
+      <c r="N121">
+        <v>2271.12</v>
+      </c>
+      <c r="O121">
+        <v>2227.6587457705068</v>
+      </c>
+      <c r="P121">
+        <v>2137.7628988966112</v>
+      </c>
+      <c r="Q121">
+        <v>1</v>
+      </c>
+      <c r="V121">
+        <v>0.6</v>
+      </c>
+      <c r="W121">
+        <v>0.15</v>
+      </c>
+      <c r="X121">
+        <v>448.46034459178338</v>
+      </c>
+      <c r="Z121">
+        <v>154.51670003425971</v>
+      </c>
+      <c r="AF121">
+        <v>2179.4703</v>
+      </c>
+    </row>
+    <row r="122" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>173</v>
+      </c>
+      <c r="C122" t="s">
+        <v>164</v>
+      </c>
+      <c r="D122" t="s">
+        <v>34</v>
+      </c>
+      <c r="E122">
+        <v>10</v>
+      </c>
+      <c r="G122">
+        <v>155</v>
+      </c>
+      <c r="J122">
+        <v>25.1</v>
+      </c>
+      <c r="K122">
+        <v>167.05</v>
+      </c>
+      <c r="L122">
+        <v>30</v>
+      </c>
+      <c r="M122">
+        <v>0.1</v>
+      </c>
+      <c r="N122">
+        <v>2271.12</v>
+      </c>
+      <c r="O122">
+        <v>2227.5935117029421</v>
+      </c>
+      <c r="P122">
+        <v>2124.5246454732501</v>
+      </c>
+      <c r="Q122">
+        <v>2</v>
+      </c>
+      <c r="V122">
+        <v>0.6</v>
+      </c>
+      <c r="W122">
+        <v>0.15</v>
+      </c>
+      <c r="X122">
+        <v>448.20545799967181</v>
+      </c>
+      <c r="Z122">
+        <v>153.69672660503471</v>
+      </c>
+      <c r="AF122">
+        <v>2166.0372000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>174</v>
+      </c>
+      <c r="C123" t="s">
+        <v>164</v>
+      </c>
+      <c r="D123" t="s">
+        <v>34</v>
+      </c>
+      <c r="E123">
+        <v>11</v>
+      </c>
+      <c r="G123">
+        <v>156</v>
+      </c>
+      <c r="J123">
+        <v>25.2</v>
+      </c>
+      <c r="K123">
+        <v>167</v>
+      </c>
+      <c r="L123">
+        <v>30</v>
+      </c>
+      <c r="M123">
+        <v>0.1</v>
+      </c>
+      <c r="N123">
+        <v>2271.12</v>
+      </c>
+      <c r="O123">
+        <v>2227.6587457705068</v>
+      </c>
+      <c r="P123">
+        <v>2141.095284601849</v>
+      </c>
+      <c r="Q123">
+        <v>0.75</v>
+      </c>
+      <c r="V123">
+        <v>0.6</v>
+      </c>
+      <c r="W123">
+        <v>0.15</v>
+      </c>
+      <c r="X123">
+        <v>448.37919893320031</v>
+      </c>
+      <c r="Z123">
+        <v>155.3625555120351</v>
+      </c>
+      <c r="AF123">
+        <v>2182.8676999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>175</v>
+      </c>
+      <c r="C124" t="s">
+        <v>164</v>
+      </c>
+      <c r="D124" t="s">
+        <v>34</v>
+      </c>
+      <c r="E124">
+        <v>12</v>
+      </c>
+      <c r="G124">
+        <v>157</v>
+      </c>
+      <c r="J124">
+        <v>25.2</v>
+      </c>
+      <c r="K124">
+        <v>166.9</v>
+      </c>
+      <c r="L124">
+        <v>30</v>
+      </c>
+      <c r="M124">
+        <v>0.1</v>
+      </c>
+      <c r="N124">
+        <v>2271.12</v>
+      </c>
+      <c r="O124">
+        <v>2227.6587457705068</v>
+      </c>
+      <c r="P124">
+        <v>2112.2721197872029</v>
+      </c>
+      <c r="Q124">
+        <v>3</v>
+      </c>
+      <c r="V124">
+        <v>0.6</v>
+      </c>
+      <c r="W124">
+        <v>0.15</v>
+      </c>
+      <c r="X124">
+        <v>448.31034249639458</v>
+      </c>
+      <c r="Z124">
+        <v>154.51669574843089</v>
+      </c>
+      <c r="AF124">
+        <v>2153.4821999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>176</v>
+      </c>
+      <c r="C125" t="s">
+        <v>164</v>
+      </c>
+      <c r="D125" t="s">
+        <v>34</v>
+      </c>
+      <c r="E125">
+        <v>13</v>
+      </c>
+      <c r="G125">
+        <v>158</v>
+      </c>
+      <c r="J125">
+        <v>25.2</v>
+      </c>
+      <c r="K125">
+        <v>166.4</v>
+      </c>
+      <c r="L125">
+        <v>30</v>
+      </c>
+      <c r="M125">
+        <v>0.1</v>
+      </c>
+      <c r="N125">
+        <v>2271.12</v>
+      </c>
+      <c r="O125">
+        <v>2227.6587457705068</v>
+      </c>
+      <c r="P125">
+        <v>1793.2179146374931</v>
+      </c>
+      <c r="Q125">
+        <v>52</v>
+      </c>
+      <c r="V125">
+        <v>0.6</v>
+      </c>
+      <c r="W125">
+        <v>0.15</v>
+      </c>
+      <c r="X125">
+        <v>448.2163486368064</v>
+      </c>
+      <c r="Z125">
+        <v>157.04092686258599</v>
+      </c>
+      <c r="AF125">
+        <v>1828.2032999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>177</v>
+      </c>
+      <c r="C126" t="s">
+        <v>164</v>
+      </c>
+      <c r="D126" t="s">
+        <v>34</v>
+      </c>
+      <c r="E126">
+        <v>14</v>
+      </c>
+      <c r="G126">
+        <v>159</v>
+      </c>
+      <c r="J126">
+        <v>25.1</v>
+      </c>
+      <c r="K126">
+        <v>165.6</v>
+      </c>
+      <c r="L126">
+        <v>30</v>
+      </c>
+      <c r="M126">
+        <v>0.1</v>
+      </c>
+      <c r="N126">
+        <v>2271.12</v>
+      </c>
+      <c r="O126">
+        <v>2227.5935117029421</v>
+      </c>
+      <c r="P126">
+        <v>2145.530791869186</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="V126">
+        <v>0.6</v>
+      </c>
+      <c r="W126">
+        <v>0.15</v>
+      </c>
+      <c r="X126">
+        <v>448.13786870683077</v>
+      </c>
+      <c r="Z126">
+        <v>164.40571574514291</v>
+      </c>
+      <c r="AF126">
+        <v>2187.4537999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>178</v>
+      </c>
+      <c r="C127" t="s">
+        <v>179</v>
+      </c>
+      <c r="D127" t="s">
+        <v>147</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>165</v>
+      </c>
+      <c r="J127">
+        <v>25.2</v>
+      </c>
+      <c r="K127">
+        <v>182.45</v>
+      </c>
+      <c r="L127">
+        <v>30</v>
+      </c>
+      <c r="M127">
+        <v>0.1</v>
+      </c>
+      <c r="N127">
+        <v>2325.0453400000001</v>
+      </c>
+      <c r="O127">
+        <v>2280.5521443005932</v>
+      </c>
+      <c r="P127">
+        <v>1683.629761408379</v>
+      </c>
+      <c r="Q127">
+        <v>0.5</v>
+      </c>
+      <c r="V127">
+        <v>4.2</v>
+      </c>
+      <c r="W127">
+        <v>0.15</v>
+      </c>
+      <c r="X127">
+        <v>635.55522096202856</v>
+      </c>
+      <c r="Z127">
+        <v>2299.2498208591669</v>
+      </c>
+      <c r="AF127">
+        <v>1716.4771000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>180</v>
+      </c>
+      <c r="C128" t="s">
+        <v>179</v>
+      </c>
+      <c r="D128" t="s">
+        <v>147</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+      <c r="G128">
+        <v>166</v>
+      </c>
+      <c r="J128">
+        <v>25.2</v>
+      </c>
+      <c r="K128">
+        <v>181.75</v>
+      </c>
+      <c r="L128">
+        <v>30</v>
+      </c>
+      <c r="M128">
+        <v>0.1</v>
+      </c>
+      <c r="N128">
+        <v>2325.0453400000001</v>
+      </c>
+      <c r="O128">
+        <v>2280.5521443005932</v>
+      </c>
+      <c r="P128">
+        <v>1679.1615357529829</v>
+      </c>
+      <c r="Q128">
+        <v>0.5</v>
+      </c>
+      <c r="V128">
+        <v>4.2</v>
+      </c>
+      <c r="W128">
+        <v>0.15</v>
+      </c>
+      <c r="X128">
+        <v>635.38471827157366</v>
+      </c>
+      <c r="Z128">
+        <v>2300.708163034843</v>
+      </c>
+      <c r="AF128">
+        <v>1711.9217000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>181</v>
+      </c>
+      <c r="C129" t="s">
+        <v>179</v>
+      </c>
+      <c r="D129" t="s">
+        <v>147</v>
+      </c>
+      <c r="E129">
+        <v>3</v>
+      </c>
+      <c r="J129">
+        <v>25.2</v>
+      </c>
+      <c r="K129">
+        <v>181.55</v>
+      </c>
+      <c r="L129">
+        <v>30</v>
+      </c>
+      <c r="M129">
+        <v>0.1</v>
+      </c>
+      <c r="N129">
+        <v>2325.0453400000001</v>
+      </c>
+      <c r="O129">
+        <v>2280.5521443005932</v>
+      </c>
+      <c r="V129">
+        <v>4.2</v>
+      </c>
+      <c r="W129">
+        <v>0.15</v>
+      </c>
+      <c r="X129">
+        <v>635.21907432834291</v>
+      </c>
+      <c r="Z129">
+        <v>2301.305266916841</v>
+      </c>
+    </row>
+    <row r="130" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>182</v>
+      </c>
+      <c r="C130" t="s">
+        <v>179</v>
+      </c>
+      <c r="D130" t="s">
+        <v>147</v>
+      </c>
+      <c r="E130">
+        <v>4</v>
+      </c>
+      <c r="G130">
+        <v>170</v>
+      </c>
+      <c r="J130">
+        <v>25.2</v>
+      </c>
+      <c r="K130">
+        <v>180.7</v>
+      </c>
+      <c r="L130">
+        <v>30</v>
+      </c>
+      <c r="M130">
+        <v>0.1</v>
+      </c>
+      <c r="N130">
+        <v>2325.0453400000001</v>
+      </c>
+      <c r="O130">
+        <v>2280.5521443005932</v>
+      </c>
+      <c r="P130">
+        <v>1721.4546049575531</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="V130">
+        <v>4.2</v>
+      </c>
+      <c r="W130">
+        <v>0.15</v>
+      </c>
+      <c r="X130">
+        <v>634.39642553494673</v>
+      </c>
+      <c r="Z130">
+        <v>2308.7619675248839</v>
+      </c>
+      <c r="AF130">
+        <v>1755.0399</v>
+      </c>
+    </row>
+    <row r="131" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>183</v>
+      </c>
+      <c r="C131" t="s">
+        <v>184</v>
+      </c>
+      <c r="D131" t="s">
+        <v>147</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>25</v>
+      </c>
+      <c r="K131">
+        <v>178.65</v>
+      </c>
+      <c r="L131">
+        <v>30</v>
+      </c>
+      <c r="M131">
+        <v>0.1</v>
+      </c>
+      <c r="V131">
+        <v>4.2</v>
+      </c>
+      <c r="W131">
+        <v>0.15</v>
+      </c>
+      <c r="X131">
+        <v>633.32404256933614</v>
+      </c>
+      <c r="Z131">
+        <v>2222.4181336354291</v>
+      </c>
+    </row>
+    <row r="132" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>185</v>
+      </c>
+      <c r="C132" t="s">
+        <v>186</v>
+      </c>
+      <c r="D132" t="s">
+        <v>147</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>179</v>
+      </c>
+      <c r="J132">
+        <v>24.9</v>
+      </c>
+      <c r="K132">
+        <v>175.95</v>
+      </c>
+      <c r="L132">
+        <v>30</v>
+      </c>
+      <c r="M132">
+        <v>0.1</v>
+      </c>
+      <c r="N132">
+        <v>2307.9313400000001</v>
+      </c>
+      <c r="O132">
+        <v>2263.5673144353809</v>
+      </c>
+      <c r="P132">
+        <v>1672.276480089083</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="V132">
+        <v>4.2</v>
+      </c>
+      <c r="W132">
+        <v>0.15</v>
+      </c>
+      <c r="X132">
+        <v>633.21787308521368</v>
+      </c>
+      <c r="Z132">
+        <v>2285.7394999962571</v>
+      </c>
+      <c r="AF132">
+        <v>1705.0517</v>
+      </c>
+    </row>
+    <row r="133" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>187</v>
+      </c>
+      <c r="C133" t="s">
+        <v>186</v>
+      </c>
+      <c r="D133" t="s">
+        <v>147</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+      <c r="G133">
+        <v>180</v>
+      </c>
+      <c r="J133">
+        <v>25.1</v>
+      </c>
+      <c r="K133">
+        <v>176.3</v>
+      </c>
+      <c r="L133">
+        <v>30</v>
+      </c>
+      <c r="M133">
+        <v>0.1</v>
+      </c>
+      <c r="N133">
+        <v>2307.9313400000001</v>
+      </c>
+      <c r="O133">
+        <v>2263.699354697188</v>
+      </c>
+      <c r="P133">
+        <v>1961.925875158729</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="V133">
+        <v>2.1</v>
+      </c>
+      <c r="W133">
+        <v>0.15</v>
+      </c>
+      <c r="X133">
+        <v>504.45439009690591</v>
+      </c>
+      <c r="Z133">
+        <v>1073.982738855552</v>
+      </c>
+      <c r="AF133">
+        <v>2000.2612999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>188</v>
+      </c>
+      <c r="C134" t="s">
+        <v>186</v>
+      </c>
+      <c r="D134" t="s">
+        <v>147</v>
+      </c>
+      <c r="E134">
+        <v>3</v>
+      </c>
+      <c r="G134">
+        <v>181</v>
+      </c>
+      <c r="J134">
+        <v>25.1</v>
+      </c>
+      <c r="K134">
+        <v>176.5</v>
+      </c>
+      <c r="L134">
+        <v>30</v>
+      </c>
+      <c r="M134">
+        <v>0.1</v>
+      </c>
+      <c r="N134">
+        <v>2307.9313400000001</v>
+      </c>
+      <c r="O134">
+        <v>2263.699354697188</v>
+      </c>
+      <c r="P134">
+        <v>1976.8547691864439</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="V134">
+        <v>2.1</v>
+      </c>
+      <c r="W134">
+        <v>0.15</v>
+      </c>
+      <c r="X134">
+        <v>503.94041125568037</v>
+      </c>
+      <c r="Z134">
+        <v>1070.706084467477</v>
+      </c>
+      <c r="AF134">
+        <v>2015.4819</v>
+      </c>
+    </row>
+    <row r="135" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>189</v>
+      </c>
+      <c r="C135" t="s">
+        <v>186</v>
+      </c>
+      <c r="D135" t="s">
+        <v>147</v>
+      </c>
+      <c r="E135">
+        <v>4</v>
+      </c>
+      <c r="G135">
+        <v>182</v>
+      </c>
+      <c r="J135">
+        <v>25.1</v>
+      </c>
+      <c r="K135">
+        <v>176.6</v>
+      </c>
+      <c r="L135">
+        <v>30</v>
+      </c>
+      <c r="M135">
+        <v>0.1</v>
+      </c>
+      <c r="N135">
+        <v>2307.9313400000001</v>
+      </c>
+      <c r="O135">
+        <v>2263.699354697188</v>
+      </c>
+      <c r="P135">
+        <v>1923.9591335479349</v>
+      </c>
+      <c r="Q135">
+        <v>1</v>
+      </c>
+      <c r="V135">
+        <v>2.1</v>
+      </c>
+      <c r="W135">
+        <v>0.15</v>
+      </c>
+      <c r="X135">
+        <v>500.7942265723575</v>
+      </c>
+      <c r="Z135">
+        <v>986.11553317651192</v>
+      </c>
+      <c r="AF135">
+        <v>1961.5527</v>
+      </c>
+    </row>
+    <row r="136" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>190</v>
+      </c>
+      <c r="C136" t="s">
+        <v>186</v>
+      </c>
+      <c r="D136" t="s">
+        <v>147</v>
+      </c>
+      <c r="E136">
+        <v>5</v>
+      </c>
+      <c r="G136">
+        <v>183</v>
+      </c>
+      <c r="J136">
+        <v>25.2</v>
+      </c>
+      <c r="K136">
+        <v>177.2</v>
+      </c>
+      <c r="L136">
+        <v>30</v>
+      </c>
+      <c r="M136">
+        <v>0.1</v>
+      </c>
+      <c r="N136">
+        <v>2307.9313400000001</v>
+      </c>
+      <c r="O136">
+        <v>2263.7656461080201</v>
+      </c>
+      <c r="P136">
+        <v>1933.0683556301919</v>
+      </c>
+      <c r="Q136">
+        <v>1</v>
+      </c>
+      <c r="V136">
+        <v>2.1</v>
+      </c>
+      <c r="W136">
+        <v>0.15</v>
+      </c>
+      <c r="X136">
+        <v>500.80730341006921</v>
+      </c>
+      <c r="Z136">
+        <v>985.99723635226871</v>
+      </c>
+      <c r="AF136">
+        <v>1970.7822000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>191</v>
+      </c>
+      <c r="C137" t="s">
+        <v>186</v>
+      </c>
+      <c r="D137" t="s">
+        <v>147</v>
+      </c>
+      <c r="E137">
+        <v>6</v>
+      </c>
+      <c r="G137">
+        <v>185</v>
+      </c>
+      <c r="J137">
+        <v>25.1</v>
+      </c>
+      <c r="K137">
+        <v>176.95</v>
+      </c>
+      <c r="L137">
+        <v>30</v>
+      </c>
+      <c r="M137">
+        <v>0.1</v>
+      </c>
+      <c r="N137">
+        <v>2307.9313400000001</v>
+      </c>
+      <c r="O137">
+        <v>2263.699354697188</v>
+      </c>
+      <c r="P137">
+        <v>1890.943645964704</v>
+      </c>
+      <c r="Q137">
+        <v>2</v>
+      </c>
+      <c r="V137">
+        <v>2.1</v>
+      </c>
+      <c r="W137">
+        <v>0.15</v>
+      </c>
+      <c r="X137">
+        <v>500.71956891049069</v>
+      </c>
+      <c r="Z137">
+        <v>985.04539221408947</v>
+      </c>
+      <c r="AF137">
+        <v>1927.8921</v>
+      </c>
+    </row>
+    <row r="138" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>192</v>
+      </c>
+      <c r="C138" t="s">
+        <v>186</v>
+      </c>
+      <c r="D138" t="s">
+        <v>147</v>
+      </c>
+      <c r="E138">
+        <v>7</v>
+      </c>
+      <c r="G138">
+        <v>186</v>
+      </c>
+      <c r="J138">
+        <v>25.2</v>
+      </c>
+      <c r="K138">
+        <v>177.15</v>
+      </c>
+      <c r="L138">
+        <v>30</v>
+      </c>
+      <c r="M138">
+        <v>0.1</v>
+      </c>
+      <c r="N138">
+        <v>2307.9313400000001</v>
+      </c>
+      <c r="O138">
+        <v>2263.7656461080201</v>
+      </c>
+      <c r="P138">
+        <v>1882.5215161211429</v>
+      </c>
+      <c r="Q138">
+        <v>2</v>
+      </c>
+      <c r="V138">
+        <v>2.1</v>
+      </c>
+      <c r="W138">
+        <v>0.15</v>
+      </c>
+      <c r="X138">
+        <v>500.55024892716472</v>
+      </c>
+      <c r="Z138">
+        <v>982.96093400037421</v>
+      </c>
+      <c r="AF138">
+        <v>1919.2492</v>
+      </c>
+    </row>
+    <row r="139" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>193</v>
+      </c>
+      <c r="C139" t="s">
+        <v>186</v>
+      </c>
+      <c r="D139" t="s">
+        <v>147</v>
+      </c>
+      <c r="E139">
+        <v>8</v>
+      </c>
+      <c r="G139">
+        <v>187</v>
+      </c>
+      <c r="J139">
+        <v>25.2</v>
+      </c>
+      <c r="K139">
+        <v>177.2</v>
+      </c>
+      <c r="L139">
+        <v>30</v>
+      </c>
+      <c r="M139">
+        <v>0.1</v>
+      </c>
+      <c r="N139">
+        <v>2307.9313400000001</v>
+      </c>
+      <c r="O139">
+        <v>2263.7656461080201</v>
+      </c>
+      <c r="P139">
+        <v>925.53143456426778</v>
+      </c>
+      <c r="Q139">
+        <v>30</v>
+      </c>
+      <c r="V139">
+        <v>2.1</v>
+      </c>
+      <c r="W139">
+        <v>0.15</v>
+      </c>
+      <c r="X139">
+        <v>500.7261398392983</v>
+      </c>
+      <c r="Z139">
+        <v>984.36008409501812</v>
+      </c>
+      <c r="AF139">
+        <v>943.58839999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>194</v>
+      </c>
+      <c r="C140" t="s">
+        <v>186</v>
+      </c>
+      <c r="D140" t="s">
+        <v>147</v>
+      </c>
+      <c r="E140">
+        <v>9</v>
+      </c>
+      <c r="G140">
+        <v>190</v>
+      </c>
+      <c r="J140">
+        <v>25.2</v>
+      </c>
+      <c r="K140">
+        <v>177</v>
+      </c>
+      <c r="L140">
+        <v>30</v>
+      </c>
+      <c r="M140">
+        <v>0.1</v>
+      </c>
+      <c r="N140">
+        <v>2307.9313400000001</v>
+      </c>
+      <c r="O140">
+        <v>2263.7656461080201</v>
+      </c>
+      <c r="P140">
+        <v>911.74785002230612</v>
+      </c>
+      <c r="Q140">
+        <v>30</v>
+      </c>
+      <c r="V140">
+        <v>2.1</v>
+      </c>
+      <c r="W140">
+        <v>0.15</v>
+      </c>
+      <c r="X140">
+        <v>500.80974090115302</v>
+      </c>
+      <c r="Z140">
+        <v>986.01687134694134</v>
+      </c>
+      <c r="AF140">
+        <v>929.53589999999997</v>
+      </c>
+    </row>
+    <row r="141" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>195</v>
+      </c>
+      <c r="C141" t="s">
+        <v>186</v>
+      </c>
+      <c r="D141" t="s">
+        <v>147</v>
+      </c>
+      <c r="E141">
+        <v>10</v>
+      </c>
+      <c r="G141">
+        <v>191</v>
+      </c>
+      <c r="J141">
+        <v>25.1</v>
+      </c>
+      <c r="K141">
+        <v>176.8</v>
+      </c>
+      <c r="L141">
+        <v>30</v>
+      </c>
+      <c r="M141">
+        <v>0.1</v>
+      </c>
+      <c r="N141">
+        <v>2307.9313400000001</v>
+      </c>
+      <c r="O141">
+        <v>2263.699354697188</v>
+      </c>
+      <c r="P141">
+        <v>1721.3885991418081</v>
+      </c>
+      <c r="Q141">
+        <v>5</v>
+      </c>
+      <c r="V141">
+        <v>2.1</v>
+      </c>
+      <c r="W141">
+        <v>0.15</v>
+      </c>
+      <c r="X141">
+        <v>500.2175481479556</v>
+      </c>
+      <c r="Z141">
+        <v>982.70424120226198</v>
+      </c>
+      <c r="AF141">
+        <v>1755.0239999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>196</v>
+      </c>
+      <c r="C142" t="s">
+        <v>186</v>
+      </c>
+      <c r="D142" t="s">
+        <v>147</v>
+      </c>
+      <c r="E142">
+        <v>11</v>
+      </c>
+      <c r="J142">
+        <v>25.2</v>
+      </c>
+      <c r="K142">
+        <v>177.15</v>
+      </c>
+      <c r="L142">
+        <v>30</v>
+      </c>
+      <c r="M142">
+        <v>0.1</v>
+      </c>
+      <c r="N142">
+        <v>2307.9313400000001</v>
+      </c>
+      <c r="O142">
+        <v>2263.7656461080201</v>
+      </c>
+      <c r="V142">
+        <v>2.1</v>
+      </c>
+      <c r="W142">
+        <v>0.15</v>
+      </c>
+      <c r="X142">
+        <v>500.79482180302568</v>
+      </c>
+      <c r="Z142">
+        <v>985.106314317017</v>
+      </c>
+    </row>
+    <row r="143" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>197</v>
+      </c>
+      <c r="C143" t="s">
+        <v>186</v>
+      </c>
+      <c r="D143" t="s">
+        <v>147</v>
+      </c>
+      <c r="E143">
+        <v>12</v>
+      </c>
+      <c r="G143">
+        <v>193</v>
+      </c>
+      <c r="J143">
+        <v>25.2</v>
+      </c>
+      <c r="K143">
+        <v>176.95</v>
+      </c>
+      <c r="L143">
+        <v>30</v>
+      </c>
+      <c r="M143">
+        <v>0.1</v>
+      </c>
+      <c r="N143">
+        <v>2307.9313400000001</v>
+      </c>
+      <c r="O143">
+        <v>2263.7656461080201</v>
+      </c>
+      <c r="P143">
+        <v>1503.981371820101</v>
+      </c>
+      <c r="Q143">
+        <v>10</v>
+      </c>
+      <c r="V143">
+        <v>2.1</v>
+      </c>
+      <c r="W143">
+        <v>0.15</v>
+      </c>
+      <c r="X143">
+        <v>500.51038723866111</v>
+      </c>
+      <c r="Z143">
+        <v>983.24735600993574</v>
+      </c>
+      <c r="AF143">
+        <v>1533.3237999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>198</v>
+      </c>
+      <c r="C144" t="s">
+        <v>186</v>
+      </c>
+      <c r="D144" t="s">
+        <v>147</v>
+      </c>
+      <c r="E144">
+        <v>13</v>
+      </c>
+      <c r="G144">
+        <v>195</v>
+      </c>
+      <c r="J144">
+        <v>25.2</v>
+      </c>
+      <c r="K144">
+        <v>176.75</v>
+      </c>
+      <c r="L144">
+        <v>30</v>
+      </c>
+      <c r="M144">
+        <v>0.1</v>
+      </c>
+      <c r="N144">
+        <v>2307.9313400000001</v>
+      </c>
+      <c r="O144">
+        <v>2263.7656461080201</v>
+      </c>
+      <c r="P144">
+        <v>377.26306000475017</v>
+      </c>
+      <c r="Q144">
+        <v>79</v>
+      </c>
+      <c r="V144">
+        <v>2.1</v>
+      </c>
+      <c r="W144">
+        <v>0.15</v>
+      </c>
+      <c r="X144">
+        <v>500.45234459652909</v>
+      </c>
+      <c r="Z144">
+        <v>983.05881868558151</v>
+      </c>
+      <c r="AF144">
+        <v>384.6234</v>
+      </c>
+    </row>
+    <row r="145" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>199</v>
+      </c>
+      <c r="C145" t="s">
+        <v>186</v>
+      </c>
+      <c r="D145" t="s">
+        <v>147</v>
+      </c>
+      <c r="E145">
+        <v>14</v>
+      </c>
+      <c r="G145">
+        <v>196</v>
+      </c>
+      <c r="J145">
+        <v>25.2</v>
+      </c>
+      <c r="K145">
+        <v>176.55</v>
+      </c>
+      <c r="L145">
+        <v>30</v>
+      </c>
+      <c r="M145">
+        <v>0.1</v>
+      </c>
+      <c r="N145">
+        <v>2307.9313400000001</v>
+      </c>
+      <c r="O145">
+        <v>2263.7656461080201</v>
+      </c>
+      <c r="P145">
+        <v>1708.438055684177</v>
+      </c>
+      <c r="Q145">
+        <v>5</v>
+      </c>
+      <c r="V145">
+        <v>2.1</v>
+      </c>
+      <c r="W145">
+        <v>0.15</v>
+      </c>
+      <c r="X145">
+        <v>499.84272738336091</v>
+      </c>
+      <c r="Z145">
+        <v>979.85753478911897</v>
+      </c>
+      <c r="AF145">
+        <v>1741.7693999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>200</v>
+      </c>
+      <c r="C146" t="s">
+        <v>186</v>
+      </c>
+      <c r="D146" t="s">
+        <v>147</v>
+      </c>
+      <c r="E146">
+        <v>15</v>
+      </c>
+      <c r="J146">
+        <v>25.2</v>
+      </c>
+      <c r="K146">
+        <v>177.15</v>
+      </c>
+      <c r="L146">
+        <v>30</v>
+      </c>
+      <c r="M146">
+        <v>0.1</v>
+      </c>
+      <c r="N146">
+        <v>2307.9313400000001</v>
+      </c>
+      <c r="O146">
+        <v>2263.7656461080201</v>
+      </c>
+      <c r="V146">
+        <v>4.2</v>
+      </c>
+      <c r="W146">
+        <v>0.15</v>
+      </c>
+      <c r="X146">
+        <v>632.84611027076664</v>
+      </c>
+      <c r="Z146">
+        <v>2328.747203034643</v>
+      </c>
+    </row>
+    <row r="147" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>201</v>
+      </c>
+      <c r="C147" t="s">
+        <v>202</v>
+      </c>
+      <c r="D147" t="s">
+        <v>34</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>198</v>
+      </c>
+      <c r="J147">
+        <v>24.8</v>
+      </c>
+      <c r="K147">
+        <v>166.9</v>
+      </c>
+      <c r="L147">
+        <v>30</v>
+      </c>
+      <c r="M147">
+        <v>0.1</v>
+      </c>
+      <c r="N147">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O147">
+        <v>2247.4488218484271</v>
+      </c>
+      <c r="P147">
+        <v>1657.47881326588</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <v>625</v>
+      </c>
+      <c r="V147">
+        <v>4.2</v>
+      </c>
+      <c r="W147">
+        <v>0.15</v>
+      </c>
+      <c r="X147">
+        <v>633.20503092788692</v>
+      </c>
+      <c r="Z147">
+        <v>2365.0107161387109</v>
+      </c>
+      <c r="AF147">
+        <v>1690.0130999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>203</v>
+      </c>
+      <c r="C148" t="s">
+        <v>202</v>
+      </c>
+      <c r="D148" t="s">
+        <v>147</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>199</v>
+      </c>
+      <c r="J148">
+        <v>25</v>
+      </c>
+      <c r="K148">
+        <v>177.35</v>
+      </c>
+      <c r="L148">
+        <v>30</v>
+      </c>
+      <c r="M148">
+        <v>0.1</v>
+      </c>
+      <c r="N148">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O148">
+        <v>2247.57956598193</v>
+      </c>
+      <c r="P148">
+        <v>1688.8106753165389</v>
+      </c>
+      <c r="Q148">
+        <v>8.3330000000000001E-2</v>
+      </c>
+      <c r="R148">
+        <v>599</v>
+      </c>
+      <c r="V148">
+        <v>4.2</v>
+      </c>
+      <c r="W148">
+        <v>0.15</v>
+      </c>
+      <c r="X148">
+        <v>633.45747696612329</v>
+      </c>
+      <c r="Z148">
+        <v>2326.9495634776731</v>
+      </c>
+      <c r="AF148">
+        <v>1721.8598</v>
+      </c>
+    </row>
+    <row r="149" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>204</v>
+      </c>
+      <c r="C149" t="s">
+        <v>202</v>
+      </c>
+      <c r="D149" t="s">
+        <v>147</v>
+      </c>
+      <c r="E149">
+        <v>3</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>200</v>
+      </c>
+      <c r="J149">
+        <v>25</v>
+      </c>
+      <c r="K149">
+        <v>177.65</v>
+      </c>
+      <c r="L149">
+        <v>30</v>
+      </c>
+      <c r="M149">
+        <v>0.1</v>
+      </c>
+      <c r="N149">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O149">
+        <v>2247.57956598193</v>
+      </c>
+      <c r="P149">
+        <v>1795.9627660196591</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="V149">
+        <v>3.6</v>
+      </c>
+      <c r="W149">
+        <v>0.15</v>
+      </c>
+      <c r="X149">
+        <v>634.00787348895449</v>
+      </c>
+      <c r="Z149">
+        <v>2330.7948183077378</v>
+      </c>
+      <c r="AF149">
+        <v>1831.1088</v>
+      </c>
+    </row>
+    <row r="150" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>205</v>
+      </c>
+      <c r="C150" t="s">
+        <v>202</v>
+      </c>
+      <c r="D150" t="s">
+        <v>147</v>
+      </c>
+      <c r="E150">
+        <v>4</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>201</v>
+      </c>
+      <c r="J150">
+        <v>25.1</v>
+      </c>
+      <c r="K150">
+        <v>177.95</v>
+      </c>
+      <c r="L150">
+        <v>30</v>
+      </c>
+      <c r="M150">
+        <v>0.1</v>
+      </c>
+      <c r="N150">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O150">
+        <v>2247.6452077632562</v>
+      </c>
+      <c r="P150">
+        <v>1847.5906500963131</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+      <c r="V150">
+        <v>3</v>
+      </c>
+      <c r="W150">
+        <v>0.15</v>
+      </c>
+      <c r="X150">
+        <v>634.45775278600865</v>
+      </c>
+      <c r="Z150">
+        <v>2328.7730451283269</v>
+      </c>
+      <c r="AF150">
+        <v>1883.692</v>
+      </c>
+    </row>
+    <row r="151" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>206</v>
+      </c>
+      <c r="C151" t="s">
+        <v>202</v>
+      </c>
+      <c r="D151" t="s">
+        <v>147</v>
+      </c>
+      <c r="E151">
+        <v>5</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>202</v>
+      </c>
+      <c r="J151">
+        <v>25.1</v>
+      </c>
+      <c r="K151">
+        <v>177.7</v>
+      </c>
+      <c r="L151">
+        <v>30</v>
+      </c>
+      <c r="M151">
+        <v>0.1</v>
+      </c>
+      <c r="N151">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O151">
+        <v>2247.6452077632562</v>
+      </c>
+      <c r="P151">
+        <v>1923.4982392794029</v>
+      </c>
+      <c r="Q151">
+        <v>8.3333000000000004E-2</v>
+      </c>
+      <c r="V151">
+        <v>2.4</v>
+      </c>
+      <c r="W151">
+        <v>0.15</v>
+      </c>
+      <c r="AF151">
+        <v>1961.0827999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>207</v>
+      </c>
+      <c r="C152" t="s">
+        <v>202</v>
+      </c>
+      <c r="D152" t="s">
+        <v>147</v>
+      </c>
+      <c r="E152">
+        <v>6</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>203</v>
+      </c>
+      <c r="J152">
+        <v>25.2</v>
+      </c>
+      <c r="K152">
+        <v>177.75</v>
+      </c>
+      <c r="L152">
+        <v>30</v>
+      </c>
+      <c r="M152">
+        <v>0.1</v>
+      </c>
+      <c r="N152">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O152">
+        <v>2247.7110290356632</v>
+      </c>
+      <c r="P152">
+        <v>1990.07555459323</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="V152">
+        <v>2.1</v>
+      </c>
+      <c r="W152">
+        <v>0.15</v>
+      </c>
+      <c r="X152">
+        <v>501.76745350947863</v>
+      </c>
+      <c r="Z152">
+        <v>983.11498351008049</v>
+      </c>
+      <c r="AF152">
+        <v>2028.9015999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>208</v>
+      </c>
+      <c r="C153" t="s">
+        <v>202</v>
+      </c>
+      <c r="D153" t="s">
+        <v>147</v>
+      </c>
+      <c r="E153">
+        <v>7</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>204</v>
+      </c>
+      <c r="J153">
+        <v>25.1</v>
+      </c>
+      <c r="K153">
+        <v>177.5</v>
+      </c>
+      <c r="L153">
+        <v>30</v>
+      </c>
+      <c r="M153">
+        <v>0.1</v>
+      </c>
+      <c r="N153">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O153">
+        <v>2247.6452077632562</v>
+      </c>
+      <c r="P153">
+        <v>2046.183997506331</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+      <c r="R153">
+        <v>292</v>
+      </c>
+      <c r="V153">
+        <v>1.8</v>
+      </c>
+      <c r="W153">
+        <v>0.15</v>
+      </c>
+      <c r="X153">
+        <v>473.93480487280817</v>
+      </c>
+      <c r="Z153">
+        <v>453.56917604809689</v>
+      </c>
+      <c r="AF153">
+        <v>2086.1658000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>209</v>
+      </c>
+      <c r="C154" t="s">
+        <v>202</v>
+      </c>
+      <c r="D154" t="s">
+        <v>147</v>
+      </c>
+      <c r="E154">
+        <v>8</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>205</v>
+      </c>
+      <c r="J154">
+        <v>25.1</v>
+      </c>
+      <c r="K154">
+        <v>177.3</v>
+      </c>
+      <c r="L154">
+        <v>30</v>
+      </c>
+      <c r="M154">
+        <v>0.1</v>
+      </c>
+      <c r="N154">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O154">
+        <v>2247.6452077632562</v>
+      </c>
+      <c r="P154">
+        <v>2074.647136571708</v>
+      </c>
+      <c r="Q154">
+        <v>0.16666600000000001</v>
+      </c>
+      <c r="R154">
+        <v>270</v>
+      </c>
+      <c r="V154">
+        <v>1.5</v>
+      </c>
+      <c r="W154">
+        <v>0.15</v>
+      </c>
+      <c r="X154">
+        <v>469.4633541918829</v>
+      </c>
+      <c r="Z154">
+        <v>386.19905496188608</v>
+      </c>
+      <c r="AF154">
+        <v>2115.1851000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>210</v>
+      </c>
+      <c r="C155" t="s">
+        <v>202</v>
+      </c>
+      <c r="D155" t="s">
+        <v>147</v>
+      </c>
+      <c r="E155">
+        <v>9</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <v>206</v>
+      </c>
+      <c r="J155">
+        <v>25.1</v>
+      </c>
+      <c r="K155">
+        <v>177.15</v>
+      </c>
+      <c r="L155">
+        <v>30</v>
+      </c>
+      <c r="M155">
+        <v>0.1</v>
+      </c>
+      <c r="N155">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O155">
+        <v>2247.6452077632562</v>
+      </c>
+      <c r="P155">
+        <v>2088.176085101496</v>
+      </c>
+      <c r="Q155">
+        <v>1.166666</v>
+      </c>
+      <c r="R155">
+        <v>219</v>
+      </c>
+      <c r="V155">
+        <v>1.2</v>
+      </c>
+      <c r="W155">
+        <v>0.15</v>
+      </c>
+      <c r="X155">
+        <v>460.53497175822503</v>
+      </c>
+      <c r="Z155">
+        <v>233.1054578909156</v>
+      </c>
+      <c r="AF155">
+        <v>2128.9784</v>
+      </c>
+    </row>
+    <row r="156" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>211</v>
+      </c>
+      <c r="C156" t="s">
+        <v>202</v>
+      </c>
+      <c r="D156" t="s">
+        <v>147</v>
+      </c>
+      <c r="E156">
+        <v>10</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>207</v>
+      </c>
+      <c r="J156">
+        <v>25.1</v>
+      </c>
+      <c r="K156">
+        <v>177.1</v>
+      </c>
+      <c r="L156">
+        <v>30</v>
+      </c>
+      <c r="M156">
+        <v>0.1</v>
+      </c>
+      <c r="N156">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O156">
+        <v>2247.6452077632562</v>
+      </c>
+      <c r="P156">
+        <v>2110.2330978930599</v>
+      </c>
+      <c r="Q156">
+        <v>0</v>
+      </c>
+      <c r="R156">
+        <v>219</v>
+      </c>
+      <c r="V156">
+        <v>1.2</v>
+      </c>
+      <c r="W156">
+        <v>0.15</v>
+      </c>
+      <c r="X156">
+        <v>460.28603855912212</v>
+      </c>
+      <c r="Z156">
+        <v>232.18811934360519</v>
+      </c>
+      <c r="AF156">
+        <v>2151.4663999999998</v>
+      </c>
+    </row>
+    <row r="157" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>212</v>
+      </c>
+      <c r="C157" t="s">
+        <v>202</v>
+      </c>
+      <c r="D157" t="s">
+        <v>147</v>
+      </c>
+      <c r="E157">
+        <v>11</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>208</v>
+      </c>
+      <c r="J157">
+        <v>25.1</v>
+      </c>
+      <c r="K157">
+        <v>175.6</v>
+      </c>
+      <c r="L157">
+        <v>30</v>
+      </c>
+      <c r="M157">
+        <v>0.1</v>
+      </c>
+      <c r="N157">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O157">
+        <v>2247.6452077632562</v>
+      </c>
+      <c r="P157">
+        <v>2181.8628742164419</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>114</v>
+      </c>
+      <c r="V157">
+        <v>0.6</v>
+      </c>
+      <c r="W157">
+        <v>0.15</v>
+      </c>
+      <c r="X157">
+        <v>450.01328287875742</v>
+      </c>
+      <c r="Z157">
+        <v>120.93377186325451</v>
+      </c>
+      <c r="AF157">
+        <v>2224.4958000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>213</v>
+      </c>
+      <c r="C158" t="s">
+        <v>202</v>
+      </c>
+      <c r="D158" t="s">
+        <v>147</v>
+      </c>
+      <c r="E158">
+        <v>12</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>209</v>
+      </c>
+      <c r="J158">
+        <v>25.1</v>
+      </c>
+      <c r="L158">
+        <v>30</v>
+      </c>
+      <c r="M158">
+        <v>0.1</v>
+      </c>
+      <c r="N158">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O158">
+        <v>2247.6452077632562</v>
+      </c>
+      <c r="P158">
+        <v>2236.5688366296481</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+      <c r="R158">
+        <v>0</v>
+      </c>
+      <c r="V158">
+        <v>0.15</v>
+      </c>
+      <c r="W158">
+        <v>0.15</v>
+      </c>
+      <c r="AF158">
+        <v>2280.2707</v>
+      </c>
+    </row>
+    <row r="159" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>214</v>
+      </c>
+      <c r="C159" t="s">
+        <v>202</v>
+      </c>
+      <c r="D159" t="s">
+        <v>147</v>
+      </c>
+      <c r="E159">
+        <v>13</v>
+      </c>
+      <c r="F159">
+        <v>2</v>
+      </c>
+      <c r="G159">
+        <v>211</v>
+      </c>
+      <c r="J159">
+        <v>25.1</v>
+      </c>
+      <c r="L159">
+        <v>30</v>
+      </c>
+      <c r="M159">
+        <v>0.1</v>
+      </c>
+      <c r="N159">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O159">
+        <v>2247.6452077632562</v>
+      </c>
+      <c r="P159">
+        <v>2225.4638251201281</v>
+      </c>
+      <c r="Q159">
+        <v>0</v>
+      </c>
+      <c r="R159">
+        <v>0</v>
+      </c>
+      <c r="V159">
+        <v>0</v>
+      </c>
+      <c r="W159">
+        <v>0.15</v>
+      </c>
+      <c r="AF159">
+        <v>2268.9486999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>215</v>
+      </c>
+      <c r="C160" t="s">
+        <v>202</v>
+      </c>
+      <c r="D160" t="s">
+        <v>147</v>
+      </c>
+      <c r="E160">
+        <v>14</v>
+      </c>
+      <c r="F160">
+        <v>2</v>
+      </c>
+      <c r="G160">
+        <v>213</v>
+      </c>
+      <c r="J160">
+        <v>25.1</v>
+      </c>
+      <c r="L160">
+        <v>30</v>
+      </c>
+      <c r="M160">
+        <v>0.1</v>
+      </c>
+      <c r="N160">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O160">
+        <v>2247.6452077632562</v>
+      </c>
+      <c r="P160">
+        <v>2100.823263153713</v>
+      </c>
+      <c r="Q160">
+        <v>86</v>
+      </c>
+      <c r="R160">
+        <v>0</v>
+      </c>
+      <c r="V160">
+        <v>0.15</v>
+      </c>
+      <c r="W160">
+        <v>0.15</v>
+      </c>
+      <c r="AF160">
+        <v>2141.8726999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>216</v>
+      </c>
+      <c r="C161" t="s">
+        <v>202</v>
+      </c>
+      <c r="D161" t="s">
+        <v>147</v>
+      </c>
+      <c r="E161">
+        <v>15</v>
+      </c>
+      <c r="F161">
+        <v>2</v>
+      </c>
+      <c r="G161">
+        <v>214</v>
+      </c>
+      <c r="J161">
+        <v>25.1</v>
+      </c>
+      <c r="L161">
+        <v>30</v>
+      </c>
+      <c r="M161">
+        <v>0.1</v>
+      </c>
+      <c r="N161">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O161">
+        <v>2247.6452077632562</v>
+      </c>
+      <c r="P161">
+        <v>2232.4895447317422</v>
+      </c>
+      <c r="Q161">
+        <v>0</v>
+      </c>
+      <c r="R161">
+        <v>0</v>
+      </c>
+      <c r="V161">
+        <v>0.15</v>
+      </c>
+      <c r="W161">
+        <v>0.15</v>
+      </c>
+      <c r="AF161">
+        <v>2276.1116999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
+        <v>217</v>
+      </c>
+      <c r="C162" t="s">
+        <v>202</v>
+      </c>
+      <c r="D162" t="s">
+        <v>147</v>
+      </c>
+      <c r="E162">
+        <v>16</v>
+      </c>
+      <c r="F162">
+        <v>2</v>
+      </c>
+      <c r="G162">
+        <v>215</v>
+      </c>
+      <c r="J162">
+        <v>25.1</v>
+      </c>
+      <c r="L162">
+        <v>30</v>
+      </c>
+      <c r="M162">
+        <v>0.1</v>
+      </c>
+      <c r="N162">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O162">
+        <v>2247.6452077632562</v>
+      </c>
+      <c r="P162">
+        <v>2242.0296343314012</v>
+      </c>
+      <c r="Q162">
+        <v>0</v>
+      </c>
+      <c r="R162">
+        <v>0</v>
+      </c>
+      <c r="V162">
+        <v>0</v>
+      </c>
+      <c r="W162">
+        <v>0.15</v>
+      </c>
+      <c r="AF162">
+        <v>2285.8382000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Logbook_automated_by_python_testing_backup.xlsx
+++ b/Logbook_automated_by_python_testing_backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e67038fc02b579b/Documenten/GitHub/tidegas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D780BA8-C68F-4117-8DAA-788DF20DBF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BB3EDCB-2A44-4D79-809B-F0C2D50A0DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="600">
   <si>
     <t>Description</t>
   </si>
@@ -1402,39 +1402,75 @@
     <t>0-0  0  (0)junk_old-251103-03-4_2mL-0_15incrmL.dat</t>
   </si>
   <si>
+    <t>co2data 03-11 (6).txt</t>
+  </si>
+  <si>
     <t>0-0  0  (0)junk_old-251103-04-3_0mL-3_0incrmL.dat</t>
   </si>
   <si>
+    <t>co2data 03-11 (8).txt</t>
+  </si>
+  <si>
     <t>0-0  0  (0)junk_old-251103-05-3_0mL-3_0incrmL.dat</t>
   </si>
   <si>
+    <t>co2data 03-11 (9).txt</t>
+  </si>
+  <si>
     <t>0-0  0  (0)junk_old-251103-06-3_0mL-3_0incrmL.dat</t>
   </si>
   <si>
+    <t>co2data 03-11 (10).txt</t>
+  </si>
+  <si>
     <t>0-0  0  (0)junk_old-251103-07-3_0mL-3_0incrmL.dat</t>
   </si>
   <si>
+    <t>co2data 03-11 (11).txt</t>
+  </si>
+  <si>
     <t>0-0  0  (0)junk_old-251103-08-3_0mL-3_0incrmL.dat</t>
   </si>
   <si>
+    <t>co2data 03-11 (12).txt</t>
+  </si>
+  <si>
     <t>0-0  0  (0)junk_old-251103-09-3_0mL-3_0incrmL.dat</t>
   </si>
   <si>
+    <t>co2data 03-11 (13).txt</t>
+  </si>
+  <si>
     <t>0-0  0  (0)junk_old-251103-10-3_0mL-3_0incrmL.dat</t>
   </si>
   <si>
+    <t>co2data 03-11 (14).txt</t>
+  </si>
+  <si>
     <t>0-0  0  (0)junk_old-251103-11-3_0mL-3_0incrmL.dat</t>
   </si>
   <si>
+    <t>co2data 03-11 (15).txt</t>
+  </si>
+  <si>
     <t>0-0  0  (0)junk_old-251103-12-3_0mL-3_0incrmL.dat</t>
   </si>
   <si>
+    <t>co2data 03-11 (16).txt</t>
+  </si>
+  <si>
     <t>0-0  0  (0)junk_old-251103-13-3_0mL-3_0incrmL.dat</t>
   </si>
   <si>
+    <t>co2data 03-11 (17).txt</t>
+  </si>
+  <si>
     <t>0-0  0  (0)junk_old-251103-14-3_0mL-3_0incrmL.dat</t>
   </si>
   <si>
+    <t>co2data 03-11 (18).txt</t>
+  </si>
+  <si>
     <t>0-0  0  (0)junk_old-251104-01-4_2mL-0_15incrmL.dat</t>
   </si>
   <si>
@@ -1444,28 +1480,346 @@
     <t>0-0  0  (0)junk_old-251104-02-1_65mL-1_65incrmL.dat</t>
   </si>
   <si>
+    <t>co2data 04-11 (6).txt</t>
+  </si>
+  <si>
     <t>0-0  0  (0)junk_old-251104-03-1_65mL-1_65incrmL.dat</t>
   </si>
   <si>
+    <t>co2data 04-11 (7).txt</t>
+  </si>
+  <si>
     <t>0-0  0  (0)junk_old-251104-04-4_2mL-4_2incrmL.dat</t>
   </si>
   <si>
+    <t>co2data 04-11 (8).txt</t>
+  </si>
+  <si>
     <t>0-0  0  (0)junk_old-251104-05-1_65mL-1_65incrmL.dat</t>
   </si>
   <si>
+    <t>co2data 04-11 (9).txt</t>
+  </si>
+  <si>
     <t>0-0  0  (0)junk_old-251104-06-1_65mL-1_65incrmL.dat</t>
   </si>
   <si>
+    <t>co2data 04-11 (10).txt</t>
+  </si>
+  <si>
     <t>0-0  0  (0)junk_old-251104-07-1_65mL-1_65incrmL.dat</t>
   </si>
   <si>
+    <t>co2data 04-11 (11).txt</t>
+  </si>
+  <si>
     <t>0-0  0  (0)junk_old-251104-08-1_65mL-1_65incrmL.dat</t>
   </si>
   <si>
+    <t>co2data 04-11 (12).txt</t>
+  </si>
+  <si>
     <t>0-0  0  (0)junk_old-251104-09-1_65mL-1_65incrmL.dat</t>
   </si>
   <si>
+    <t>co2data 04-11 (14).txt</t>
+  </si>
+  <si>
     <t>0-0  0  (0)junk_old-251104-10-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old-251105-01-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>05/11/2025</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old-251105-02-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 05-11 (5).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old-251105-03-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 05-11 (7).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old-251105-04-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 05-11 (9).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old-251105-05-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 05-11 (10).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old-251105-06-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 05-11 (12).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old-251105-07-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 05-11 (13).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251107-01-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>07/11/2025</t>
+  </si>
+  <si>
+    <t>Junk_old_2</t>
+  </si>
+  <si>
+    <t>co2data 07-11 (4).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251107-02-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 07-11 (5).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251107-03-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 07-11 (6).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251107-04-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 07-11 (7).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251107-05-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 07-11 (8).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251107-06-2_55mL0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>messed up file name 0_15 ml incr not automatically imported</t>
+  </si>
+  <si>
+    <t>co2data 07-11 (9).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251107-07-2_7mL0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 07-11 (10).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251107-08-2_7mL0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 07-11 (12).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251107-09-2_7mL0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 07-11 (14).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251107-10-4_2mL0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 07-11 (15).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251110-01-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>10/11/2025</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251110-02-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251110-03-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251110-04-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251110-05-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)CRM-251110-06-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>Batch #219</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251110-07-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251110-08-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251110-09-4_05mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251110-10-3_9mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251110-11-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251110-12-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251111-01-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>11/11/2025</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251111-02-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 11-11 (3).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251111-03-4_05mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 11-11 (4).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251111-04-3_9mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 11-11 (5).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251111-05-3_75mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 11-11 (6).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251111-06-3_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 11-11 (7).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251111-07-3_45mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 11-11 (8).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251111-08-3_3mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 11-11 (9).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251111-09-3_15mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 11-11 (10).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251111-10-3_0mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251111-11-3_0mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 11-11 (12).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251111-12-2_7mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 11-11 (13).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251111-13-2_4mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 11-11 (14).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251111-14-2_1mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 11-11 (15).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251111-15-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 11-11 (16).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251111-16-1_8mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 11-11 (18).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251111-17-1_5mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 11-11 (19).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251111-18-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 11-11 (20).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251111-19-0_9mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 11-11 (21).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251111-20-0_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 11-11 (22).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251111-21-0_3mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 11-11 (23).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251111-22-0_0mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 11-11 (24).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251111-23-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 11-11 (26).txt</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk_old_2-251111-24-0_9mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>co2data 11-11 (27).txt</t>
   </si>
 </sst>
 </file>
@@ -1541,10 +1895,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1832,10 +2182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF246"/>
+  <dimension ref="A1:AF299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L212" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView tabSelected="1" topLeftCell="P22" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9956,7 +10306,7 @@
         <v>30</v>
       </c>
       <c r="M131">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N131">
         <v>2307.9313400000001</v>
@@ -9971,10 +10321,10 @@
         <v>0.15</v>
       </c>
       <c r="V131">
-        <v>633.62102360355516</v>
+        <v>633.77703328645782</v>
       </c>
       <c r="X131">
-        <v>2236.9737469180991</v>
+        <v>2224.0195753091389</v>
       </c>
       <c r="AD131">
         <v>2236.9737469180991</v>
@@ -10012,7 +10362,7 @@
         <v>30</v>
       </c>
       <c r="M132">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N132">
         <v>2307.9313400000001</v>
@@ -10033,10 +10383,10 @@
         <v>0.15</v>
       </c>
       <c r="V132">
-        <v>633.21745112960241</v>
+        <v>633.37444281066871</v>
       </c>
       <c r="X132">
-        <v>2285.7206291555271</v>
+        <v>2272.512640315796</v>
       </c>
       <c r="Y132" t="s">
         <v>275</v>
@@ -10080,7 +10430,7 @@
         <v>30</v>
       </c>
       <c r="M133">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N133">
         <v>2307.9313400000001</v>
@@ -10101,10 +10451,10 @@
         <v>0.15</v>
       </c>
       <c r="V133">
-        <v>504.45374435716582</v>
+        <v>504.61293392340468</v>
       </c>
       <c r="X133">
-        <v>1073.959843373148</v>
+        <v>1067.8989102741141</v>
       </c>
       <c r="Y133" t="s">
         <v>277</v>
@@ -10148,7 +10498,7 @@
         <v>30</v>
       </c>
       <c r="M134">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N134">
         <v>2307.9313400000001</v>
@@ -10169,10 +10519,10 @@
         <v>0.15</v>
       </c>
       <c r="V134">
-        <v>503.93977359945211</v>
+        <v>504.09887914315931</v>
       </c>
       <c r="X134">
-        <v>1070.6833477445571</v>
+        <v>1064.6400382751649</v>
       </c>
       <c r="Y134" t="s">
         <v>279</v>
@@ -10216,7 +10566,7 @@
         <v>30</v>
       </c>
       <c r="M135">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N135">
         <v>2307.9313400000001</v>
@@ -10237,10 +10587,10 @@
         <v>0.15</v>
       </c>
       <c r="V135">
-        <v>500.79356176421612</v>
+        <v>500.95299840211783</v>
       </c>
       <c r="X135">
-        <v>986.09134148382941</v>
+        <v>980.56034823943389</v>
       </c>
       <c r="Y135" t="s">
         <v>281</v>
@@ -10284,7 +10634,7 @@
         <v>30</v>
       </c>
       <c r="M136">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N136">
         <v>2307.9313400000001</v>
@@ -10305,10 +10655,10 @@
         <v>0.15</v>
       </c>
       <c r="V136">
-        <v>500.8066221105654</v>
+        <v>500.96610589092171</v>
       </c>
       <c r="X136">
-        <v>985.97242987756204</v>
+        <v>980.44205191448702</v>
       </c>
       <c r="Y136" t="s">
         <v>283</v>
@@ -10352,7 +10702,7 @@
         <v>30</v>
       </c>
       <c r="M137">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N137">
         <v>2307.9313400000001</v>
@@ -10373,10 +10723,10 @@
         <v>0.15</v>
       </c>
       <c r="V137">
-        <v>500.71890673000519</v>
+        <v>500.8783156571219</v>
       </c>
       <c r="X137">
-        <v>985.02125391261006</v>
+        <v>979.49599368010729</v>
       </c>
       <c r="Y137" t="s">
         <v>285</v>
@@ -10420,7 +10770,7 @@
         <v>30</v>
       </c>
       <c r="M138">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N138">
         <v>2307.9313400000001</v>
@@ -10441,10 +10791,10 @@
         <v>0.15</v>
       </c>
       <c r="V138">
-        <v>500.54957630273719</v>
+        <v>500.70897398836888</v>
       </c>
       <c r="X138">
-        <v>982.93632568718886</v>
+        <v>977.42183773919771</v>
       </c>
       <c r="Y138" t="s">
         <v>287</v>
@@ -10488,7 +10838,7 @@
         <v>30</v>
       </c>
       <c r="M139">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N139">
         <v>2307.9313400000001</v>
@@ -10509,10 +10859,10 @@
         <v>0.15</v>
       </c>
       <c r="V139">
-        <v>500.72546259119667</v>
+        <v>500.88490596594971</v>
       </c>
       <c r="X139">
-        <v>984.3353601636021</v>
+        <v>978.8137887708989</v>
       </c>
       <c r="Y139" t="s">
         <v>289</v>
@@ -10556,7 +10906,7 @@
         <v>30</v>
       </c>
       <c r="M140">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N140">
         <v>2307.9313400000001</v>
@@ -10577,10 +10927,10 @@
         <v>0.15</v>
       </c>
       <c r="V140">
-        <v>500.80905742244681</v>
+        <v>500.9685627279631</v>
       </c>
       <c r="X140">
-        <v>985.99200746585871</v>
+        <v>980.46208030232583</v>
       </c>
       <c r="Y140" t="s">
         <v>291</v>
@@ -10624,7 +10974,7 @@
         <v>30</v>
       </c>
       <c r="M141">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N141">
         <v>2307.9313400000001</v>
@@ -10645,10 +10995,10 @@
         <v>0.15</v>
       </c>
       <c r="V141">
-        <v>500.21689518838423</v>
+        <v>500.37621045357611</v>
       </c>
       <c r="X141">
-        <v>982.68032584891864</v>
+        <v>977.16656983397274</v>
       </c>
       <c r="Y141" t="s">
         <v>293</v>
@@ -10689,7 +11039,7 @@
         <v>30</v>
       </c>
       <c r="M142">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N142">
         <v>2307.9313400000001</v>
@@ -10704,10 +11054,10 @@
         <v>0.15</v>
       </c>
       <c r="V142">
-        <v>500.79414159072007</v>
+        <v>500.95361435409922</v>
       </c>
       <c r="X142">
-        <v>985.0815228219559</v>
+        <v>979.55623109875808</v>
       </c>
       <c r="AD142">
         <v>985.0815228219559</v>
@@ -10745,7 +11095,7 @@
         <v>30</v>
       </c>
       <c r="M143">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N143">
         <v>2307.9313400000001</v>
@@ -10766,10 +11116,10 @@
         <v>0.15</v>
       </c>
       <c r="V143">
-        <v>500.50971175294802</v>
+        <v>500.66913675266238</v>
       </c>
       <c r="X143">
-        <v>983.22266236329824</v>
+        <v>977.70731824536335</v>
       </c>
       <c r="Y143" t="s">
         <v>296</v>
@@ -10813,7 +11163,7 @@
         <v>30</v>
       </c>
       <c r="M144">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N144">
         <v>2307.9313400000001</v>
@@ -10834,10 +11184,10 @@
         <v>0.15</v>
       </c>
       <c r="V144">
-        <v>500.4516706102745</v>
+        <v>500.61108098509789</v>
       </c>
       <c r="X144">
-        <v>983.03416281850787</v>
+        <v>977.51955901668691</v>
       </c>
       <c r="Y144" t="s">
         <v>298</v>
@@ -10881,7 +11231,7 @@
         <v>30</v>
       </c>
       <c r="M145">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N145">
         <v>2307.9313400000001</v>
@@ -10902,10 +11252,10 @@
         <v>0.15</v>
       </c>
       <c r="V145">
-        <v>499.84206332688552</v>
+        <v>500.00137484793731</v>
       </c>
       <c r="X145">
-        <v>979.83311399519641</v>
+        <v>974.33499590464714</v>
       </c>
       <c r="Y145" t="s">
         <v>300</v>
@@ -10946,7 +11296,7 @@
         <v>30</v>
       </c>
       <c r="M146">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N146">
         <v>2291.5635000000002</v>
@@ -10961,10 +11311,10 @@
         <v>0.15</v>
       </c>
       <c r="V146">
-        <v>632.84420016215563</v>
+        <v>632.99952944619952</v>
       </c>
       <c r="X146">
-        <v>2328.6446696322942</v>
+        <v>2315.1260805976221</v>
       </c>
       <c r="AD146">
         <v>2328.6446696322942</v>
@@ -11005,7 +11355,7 @@
         <v>30</v>
       </c>
       <c r="M147">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N147">
         <v>2300</v>
@@ -11029,10 +11379,10 @@
         <v>0.15</v>
       </c>
       <c r="V147">
-        <v>633.20573762485117</v>
+        <v>633.36127808162178</v>
       </c>
       <c r="X147">
-        <v>2365.0465335110148</v>
+        <v>2351.328264374004</v>
       </c>
       <c r="Y147" t="s">
         <v>304</v>
@@ -11079,7 +11429,7 @@
         <v>30</v>
       </c>
       <c r="M148">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N148">
         <v>2291.5635000000002</v>
@@ -11103,10 +11453,10 @@
         <v>0.15</v>
       </c>
       <c r="V148">
-        <v>633.45722749398487</v>
+        <v>633.61240797517326</v>
       </c>
       <c r="X148">
-        <v>2326.9360845898041</v>
+        <v>2313.4262137853939</v>
       </c>
       <c r="Y148" t="s">
         <v>306</v>
@@ -11153,7 +11503,7 @@
         <v>30</v>
       </c>
       <c r="M149">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N149">
         <v>2291.5635000000002</v>
@@ -11174,10 +11524,10 @@
         <v>0.15</v>
       </c>
       <c r="V149">
-        <v>634.00757626558311</v>
+        <v>634.16320296282811</v>
       </c>
       <c r="X149">
-        <v>2330.7803114936401</v>
+        <v>2317.25743131946</v>
       </c>
       <c r="Y149" t="s">
         <v>308</v>
@@ -11224,7 +11574,7 @@
         <v>30</v>
       </c>
       <c r="M150">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N150">
         <v>2291.5635000000002</v>
@@ -11245,10 +11595,10 @@
         <v>0.15</v>
       </c>
       <c r="V150">
-        <v>634.45702307171484</v>
+        <v>634.6168070204634</v>
       </c>
       <c r="X150">
-        <v>2328.7515905866248</v>
+        <v>2315.3035269826928</v>
       </c>
       <c r="Y150" t="s">
         <v>310</v>
@@ -11295,7 +11645,7 @@
         <v>30</v>
       </c>
       <c r="M151">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N151">
         <v>2291.5635000000002</v>
@@ -11351,7 +11701,7 @@
         <v>30</v>
       </c>
       <c r="M152">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N152">
         <v>2291.5635000000002</v>
@@ -11372,10 +11722,10 @@
         <v>0.15</v>
       </c>
       <c r="V152">
-        <v>501.76678543137581</v>
+        <v>501.92613502055269</v>
       </c>
       <c r="X152">
-        <v>983.09052908228796</v>
+        <v>977.5735392304515</v>
       </c>
       <c r="Y152" t="s">
         <v>314</v>
@@ -11422,7 +11772,7 @@
         <v>30</v>
       </c>
       <c r="M153">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N153">
         <v>2291.5635000000002</v>
@@ -11446,10 +11796,10 @@
         <v>0.15</v>
       </c>
       <c r="V153">
-        <v>473.93426438803181</v>
+        <v>476.18904271466249</v>
       </c>
       <c r="X153">
-        <v>453.54755474989628</v>
+        <v>514.45173655129315</v>
       </c>
       <c r="Y153" t="s">
         <v>316</v>
@@ -11496,7 +11846,7 @@
         <v>30</v>
       </c>
       <c r="M154">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N154">
         <v>2291.5635000000002</v>
@@ -11520,10 +11870,10 @@
         <v>0.15</v>
       </c>
       <c r="V154">
-        <v>469.46284174752719</v>
+        <v>469.62064892951958</v>
       </c>
       <c r="X154">
-        <v>386.17889845259361</v>
+        <v>384.12909073052867</v>
       </c>
       <c r="Y154" t="s">
         <v>318</v>
@@ -11570,7 +11920,7 @@
         <v>30</v>
       </c>
       <c r="M155">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N155">
         <v>2291.5635000000002</v>
@@ -11594,10 +11944,10 @@
         <v>0.15</v>
       </c>
       <c r="V155">
-        <v>460.53423731899949</v>
+        <v>460.6942366928713</v>
       </c>
       <c r="X155">
-        <v>233.0809691335462</v>
+        <v>231.97294556176911</v>
       </c>
       <c r="Y155" t="s">
         <v>320</v>
@@ -11644,7 +11994,7 @@
         <v>30</v>
       </c>
       <c r="M156">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N156">
         <v>2291.5635000000002</v>
@@ -11668,10 +12018,10 @@
         <v>0.15</v>
       </c>
       <c r="V156">
-        <v>460.28530850545741</v>
+        <v>460.44526261766021</v>
       </c>
       <c r="X156">
-        <v>232.163723657151</v>
+        <v>231.06013297412639</v>
       </c>
       <c r="Y156" t="s">
         <v>322</v>
@@ -11718,7 +12068,7 @@
         <v>30</v>
       </c>
       <c r="M157">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N157">
         <v>2291.5635000000002</v>
@@ -11742,10 +12092,10 @@
         <v>0.15</v>
       </c>
       <c r="V157">
-        <v>450.01186236145679</v>
+        <v>450.17867957667778</v>
       </c>
       <c r="X157">
-        <v>120.90418949824119</v>
+        <v>120.5042488561443</v>
       </c>
       <c r="Y157" t="s">
         <v>324</v>
@@ -11789,7 +12139,7 @@
         <v>30</v>
       </c>
       <c r="M158">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N158">
         <v>2291.5635000000002</v>
@@ -11845,7 +12195,7 @@
         <v>30</v>
       </c>
       <c r="M159">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N159">
         <v>2291.5635000000002</v>
@@ -11901,7 +12251,7 @@
         <v>30</v>
       </c>
       <c r="M160">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N160">
         <v>2291.5635000000002</v>
@@ -11957,7 +12307,7 @@
         <v>30</v>
       </c>
       <c r="M161">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N161">
         <v>2291.5635000000002</v>
@@ -12013,7 +12363,7 @@
         <v>30</v>
       </c>
       <c r="M162">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N162">
         <v>2288.2105299999998</v>
@@ -12072,7 +12422,7 @@
         <v>30</v>
       </c>
       <c r="M163">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N163">
         <v>2288.2105299999998</v>
@@ -12096,10 +12446,10 @@
         <v>0.15</v>
       </c>
       <c r="V163">
-        <v>632.86945135666303</v>
+        <v>633.02464870918345</v>
       </c>
       <c r="X163">
-        <v>2322.9162139090072</v>
+        <v>2309.4284341696812</v>
       </c>
       <c r="Y163" t="s">
         <v>337</v>
@@ -12146,7 +12496,7 @@
         <v>30</v>
       </c>
       <c r="M164">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N164">
         <v>2288.2105299999998</v>
@@ -12170,10 +12520,10 @@
         <v>0.15</v>
       </c>
       <c r="V164">
-        <v>632.69992618384276</v>
+        <v>632.85511650543901</v>
       </c>
       <c r="X164">
-        <v>2326.7738470164022</v>
+        <v>2313.2649467618899</v>
       </c>
       <c r="Y164" t="s">
         <v>339</v>
@@ -12220,7 +12570,7 @@
         <v>30</v>
       </c>
       <c r="M165">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N165">
         <v>2288.2105299999998</v>
@@ -12244,10 +12594,10 @@
         <v>0.15</v>
       </c>
       <c r="V165">
-        <v>632.83272870904739</v>
+        <v>632.98964870847863</v>
       </c>
       <c r="X165">
-        <v>2330.4365331205881</v>
+        <v>2316.93856189907</v>
       </c>
       <c r="Y165" t="s">
         <v>341</v>
@@ -12294,7 +12644,7 @@
         <v>30</v>
       </c>
       <c r="M166">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N166">
         <v>2288.2105299999998</v>
@@ -12315,10 +12665,10 @@
         <v>0.15</v>
       </c>
       <c r="V166">
-        <v>632.9545315650854</v>
+        <v>633.11676311268445</v>
       </c>
       <c r="X166">
-        <v>2329.929586462611</v>
+        <v>2316.5076493915299</v>
       </c>
       <c r="Y166" t="s">
         <v>343</v>
@@ -12365,7 +12715,7 @@
         <v>30</v>
       </c>
       <c r="M167">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N167">
         <v>2288.2105299999998</v>
@@ -12389,10 +12739,10 @@
         <v>0.15</v>
       </c>
       <c r="V167">
-        <v>632.79466261734888</v>
+        <v>632.95742534313422</v>
       </c>
       <c r="X167">
-        <v>2331.307921034786</v>
+        <v>2317.879819030617</v>
       </c>
       <c r="Y167" t="s">
         <v>345</v>
@@ -12439,7 +12789,7 @@
         <v>30</v>
       </c>
       <c r="M168">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N168">
         <v>2288.2105299999998</v>
@@ -12498,7 +12848,7 @@
         <v>30</v>
       </c>
       <c r="M169">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N169">
         <v>2288.2105299999998</v>
@@ -12522,10 +12872,10 @@
         <v>0.15</v>
       </c>
       <c r="V169">
-        <v>480.08381069036813</v>
+        <v>480.24159070079099</v>
       </c>
       <c r="X169">
-        <v>607.48216485109117</v>
+        <v>604.13859573153638</v>
       </c>
       <c r="Y169" t="s">
         <v>349</v>
@@ -12572,7 +12922,7 @@
         <v>30</v>
       </c>
       <c r="M170">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N170">
         <v>2288.2105299999998</v>
@@ -12596,10 +12946,10 @@
         <v>0.15</v>
       </c>
       <c r="V170">
-        <v>468.46956023661983</v>
+        <v>468.62763356562351</v>
       </c>
       <c r="X170">
-        <v>396.43593353015262</v>
+        <v>394.33373129511938</v>
       </c>
       <c r="Y170" t="s">
         <v>351</v>
@@ -12646,7 +12996,7 @@
         <v>30</v>
       </c>
       <c r="M171">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N171">
         <v>2288.2105299999998</v>
@@ -12670,10 +13020,10 @@
         <v>0.15</v>
       </c>
       <c r="V171">
-        <v>456.37970367363619</v>
+        <v>456.5408935692999</v>
       </c>
       <c r="X171">
-        <v>207.7406271352196</v>
+        <v>206.79367006695321</v>
       </c>
       <c r="Y171" t="s">
         <v>353</v>
@@ -12720,7 +13070,7 @@
         <v>30</v>
       </c>
       <c r="M172">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N172">
         <v>2288.2105299999998</v>
@@ -12744,10 +13094,10 @@
         <v>0.15</v>
       </c>
       <c r="V172">
-        <v>448.96009115737252</v>
+        <v>449.12766458689998</v>
       </c>
       <c r="X172">
-        <v>128.0750374466482</v>
+        <v>127.6417258849402</v>
       </c>
       <c r="Y172" t="s">
         <v>355</v>
@@ -12791,7 +13141,7 @@
         <v>30</v>
       </c>
       <c r="M173">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N173">
         <v>2288.2105299999998</v>
@@ -12850,7 +13200,7 @@
         <v>30</v>
       </c>
       <c r="M174">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N174">
         <v>2288.4819499999999</v>
@@ -12874,10 +13224,10 @@
         <v>0.15</v>
       </c>
       <c r="V174">
-        <v>632.77261552893128</v>
+        <v>632.92782069252462</v>
       </c>
       <c r="X174">
-        <v>2329.0345085716049</v>
+        <v>2315.5130653493602</v>
       </c>
       <c r="Y174" t="s">
         <v>360</v>
@@ -12921,7 +13271,7 @@
         <v>30</v>
       </c>
       <c r="M175">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N175">
         <v>2288.4819499999999</v>
@@ -12939,10 +13289,10 @@
         <v>0.15</v>
       </c>
       <c r="V175">
-        <v>632.61920888004056</v>
+        <v>632.77420137862964</v>
       </c>
       <c r="X175">
-        <v>2325.9388361428032</v>
+        <v>2312.433446610356</v>
       </c>
       <c r="AD175">
         <v>2325.9388361428032</v>
@@ -12983,7 +13333,7 @@
         <v>30</v>
       </c>
       <c r="M176">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N176">
         <v>2288.4819499999999</v>
@@ -13007,10 +13357,10 @@
         <v>0.15</v>
       </c>
       <c r="V176">
-        <v>632.49895355601086</v>
+        <v>632.65420167504305</v>
       </c>
       <c r="X176">
-        <v>2343.7723741224131</v>
+        <v>2330.1689754109721</v>
       </c>
       <c r="Y176" t="s">
         <v>363</v>
@@ -13057,7 +13407,7 @@
         <v>30</v>
       </c>
       <c r="M177">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N177">
         <v>2288.4819499999999</v>
@@ -13081,10 +13431,10 @@
         <v>0.15</v>
       </c>
       <c r="V177">
-        <v>632.78774270938686</v>
+        <v>632.94299503392574</v>
       </c>
       <c r="X177">
-        <v>2333.0773892631232</v>
+        <v>2319.5335712084652</v>
       </c>
       <c r="Y177" t="s">
         <v>365</v>
@@ -13131,7 +13481,7 @@
         <v>30</v>
       </c>
       <c r="M178">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N178">
         <v>2288.4819499999999</v>
@@ -13155,10 +13505,10 @@
         <v>0.15</v>
       </c>
       <c r="V178">
-        <v>632.80183044335877</v>
+        <v>632.95740661373725</v>
       </c>
       <c r="X178">
-        <v>2327.714090324474</v>
+        <v>2314.2078908971639</v>
       </c>
       <c r="Y178" t="s">
         <v>367</v>
@@ -13205,7 +13555,7 @@
         <v>30</v>
       </c>
       <c r="M179">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N179">
         <v>2288.4819499999999</v>
@@ -13229,10 +13579,10 @@
         <v>0.15</v>
       </c>
       <c r="V179">
-        <v>632.93398538342069</v>
+        <v>633.09213278340872</v>
       </c>
       <c r="X179">
-        <v>2334.394990372165</v>
+        <v>2320.8930499721282</v>
       </c>
       <c r="Y179" t="s">
         <v>369</v>
@@ -13279,7 +13629,7 @@
         <v>30</v>
       </c>
       <c r="M180">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N180">
         <v>2288.4819499999999</v>
@@ -13303,10 +13653,10 @@
         <v>0.15</v>
       </c>
       <c r="V180">
-        <v>632.6313946941973</v>
+        <v>632.8239484202029</v>
       </c>
       <c r="X180">
-        <v>2328.2268549514738</v>
+        <v>2315.110209619299</v>
       </c>
       <c r="Y180" t="s">
         <v>371</v>
@@ -13353,7 +13703,7 @@
         <v>30</v>
       </c>
       <c r="M181">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N181">
         <v>2288.4819499999999</v>
@@ -13412,7 +13762,7 @@
         <v>30</v>
       </c>
       <c r="M182">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N182">
         <v>2288.4819499999999</v>
@@ -13436,10 +13786,10 @@
         <v>0.15</v>
       </c>
       <c r="V182">
-        <v>479.72279233880062</v>
+        <v>479.88054667501342</v>
       </c>
       <c r="X182">
-        <v>608.76292734374715</v>
+        <v>605.41246529707166</v>
       </c>
       <c r="Y182" t="s">
         <v>375</v>
@@ -13486,7 +13836,7 @@
         <v>30</v>
       </c>
       <c r="M183">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N183">
         <v>2288.4819499999999</v>
@@ -13510,10 +13860,10 @@
         <v>0.15</v>
       </c>
       <c r="V183">
-        <v>468.18488922518651</v>
+        <v>468.34300040148941</v>
       </c>
       <c r="X183">
-        <v>397.53821495394459</v>
+        <v>395.43047234477899</v>
       </c>
       <c r="Y183" t="s">
         <v>377</v>
@@ -13560,7 +13910,7 @@
         <v>30</v>
       </c>
       <c r="M184">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N184">
         <v>2288.4819499999999</v>
@@ -13584,10 +13934,10 @@
         <v>0.15</v>
       </c>
       <c r="V184">
-        <v>464.33767686269817</v>
+        <v>464.49565502439901</v>
       </c>
       <c r="X184">
-        <v>339.42304536662289</v>
+        <v>337.64582671636612</v>
       </c>
       <c r="Y184" t="s">
         <v>379</v>
@@ -13634,7 +13984,7 @@
         <v>30</v>
       </c>
       <c r="M185">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N185">
         <v>2288.4819499999999</v>
@@ -13658,10 +14008,10 @@
         <v>0.15</v>
       </c>
       <c r="V185">
-        <v>453.75044841760979</v>
+        <v>453.91323290591049</v>
       </c>
       <c r="X185">
-        <v>181.61298067763681</v>
+        <v>180.83224312245349</v>
       </c>
       <c r="Y185" t="s">
         <v>381</v>
@@ -13705,7 +14055,7 @@
         <v>30</v>
       </c>
       <c r="M186">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N186">
         <v>2275.0762</v>
@@ -13726,10 +14076,10 @@
         <v>0.15</v>
       </c>
       <c r="V186">
-        <v>451.09358715817388</v>
+        <v>451.25841308806548</v>
       </c>
       <c r="X186">
-        <v>157.60641675750389</v>
+        <v>156.9810041802711</v>
       </c>
       <c r="AD186">
         <v>157.60641675750389</v>
@@ -13764,7 +14114,7 @@
         <v>36</v>
       </c>
       <c r="M187">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N187">
         <v>2277.9189299999998</v>
@@ -13782,10 +14132,10 @@
         <v>0.15</v>
       </c>
       <c r="V187">
-        <v>633.07296241666177</v>
+        <v>633.22809563857481</v>
       </c>
       <c r="X187">
-        <v>2316.849634421209</v>
+        <v>2303.4053401306828</v>
       </c>
       <c r="AD187">
         <v>2326.384020196097</v>
@@ -13820,7 +14170,7 @@
         <v>36</v>
       </c>
       <c r="M188">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N188">
         <v>2277.9189299999998</v>
@@ -13838,10 +14188,10 @@
         <v>0.15</v>
       </c>
       <c r="V188">
-        <v>633.24454184627871</v>
+        <v>633.40001776795089</v>
       </c>
       <c r="X188">
-        <v>2330.933468613347</v>
+        <v>2317.412901638651</v>
       </c>
       <c r="AD188">
         <v>2340.4915558768762</v>
@@ -13879,7 +14229,7 @@
         <v>36</v>
       </c>
       <c r="M189">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N189">
         <v>2277.9189299999998</v>
@@ -13903,10 +14253,10 @@
         <v>0.15</v>
       </c>
       <c r="V189">
-        <v>633.24813170153061</v>
+        <v>633.40361752413139</v>
       </c>
       <c r="X189">
-        <v>2331.7514143195749</v>
+        <v>2318.226291624173</v>
       </c>
       <c r="Y189" t="s">
         <v>388</v>
@@ -13950,7 +14300,7 @@
         <v>36</v>
       </c>
       <c r="M190">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N190">
         <v>2277.9189299999998</v>
@@ -13974,10 +14324,10 @@
         <v>0.15</v>
       </c>
       <c r="V190">
-        <v>633.29468708098977</v>
+        <v>633.45022792919599</v>
       </c>
       <c r="X190">
-        <v>2331.3707293387129</v>
+        <v>2317.8480132567179</v>
       </c>
       <c r="Y190" t="s">
         <v>390</v>
@@ -14021,7 +14371,7 @@
         <v>36</v>
       </c>
       <c r="M191">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N191">
         <v>2277.9189299999998</v>
@@ -14042,10 +14392,10 @@
         <v>0.15</v>
       </c>
       <c r="V191">
-        <v>633.24155072490225</v>
+        <v>633.39710804715367</v>
       </c>
       <c r="X191">
-        <v>2332.6713451214941</v>
+        <v>2319.1415353422472</v>
       </c>
       <c r="Y191" t="s">
         <v>392</v>
@@ -14089,7 +14439,7 @@
         <v>36</v>
       </c>
       <c r="M192">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N192">
         <v>2277.9189299999998</v>
@@ -14113,10 +14463,10 @@
         <v>0.15</v>
       </c>
       <c r="V192">
-        <v>633.10728622123349</v>
+        <v>633.26288879438084</v>
       </c>
       <c r="X192">
-        <v>2336.3067813092771</v>
+        <v>2322.7571749875251</v>
       </c>
       <c r="Y192" t="s">
         <v>394</v>
@@ -14163,7 +14513,7 @@
         <v>30</v>
       </c>
       <c r="M193">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N193">
         <v>2275.0762</v>
@@ -14187,10 +14537,10 @@
         <v>0.15</v>
       </c>
       <c r="V193">
-        <v>632.37124899695664</v>
+        <v>632.52650088354494</v>
       </c>
       <c r="X193">
-        <v>2329.8306008233362</v>
+        <v>2316.3039838702148</v>
       </c>
       <c r="Y193" t="s">
         <v>396</v>
@@ -14237,7 +14587,7 @@
         <v>30</v>
       </c>
       <c r="M194">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N194">
         <v>2275.0762</v>
@@ -14261,10 +14611,10 @@
         <v>0.15</v>
       </c>
       <c r="V194">
-        <v>450.85651746375549</v>
+        <v>451.02129706169802</v>
       </c>
       <c r="X194">
-        <v>156.24774915609009</v>
+        <v>155.6291687983923</v>
       </c>
       <c r="Y194" t="s">
         <v>398</v>
@@ -14308,7 +14658,7 @@
         <v>30</v>
       </c>
       <c r="M195">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N195">
         <v>2275.0762</v>
@@ -14364,7 +14714,7 @@
         <v>30</v>
       </c>
       <c r="M196">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N196">
         <v>2136.5814</v>
@@ -14388,10 +14738,10 @@
         <v>0.15</v>
       </c>
       <c r="V196">
-        <v>632.93654125617729</v>
+        <v>633.09157729933338</v>
       </c>
       <c r="X196">
-        <v>2323.0771014850038</v>
+        <v>2309.579395712658</v>
       </c>
       <c r="Y196" t="s">
         <v>404</v>
@@ -14432,7 +14782,7 @@
         <v>30</v>
       </c>
       <c r="M197">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N197">
         <v>2136.5814</v>
@@ -14450,10 +14800,10 @@
         <v>0.15</v>
       </c>
       <c r="V197">
-        <v>632.89417662842402</v>
+        <v>633.04921260294918</v>
       </c>
       <c r="X197">
-        <v>2322.763541739836</v>
+        <v>2309.2676850246989</v>
       </c>
       <c r="AD197">
         <v>2322.763541739836</v>
@@ -14491,7 +14841,7 @@
         <v>30</v>
       </c>
       <c r="M198">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N198">
         <v>2136.5814</v>
@@ -14515,10 +14865,10 @@
         <v>0.15</v>
       </c>
       <c r="V198">
-        <v>632.85491689761716</v>
+        <v>633.00995590955199</v>
       </c>
       <c r="X198">
-        <v>2323.5199308570541</v>
+        <v>2310.0197912519002</v>
       </c>
       <c r="Y198" t="s">
         <v>407</v>
@@ -14559,7 +14909,7 @@
         <v>36</v>
       </c>
       <c r="M199">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N199">
         <v>2277.0118699999998</v>
@@ -14577,10 +14927,10 @@
         <v>0.15</v>
       </c>
       <c r="V199">
-        <v>632.72328305696203</v>
+        <v>632.87884198110225</v>
       </c>
       <c r="X199">
-        <v>2332.2335291354389</v>
+        <v>2318.7063569342399</v>
       </c>
       <c r="AD199">
         <v>2341.7902692659231</v>
@@ -14615,7 +14965,7 @@
         <v>36</v>
       </c>
       <c r="M200">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N200">
         <v>2277.0118699999998</v>
@@ -14633,10 +14983,10 @@
         <v>0.15</v>
       </c>
       <c r="V200">
-        <v>632.41903480500469</v>
+        <v>632.57434950937977</v>
       </c>
       <c r="X200">
-        <v>2327.7368014713288</v>
+        <v>2314.232952273087</v>
       </c>
       <c r="AD200">
         <v>2337.294328082904</v>
@@ -14677,7 +15027,7 @@
         <v>36</v>
       </c>
       <c r="M201">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N201">
         <v>2277.0118699999998</v>
@@ -14701,10 +15051,10 @@
         <v>0.15</v>
       </c>
       <c r="V201">
-        <v>632.58037050880955</v>
+        <v>632.73579643748656</v>
       </c>
       <c r="X201">
-        <v>2331.676743091356</v>
+        <v>2318.1517850146029</v>
       </c>
       <c r="Y201" t="s">
         <v>412</v>
@@ -14751,7 +15101,7 @@
         <v>36</v>
       </c>
       <c r="M202">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N202">
         <v>2277.0118699999998</v>
@@ -14775,10 +15125,10 @@
         <v>0.15</v>
       </c>
       <c r="V202">
-        <v>632.60630351216821</v>
+        <v>632.76179163298093</v>
       </c>
       <c r="X202">
-        <v>2332.009965121516</v>
+        <v>2318.4834518172688</v>
       </c>
       <c r="Y202" t="s">
         <v>414</v>
@@ -14825,7 +15175,7 @@
         <v>36</v>
       </c>
       <c r="M203">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N203">
         <v>2277.0118699999998</v>
@@ -14884,7 +15234,7 @@
         <v>36</v>
       </c>
       <c r="M204">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N204">
         <v>2277.0118699999998</v>
@@ -14908,10 +15258,10 @@
         <v>0.15</v>
       </c>
       <c r="V204">
-        <v>632.68720660782742</v>
+        <v>632.84317915584563</v>
       </c>
       <c r="X204">
-        <v>2334.117971185331</v>
+        <v>2320.5891435597559</v>
       </c>
       <c r="Y204" t="s">
         <v>418</v>
@@ -14958,7 +15308,7 @@
         <v>36</v>
       </c>
       <c r="M205">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N205">
         <v>2277.0118699999998</v>
@@ -14982,10 +15332,10 @@
         <v>0.15</v>
       </c>
       <c r="V205">
-        <v>632.82698456867729</v>
+        <v>632.98789355887982</v>
       </c>
       <c r="X205">
-        <v>2335.956332637943</v>
+        <v>2322.4899043664141</v>
       </c>
       <c r="Y205" t="s">
         <v>420</v>
@@ -15032,7 +15382,7 @@
         <v>36</v>
       </c>
       <c r="M206">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N206">
         <v>2277.0118699999998</v>
@@ -15091,7 +15441,7 @@
         <v>36</v>
       </c>
       <c r="M207">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N207">
         <v>2277.0118699999998</v>
@@ -15115,10 +15465,10 @@
         <v>0.15</v>
       </c>
       <c r="V207">
-        <v>478.91434394338302</v>
+        <v>479.07247982706087</v>
       </c>
       <c r="X207">
-        <v>603.15630494665425</v>
+        <v>599.85035842790739</v>
       </c>
       <c r="Y207" t="s">
         <v>424</v>
@@ -15162,7 +15512,7 @@
         <v>36</v>
       </c>
       <c r="M208">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N208">
         <v>2277.0118699999998</v>
@@ -15221,7 +15571,7 @@
         <v>36</v>
       </c>
       <c r="M209">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N209">
         <v>2277.0118699999998</v>
@@ -15245,10 +15595,10 @@
         <v>0.15</v>
       </c>
       <c r="V209">
-        <v>467.36991358557572</v>
+        <v>467.52843926905109</v>
       </c>
       <c r="X209">
-        <v>396.70623838064859</v>
+        <v>394.61654016213112</v>
       </c>
       <c r="Y209" t="s">
         <v>428</v>
@@ -15295,7 +15645,7 @@
         <v>36</v>
       </c>
       <c r="M210">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N210">
         <v>2277.0118699999998</v>
@@ -15319,10 +15669,10 @@
         <v>0.15</v>
       </c>
       <c r="V210">
-        <v>460.66639730017988</v>
+        <v>460.82510946042379</v>
       </c>
       <c r="X210">
-        <v>298.05089050400193</v>
+        <v>296.52795941230642</v>
       </c>
       <c r="Y210" t="s">
         <v>430</v>
@@ -15369,7 +15719,7 @@
         <v>36</v>
       </c>
       <c r="M211">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N211">
         <v>2277.0118699999998</v>
@@ -15393,10 +15743,10 @@
         <v>0.15</v>
       </c>
       <c r="V211">
-        <v>460.62606893293707</v>
+        <v>460.78474507995992</v>
       </c>
       <c r="X211">
-        <v>297.38223643020638</v>
+        <v>295.86244882896148</v>
       </c>
       <c r="Y211" t="s">
         <v>432</v>
@@ -15443,7 +15793,7 @@
         <v>36</v>
       </c>
       <c r="M212">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N212">
         <v>2277.0118699999998</v>
@@ -15467,10 +15817,10 @@
         <v>0.15</v>
       </c>
       <c r="V212">
-        <v>632.62055774539169</v>
+        <v>632.77613178034517</v>
       </c>
       <c r="X212">
-        <v>2333.4163997727801</v>
+        <v>2319.882785646972</v>
       </c>
       <c r="Y212" t="s">
         <v>434</v>
@@ -15517,7 +15867,7 @@
         <v>36</v>
       </c>
       <c r="M213">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N213">
         <v>2277.0118699999998</v>
@@ -15541,10 +15891,10 @@
         <v>0.15</v>
       </c>
       <c r="V213">
-        <v>467.59146714142042</v>
+        <v>467.75005159544003</v>
       </c>
       <c r="X213">
-        <v>398.02305215207292</v>
+        <v>395.92707986636219</v>
       </c>
       <c r="Y213" t="s">
         <v>436</v>
@@ -15591,7 +15941,7 @@
         <v>36</v>
       </c>
       <c r="M214">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N214">
         <v>2277.0118699999998</v>
@@ -15615,10 +15965,10 @@
         <v>0.15</v>
       </c>
       <c r="V214">
-        <v>458.23438162835822</v>
+        <v>458.39365476573369</v>
       </c>
       <c r="X214">
-        <v>261.85672417196781</v>
+        <v>260.54895287867907</v>
       </c>
       <c r="Y214" t="s">
         <v>438</v>
@@ -15665,7 +16015,7 @@
         <v>36</v>
       </c>
       <c r="M215">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N215">
         <v>2277.0118699999998</v>
@@ -15689,10 +16039,10 @@
         <v>0.15</v>
       </c>
       <c r="V215">
-        <v>453.52333557004948</v>
+        <v>453.68761345975622</v>
       </c>
       <c r="X215">
-        <v>192.21527589080031</v>
+        <v>191.40167678546041</v>
       </c>
       <c r="Y215" t="s">
         <v>440</v>
@@ -15739,7 +16089,7 @@
         <v>36</v>
       </c>
       <c r="M216">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N216">
         <v>2277.0118699999998</v>
@@ -15763,10 +16113,10 @@
         <v>0.15</v>
       </c>
       <c r="V216">
-        <v>451.1044274414586</v>
+        <v>451.27121380030047</v>
       </c>
       <c r="X216">
-        <v>167.18576854826401</v>
+        <v>166.53690050812861</v>
       </c>
       <c r="Y216" t="s">
         <v>442</v>
@@ -15813,7 +16163,7 @@
         <v>36</v>
       </c>
       <c r="M217">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N217">
         <v>2277.0118699999998</v>
@@ -15837,10 +16187,10 @@
         <v>0.15</v>
       </c>
       <c r="V217">
-        <v>448.85694347779429</v>
+        <v>449.02861419029512</v>
       </c>
       <c r="X217">
-        <v>148.83446429859731</v>
+        <v>148.3307615178482</v>
       </c>
       <c r="Y217" t="s">
         <v>444</v>
@@ -15887,7 +16237,7 @@
         <v>36</v>
       </c>
       <c r="M218">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N218">
         <v>2277.0118699999998</v>
@@ -15911,10 +16261,10 @@
         <v>0.15</v>
       </c>
       <c r="V218">
-        <v>443.91452293988948</v>
+        <v>444.13568280958572</v>
       </c>
       <c r="X218">
-        <v>107.3453095568226</v>
+        <v>107.4977841043642</v>
       </c>
       <c r="Y218" t="s">
         <v>446</v>
@@ -15961,7 +16311,7 @@
         <v>36</v>
       </c>
       <c r="M219">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N219">
         <v>2277.0118699999998</v>
@@ -15985,10 +16335,10 @@
         <v>0.15</v>
       </c>
       <c r="V219">
-        <v>409.97879741707209</v>
+        <v>410.13022824063779</v>
       </c>
       <c r="X219">
-        <v>-147.27457594361999</v>
+        <v>-146.80054848007521</v>
       </c>
       <c r="Y219" t="s">
         <v>448</v>
@@ -16032,7 +16382,7 @@
         <v>36</v>
       </c>
       <c r="M220">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N220">
         <v>2277.0118699999998</v>
@@ -16088,7 +16438,7 @@
         <v>36</v>
       </c>
       <c r="M221">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N221">
         <v>2277.0118699999998</v>
@@ -16150,7 +16500,7 @@
         <v>36</v>
       </c>
       <c r="M222">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N222">
         <v>2277.0118699999998</v>
@@ -16174,10 +16524,10 @@
         <v>0.15</v>
       </c>
       <c r="V222">
-        <v>632.97838074450181</v>
+        <v>633.13396340759937</v>
       </c>
       <c r="X222">
-        <v>2334.808608101589</v>
+        <v>2321.2671390179949</v>
       </c>
       <c r="Y222" t="s">
         <v>455</v>
@@ -16218,7 +16568,7 @@
         <v>36</v>
       </c>
       <c r="M223">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N223">
         <v>2263.9175</v>
@@ -16236,10 +16586,10 @@
         <v>0.15</v>
       </c>
       <c r="V223">
-        <v>633.47435877295152</v>
+        <v>633.63075051389717</v>
       </c>
       <c r="X223">
-        <v>2273.0751405590631</v>
+        <v>2259.9346906553051</v>
       </c>
     </row>
     <row r="224" spans="2:32" x14ac:dyDescent="0.3">
@@ -16265,7 +16615,7 @@
         <v>36</v>
       </c>
       <c r="M224">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N224">
         <v>2263.9175</v>
@@ -16280,10 +16630,10 @@
         <v>0.15</v>
       </c>
       <c r="V224">
-        <v>633.46625479537829</v>
+        <v>633.6216018817646</v>
       </c>
       <c r="X224">
-        <v>2315.5431120596172</v>
+        <v>2302.1064877497752</v>
       </c>
     </row>
     <row r="225" spans="2:28" x14ac:dyDescent="0.3">
@@ -16299,6 +16649,9 @@
       <c r="E225">
         <v>3</v>
       </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
       <c r="G225">
         <v>313</v>
       </c>
@@ -16312,7 +16665,7 @@
         <v>36</v>
       </c>
       <c r="M225">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N225">
         <v>2263.9175</v>
@@ -16336,10 +16689,13 @@
         <v>0.15</v>
       </c>
       <c r="V225">
-        <v>633.56374948295411</v>
+        <v>633.71930809093044</v>
       </c>
       <c r="X225">
-        <v>2328.6964516695089</v>
+        <v>2315.1879974276321</v>
+      </c>
+      <c r="Y225" t="s">
+        <v>460</v>
       </c>
       <c r="AB225">
         <v>1687.9022</v>
@@ -16347,7 +16703,7 @@
     </row>
     <row r="226" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B226" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C226" t="s">
         <v>457</v>
@@ -16358,6 +16714,9 @@
       <c r="E226">
         <v>4</v>
       </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
       <c r="G226">
         <v>315</v>
       </c>
@@ -16368,7 +16727,7 @@
         <v>36</v>
       </c>
       <c r="M226">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N226">
         <v>2263.9175</v>
@@ -16391,13 +16750,16 @@
       <c r="U226">
         <v>3</v>
       </c>
+      <c r="Y226" t="s">
+        <v>462</v>
+      </c>
       <c r="AB226">
         <v>516.59739999999999</v>
       </c>
     </row>
     <row r="227" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B227" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C227" t="s">
         <v>457</v>
@@ -16408,6 +16770,9 @@
       <c r="E227">
         <v>5</v>
       </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
       <c r="G227">
         <v>316</v>
       </c>
@@ -16418,7 +16783,7 @@
         <v>36</v>
       </c>
       <c r="M227">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N227">
         <v>2263.9175</v>
@@ -16441,13 +16806,16 @@
       <c r="U227">
         <v>3</v>
       </c>
+      <c r="Y227" t="s">
+        <v>464</v>
+      </c>
       <c r="AB227">
         <v>2046.0102999999999</v>
       </c>
     </row>
     <row r="228" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C228" t="s">
         <v>457</v>
@@ -16458,6 +16826,9 @@
       <c r="E228">
         <v>6</v>
       </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
       <c r="G228">
         <v>317</v>
       </c>
@@ -16468,7 +16839,7 @@
         <v>36</v>
       </c>
       <c r="M228">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N228">
         <v>2263.9175</v>
@@ -16491,13 +16862,16 @@
       <c r="U228">
         <v>3</v>
       </c>
+      <c r="Y228" t="s">
+        <v>466</v>
+      </c>
       <c r="AB228">
         <v>1552.0925</v>
       </c>
     </row>
     <row r="229" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B229" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C229" t="s">
         <v>457</v>
@@ -16508,6 +16882,9 @@
       <c r="E229">
         <v>7</v>
       </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
       <c r="G229">
         <v>318</v>
       </c>
@@ -16518,7 +16895,7 @@
         <v>36</v>
       </c>
       <c r="M229">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N229">
         <v>2263.9175</v>
@@ -16541,13 +16918,16 @@
       <c r="U229">
         <v>3</v>
       </c>
+      <c r="Y229" t="s">
+        <v>468</v>
+      </c>
       <c r="AB229">
         <v>1839.9271000000001</v>
       </c>
     </row>
     <row r="230" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B230" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C230" t="s">
         <v>457</v>
@@ -16558,6 +16938,9 @@
       <c r="E230">
         <v>8</v>
       </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
       <c r="G230">
         <v>319</v>
       </c>
@@ -16568,7 +16951,7 @@
         <v>36</v>
       </c>
       <c r="M230">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N230">
         <v>2263.9175</v>
@@ -16591,13 +16974,16 @@
       <c r="U230">
         <v>3</v>
       </c>
+      <c r="Y230" t="s">
+        <v>470</v>
+      </c>
       <c r="AB230">
         <v>1783.3429000000001</v>
       </c>
     </row>
     <row r="231" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B231" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C231" t="s">
         <v>457</v>
@@ -16608,6 +16994,9 @@
       <c r="E231">
         <v>9</v>
       </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
       <c r="G231">
         <v>320</v>
       </c>
@@ -16618,7 +17007,7 @@
         <v>36</v>
       </c>
       <c r="M231">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N231">
         <v>2263.9175</v>
@@ -16641,13 +17030,16 @@
       <c r="U231">
         <v>3</v>
       </c>
+      <c r="Y231" t="s">
+        <v>472</v>
+      </c>
       <c r="AB231">
         <v>830.62030000000004</v>
       </c>
     </row>
     <row r="232" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B232" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="C232" t="s">
         <v>457</v>
@@ -16658,6 +17050,9 @@
       <c r="E232">
         <v>10</v>
       </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
       <c r="G232">
         <v>321</v>
       </c>
@@ -16668,7 +17063,7 @@
         <v>36</v>
       </c>
       <c r="M232">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N232">
         <v>2263.9175</v>
@@ -16691,13 +17086,16 @@
       <c r="U232">
         <v>3</v>
       </c>
+      <c r="Y232" t="s">
+        <v>474</v>
+      </c>
       <c r="AB232">
         <v>1165.1074000000001</v>
       </c>
     </row>
     <row r="233" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B233" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="C233" t="s">
         <v>457</v>
@@ -16708,6 +17106,9 @@
       <c r="E233">
         <v>11</v>
       </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
       <c r="G233">
         <v>322</v>
       </c>
@@ -16718,7 +17119,7 @@
         <v>36</v>
       </c>
       <c r="M233">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N233">
         <v>2263.9175</v>
@@ -16741,13 +17142,16 @@
       <c r="U233">
         <v>3</v>
       </c>
+      <c r="Y233" t="s">
+        <v>476</v>
+      </c>
       <c r="AB233">
         <v>2002.6611</v>
       </c>
     </row>
     <row r="234" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B234" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="C234" t="s">
         <v>457</v>
@@ -16758,6 +17162,9 @@
       <c r="E234">
         <v>12</v>
       </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
       <c r="G234">
         <v>323</v>
       </c>
@@ -16768,7 +17175,7 @@
         <v>36</v>
       </c>
       <c r="M234">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N234">
         <v>2263.9175</v>
@@ -16791,13 +17198,16 @@
       <c r="U234">
         <v>3</v>
       </c>
+      <c r="Y234" t="s">
+        <v>478</v>
+      </c>
       <c r="AB234">
         <v>1950.6165000000001</v>
       </c>
     </row>
     <row r="235" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B235" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="C235" t="s">
         <v>457</v>
@@ -16808,6 +17218,9 @@
       <c r="E235">
         <v>13</v>
       </c>
+      <c r="F235">
+        <v>1</v>
+      </c>
       <c r="G235">
         <v>324</v>
       </c>
@@ -16818,7 +17231,7 @@
         <v>36</v>
       </c>
       <c r="M235">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N235">
         <v>2263.9175</v>
@@ -16841,13 +17254,16 @@
       <c r="U235">
         <v>3</v>
       </c>
+      <c r="Y235" t="s">
+        <v>480</v>
+      </c>
       <c r="AB235">
         <v>1977.9839999999999</v>
       </c>
     </row>
     <row r="236" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B236" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="C236" t="s">
         <v>457</v>
@@ -16858,6 +17274,9 @@
       <c r="E236">
         <v>14</v>
       </c>
+      <c r="F236">
+        <v>1</v>
+      </c>
       <c r="G236">
         <v>325</v>
       </c>
@@ -16868,7 +17287,7 @@
         <v>36</v>
       </c>
       <c r="M236">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N236">
         <v>2263.9175</v>
@@ -16891,16 +17310,19 @@
       <c r="U236">
         <v>3</v>
       </c>
+      <c r="Y236" t="s">
+        <v>482</v>
+      </c>
       <c r="AB236">
         <v>2058.2217000000001</v>
       </c>
     </row>
     <row r="237" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B237" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="C237" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="D237" t="s">
         <v>385</v>
@@ -16908,6 +17330,9 @@
       <c r="E237">
         <v>1</v>
       </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
       <c r="J237">
         <v>25.2</v>
       </c>
@@ -16918,7 +17343,7 @@
         <v>36</v>
       </c>
       <c r="M237">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N237">
         <v>2249.6105200000002</v>
@@ -16936,18 +17361,18 @@
         <v>0.15</v>
       </c>
       <c r="V237">
-        <v>633.93591935453844</v>
+        <v>634.09157561278562</v>
       </c>
       <c r="X237">
-        <v>2337.7022109253908</v>
+        <v>2324.1437875744118</v>
       </c>
     </row>
     <row r="238" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C238" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="D238" t="s">
         <v>385</v>
@@ -16955,6 +17380,9 @@
       <c r="E238">
         <v>2</v>
       </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
       <c r="G238">
         <v>331</v>
       </c>
@@ -16965,7 +17393,7 @@
         <v>36</v>
       </c>
       <c r="M238">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N238">
         <v>2249.6105200000002</v>
@@ -16988,16 +17416,19 @@
       <c r="U238">
         <v>1.65</v>
       </c>
+      <c r="Y238" t="s">
+        <v>486</v>
+      </c>
       <c r="AB238">
         <v>912.87599999999998</v>
       </c>
     </row>
     <row r="239" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B239" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="C239" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="D239" t="s">
         <v>385</v>
@@ -17005,6 +17436,9 @@
       <c r="E239">
         <v>3</v>
       </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
       <c r="G239">
         <v>332</v>
       </c>
@@ -17015,7 +17449,7 @@
         <v>36</v>
       </c>
       <c r="M239">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N239">
         <v>2249.6105200000002</v>
@@ -17038,16 +17472,19 @@
       <c r="U239">
         <v>1.65</v>
       </c>
+      <c r="Y239" t="s">
+        <v>488</v>
+      </c>
       <c r="AB239">
         <v>1174.6705999999999</v>
       </c>
     </row>
     <row r="240" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B240" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="C240" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="D240" t="s">
         <v>385</v>
@@ -17055,6 +17492,9 @@
       <c r="E240">
         <v>4</v>
       </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
       <c r="G240">
         <v>333</v>
       </c>
@@ -17065,7 +17505,7 @@
         <v>36</v>
       </c>
       <c r="M240">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N240">
         <v>2249.6105200000002</v>
@@ -17088,16 +17528,19 @@
       <c r="U240">
         <v>4.2</v>
       </c>
+      <c r="Y240" t="s">
+        <v>490</v>
+      </c>
       <c r="AB240">
         <v>277.62139999999999</v>
       </c>
     </row>
     <row r="241" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B241" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="C241" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="D241" t="s">
         <v>385</v>
@@ -17105,6 +17548,9 @@
       <c r="E241">
         <v>5</v>
       </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
       <c r="G241">
         <v>334</v>
       </c>
@@ -17115,7 +17561,7 @@
         <v>36</v>
       </c>
       <c r="M241">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N241">
         <v>2249.6105200000002</v>
@@ -17138,16 +17584,19 @@
       <c r="U241">
         <v>1.65</v>
       </c>
+      <c r="Y241" t="s">
+        <v>492</v>
+      </c>
       <c r="AB241">
         <v>1581.7644</v>
       </c>
     </row>
     <row r="242" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B242" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="C242" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="D242" t="s">
         <v>385</v>
@@ -17155,6 +17604,9 @@
       <c r="E242">
         <v>6</v>
       </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
       <c r="G242">
         <v>335</v>
       </c>
@@ -17165,7 +17617,7 @@
         <v>36</v>
       </c>
       <c r="M242">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N242">
         <v>2249.6105200000002</v>
@@ -17188,16 +17640,19 @@
       <c r="U242">
         <v>1.65</v>
       </c>
+      <c r="Y242" t="s">
+        <v>494</v>
+      </c>
       <c r="AB242">
         <v>2104.1588000000002</v>
       </c>
     </row>
     <row r="243" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B243" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="C243" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="D243" t="s">
         <v>385</v>
@@ -17205,6 +17660,9 @@
       <c r="E243">
         <v>7</v>
       </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
       <c r="G243">
         <v>336</v>
       </c>
@@ -17215,7 +17673,7 @@
         <v>36</v>
       </c>
       <c r="M243">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N243">
         <v>2249.6105200000002</v>
@@ -17238,16 +17696,19 @@
       <c r="U243">
         <v>1.65</v>
       </c>
+      <c r="Y243" t="s">
+        <v>496</v>
+      </c>
       <c r="AB243">
         <v>2103.6093000000001</v>
       </c>
     </row>
     <row r="244" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B244" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="C244" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="D244" t="s">
         <v>385</v>
@@ -17255,6 +17716,9 @@
       <c r="E244">
         <v>8</v>
       </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
       <c r="G244">
         <v>337</v>
       </c>
@@ -17265,7 +17729,7 @@
         <v>36</v>
       </c>
       <c r="M244">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N244">
         <v>2249.6105200000002</v>
@@ -17288,16 +17752,19 @@
       <c r="U244">
         <v>1.65</v>
       </c>
+      <c r="Y244" t="s">
+        <v>498</v>
+      </c>
       <c r="AB244">
         <v>2020.9222</v>
       </c>
     </row>
     <row r="245" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B245" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="C245" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="D245" t="s">
         <v>385</v>
@@ -17305,6 +17772,9 @@
       <c r="E245">
         <v>9</v>
       </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
       <c r="G245">
         <v>339</v>
       </c>
@@ -17315,7 +17785,7 @@
         <v>36</v>
       </c>
       <c r="M245">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N245">
         <v>2249.6105200000002</v>
@@ -17338,16 +17808,19 @@
       <c r="U245">
         <v>1.65</v>
       </c>
+      <c r="Y245" t="s">
+        <v>500</v>
+      </c>
       <c r="AB245">
         <v>1923.9855</v>
       </c>
     </row>
     <row r="246" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B246" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="C246" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="D246" t="s">
         <v>385</v>
@@ -17355,6 +17828,9 @@
       <c r="E246">
         <v>10</v>
       </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
       <c r="J246">
         <v>25.2</v>
       </c>
@@ -17365,7 +17841,7 @@
         <v>36</v>
       </c>
       <c r="M246">
-        <v>0.1</v>
+        <v>9.9412731062620593E-2</v>
       </c>
       <c r="N246">
         <v>2249.6105200000002</v>
@@ -17383,10 +17859,3029 @@
         <v>0.15</v>
       </c>
       <c r="V246">
-        <v>634.36775875041076</v>
+        <v>634.52334452502191</v>
       </c>
       <c r="X246">
-        <v>2332.9596695852179</v>
+        <v>2319.42677468292</v>
+      </c>
+    </row>
+    <row r="247" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B247" t="s">
+        <v>502</v>
+      </c>
+      <c r="C247" t="s">
+        <v>503</v>
+      </c>
+      <c r="D247" t="s">
+        <v>385</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="J247">
+        <v>25.2</v>
+      </c>
+      <c r="K247">
+        <v>166.7</v>
+      </c>
+      <c r="L247">
+        <v>36</v>
+      </c>
+      <c r="M247">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N247">
+        <v>2245.0459000000001</v>
+      </c>
+      <c r="O247">
+        <v>2189.7400261009129</v>
+      </c>
+      <c r="R247">
+        <v>661</v>
+      </c>
+      <c r="T247">
+        <v>4.2</v>
+      </c>
+      <c r="U247">
+        <v>0.15</v>
+      </c>
+      <c r="V247">
+        <v>634.40402643190475</v>
+      </c>
+      <c r="X247">
+        <v>2315.6775508637411</v>
+      </c>
+    </row>
+    <row r="248" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B248" t="s">
+        <v>504</v>
+      </c>
+      <c r="C248" t="s">
+        <v>503</v>
+      </c>
+      <c r="D248" t="s">
+        <v>385</v>
+      </c>
+      <c r="E248">
+        <v>2</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>346</v>
+      </c>
+      <c r="J248">
+        <v>25.2</v>
+      </c>
+      <c r="K248">
+        <v>166.3</v>
+      </c>
+      <c r="L248">
+        <v>36</v>
+      </c>
+      <c r="M248">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N248">
+        <v>2245.0459000000001</v>
+      </c>
+      <c r="O248">
+        <v>2189.7400261009129</v>
+      </c>
+      <c r="P248">
+        <v>1634.056792784681</v>
+      </c>
+      <c r="Q248">
+        <v>0</v>
+      </c>
+      <c r="R248">
+        <v>626</v>
+      </c>
+      <c r="T248">
+        <v>4.2</v>
+      </c>
+      <c r="U248">
+        <v>0.15</v>
+      </c>
+      <c r="V248">
+        <v>634.34719211056915</v>
+      </c>
+      <c r="X248">
+        <v>2316.9029994137618</v>
+      </c>
+      <c r="Y248" t="s">
+        <v>505</v>
+      </c>
+      <c r="AB248">
+        <v>1673.336</v>
+      </c>
+    </row>
+    <row r="249" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B249" t="s">
+        <v>506</v>
+      </c>
+      <c r="C249" t="s">
+        <v>503</v>
+      </c>
+      <c r="D249" t="s">
+        <v>385</v>
+      </c>
+      <c r="E249">
+        <v>3</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>348</v>
+      </c>
+      <c r="J249">
+        <v>25.2</v>
+      </c>
+      <c r="K249">
+        <v>166.2</v>
+      </c>
+      <c r="L249">
+        <v>36</v>
+      </c>
+      <c r="M249">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N249">
+        <v>2245.0459000000001</v>
+      </c>
+      <c r="O249">
+        <v>2189.7400261009129</v>
+      </c>
+      <c r="P249">
+        <v>1646.405652777245</v>
+      </c>
+      <c r="Q249">
+        <v>0</v>
+      </c>
+      <c r="R249">
+        <v>638</v>
+      </c>
+      <c r="T249">
+        <v>4.2</v>
+      </c>
+      <c r="U249">
+        <v>0.15</v>
+      </c>
+      <c r="V249">
+        <v>634.32643229624045</v>
+      </c>
+      <c r="X249">
+        <v>2317.6556949509718</v>
+      </c>
+      <c r="Y249" t="s">
+        <v>507</v>
+      </c>
+      <c r="AB249">
+        <v>1685.9817</v>
+      </c>
+    </row>
+    <row r="250" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B250" t="s">
+        <v>508</v>
+      </c>
+      <c r="C250" t="s">
+        <v>503</v>
+      </c>
+      <c r="D250" t="s">
+        <v>385</v>
+      </c>
+      <c r="E250">
+        <v>4</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250">
+        <v>350</v>
+      </c>
+      <c r="J250">
+        <v>25.2</v>
+      </c>
+      <c r="K250">
+        <v>165.95</v>
+      </c>
+      <c r="L250">
+        <v>36</v>
+      </c>
+      <c r="M250">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N250">
+        <v>2245.0459000000001</v>
+      </c>
+      <c r="O250">
+        <v>2189.7400261009129</v>
+      </c>
+      <c r="P250">
+        <v>937.50265460300716</v>
+      </c>
+      <c r="Q250">
+        <v>22</v>
+      </c>
+      <c r="T250">
+        <v>4.2</v>
+      </c>
+      <c r="U250">
+        <v>0.15</v>
+      </c>
+      <c r="V250">
+        <v>634.37838177645267</v>
+      </c>
+      <c r="X250">
+        <v>2319.8140031536882</v>
+      </c>
+      <c r="Y250" t="s">
+        <v>509</v>
+      </c>
+      <c r="AB250">
+        <v>960.03819999999996</v>
+      </c>
+    </row>
+    <row r="251" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B251" t="s">
+        <v>510</v>
+      </c>
+      <c r="C251" t="s">
+        <v>503</v>
+      </c>
+      <c r="D251" t="s">
+        <v>385</v>
+      </c>
+      <c r="E251">
+        <v>5</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="G251">
+        <v>351</v>
+      </c>
+      <c r="J251">
+        <v>25.2</v>
+      </c>
+      <c r="K251">
+        <v>165.8</v>
+      </c>
+      <c r="L251">
+        <v>36</v>
+      </c>
+      <c r="M251">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N251">
+        <v>2245.0459000000001</v>
+      </c>
+      <c r="O251">
+        <v>2189.7400261009129</v>
+      </c>
+      <c r="P251">
+        <v>1203.7350021593099</v>
+      </c>
+      <c r="Q251">
+        <v>11</v>
+      </c>
+      <c r="T251">
+        <v>4.2</v>
+      </c>
+      <c r="U251">
+        <v>0.15</v>
+      </c>
+      <c r="V251">
+        <v>634.28798769804234</v>
+      </c>
+      <c r="X251">
+        <v>2320.3103675680181</v>
+      </c>
+      <c r="Y251" t="s">
+        <v>511</v>
+      </c>
+      <c r="AB251">
+        <v>1232.6702</v>
+      </c>
+    </row>
+    <row r="252" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B252" t="s">
+        <v>512</v>
+      </c>
+      <c r="C252" t="s">
+        <v>503</v>
+      </c>
+      <c r="D252" t="s">
+        <v>385</v>
+      </c>
+      <c r="E252">
+        <v>6</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>353</v>
+      </c>
+      <c r="J252">
+        <v>25.2</v>
+      </c>
+      <c r="K252">
+        <v>165.55</v>
+      </c>
+      <c r="L252">
+        <v>36</v>
+      </c>
+      <c r="M252">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N252">
+        <v>2245.0459000000001</v>
+      </c>
+      <c r="O252">
+        <v>2189.7400261009129</v>
+      </c>
+      <c r="P252">
+        <v>1426.9786065476851</v>
+      </c>
+      <c r="Q252">
+        <v>5.3333300000000001</v>
+      </c>
+      <c r="R252">
+        <v>620</v>
+      </c>
+      <c r="T252">
+        <v>4.2</v>
+      </c>
+      <c r="U252">
+        <v>0.15</v>
+      </c>
+      <c r="V252">
+        <v>634.27339882913373</v>
+      </c>
+      <c r="X252">
+        <v>2319.0559214760592</v>
+      </c>
+      <c r="Y252" t="s">
+        <v>513</v>
+      </c>
+      <c r="AB252">
+        <v>1461.2800999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B253" t="s">
+        <v>514</v>
+      </c>
+      <c r="C253" t="s">
+        <v>503</v>
+      </c>
+      <c r="D253" t="s">
+        <v>385</v>
+      </c>
+      <c r="E253">
+        <v>7</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
+      </c>
+      <c r="G253">
+        <v>354</v>
+      </c>
+      <c r="J253">
+        <v>25.2</v>
+      </c>
+      <c r="K253">
+        <v>165.1</v>
+      </c>
+      <c r="L253">
+        <v>36</v>
+      </c>
+      <c r="M253">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N253">
+        <v>2245.0459000000001</v>
+      </c>
+      <c r="O253">
+        <v>2189.7400261009129</v>
+      </c>
+      <c r="P253">
+        <v>1594.921422821136</v>
+      </c>
+      <c r="Q253">
+        <v>2</v>
+      </c>
+      <c r="T253">
+        <v>4.2</v>
+      </c>
+      <c r="U253">
+        <v>0.15</v>
+      </c>
+      <c r="V253">
+        <v>634.23075041679715</v>
+      </c>
+      <c r="X253">
+        <v>2321.2948283702999</v>
+      </c>
+      <c r="Y253" t="s">
+        <v>515</v>
+      </c>
+      <c r="AB253">
+        <v>1633.2599</v>
+      </c>
+    </row>
+    <row r="254" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B254" t="s">
+        <v>516</v>
+      </c>
+      <c r="C254" t="s">
+        <v>517</v>
+      </c>
+      <c r="D254" t="s">
+        <v>518</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>358</v>
+      </c>
+      <c r="J254">
+        <v>25.2</v>
+      </c>
+      <c r="K254">
+        <v>172.45</v>
+      </c>
+      <c r="L254">
+        <v>34</v>
+      </c>
+      <c r="M254">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N254">
+        <v>2273.1214</v>
+      </c>
+      <c r="O254">
+        <v>2220.4215464318459</v>
+      </c>
+      <c r="P254">
+        <v>1664.720528456932</v>
+      </c>
+      <c r="Q254">
+        <v>0</v>
+      </c>
+      <c r="R254">
+        <v>602</v>
+      </c>
+      <c r="T254">
+        <v>4.2</v>
+      </c>
+      <c r="U254">
+        <v>0.15</v>
+      </c>
+      <c r="V254">
+        <v>635.28901360302007</v>
+      </c>
+      <c r="X254">
+        <v>2319.455258261773</v>
+      </c>
+      <c r="Y254" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB254">
+        <v>1702.2213999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B255" t="s">
+        <v>520</v>
+      </c>
+      <c r="C255" t="s">
+        <v>517</v>
+      </c>
+      <c r="D255" t="s">
+        <v>518</v>
+      </c>
+      <c r="E255">
+        <v>2</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>359</v>
+      </c>
+      <c r="J255">
+        <v>25.2</v>
+      </c>
+      <c r="K255">
+        <v>171.5</v>
+      </c>
+      <c r="L255">
+        <v>34</v>
+      </c>
+      <c r="M255">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N255">
+        <v>2273.1214</v>
+      </c>
+      <c r="O255">
+        <v>2220.4215464318459</v>
+      </c>
+      <c r="P255">
+        <v>1651.5168650987171</v>
+      </c>
+      <c r="Q255">
+        <v>0</v>
+      </c>
+      <c r="R255">
+        <v>603</v>
+      </c>
+      <c r="T255">
+        <v>4.2</v>
+      </c>
+      <c r="U255">
+        <v>0.15</v>
+      </c>
+      <c r="V255">
+        <v>636.94239873911908</v>
+      </c>
+      <c r="X255">
+        <v>2321.814136643638</v>
+      </c>
+      <c r="Y255" t="s">
+        <v>521</v>
+      </c>
+      <c r="AB255">
+        <v>1688.7203</v>
+      </c>
+    </row>
+    <row r="256" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B256" t="s">
+        <v>522</v>
+      </c>
+      <c r="C256" t="s">
+        <v>517</v>
+      </c>
+      <c r="D256" t="s">
+        <v>518</v>
+      </c>
+      <c r="E256">
+        <v>3</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="G256">
+        <v>360</v>
+      </c>
+      <c r="J256">
+        <v>25.2</v>
+      </c>
+      <c r="K256">
+        <v>172.35</v>
+      </c>
+      <c r="L256">
+        <v>34</v>
+      </c>
+      <c r="M256">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N256">
+        <v>2273.1214</v>
+      </c>
+      <c r="O256">
+        <v>2220.4215464318459</v>
+      </c>
+      <c r="P256">
+        <v>1086.0597204386811</v>
+      </c>
+      <c r="Q256">
+        <v>14</v>
+      </c>
+      <c r="T256">
+        <v>4.2</v>
+      </c>
+      <c r="U256">
+        <v>0.15</v>
+      </c>
+      <c r="V256">
+        <v>635.27805032762205</v>
+      </c>
+      <c r="X256">
+        <v>2315.726747033244</v>
+      </c>
+      <c r="Y256" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB256">
+        <v>1110.5252</v>
+      </c>
+    </row>
+    <row r="257" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B257" t="s">
+        <v>524</v>
+      </c>
+      <c r="C257" t="s">
+        <v>517</v>
+      </c>
+      <c r="D257" t="s">
+        <v>518</v>
+      </c>
+      <c r="E257">
+        <v>4</v>
+      </c>
+      <c r="F257">
+        <v>1</v>
+      </c>
+      <c r="G257">
+        <v>361</v>
+      </c>
+      <c r="J257">
+        <v>25.2</v>
+      </c>
+      <c r="K257">
+        <v>172.15</v>
+      </c>
+      <c r="L257">
+        <v>34</v>
+      </c>
+      <c r="M257">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N257">
+        <v>2273.1214</v>
+      </c>
+      <c r="O257">
+        <v>2220.4215464318459</v>
+      </c>
+      <c r="P257">
+        <v>1661.2633086498331</v>
+      </c>
+      <c r="Q257">
+        <v>0</v>
+      </c>
+      <c r="R257">
+        <v>609</v>
+      </c>
+      <c r="T257">
+        <v>4.2</v>
+      </c>
+      <c r="U257">
+        <v>0.15</v>
+      </c>
+      <c r="V257">
+        <v>635.32090462417091</v>
+      </c>
+      <c r="X257">
+        <v>2319.5485556142862</v>
+      </c>
+      <c r="Y257" t="s">
+        <v>525</v>
+      </c>
+      <c r="AB257">
+        <v>1698.6863000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B258" t="s">
+        <v>526</v>
+      </c>
+      <c r="C258" t="s">
+        <v>517</v>
+      </c>
+      <c r="D258" t="s">
+        <v>518</v>
+      </c>
+      <c r="E258">
+        <v>5</v>
+      </c>
+      <c r="F258">
+        <v>1</v>
+      </c>
+      <c r="G258">
+        <v>362</v>
+      </c>
+      <c r="J258">
+        <v>25.2</v>
+      </c>
+      <c r="K258">
+        <v>173.15</v>
+      </c>
+      <c r="L258">
+        <v>34</v>
+      </c>
+      <c r="M258">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N258">
+        <v>2273.1214</v>
+      </c>
+      <c r="O258">
+        <v>2220.4215464318459</v>
+      </c>
+      <c r="P258">
+        <v>1654.5339986527561</v>
+      </c>
+      <c r="Q258">
+        <v>1</v>
+      </c>
+      <c r="R258">
+        <v>611</v>
+      </c>
+      <c r="T258">
+        <v>4.2</v>
+      </c>
+      <c r="U258">
+        <v>0.15</v>
+      </c>
+      <c r="V258">
+        <v>636.58397550195912</v>
+      </c>
+      <c r="X258">
+        <v>2319.6602836450629</v>
+      </c>
+      <c r="Y258" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB258">
+        <v>1691.8054</v>
+      </c>
+    </row>
+    <row r="259" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B259" t="s">
+        <v>528</v>
+      </c>
+      <c r="C259" t="s">
+        <v>517</v>
+      </c>
+      <c r="D259" t="s">
+        <v>518</v>
+      </c>
+      <c r="E259">
+        <v>6</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
+      <c r="G259">
+        <v>363</v>
+      </c>
+      <c r="H259" t="s">
+        <v>529</v>
+      </c>
+      <c r="J259">
+        <v>25.2</v>
+      </c>
+      <c r="L259">
+        <v>34</v>
+      </c>
+      <c r="M259">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N259">
+        <v>2273.1214</v>
+      </c>
+      <c r="O259">
+        <v>2220.4215464318459</v>
+      </c>
+      <c r="P259">
+        <v>1859.404418131717</v>
+      </c>
+      <c r="Q259">
+        <v>0</v>
+      </c>
+      <c r="R259">
+        <v>394</v>
+      </c>
+      <c r="T259">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="U259">
+        <v>0.15</v>
+      </c>
+      <c r="V259">
+        <v>611.88814369639329</v>
+      </c>
+      <c r="X259">
+        <v>2144.6560481739052</v>
+      </c>
+      <c r="Y259" t="s">
+        <v>530</v>
+      </c>
+      <c r="AB259">
+        <v>1901.2909</v>
+      </c>
+    </row>
+    <row r="260" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B260" t="s">
+        <v>531</v>
+      </c>
+      <c r="C260" t="s">
+        <v>517</v>
+      </c>
+      <c r="D260" t="s">
+        <v>518</v>
+      </c>
+      <c r="E260">
+        <v>7</v>
+      </c>
+      <c r="F260">
+        <v>1</v>
+      </c>
+      <c r="G260">
+        <v>364</v>
+      </c>
+      <c r="J260">
+        <v>25.2</v>
+      </c>
+      <c r="L260">
+        <v>34</v>
+      </c>
+      <c r="M260">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N260">
+        <v>2273.1214</v>
+      </c>
+      <c r="O260">
+        <v>2220.4215464318459</v>
+      </c>
+      <c r="P260">
+        <v>1836.790145931943</v>
+      </c>
+      <c r="Q260">
+        <v>0.16666</v>
+      </c>
+      <c r="T260">
+        <v>2.7</v>
+      </c>
+      <c r="U260">
+        <v>0.15</v>
+      </c>
+      <c r="V260">
+        <v>636.14909139937049</v>
+      </c>
+      <c r="X260">
+        <v>2323.0006935140732</v>
+      </c>
+      <c r="Y260" t="s">
+        <v>532</v>
+      </c>
+      <c r="AB260">
+        <v>1878.1672000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B261" t="s">
+        <v>533</v>
+      </c>
+      <c r="C261" t="s">
+        <v>517</v>
+      </c>
+      <c r="D261" t="s">
+        <v>518</v>
+      </c>
+      <c r="E261">
+        <v>8</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>366</v>
+      </c>
+      <c r="J261">
+        <v>25.2</v>
+      </c>
+      <c r="L261">
+        <v>34</v>
+      </c>
+      <c r="M261">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N261">
+        <v>2273.1214</v>
+      </c>
+      <c r="O261">
+        <v>2220.4215464318459</v>
+      </c>
+      <c r="P261">
+        <v>1036.226504674888</v>
+      </c>
+      <c r="Q261">
+        <v>18</v>
+      </c>
+      <c r="R261">
+        <v>417</v>
+      </c>
+      <c r="T261">
+        <v>2.7</v>
+      </c>
+      <c r="U261">
+        <v>0.15</v>
+      </c>
+      <c r="V261">
+        <v>635.86626728815577</v>
+      </c>
+      <c r="X261">
+        <v>2320.8152160339769</v>
+      </c>
+      <c r="Y261" t="s">
+        <v>534</v>
+      </c>
+      <c r="AB261">
+        <v>1059.5694000000001</v>
+      </c>
+    </row>
+    <row r="262" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B262" t="s">
+        <v>535</v>
+      </c>
+      <c r="C262" t="s">
+        <v>517</v>
+      </c>
+      <c r="D262" t="s">
+        <v>518</v>
+      </c>
+      <c r="E262">
+        <v>9</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>368</v>
+      </c>
+      <c r="J262">
+        <v>25.2</v>
+      </c>
+      <c r="L262">
+        <v>34</v>
+      </c>
+      <c r="M262">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N262">
+        <v>2273.1214</v>
+      </c>
+      <c r="O262">
+        <v>2220.4215464318459</v>
+      </c>
+      <c r="P262">
+        <v>1846.472336890113</v>
+      </c>
+      <c r="Q262">
+        <v>0</v>
+      </c>
+      <c r="R262">
+        <v>421</v>
+      </c>
+      <c r="T262">
+        <v>2.7</v>
+      </c>
+      <c r="U262">
+        <v>0.15</v>
+      </c>
+      <c r="V262">
+        <v>635.6817066993566</v>
+      </c>
+      <c r="X262">
+        <v>2325.1669056197288</v>
+      </c>
+      <c r="Y262" t="s">
+        <v>536</v>
+      </c>
+      <c r="AB262">
+        <v>1888.0675000000001</v>
+      </c>
+    </row>
+    <row r="263" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B263" t="s">
+        <v>537</v>
+      </c>
+      <c r="C263" t="s">
+        <v>517</v>
+      </c>
+      <c r="D263" t="s">
+        <v>518</v>
+      </c>
+      <c r="E263">
+        <v>10</v>
+      </c>
+      <c r="F263">
+        <v>1</v>
+      </c>
+      <c r="G263">
+        <v>369</v>
+      </c>
+      <c r="J263">
+        <v>25.2</v>
+      </c>
+      <c r="L263">
+        <v>34</v>
+      </c>
+      <c r="M263">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N263">
+        <v>2273.1214</v>
+      </c>
+      <c r="O263">
+        <v>2220.4215464318459</v>
+      </c>
+      <c r="P263">
+        <v>745.79881894146479</v>
+      </c>
+      <c r="Q263">
+        <v>27</v>
+      </c>
+      <c r="T263">
+        <v>4.2</v>
+      </c>
+      <c r="U263">
+        <v>0.15</v>
+      </c>
+      <c r="V263">
+        <v>635.42845910705921</v>
+      </c>
+      <c r="X263">
+        <v>2321.7962325447702</v>
+      </c>
+      <c r="Y263" t="s">
+        <v>538</v>
+      </c>
+      <c r="AB263">
+        <v>762.59929999999997</v>
+      </c>
+    </row>
+    <row r="264" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B264" t="s">
+        <v>539</v>
+      </c>
+      <c r="C264" t="s">
+        <v>540</v>
+      </c>
+      <c r="D264" t="s">
+        <v>518</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
+      </c>
+      <c r="J264">
+        <v>25.2</v>
+      </c>
+      <c r="K264">
+        <v>171.8</v>
+      </c>
+      <c r="L264">
+        <v>34</v>
+      </c>
+      <c r="M264">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="T264">
+        <v>4.2</v>
+      </c>
+      <c r="U264">
+        <v>0.15</v>
+      </c>
+      <c r="V264">
+        <v>634.81118444226797</v>
+      </c>
+      <c r="X264">
+        <v>2303.6822657051571</v>
+      </c>
+    </row>
+    <row r="265" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B265" t="s">
+        <v>541</v>
+      </c>
+      <c r="C265" t="s">
+        <v>540</v>
+      </c>
+      <c r="D265" t="s">
+        <v>518</v>
+      </c>
+      <c r="E265">
+        <v>2</v>
+      </c>
+      <c r="J265">
+        <v>25.2</v>
+      </c>
+      <c r="K265">
+        <v>171.3</v>
+      </c>
+      <c r="L265">
+        <v>34</v>
+      </c>
+      <c r="M265">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="T265">
+        <v>4.2</v>
+      </c>
+      <c r="U265">
+        <v>0.15</v>
+      </c>
+      <c r="V265">
+        <v>634.89079513869422</v>
+      </c>
+      <c r="X265">
+        <v>2306.4987101395341</v>
+      </c>
+    </row>
+    <row r="266" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B266" t="s">
+        <v>542</v>
+      </c>
+      <c r="C266" t="s">
+        <v>540</v>
+      </c>
+      <c r="D266" t="s">
+        <v>518</v>
+      </c>
+      <c r="E266">
+        <v>3</v>
+      </c>
+      <c r="J266">
+        <v>25.2</v>
+      </c>
+      <c r="K266">
+        <v>171.1</v>
+      </c>
+      <c r="L266">
+        <v>34</v>
+      </c>
+      <c r="M266">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="T266">
+        <v>4.2</v>
+      </c>
+      <c r="U266">
+        <v>0.15</v>
+      </c>
+      <c r="V266">
+        <v>634.80286599940007</v>
+      </c>
+      <c r="X266">
+        <v>2307.0885825559581</v>
+      </c>
+    </row>
+    <row r="267" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B267" t="s">
+        <v>543</v>
+      </c>
+      <c r="C267" t="s">
+        <v>540</v>
+      </c>
+      <c r="D267" t="s">
+        <v>518</v>
+      </c>
+      <c r="E267">
+        <v>4</v>
+      </c>
+      <c r="J267">
+        <v>25.2</v>
+      </c>
+      <c r="K267">
+        <v>171.1</v>
+      </c>
+      <c r="L267">
+        <v>34</v>
+      </c>
+      <c r="M267">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="T267">
+        <v>4.2</v>
+      </c>
+      <c r="U267">
+        <v>0.15</v>
+      </c>
+      <c r="V267">
+        <v>634.90545861746659</v>
+      </c>
+      <c r="X267">
+        <v>2306.7097181310119</v>
+      </c>
+    </row>
+    <row r="268" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B268" t="s">
+        <v>544</v>
+      </c>
+      <c r="C268" t="s">
+        <v>540</v>
+      </c>
+      <c r="D268" t="s">
+        <v>518</v>
+      </c>
+      <c r="E268">
+        <v>5</v>
+      </c>
+      <c r="J268">
+        <v>25.2</v>
+      </c>
+      <c r="K268">
+        <v>171.1</v>
+      </c>
+      <c r="L268">
+        <v>34</v>
+      </c>
+      <c r="M268">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="T268">
+        <v>4.2</v>
+      </c>
+      <c r="U268">
+        <v>0.15</v>
+      </c>
+      <c r="V268">
+        <v>634.85764053369314</v>
+      </c>
+      <c r="X268">
+        <v>2306.2261423095579</v>
+      </c>
+    </row>
+    <row r="269" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B269" t="s">
+        <v>545</v>
+      </c>
+      <c r="C269" t="s">
+        <v>540</v>
+      </c>
+      <c r="D269" t="s">
+        <v>210</v>
+      </c>
+      <c r="E269">
+        <v>6</v>
+      </c>
+      <c r="F269" t="s">
+        <v>546</v>
+      </c>
+      <c r="J269">
+        <v>25.2</v>
+      </c>
+      <c r="K269">
+        <v>167.6</v>
+      </c>
+      <c r="L269">
+        <v>32.71</v>
+      </c>
+      <c r="M269">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="T269">
+        <v>4.2</v>
+      </c>
+      <c r="U269">
+        <v>0.15</v>
+      </c>
+      <c r="V269">
+        <v>635.01912319284168</v>
+      </c>
+      <c r="X269">
+        <v>2134.6476165627209</v>
+      </c>
+    </row>
+    <row r="270" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B270" t="s">
+        <v>547</v>
+      </c>
+      <c r="C270" t="s">
+        <v>540</v>
+      </c>
+      <c r="D270" t="s">
+        <v>518</v>
+      </c>
+      <c r="E270">
+        <v>7</v>
+      </c>
+      <c r="J270">
+        <v>25.2</v>
+      </c>
+      <c r="K270">
+        <v>171.2</v>
+      </c>
+      <c r="L270">
+        <v>34</v>
+      </c>
+      <c r="M270">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="T270">
+        <v>4.2</v>
+      </c>
+      <c r="U270">
+        <v>0.15</v>
+      </c>
+      <c r="V270">
+        <v>634.92847800870868</v>
+      </c>
+      <c r="X270">
+        <v>2307.8152703024998</v>
+      </c>
+    </row>
+    <row r="271" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B271" t="s">
+        <v>548</v>
+      </c>
+      <c r="C271" t="s">
+        <v>540</v>
+      </c>
+      <c r="D271" t="s">
+        <v>518</v>
+      </c>
+      <c r="E271">
+        <v>8</v>
+      </c>
+      <c r="J271">
+        <v>25.2</v>
+      </c>
+      <c r="K271">
+        <v>171.15</v>
+      </c>
+      <c r="L271">
+        <v>34</v>
+      </c>
+      <c r="M271">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="T271">
+        <v>4.2</v>
+      </c>
+      <c r="U271">
+        <v>0.15</v>
+      </c>
+      <c r="V271">
+        <v>634.99256128337345</v>
+      </c>
+      <c r="X271">
+        <v>2307.6061929026032</v>
+      </c>
+    </row>
+    <row r="272" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B272" t="s">
+        <v>549</v>
+      </c>
+      <c r="C272" t="s">
+        <v>540</v>
+      </c>
+      <c r="D272" t="s">
+        <v>518</v>
+      </c>
+      <c r="E272">
+        <v>9</v>
+      </c>
+      <c r="J272">
+        <v>25.2</v>
+      </c>
+      <c r="K272">
+        <v>171.15</v>
+      </c>
+      <c r="L272">
+        <v>34</v>
+      </c>
+      <c r="M272">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="T272">
+        <v>4.05</v>
+      </c>
+      <c r="U272">
+        <v>0.15</v>
+      </c>
+      <c r="V272">
+        <v>634.9609503187213</v>
+      </c>
+      <c r="X272">
+        <v>2309.5022350699242</v>
+      </c>
+    </row>
+    <row r="273" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B273" t="s">
+        <v>550</v>
+      </c>
+      <c r="C273" t="s">
+        <v>540</v>
+      </c>
+      <c r="D273" t="s">
+        <v>518</v>
+      </c>
+      <c r="E273">
+        <v>10</v>
+      </c>
+      <c r="J273">
+        <v>25.2</v>
+      </c>
+      <c r="K273">
+        <v>171.2</v>
+      </c>
+      <c r="L273">
+        <v>34</v>
+      </c>
+      <c r="M273">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="T273">
+        <v>3.9</v>
+      </c>
+      <c r="U273">
+        <v>0.15</v>
+      </c>
+      <c r="V273">
+        <v>634.99899410780711</v>
+      </c>
+      <c r="X273">
+        <v>2307.684772992895</v>
+      </c>
+    </row>
+    <row r="274" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B274" t="s">
+        <v>551</v>
+      </c>
+      <c r="C274" t="s">
+        <v>540</v>
+      </c>
+      <c r="D274" t="s">
+        <v>518</v>
+      </c>
+      <c r="E274">
+        <v>11</v>
+      </c>
+      <c r="J274">
+        <v>25.2</v>
+      </c>
+      <c r="K274">
+        <v>171.15</v>
+      </c>
+      <c r="L274">
+        <v>34</v>
+      </c>
+      <c r="M274">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="T274">
+        <v>4.2</v>
+      </c>
+      <c r="U274">
+        <v>0.15</v>
+      </c>
+      <c r="V274">
+        <v>635.09235539739166</v>
+      </c>
+      <c r="X274">
+        <v>2311.2785623935902</v>
+      </c>
+    </row>
+    <row r="275" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B275" t="s">
+        <v>552</v>
+      </c>
+      <c r="C275" t="s">
+        <v>540</v>
+      </c>
+      <c r="D275" t="s">
+        <v>518</v>
+      </c>
+      <c r="E275">
+        <v>12</v>
+      </c>
+      <c r="J275">
+        <v>25.2</v>
+      </c>
+      <c r="K275">
+        <v>171.2</v>
+      </c>
+      <c r="L275">
+        <v>34</v>
+      </c>
+      <c r="M275">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="T275">
+        <v>4.2</v>
+      </c>
+      <c r="U275">
+        <v>0.15</v>
+      </c>
+      <c r="V275">
+        <v>635.01584093343638</v>
+      </c>
+      <c r="X275">
+        <v>2306.6475455186842</v>
+      </c>
+    </row>
+    <row r="276" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B276" t="s">
+        <v>553</v>
+      </c>
+      <c r="C276" t="s">
+        <v>554</v>
+      </c>
+      <c r="D276" t="s">
+        <v>518</v>
+      </c>
+      <c r="E276">
+        <v>1</v>
+      </c>
+      <c r="J276">
+        <v>25.1</v>
+      </c>
+      <c r="K276">
+        <v>170.65</v>
+      </c>
+      <c r="L276">
+        <v>34</v>
+      </c>
+      <c r="M276">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N276">
+        <v>2261.8766000000001</v>
+      </c>
+      <c r="O276">
+        <v>2209.4374449204538</v>
+      </c>
+      <c r="T276">
+        <v>4.2</v>
+      </c>
+      <c r="U276">
+        <v>0.15</v>
+      </c>
+      <c r="V276">
+        <v>635.36149713035024</v>
+      </c>
+      <c r="X276">
+        <v>2317.9713802971278</v>
+      </c>
+    </row>
+    <row r="277" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B277" t="s">
+        <v>555</v>
+      </c>
+      <c r="C277" t="s">
+        <v>554</v>
+      </c>
+      <c r="D277" t="s">
+        <v>518</v>
+      </c>
+      <c r="E277">
+        <v>2</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>387</v>
+      </c>
+      <c r="J277">
+        <v>25.2</v>
+      </c>
+      <c r="K277">
+        <v>170.65</v>
+      </c>
+      <c r="L277">
+        <v>34</v>
+      </c>
+      <c r="M277">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N277">
+        <v>2261.8766000000001</v>
+      </c>
+      <c r="O277">
+        <v>2209.4374449204538</v>
+      </c>
+      <c r="P277">
+        <v>1624.4839313243251</v>
+      </c>
+      <c r="Q277">
+        <v>0</v>
+      </c>
+      <c r="R277">
+        <v>619</v>
+      </c>
+      <c r="T277">
+        <v>4.2</v>
+      </c>
+      <c r="U277">
+        <v>0.15</v>
+      </c>
+      <c r="V277">
+        <v>635.5389260046644</v>
+      </c>
+      <c r="X277">
+        <v>2318.9922822810531</v>
+      </c>
+      <c r="Y277" t="s">
+        <v>556</v>
+      </c>
+      <c r="AB277">
+        <v>1661.0784000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B278" t="s">
+        <v>557</v>
+      </c>
+      <c r="C278" t="s">
+        <v>554</v>
+      </c>
+      <c r="D278" t="s">
+        <v>518</v>
+      </c>
+      <c r="E278">
+        <v>3</v>
+      </c>
+      <c r="F278">
+        <v>1</v>
+      </c>
+      <c r="G278">
+        <v>388</v>
+      </c>
+      <c r="J278">
+        <v>25.2</v>
+      </c>
+      <c r="K278">
+        <v>170.9</v>
+      </c>
+      <c r="L278">
+        <v>34</v>
+      </c>
+      <c r="M278">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N278">
+        <v>2261.8766000000001</v>
+      </c>
+      <c r="O278">
+        <v>2209.4374449204538</v>
+      </c>
+      <c r="P278">
+        <v>1643.5171727844711</v>
+      </c>
+      <c r="Q278">
+        <v>0</v>
+      </c>
+      <c r="R278">
+        <v>613</v>
+      </c>
+      <c r="T278">
+        <v>4.05</v>
+      </c>
+      <c r="U278">
+        <v>0.15</v>
+      </c>
+      <c r="V278">
+        <v>635.62655794738043</v>
+      </c>
+      <c r="X278">
+        <v>2318.9371291920938</v>
+      </c>
+      <c r="Y278" t="s">
+        <v>558</v>
+      </c>
+      <c r="AB278">
+        <v>1680.5404000000001</v>
+      </c>
+    </row>
+    <row r="279" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B279" t="s">
+        <v>559</v>
+      </c>
+      <c r="C279" t="s">
+        <v>554</v>
+      </c>
+      <c r="D279" t="s">
+        <v>518</v>
+      </c>
+      <c r="E279">
+        <v>4</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+      <c r="G279">
+        <v>389</v>
+      </c>
+      <c r="J279">
+        <v>25.2</v>
+      </c>
+      <c r="K279">
+        <v>170.95</v>
+      </c>
+      <c r="L279">
+        <v>34</v>
+      </c>
+      <c r="M279">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N279">
+        <v>2261.8766000000001</v>
+      </c>
+      <c r="O279">
+        <v>2209.4374449204538</v>
+      </c>
+      <c r="P279">
+        <v>1659.2991548039511</v>
+      </c>
+      <c r="Q279">
+        <v>0</v>
+      </c>
+      <c r="R279">
+        <v>593</v>
+      </c>
+      <c r="T279">
+        <v>3.9</v>
+      </c>
+      <c r="U279">
+        <v>0.15</v>
+      </c>
+      <c r="V279">
+        <v>635.63004371436944</v>
+      </c>
+      <c r="X279">
+        <v>2319.2955260403542</v>
+      </c>
+      <c r="Y279" t="s">
+        <v>560</v>
+      </c>
+      <c r="AB279">
+        <v>1696.6778999999999</v>
+      </c>
+    </row>
+    <row r="280" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B280" t="s">
+        <v>561</v>
+      </c>
+      <c r="C280" t="s">
+        <v>554</v>
+      </c>
+      <c r="D280" t="s">
+        <v>518</v>
+      </c>
+      <c r="E280">
+        <v>5</v>
+      </c>
+      <c r="F280">
+        <v>1</v>
+      </c>
+      <c r="G280">
+        <v>390</v>
+      </c>
+      <c r="J280">
+        <v>25.2</v>
+      </c>
+      <c r="K280">
+        <v>170.95</v>
+      </c>
+      <c r="L280">
+        <v>34</v>
+      </c>
+      <c r="M280">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N280">
+        <v>2261.8766000000001</v>
+      </c>
+      <c r="O280">
+        <v>2209.4374449204538</v>
+      </c>
+      <c r="P280">
+        <v>1687.910531272654</v>
+      </c>
+      <c r="Q280">
+        <v>0</v>
+      </c>
+      <c r="R280">
+        <v>553</v>
+      </c>
+      <c r="T280">
+        <v>3.75</v>
+      </c>
+      <c r="U280">
+        <v>0.15</v>
+      </c>
+      <c r="V280">
+        <v>635.64786762204039</v>
+      </c>
+      <c r="X280">
+        <v>2320.0670340088441</v>
+      </c>
+      <c r="Y280" t="s">
+        <v>562</v>
+      </c>
+      <c r="AB280">
+        <v>1725.9338</v>
+      </c>
+    </row>
+    <row r="281" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B281" t="s">
+        <v>563</v>
+      </c>
+      <c r="C281" t="s">
+        <v>554</v>
+      </c>
+      <c r="D281" t="s">
+        <v>518</v>
+      </c>
+      <c r="E281">
+        <v>6</v>
+      </c>
+      <c r="F281">
+        <v>1</v>
+      </c>
+      <c r="G281">
+        <v>391</v>
+      </c>
+      <c r="J281">
+        <v>25.2</v>
+      </c>
+      <c r="K281">
+        <v>170.85</v>
+      </c>
+      <c r="L281">
+        <v>34</v>
+      </c>
+      <c r="M281">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N281">
+        <v>2261.8766000000001</v>
+      </c>
+      <c r="O281">
+        <v>2209.4374449204538</v>
+      </c>
+      <c r="P281">
+        <v>1705.6461050679429</v>
+      </c>
+      <c r="Q281">
+        <v>0</v>
+      </c>
+      <c r="R281">
+        <v>530</v>
+      </c>
+      <c r="T281">
+        <v>3.6</v>
+      </c>
+      <c r="U281">
+        <v>0.15</v>
+      </c>
+      <c r="V281">
+        <v>635.68195254676971</v>
+      </c>
+      <c r="X281">
+        <v>2311.889584150802</v>
+      </c>
+      <c r="Y281" t="s">
+        <v>564</v>
+      </c>
+      <c r="AB281">
+        <v>1744.0689</v>
+      </c>
+    </row>
+    <row r="282" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B282" t="s">
+        <v>565</v>
+      </c>
+      <c r="C282" t="s">
+        <v>554</v>
+      </c>
+      <c r="D282" t="s">
+        <v>518</v>
+      </c>
+      <c r="E282">
+        <v>7</v>
+      </c>
+      <c r="F282">
+        <v>1</v>
+      </c>
+      <c r="G282">
+        <v>392</v>
+      </c>
+      <c r="J282">
+        <v>25.2</v>
+      </c>
+      <c r="K282">
+        <v>170.9</v>
+      </c>
+      <c r="L282">
+        <v>34</v>
+      </c>
+      <c r="M282">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N282">
+        <v>2261.8766000000001</v>
+      </c>
+      <c r="O282">
+        <v>2209.4374449204538</v>
+      </c>
+      <c r="P282">
+        <v>1734.5581093459591</v>
+      </c>
+      <c r="Q282">
+        <v>0.16666600000000001</v>
+      </c>
+      <c r="R282">
+        <v>510</v>
+      </c>
+      <c r="T282">
+        <v>3.45</v>
+      </c>
+      <c r="U282">
+        <v>0.15</v>
+      </c>
+      <c r="V282">
+        <v>635.66706459786826</v>
+      </c>
+      <c r="X282">
+        <v>2319.879557046751</v>
+      </c>
+      <c r="Y282" t="s">
+        <v>566</v>
+      </c>
+      <c r="AB282">
+        <v>1773.6322</v>
+      </c>
+    </row>
+    <row r="283" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B283" t="s">
+        <v>567</v>
+      </c>
+      <c r="C283" t="s">
+        <v>554</v>
+      </c>
+      <c r="D283" t="s">
+        <v>518</v>
+      </c>
+      <c r="E283">
+        <v>8</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>393</v>
+      </c>
+      <c r="J283">
+        <v>25.2</v>
+      </c>
+      <c r="K283">
+        <v>170.95</v>
+      </c>
+      <c r="L283">
+        <v>34</v>
+      </c>
+      <c r="M283">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N283">
+        <v>2261.8766000000001</v>
+      </c>
+      <c r="O283">
+        <v>2209.4374449204538</v>
+      </c>
+      <c r="P283">
+        <v>1790.177285774158</v>
+      </c>
+      <c r="Q283">
+        <v>0</v>
+      </c>
+      <c r="R283">
+        <v>490</v>
+      </c>
+      <c r="T283">
+        <v>3.3</v>
+      </c>
+      <c r="U283">
+        <v>0.15</v>
+      </c>
+      <c r="V283">
+        <v>635.6218247909253</v>
+      </c>
+      <c r="X283">
+        <v>2321.050530741416</v>
+      </c>
+      <c r="Y283" t="s">
+        <v>568</v>
+      </c>
+      <c r="AB283">
+        <v>1830.5043000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B284" t="s">
+        <v>569</v>
+      </c>
+      <c r="C284" t="s">
+        <v>554</v>
+      </c>
+      <c r="D284" t="s">
+        <v>518</v>
+      </c>
+      <c r="E284">
+        <v>9</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>394</v>
+      </c>
+      <c r="J284">
+        <v>25.2</v>
+      </c>
+      <c r="K284">
+        <v>170.85</v>
+      </c>
+      <c r="L284">
+        <v>34</v>
+      </c>
+      <c r="M284">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N284">
+        <v>2261.8766000000001</v>
+      </c>
+      <c r="O284">
+        <v>2209.4374449204538</v>
+      </c>
+      <c r="P284">
+        <v>1774.203132757508</v>
+      </c>
+      <c r="Q284">
+        <v>0</v>
+      </c>
+      <c r="R284">
+        <v>518</v>
+      </c>
+      <c r="T284">
+        <v>3.15</v>
+      </c>
+      <c r="U284">
+        <v>0.15</v>
+      </c>
+      <c r="V284">
+        <v>635.61931658864535</v>
+      </c>
+      <c r="X284">
+        <v>2319.0896812211959</v>
+      </c>
+      <c r="Y284" t="s">
+        <v>570</v>
+      </c>
+      <c r="AB284">
+        <v>1814.1703</v>
+      </c>
+    </row>
+    <row r="285" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B285" t="s">
+        <v>571</v>
+      </c>
+      <c r="C285" t="s">
+        <v>554</v>
+      </c>
+      <c r="D285" t="s">
+        <v>518</v>
+      </c>
+      <c r="E285">
+        <v>10</v>
+      </c>
+      <c r="F285">
+        <v>1</v>
+      </c>
+      <c r="J285">
+        <v>25.2</v>
+      </c>
+      <c r="K285">
+        <v>170.9</v>
+      </c>
+      <c r="L285">
+        <v>34</v>
+      </c>
+      <c r="M285">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N285">
+        <v>2261.8766000000001</v>
+      </c>
+      <c r="O285">
+        <v>2209.4374449204538</v>
+      </c>
+      <c r="T285">
+        <v>3</v>
+      </c>
+      <c r="U285">
+        <v>0.15</v>
+      </c>
+      <c r="V285">
+        <v>635.74611747483402</v>
+      </c>
+      <c r="X285">
+        <v>2322.515842938004</v>
+      </c>
+    </row>
+    <row r="286" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B286" t="s">
+        <v>572</v>
+      </c>
+      <c r="C286" t="s">
+        <v>554</v>
+      </c>
+      <c r="D286" t="s">
+        <v>518</v>
+      </c>
+      <c r="E286">
+        <v>11</v>
+      </c>
+      <c r="F286">
+        <v>1</v>
+      </c>
+      <c r="G286">
+        <v>396</v>
+      </c>
+      <c r="J286">
+        <v>25.2</v>
+      </c>
+      <c r="K286">
+        <v>170.8</v>
+      </c>
+      <c r="L286">
+        <v>34</v>
+      </c>
+      <c r="M286">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N286">
+        <v>2261.8766000000001</v>
+      </c>
+      <c r="O286">
+        <v>2209.4374449204538</v>
+      </c>
+      <c r="P286">
+        <v>1790.277821033746</v>
+      </c>
+      <c r="Q286">
+        <v>0</v>
+      </c>
+      <c r="R286">
+        <v>483</v>
+      </c>
+      <c r="T286">
+        <v>3</v>
+      </c>
+      <c r="U286">
+        <v>0.15</v>
+      </c>
+      <c r="V286">
+        <v>635.73906397175097</v>
+      </c>
+      <c r="X286">
+        <v>2323.06034891728</v>
+      </c>
+      <c r="Y286" t="s">
+        <v>573</v>
+      </c>
+      <c r="AB286">
+        <v>1830.6070999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B287" t="s">
+        <v>574</v>
+      </c>
+      <c r="C287" t="s">
+        <v>554</v>
+      </c>
+      <c r="D287" t="s">
+        <v>518</v>
+      </c>
+      <c r="E287">
+        <v>12</v>
+      </c>
+      <c r="F287">
+        <v>1</v>
+      </c>
+      <c r="G287">
+        <v>397</v>
+      </c>
+      <c r="J287">
+        <v>25.2</v>
+      </c>
+      <c r="K287">
+        <v>170.85</v>
+      </c>
+      <c r="L287">
+        <v>34</v>
+      </c>
+      <c r="M287">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N287">
+        <v>2261.8766000000001</v>
+      </c>
+      <c r="O287">
+        <v>2209.4374449204538</v>
+      </c>
+      <c r="P287">
+        <v>1846.7213279124001</v>
+      </c>
+      <c r="Q287">
+        <v>0</v>
+      </c>
+      <c r="R287">
+        <v>430</v>
+      </c>
+      <c r="T287">
+        <v>2.7</v>
+      </c>
+      <c r="U287">
+        <v>0.15</v>
+      </c>
+      <c r="V287">
+        <v>635.61125387878701</v>
+      </c>
+      <c r="X287">
+        <v>2321.6383630712471</v>
+      </c>
+      <c r="Y287" t="s">
+        <v>575</v>
+      </c>
+      <c r="AB287">
+        <v>1888.3221000000001</v>
+      </c>
+    </row>
+    <row r="288" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B288" t="s">
+        <v>576</v>
+      </c>
+      <c r="C288" t="s">
+        <v>554</v>
+      </c>
+      <c r="D288" t="s">
+        <v>518</v>
+      </c>
+      <c r="E288">
+        <v>13</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+      <c r="G288">
+        <v>398</v>
+      </c>
+      <c r="J288">
+        <v>25.2</v>
+      </c>
+      <c r="K288">
+        <v>170.8</v>
+      </c>
+      <c r="L288">
+        <v>34</v>
+      </c>
+      <c r="M288">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N288">
+        <v>2261.8766000000001</v>
+      </c>
+      <c r="O288">
+        <v>2209.4374449204538</v>
+      </c>
+      <c r="P288">
+        <v>1887.1837381913001</v>
+      </c>
+      <c r="Q288">
+        <v>0</v>
+      </c>
+      <c r="R288">
+        <v>384</v>
+      </c>
+      <c r="T288">
+        <v>2.4</v>
+      </c>
+      <c r="U288">
+        <v>0.15</v>
+      </c>
+      <c r="Y288" t="s">
+        <v>577</v>
+      </c>
+      <c r="AB288">
+        <v>1929.6959999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B289" t="s">
+        <v>578</v>
+      </c>
+      <c r="C289" t="s">
+        <v>554</v>
+      </c>
+      <c r="D289" t="s">
+        <v>518</v>
+      </c>
+      <c r="E289">
+        <v>14</v>
+      </c>
+      <c r="F289">
+        <v>1</v>
+      </c>
+      <c r="G289">
+        <v>399</v>
+      </c>
+      <c r="J289">
+        <v>25.2</v>
+      </c>
+      <c r="K289">
+        <v>170.85</v>
+      </c>
+      <c r="L289">
+        <v>34</v>
+      </c>
+      <c r="M289">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N289">
+        <v>2261.8766000000001</v>
+      </c>
+      <c r="O289">
+        <v>2209.4374449204538</v>
+      </c>
+      <c r="P289">
+        <v>1936.0465148686219</v>
+      </c>
+      <c r="Q289">
+        <v>0</v>
+      </c>
+      <c r="R289">
+        <v>346</v>
+      </c>
+      <c r="T289">
+        <v>2.1</v>
+      </c>
+      <c r="U289">
+        <v>0.15</v>
+      </c>
+      <c r="V289">
+        <v>504.89585785752109</v>
+      </c>
+      <c r="X289">
+        <v>1055.7475804066869</v>
+      </c>
+      <c r="Y289" t="s">
+        <v>579</v>
+      </c>
+      <c r="AB289">
+        <v>1979.6595</v>
+      </c>
+    </row>
+    <row r="290" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B290" t="s">
+        <v>580</v>
+      </c>
+      <c r="C290" t="s">
+        <v>554</v>
+      </c>
+      <c r="D290" t="s">
+        <v>518</v>
+      </c>
+      <c r="E290">
+        <v>15</v>
+      </c>
+      <c r="F290">
+        <v>1</v>
+      </c>
+      <c r="G290">
+        <v>400</v>
+      </c>
+      <c r="J290">
+        <v>25.2</v>
+      </c>
+      <c r="K290">
+        <v>170.75</v>
+      </c>
+      <c r="L290">
+        <v>34</v>
+      </c>
+      <c r="M290">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N290">
+        <v>2261.8766000000001</v>
+      </c>
+      <c r="O290">
+        <v>2209.4374449204538</v>
+      </c>
+      <c r="P290">
+        <v>1692.53446863509</v>
+      </c>
+      <c r="Q290">
+        <v>0</v>
+      </c>
+      <c r="R290">
+        <v>625</v>
+      </c>
+      <c r="T290">
+        <v>4.2</v>
+      </c>
+      <c r="U290">
+        <v>0.15</v>
+      </c>
+      <c r="V290">
+        <v>635.57458028042629</v>
+      </c>
+      <c r="X290">
+        <v>2320.9802341592772</v>
+      </c>
+      <c r="Y290" t="s">
+        <v>581</v>
+      </c>
+      <c r="AB290">
+        <v>1730.6619000000001</v>
+      </c>
+    </row>
+    <row r="291" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B291" t="s">
+        <v>582</v>
+      </c>
+      <c r="C291" t="s">
+        <v>554</v>
+      </c>
+      <c r="D291" t="s">
+        <v>518</v>
+      </c>
+      <c r="E291">
+        <v>16</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+      <c r="G291">
+        <v>402</v>
+      </c>
+      <c r="J291">
+        <v>25.2</v>
+      </c>
+      <c r="K291">
+        <v>170.7</v>
+      </c>
+      <c r="L291">
+        <v>34</v>
+      </c>
+      <c r="M291">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N291">
+        <v>2261.8766000000001</v>
+      </c>
+      <c r="O291">
+        <v>2209.4374449204538</v>
+      </c>
+      <c r="P291">
+        <v>1976.2127959976849</v>
+      </c>
+      <c r="Q291">
+        <v>0</v>
+      </c>
+      <c r="R291">
+        <v>315</v>
+      </c>
+      <c r="T291">
+        <v>1.8</v>
+      </c>
+      <c r="U291">
+        <v>0.15</v>
+      </c>
+      <c r="V291">
+        <v>476.66392021673721</v>
+      </c>
+      <c r="X291">
+        <v>524.77070956107275</v>
+      </c>
+      <c r="Y291" t="s">
+        <v>583</v>
+      </c>
+      <c r="AB291">
+        <v>2020.7306000000001</v>
+      </c>
+    </row>
+    <row r="292" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B292" t="s">
+        <v>584</v>
+      </c>
+      <c r="C292" t="s">
+        <v>554</v>
+      </c>
+      <c r="D292" t="s">
+        <v>518</v>
+      </c>
+      <c r="E292">
+        <v>17</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>403</v>
+      </c>
+      <c r="J292">
+        <v>25.2</v>
+      </c>
+      <c r="K292">
+        <v>170.7</v>
+      </c>
+      <c r="L292">
+        <v>34</v>
+      </c>
+      <c r="M292">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N292">
+        <v>2261.8766000000001</v>
+      </c>
+      <c r="O292">
+        <v>2209.4374449204538</v>
+      </c>
+      <c r="P292">
+        <v>2028.246540823726</v>
+      </c>
+      <c r="Q292">
+        <v>0</v>
+      </c>
+      <c r="R292">
+        <v>262</v>
+      </c>
+      <c r="T292">
+        <v>1.5</v>
+      </c>
+      <c r="U292">
+        <v>0.15</v>
+      </c>
+      <c r="V292">
+        <v>470.53042362273447</v>
+      </c>
+      <c r="X292">
+        <v>401.07671312523922</v>
+      </c>
+      <c r="Y292" t="s">
+        <v>585</v>
+      </c>
+      <c r="AB292">
+        <v>2073.9364999999998</v>
+      </c>
+    </row>
+    <row r="293" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B293" t="s">
+        <v>586</v>
+      </c>
+      <c r="C293" t="s">
+        <v>554</v>
+      </c>
+      <c r="D293" t="s">
+        <v>518</v>
+      </c>
+      <c r="E293">
+        <v>18</v>
+      </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
+      <c r="G293">
+        <v>404</v>
+      </c>
+      <c r="J293">
+        <v>25.2</v>
+      </c>
+      <c r="K293">
+        <v>170.7</v>
+      </c>
+      <c r="L293">
+        <v>34</v>
+      </c>
+      <c r="M293">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N293">
+        <v>2261.8766000000001</v>
+      </c>
+      <c r="O293">
+        <v>2209.4374449204538</v>
+      </c>
+      <c r="P293">
+        <v>2069.7636911557952</v>
+      </c>
+      <c r="Q293">
+        <v>0</v>
+      </c>
+      <c r="R293">
+        <v>233</v>
+      </c>
+      <c r="T293">
+        <v>1.2</v>
+      </c>
+      <c r="U293">
+        <v>0.15</v>
+      </c>
+      <c r="V293">
+        <v>463.6531826283283</v>
+      </c>
+      <c r="X293">
+        <v>301.84870578337859</v>
+      </c>
+      <c r="Y293" t="s">
+        <v>587</v>
+      </c>
+      <c r="AB293">
+        <v>2116.3888999999999</v>
+      </c>
+    </row>
+    <row r="294" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B294" t="s">
+        <v>588</v>
+      </c>
+      <c r="C294" t="s">
+        <v>554</v>
+      </c>
+      <c r="D294" t="s">
+        <v>518</v>
+      </c>
+      <c r="E294">
+        <v>19</v>
+      </c>
+      <c r="F294">
+        <v>1</v>
+      </c>
+      <c r="G294">
+        <v>405</v>
+      </c>
+      <c r="J294">
+        <v>25.2</v>
+      </c>
+      <c r="K294">
+        <v>170.6</v>
+      </c>
+      <c r="L294">
+        <v>34</v>
+      </c>
+      <c r="M294">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N294">
+        <v>2261.8766000000001</v>
+      </c>
+      <c r="O294">
+        <v>2209.4374449204538</v>
+      </c>
+      <c r="P294">
+        <v>2101.5230534911138</v>
+      </c>
+      <c r="Q294">
+        <v>8.3330000000000001E-2</v>
+      </c>
+      <c r="T294">
+        <v>0.9</v>
+      </c>
+      <c r="U294">
+        <v>0.15</v>
+      </c>
+      <c r="V294">
+        <v>456.39492060744402</v>
+      </c>
+      <c r="X294">
+        <v>198.02766399543489</v>
+      </c>
+      <c r="Y294" t="s">
+        <v>589</v>
+      </c>
+      <c r="AB294">
+        <v>2148.8636999999999</v>
+      </c>
+    </row>
+    <row r="295" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B295" t="s">
+        <v>590</v>
+      </c>
+      <c r="C295" t="s">
+        <v>554</v>
+      </c>
+      <c r="D295" t="s">
+        <v>518</v>
+      </c>
+      <c r="E295">
+        <v>20</v>
+      </c>
+      <c r="F295">
+        <v>1</v>
+      </c>
+      <c r="G295">
+        <v>406</v>
+      </c>
+      <c r="J295">
+        <v>25.2</v>
+      </c>
+      <c r="K295">
+        <v>170.6</v>
+      </c>
+      <c r="L295">
+        <v>34</v>
+      </c>
+      <c r="M295">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N295">
+        <v>2261.8766000000001</v>
+      </c>
+      <c r="O295">
+        <v>2209.4374449204538</v>
+      </c>
+      <c r="P295">
+        <v>2140.869307235308</v>
+      </c>
+      <c r="Q295">
+        <v>0</v>
+      </c>
+      <c r="R295">
+        <v>125</v>
+      </c>
+      <c r="T295">
+        <v>0.6</v>
+      </c>
+      <c r="U295">
+        <v>0.15</v>
+      </c>
+      <c r="V295">
+        <v>451.58610446202567</v>
+      </c>
+      <c r="X295">
+        <v>152.9690252681186</v>
+      </c>
+      <c r="Y295" t="s">
+        <v>591</v>
+      </c>
+      <c r="AB295">
+        <v>2189.0963000000002</v>
+      </c>
+    </row>
+    <row r="296" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B296" t="s">
+        <v>592</v>
+      </c>
+      <c r="C296" t="s">
+        <v>554</v>
+      </c>
+      <c r="D296" t="s">
+        <v>518</v>
+      </c>
+      <c r="E296">
+        <v>21</v>
+      </c>
+      <c r="F296">
+        <v>1</v>
+      </c>
+      <c r="G296">
+        <v>407</v>
+      </c>
+      <c r="J296">
+        <v>25.2</v>
+      </c>
+      <c r="L296">
+        <v>34</v>
+      </c>
+      <c r="M296">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N296">
+        <v>2261.8766000000001</v>
+      </c>
+      <c r="O296">
+        <v>2209.4374449204538</v>
+      </c>
+      <c r="P296">
+        <v>2167.9006762585782</v>
+      </c>
+      <c r="Q296">
+        <v>0</v>
+      </c>
+      <c r="R296">
+        <v>66</v>
+      </c>
+      <c r="T296">
+        <v>0.3</v>
+      </c>
+      <c r="U296">
+        <v>0.15</v>
+      </c>
+      <c r="V296">
+        <v>410.66758952391069</v>
+      </c>
+      <c r="X296">
+        <v>-150.4339525641708</v>
+      </c>
+      <c r="Y296" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB296">
+        <v>2216.7366000000002</v>
+      </c>
+    </row>
+    <row r="297" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B297" t="s">
+        <v>594</v>
+      </c>
+      <c r="C297" t="s">
+        <v>554</v>
+      </c>
+      <c r="D297" t="s">
+        <v>518</v>
+      </c>
+      <c r="E297">
+        <v>22</v>
+      </c>
+      <c r="F297">
+        <v>1</v>
+      </c>
+      <c r="G297">
+        <v>408</v>
+      </c>
+      <c r="J297">
+        <v>25.2</v>
+      </c>
+      <c r="L297">
+        <v>34</v>
+      </c>
+      <c r="M297">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N297">
+        <v>2261.8766000000001</v>
+      </c>
+      <c r="O297">
+        <v>2209.4374449204538</v>
+      </c>
+      <c r="P297">
+        <v>2189.6376120636392</v>
+      </c>
+      <c r="Q297">
+        <v>0</v>
+      </c>
+      <c r="R297">
+        <v>0</v>
+      </c>
+      <c r="T297">
+        <v>0</v>
+      </c>
+      <c r="U297">
+        <v>0.15</v>
+      </c>
+      <c r="Y297" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB297">
+        <v>2238.9632000000001</v>
+      </c>
+    </row>
+    <row r="298" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B298" t="s">
+        <v>596</v>
+      </c>
+      <c r="C298" t="s">
+        <v>554</v>
+      </c>
+      <c r="D298" t="s">
+        <v>518</v>
+      </c>
+      <c r="E298">
+        <v>23</v>
+      </c>
+      <c r="F298">
+        <v>1</v>
+      </c>
+      <c r="G298">
+        <v>410</v>
+      </c>
+      <c r="J298">
+        <v>25.2</v>
+      </c>
+      <c r="K298">
+        <v>170.45</v>
+      </c>
+      <c r="L298">
+        <v>34</v>
+      </c>
+      <c r="M298">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N298">
+        <v>2261.8766000000001</v>
+      </c>
+      <c r="O298">
+        <v>2209.4374449204538</v>
+      </c>
+      <c r="P298">
+        <v>1641.005942827562</v>
+      </c>
+      <c r="Q298">
+        <v>0</v>
+      </c>
+      <c r="R298">
+        <v>628</v>
+      </c>
+      <c r="T298">
+        <v>4.2</v>
+      </c>
+      <c r="U298">
+        <v>0.15</v>
+      </c>
+      <c r="V298">
+        <v>635.38169006543274</v>
+      </c>
+      <c r="X298">
+        <v>2321.293313807535</v>
+      </c>
+      <c r="Y298" t="s">
+        <v>597</v>
+      </c>
+      <c r="AB298">
+        <v>1677.9726000000001</v>
+      </c>
+    </row>
+    <row r="299" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B299" t="s">
+        <v>598</v>
+      </c>
+      <c r="C299" t="s">
+        <v>554</v>
+      </c>
+      <c r="D299" t="s">
+        <v>518</v>
+      </c>
+      <c r="E299">
+        <v>24</v>
+      </c>
+      <c r="F299">
+        <v>1</v>
+      </c>
+      <c r="G299">
+        <v>411</v>
+      </c>
+      <c r="J299">
+        <v>25.2</v>
+      </c>
+      <c r="K299">
+        <v>170.65</v>
+      </c>
+      <c r="L299">
+        <v>34</v>
+      </c>
+      <c r="M299">
+        <v>9.9412731062620593E-2</v>
+      </c>
+      <c r="N299">
+        <v>2261.8766000000001</v>
+      </c>
+      <c r="O299">
+        <v>2209.4374449204538</v>
+      </c>
+      <c r="P299">
+        <v>2103.8971721309581</v>
+      </c>
+      <c r="Q299">
+        <v>0</v>
+      </c>
+      <c r="R299">
+        <v>197</v>
+      </c>
+      <c r="T299">
+        <v>0.9</v>
+      </c>
+      <c r="U299">
+        <v>0.15</v>
+      </c>
+      <c r="V299">
+        <v>456.30111029316612</v>
+      </c>
+      <c r="X299">
+        <v>197.15090286947861</v>
+      </c>
+      <c r="Y299" t="s">
+        <v>599</v>
+      </c>
+      <c r="AB299">
+        <v>2151.2912999999999</v>
       </c>
     </row>
   </sheetData>
